--- a/notebooks/dados_orientacao_IA.xlsx
+++ b/notebooks/dados_orientacao_IA.xlsx
@@ -485,25 +485,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4912643919258795</v>
+        <v>-0.06209789895474001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6564698535390506</v>
+        <v>-0.4869458470090401</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02157039536041064</v>
+        <v>-0.4601081289374392</v>
       </c>
       <c r="E2" t="n">
-        <v>0.572050126006549</v>
+        <v>0.7398162628056674</v>
       </c>
       <c r="F2" t="n">
-        <v>-77.53151608333883</v>
+        <v>-80.62911868556652</v>
       </c>
       <c r="G2" t="n">
-        <v>-50.55734840347519</v>
+        <v>51.04540288401247</v>
       </c>
       <c r="H2" t="n">
-        <v>-57.1531546124774</v>
+        <v>145.4876865678012</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -516,25 +516,25 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4902385600112795</v>
+        <v>-0.07776188072925788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6756053854630375</v>
+        <v>-0.4614045021830704</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03832390737677795</v>
+        <v>-0.4577241519997902</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5493221236531292</v>
+        <v>0.7560076560106483</v>
       </c>
       <c r="F3" t="n">
-        <v>-82.27207225254405</v>
+        <v>-75.9544265161985</v>
       </c>
       <c r="G3" t="n">
-        <v>-51.24461801156761</v>
+        <v>50.24962564758159</v>
       </c>
       <c r="H3" t="n">
-        <v>-51.04703959153954</v>
+        <v>151.5307362655343</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -547,25 +547,25 @@
         <v>60</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4886433865316592</v>
+        <v>-0.09333046940977949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6939569076605818</v>
+        <v>-0.4353278290302448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05503299427399069</v>
+        <v>-0.4548086242258804</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5259494468580352</v>
+        <v>0.7713159016131629</v>
       </c>
       <c r="F4" t="n">
-        <v>-87.15831929372129</v>
+        <v>-71.52379681488388</v>
       </c>
       <c r="G4" t="n">
-        <v>-51.60572521026249</v>
+        <v>49.15184030082492</v>
       </c>
       <c r="H4" t="n">
-        <v>-44.79942678168339</v>
+        <v>157.3377176555485</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -578,25 +578,25 @@
         <v>90</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4864804180753389</v>
+        <v>-0.1087855389022295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7115027403647601</v>
+        <v>-0.408746517665833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07167808293667312</v>
+        <v>-0.4513650794011715</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5019590677627047</v>
+        <v>0.7857235874777978</v>
       </c>
       <c r="F5" t="n">
-        <v>-92.10020558660145</v>
+        <v>-67.38750928349175</v>
       </c>
       <c r="G5" t="n">
-        <v>-51.63109748723281</v>
+        <v>47.77637390954617</v>
       </c>
       <c r="H5" t="n">
-        <v>-38.49757858847527</v>
+        <v>162.8612525068748</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -609,25 +609,25 @@
         <v>120</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4837518577402645</v>
+        <v>-0.1241091385998768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7282221183033699</v>
+        <v>-0.3816918105897555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08823966258500945</v>
+        <v>-0.4473976582407194</v>
       </c>
       <c r="E6" t="n">
-        <v>0.477378726477709</v>
+        <v>0.7992143760252509</v>
       </c>
       <c r="F6" t="n">
-        <v>-97.00208161614543</v>
+        <v>-63.57563302652449</v>
       </c>
       <c r="G6" t="n">
-        <v>-51.31991617134273</v>
+        <v>46.15028913214009</v>
       </c>
       <c r="H6" t="n">
-        <v>-32.23436619106256</v>
+        <v>168.0742588426151</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -640,25 +640,25 @@
         <v>150</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4804605661771658</v>
+        <v>-0.1392835144514084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7440952187961102</v>
+        <v>-0.3541954621595657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1046983097658616</v>
+        <v>-0.442911102011376</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4522368999160263</v>
+        <v>0.8117730180923141</v>
       </c>
       <c r="F7" t="n">
-        <v>-101.7723202099509</v>
+        <v>-60.10043790500345</v>
       </c>
       <c r="G7" t="n">
-        <v>-50.68021496935332</v>
+        <v>44.30142365596255</v>
       </c>
       <c r="H7" t="n">
-        <v>-26.09862783614342</v>
+        <v>172.9675641661988</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -671,25 +671,25 @@
         <v>180</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4766100617431318</v>
+        <v>-0.1542911292964403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.759103188775716</v>
+        <v>-0.3262896978673044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1210347133449521</v>
+        <v>-0.4379107454534459</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4265627691222633</v>
+        <v>0.8233853651252856</v>
       </c>
       <c r="F8" t="n">
-        <v>-106.3319505102904</v>
+        <v>-56.96022899333023</v>
       </c>
       <c r="G8" t="n">
-        <v>-49.72788665082036</v>
+        <v>42.25688959463516</v>
       </c>
       <c r="H8" t="n">
-        <v>-20.16651323920567</v>
+        <v>177.5460972685086</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -702,25 +702,25 @@
         <v>210</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4722045197406327</v>
+        <v>-0.1691146823617053</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7732281706143421</v>
+        <v>-0.2980071736759076</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1372296993917763</v>
+        <v>-0.4324025090623422</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4003861852134248</v>
+        <v>0.8340383796948362</v>
       </c>
       <c r="F9" t="n">
-        <v>-110.6203809039365</v>
+        <v>-54.14348080885529</v>
       </c>
       <c r="G9" t="n">
-        <v>-48.48487051319332</v>
+        <v>40.04208154933427</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.49573855095383</v>
+        <v>-178.1752176336378</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -733,25 +733,25 @@
         <v>240</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4672487707025079</v>
+        <v>-0.1837371279196125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7864533267298845</v>
+        <v>-0.2693809354971998</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1532642559420823</v>
+        <v>-0.4263928907740195</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3737376339131672</v>
+        <v>0.843720144426978</v>
       </c>
       <c r="F10" t="n">
-        <v>-114.5974465553649</v>
+        <v>-51.632545383014</v>
       </c>
       <c r="G10" t="n">
-        <v>-46.97696728159229</v>
+        <v>37.68013320765731</v>
       </c>
       <c r="H10" t="n">
-        <v>-9.123515905832098</v>
+        <v>-174.1751380191451</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -764,25 +764,25 @@
         <v>270</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.461748297718875</v>
+        <v>-0.1981417027407419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7987628628354528</v>
+        <v>-0.2404443592994233</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1691195574953438</v>
+        <v>-0.4198889525497805</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3466481988720149</v>
+        <v>0.8524198749693354</v>
       </c>
       <c r="F11" t="n">
-        <v>-118.2422273107618</v>
+        <v>-49.40660426642165</v>
       </c>
       <c r="G11" t="n">
-        <v>-45.23172201410183</v>
+        <v>35.19171323765151</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.067711440178828</v>
+        <v>-170.4290199647158</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -795,25 +795,25 @@
         <v>300</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.455709232782419</v>
+        <v>-0.2123119045816029</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8101420498113961</v>
+        <v>-0.2112311889598681</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1847769892229473</v>
+        <v>-0.4128983287730026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3191495237940222</v>
+        <v>0.8601279033260077</v>
       </c>
       <c r="F12" t="n">
-        <v>-121.5497900869007</v>
+        <v>-47.44382450882244</v>
       </c>
       <c r="G12" t="n">
-        <v>-43.27667795574258</v>
+        <v>32.59505953327092</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6699227151925085</v>
+        <v>-166.9109404294778</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -826,25 +826,25 @@
         <v>330</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.4491383521513758</v>
+        <v>-0.2262315663357885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8205772441256629</v>
+        <v>-0.181775380181367</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2002181707974082</v>
+        <v>-0.4054291902174889</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2912737735059902</v>
+        <v>0.866835717580192</v>
       </c>
       <c r="F13" t="n">
-        <v>-124.5271012118912</v>
+        <v>-45.72279762024657</v>
       </c>
       <c r="G13" t="n">
-        <v>-41.13812902380179</v>
+        <v>29.90613401049744</v>
       </c>
       <c r="H13" t="n">
-        <v>5.09968834544264</v>
+        <v>-163.5950878877686</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -857,25 +857,25 @@
         <v>360</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.4420430707218406</v>
+        <v>-0.2398848326063863</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8300559067726474</v>
+        <v>-0.1521111387704341</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2154249798005595</v>
+        <v>-0.3974902508890488</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2630535940385005</v>
+        <v>0.872535941377505</v>
       </c>
       <c r="F14" t="n">
-        <v>-127.1890470486335</v>
+        <v>-44.22344576642417</v>
       </c>
       <c r="G14" t="n">
-        <v>-38.8403589038765</v>
+        <v>27.13886386759858</v>
       </c>
       <c r="H14" t="n">
-        <v>9.239991755110577</v>
+        <v>-160.4566251440671</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -888,25 +888,25 @@
         <v>390</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4344314354286945</v>
+        <v>-0.2532561840164685</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8385666206728177</v>
+        <v>-0.1222728627244084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2303795746200398</v>
+        <v>-0.3890907531764812</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2345220718879657</v>
+        <v>0.8772223424486822</v>
       </c>
       <c r="F15" t="n">
-        <v>-129.5550824550014</v>
+        <v>-42.92752572930596</v>
       </c>
       <c r="G15" t="n">
-        <v>-36.4052773953592</v>
+        <v>24.30539989769458</v>
       </c>
       <c r="H15" t="n">
-        <v>13.11402512817449</v>
+        <v>-157.4721387157872</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -919,25 +919,25 @@
         <v>420</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4263121176674364</v>
+        <v>-0.2663304510544981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8460991065370389</v>
+        <v>-0.09229510415470336</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2450644168260688</v>
+        <v>-0.3802404568476865</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2057126924932662</v>
+        <v>0.880889833955667</v>
       </c>
       <c r="F16" t="n">
-        <v>-131.6466811820034</v>
+        <v>-41.81886833824887</v>
       </c>
       <c r="G16" t="n">
-        <v>-33.85234135382093</v>
+        <v>21.41637498152382</v>
       </c>
       <c r="H16" t="n">
-        <v>16.7472533306933</v>
+        <v>-154.6198174984339</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -950,25 +950,25 @@
         <v>450</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4176944047656586</v>
+        <v>-0.2790928272264152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8526442371585069</v>
+        <v>-0.06221253177430375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2594622929520864</v>
+        <v>-0.3709496277266049</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1766592980963522</v>
+        <v>0.8835344749190553</v>
       </c>
       <c r="F17" t="n">
-        <v>-133.4855494553124</v>
+        <v>-40.88344948021412</v>
       </c>
       <c r="G17" t="n">
-        <v>-31.19865708469605</v>
+        <v>18.48114685859204</v>
       </c>
       <c r="H17" t="n">
-        <v>20.1656680605479</v>
+        <v>-151.8794545928952</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -981,25 +981,25 @@
         <v>480</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4085881905072244</v>
+        <v>-0.2915288815374116</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8581940501417136</v>
+        <v>-0.03205989401923549</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2735563356717242</v>
+        <v>-0.3612290260962703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1473960450393868</v>
+        <v>0.8851534698178397</v>
       </c>
       <c r="F18" t="n">
-        <v>-135.092467024332</v>
+        <v>-40.10936248069514</v>
       </c>
       <c r="G18" t="n">
-        <v>-28.45918406401848</v>
+        <v>15.50801897465582</v>
       </c>
       <c r="H18" t="n">
-        <v>23.39467439074692</v>
+        <v>-149.2323406873865</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1012,25 +1012,25 @@
         <v>510</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3990039647418248</v>
+        <v>-0.3036245704041919</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8627417590569032</v>
+        <v>-0.001871982688894362</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2873300443197292</v>
+        <v>-0.3510898948157772</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1179573606475127</v>
+        <v>0.8857451674640561</v>
       </c>
       <c r="F19" t="n">
-        <v>-136.4865977649689</v>
+        <v>-39.48673945731066</v>
       </c>
       <c r="G19" t="n">
-        <v>-25.64698439889516</v>
+        <v>12.50443807453536</v>
       </c>
       <c r="H19" t="n">
-        <v>26.45845266387758</v>
+        <v>-146.6610949848003</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1043,25 +1043,25 @@
         <v>540</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3889527951921101</v>
+        <v>-0.3153662490218815</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8662817650735175</v>
+        <v>0.02831640284181365</v>
       </c>
       <c r="D20" t="n">
-        <v>0.300767313654765</v>
+        <v>-0.34054394718575</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08837787986963673</v>
+        <v>0.8853090592234543</v>
       </c>
       <c r="F20" t="n">
-        <v>-137.6851283061721</v>
+        <v>-39.00765293949234</v>
       </c>
       <c r="G20" t="n">
-        <v>-22.7734809984168</v>
+        <v>9.477169991847145</v>
       </c>
       <c r="H20" t="n">
-        <v>29.37965639230696</v>
+        <v>-144.149463151799</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1074,25 +1074,25 @@
         <v>570</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3784463425551317</v>
+        <v>-0.3267406822495569</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8688096561874125</v>
+        <v>0.05847049088101768</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3138524172229025</v>
+        <v>-0.3296033545679135</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05869248099624933</v>
+        <v>0.8838457766583518</v>
       </c>
       <c r="F21" t="n">
-        <v>-138.7031170116397</v>
+        <v>-38.66601765794295</v>
       </c>
       <c r="G21" t="n">
-        <v>-19.84871608306279</v>
+        <v>6.432456515100905</v>
       </c>
       <c r="H21" t="n">
-        <v>32.17932265125408</v>
+        <v>-141.682100151442</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1105,25 +1105,25 @@
         <v>600</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.3674968070104297</v>
+        <v>-0.3377350550885064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8703222279855163</v>
+        <v>0.08855557223217356</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3265700799441212</v>
+        <v>-0.3182807337457008</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02893612269735266</v>
+        <v>0.8813570886520935</v>
       </c>
       <c r="F22" t="n">
-        <v>-139.5534817796998</v>
+        <v>-38.45750476669649</v>
       </c>
       <c r="G22" t="n">
-        <v>-16.88157113364946</v>
+        <v>3.37615686008104</v>
       </c>
       <c r="H22" t="n">
-        <v>34.87694217746568</v>
+        <v>-139.2443479736367</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1136,25 +1136,25 @@
         <v>630</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3561169410055752</v>
+        <v>-0.3483369828138424</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8708174784719235</v>
+        <v>0.1185370346260913</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3389054596402799</v>
+        <v>-0.3065891340130047</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.000856120694314726</v>
+        <v>0.8778458980546401</v>
       </c>
       <c r="F23" t="n">
-        <v>-140.2470525380953</v>
+        <v>-38.37947578879259</v>
       </c>
       <c r="G23" t="n">
-        <v>-13.8799833301271</v>
+        <v>0.3138775092111229</v>
       </c>
       <c r="H23" t="n">
-        <v>37.49059349468669</v>
+        <v>-136.8220131526491</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1167,25 +1167,25 @@
         <v>660</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3443200279686001</v>
+        <v>-0.3585345207766344</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8702946142882663</v>
+        <v>0.1483803967275035</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3508441732990525</v>
+        <v>-0.2945420240196556</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03064912303223163</v>
+        <v>0.8733162378914424</v>
       </c>
       <c r="F24" t="n">
-        <v>-140.7926618686272</v>
+        <v>-38.430940406162</v>
       </c>
       <c r="G24" t="n">
-        <v>-10.85112986174693</v>
+        <v>-2.748905783946467</v>
       </c>
       <c r="H24" t="n">
-        <v>40.03713347401089</v>
+        <v>-134.4011457532482</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
         <v>690</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3321198668196285</v>
+        <v>-0.3683161739845378</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8687540527441918</v>
+        <v>0.1780513419347358</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3623723135157205</v>
+        <v>-0.2821532782989174</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.06040775034313581</v>
+        <v>0.8677732671394097</v>
       </c>
       <c r="F25" t="n">
-        <v>-141.1972435113472</v>
+        <v>-38.61254018434188</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.801593862506673</v>
+        <v>-5.806730098431174</v>
       </c>
       <c r="H25" t="n">
-        <v>42.53240918739883</v>
+        <v>-131.967819611987</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1229,25 +1229,25 @@
         <v>720</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.319530755666408</v>
+        <v>-0.3776709064786207</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8661974223842035</v>
+        <v>0.2075157519665306</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3734764642942803</v>
+        <v>-0.2694371634805336</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.09009690481064908</v>
+        <v>0.861223266070388</v>
       </c>
       <c r="F26" t="n">
-        <v>-141.4659238305884</v>
+        <v>-38.92655893297842</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.737513316212246</v>
+        <v>-8.854027850504778</v>
       </c>
       <c r="H26" t="n">
-        <v>44.99147946348833</v>
+        <v>-129.5079127501116</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
         <v>750</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.306567474764612</v>
+        <v>-0.386588150534758</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8626275621078932</v>
+        <v>0.2367397402606316</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3841437161518684</v>
+        <v>-0.2564083241836503</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1196815685445116</v>
+        <v>0.8536736311593418</v>
       </c>
       <c r="F27" t="n">
-        <v>-141.6020966619378</v>
+        <v>-39.37695923562264</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.664716632574803</v>
+        <v>-11.88500600032866</v>
       </c>
       <c r="H27" t="n">
-        <v>47.42883891438433</v>
+        <v>-127.0068867923231</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1291,25 +1291,25 @@
         <v>780</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2932452686812244</v>
+        <v>-0.3950578157639413</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8580485188411996</v>
+        <v>0.2656896853742673</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3943616806073932</v>
+        <v>-0.2430817685078758</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1491268472777868</v>
+        <v>0.8451328694996012</v>
       </c>
       <c r="F28" t="n">
-        <v>-141.6074759657004</v>
+        <v>-39.96944337200993</v>
       </c>
       <c r="G28" t="n">
-        <v>1.411151322139744</v>
+        <v>-14.89351824540567</v>
       </c>
       <c r="H28" t="n">
-        <v>49.85864132822313</v>
+        <v>-124.4495649235647</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1322,25 +1322,25 @@
         <v>810</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.2795798277511205</v>
+        <v>-0.4030702980941342</v>
       </c>
       <c r="C29" t="n">
-        <v>0.852465543776289</v>
+        <v>0.2943322643084199</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4041185039948861</v>
+        <v>-0.2294728531518028</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1783980137719732</v>
+        <v>0.835610592709161</v>
       </c>
       <c r="F29" t="n">
-        <v>-141.4821232626367</v>
+        <v>-40.71153499726607</v>
       </c>
       <c r="G29" t="n">
-        <v>4.484508930764165</v>
+        <v>-17.87292641159813</v>
       </c>
       <c r="H29" t="n">
-        <v>52.29492177930145</v>
+        <v>-121.8199095835718</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1353,25 +1353,25 @@
         <v>840</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2655872687622539</v>
+        <v>-0.4106164886866707</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8458850871555633</v>
+        <v>0.322634485917016</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4134028806726862</v>
+        <v>-0.2155972680815222</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.2074605510711761</v>
+        <v>0.8251175102441325</v>
       </c>
       <c r="F30" t="n">
-        <v>-141.2244485187553</v>
+        <v>-41.61267506544622</v>
       </c>
       <c r="G30" t="n">
-        <v>7.549719536685891</v>
+        <v>-20.81594728244741</v>
       </c>
       <c r="H30" t="n">
-        <v>54.75181817084739</v>
+        <v>-119.100803973816</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1384,25 +1384,25 @@
         <v>870</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2512841149445591</v>
+        <v>-0.4176877827877125</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8383147916084074</v>
+        <v>0.3505637244173512</v>
       </c>
       <c r="D31" t="n">
-        <v>0.422204065582943</v>
+        <v>-0.2014710207290571</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.23628019542974</v>
+        <v>0.8136654220494516</v>
       </c>
       <c r="F31" t="n">
-        <v>-140.8311844238894</v>
+        <v>-42.68432095885575</v>
       </c>
       <c r="G31" t="n">
-        <v>10.60097141721843</v>
+        <v>-23.71448126688304</v>
       </c>
       <c r="H31" t="n">
-        <v>57.24379333692131</v>
+        <v>-116.2738461266279</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1415,25 +1415,25 @@
         <v>900</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.2366872752485416</v>
+        <v>-0.4242760884984627</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8297634840187946</v>
+        <v>0.378087752959897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4305118861870791</v>
+        <v>-0.1871104197306183</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2648229789426436</v>
+        <v>0.8012672104974797</v>
       </c>
       <c r="F32" t="n">
-        <v>-140.2973352742534</v>
+        <v>-43.94003079354738</v>
       </c>
       <c r="G32" t="n">
-        <v>13.63215227756555</v>
+        <v>-26.55941984281539</v>
       </c>
       <c r="H32" t="n">
-        <v>59.7858584756595</v>
+        <v>-113.3191714785094</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1446,25 +1446,25 @@
         <v>930</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.2218140229347774</v>
+        <v>-0.4303738394190538</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8202411659055723</v>
+        <v>0.4051747954326974</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4383167537714678</v>
+        <v>-0.1725320482622049</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.2930552718287115</v>
+        <v>0.787936822221314</v>
       </c>
       <c r="F33" t="n">
-        <v>-139.6161033104959</v>
+        <v>-45.39550544439213</v>
       </c>
       <c r="G33" t="n">
-        <v>16.63671447283531</v>
+        <v>-29.34043181253583</v>
       </c>
       <c r="H33" t="n">
-        <v>62.39379742493347</v>
+        <v>-110.2153284333486</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1477,25 +1477,25 @@
         <v>960</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2066819734819083</v>
+        <v>-0.4359739872415963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.809759002284053</v>
+        <v>0.4317934879783338</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4456096741234127</v>
+        <v>-0.1577527859637621</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.3209438243449852</v>
+        <v>0.7736892946841387</v>
       </c>
       <c r="F34" t="n">
-        <v>-138.7787978316285</v>
+        <v>-47.06853849750514</v>
       </c>
       <c r="G34" t="n">
-        <v>19.60752714957381</v>
+        <v>-32.04571786284313</v>
       </c>
       <c r="H34" t="n">
-        <v>65.08438891098044</v>
+        <v>-106.9392616302564</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1508,25 +1508,25 @@
         <v>990</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1913090618663972</v>
+        <v>-0.4410700348140109</v>
       </c>
       <c r="C35" t="n">
-        <v>0.798329309002942</v>
+        <v>0.4579130220689733</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4523822575521247</v>
+        <v>-0.1427897323657447</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.3484558082264195</v>
+        <v>0.758540691683542</v>
       </c>
       <c r="F35" t="n">
-        <v>-137.7747362745023</v>
+        <v>-48.97882458062828</v>
       </c>
       <c r="G35" t="n">
-        <v>22.53671159001271</v>
+        <v>-34.66176628426538</v>
       </c>
       <c r="H35" t="n">
-        <v>67.87561994160718</v>
+        <v>-103.4664345221662</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1539,25 +1539,25 @@
         <v>1020</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.175713519214691</v>
+        <v>-0.44565602782769</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7859655385155343</v>
+        <v>0.4835031056691435</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4586267282576298</v>
+        <v>-0.1276602274172581</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.3755588576493394</v>
+        <v>0.7425081265581625</v>
       </c>
       <c r="F36" t="n">
-        <v>-136.591152458931</v>
+        <v>-51.14751536528211</v>
       </c>
       <c r="G36" t="n">
-        <v>25.41545644031161</v>
+        <v>-37.1730847600802</v>
       </c>
       <c r="H36" t="n">
-        <v>70.78687733989334</v>
+        <v>-99.77122280896289</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1570,25 +1570,25 @@
         <v>1050</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1599138488469197</v>
+        <v>-0.4497265672900392</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7726822640460239</v>
+        <v>0.5085340158223436</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4643359330336519</v>
+        <v>-0.1123818227383915</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.4022211096765598</v>
+        <v>0.7256097403860527</v>
       </c>
       <c r="F37" t="n">
-        <v>-135.2131363173632</v>
+        <v>-53.59641582375392</v>
       </c>
       <c r="G37" t="n">
-        <v>28.23381044725258</v>
+        <v>-39.56196000142864</v>
       </c>
       <c r="H37" t="n">
-        <v>73.83909508116726</v>
+        <v>-95.82766839283045</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1601,25 +1601,25 @@
         <v>1080</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1439288018163205</v>
+        <v>-0.4532768175231372</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7584951621826052</v>
+        <v>0.5329766329265243</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4695033492594419</v>
+        <v>-0.09697226202565408</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4284112440021483</v>
+        <v>0.7078646875272347</v>
       </c>
       <c r="F38" t="n">
-        <v>-133.6236428091387</v>
+        <v>-56.34666636777795</v>
       </c>
       <c r="G38" t="n">
-        <v>30.9804522526732</v>
+        <v>-41.80827418540876</v>
       </c>
       <c r="H38" t="n">
-        <v>77.05482148592408</v>
+        <v>-91.61075398084903</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1632,25 +1632,25 @@
         <v>1110</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1277773518856488</v>
+        <v>-0.4563025139013798</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7434209937970758</v>
+        <v>0.5568024749639631</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4741230921987408</v>
+        <v>-0.08144946090966519</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.4540985220970924</v>
+        <v>0.689293119796514</v>
       </c>
       <c r="F39" t="n">
-        <v>-131.803626478386</v>
+        <v>-59.41675489080057</v>
       </c>
       <c r="G39" t="n">
-        <v>33.64244040410616</v>
+        <v>-43.88944227110765</v>
       </c>
       <c r="H39" t="n">
-        <v>80.45815136758044</v>
+        <v>-87.09835236791127</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1663,25 +1663,25 @@
         <v>1140</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1114786700900793</v>
+        <v>-0.4587999702851879</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7274775833620067</v>
+        <v>0.5799837316723626</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4781899215444295</v>
+        <v>-0.06583148624268569</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4792528255045078</v>
+        <v>0.6699161691441629</v>
       </c>
       <c r="F40" t="n">
-        <v>-129.7323829129014</v>
+        <v>-62.81974072352288</v>
       </c>
       <c r="G40" t="n">
-        <v>36.20495282921374</v>
+        <v>-45.78055734379732</v>
       </c>
       <c r="H40" t="n">
-        <v>84.07444321675167</v>
+        <v>-82.27396767093344</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1694,25 +1694,25 @@
         <v>1170</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.09505209887610951</v>
+        <v>-0.4607660860824906</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7106837966076829</v>
+        <v>0.6024932984712195</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4816992472088287</v>
+        <v>-0.05013653490513204</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5038446933103331</v>
+        <v>0.6497559288542115</v>
       </c>
       <c r="F41" t="n">
-        <v>-127.3882080578889</v>
+        <v>-66.55969798920032</v>
       </c>
       <c r="G41" t="n">
-        <v>38.65103487025104</v>
+        <v>-47.45485200693638</v>
       </c>
       <c r="H41" t="n">
-        <v>87.9297116483756</v>
+        <v>-77.13026040850551</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1725,25 +1725,25 @@
         <v>1200</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.07851711475709164</v>
+        <v>-0.462198352894345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6930595044256191</v>
+        <v>0.6243048101403791</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4846471361171301</v>
+        <v>-0.03438291210593872</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5278453745833156</v>
+        <v>0.6288354331400665</v>
       </c>
       <c r="F42" t="n">
-        <v>-124.7495141744384</v>
+        <v>-70.62763620951245</v>
       </c>
       <c r="G42" t="n">
-        <v>40.96139114860824</v>
+        <v>-48.88458652980522</v>
       </c>
       <c r="H42" t="n">
-        <v>92.04955832302677</v>
+        <v>-71.67309801975766</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1756,25 +1756,25 @@
         <v>1230</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.06189334628965886</v>
+        <v>-0.4630948606803658</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6746256051274543</v>
+        <v>0.6453926741036027</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4870303088588995</v>
+        <v>-0.0185890092462094</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5512267998240737</v>
+        <v>0.6071786351314393</v>
       </c>
       <c r="F43" t="n">
-        <v>-121.7965716749314</v>
+        <v>-74.99753264807046</v>
       </c>
       <c r="G43" t="n">
-        <v>43.11426608116388</v>
+        <v>-50.04243817738116</v>
       </c>
       <c r="H43" t="n">
-        <v>96.45746706593755</v>
+        <v>-65.92549585064741</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1787,25 +1787,25 @@
         <v>1260</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.04520048082737389</v>
+        <v>-0.4634543033881974</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6554039263015825</v>
+        <v>0.6657321032349784</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4888461549084611</v>
+        <v>-0.002773281376222265</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5739617119221953</v>
+        <v>0.5848103832044201</v>
       </c>
       <c r="F44" t="n">
-        <v>-118.5139900128718</v>
+        <v>-79.62352296266288</v>
       </c>
       <c r="G44" t="n">
-        <v>45.08551447600061</v>
+        <v>-50.90337126044322</v>
       </c>
       <c r="H44" t="n">
-        <v>101.1723656266528</v>
+        <v>-59.93040159836488</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1818,25 +1818,25 @@
         <v>1290</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.02845828200346423</v>
+        <v>-0.4632759839892346</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6354172427965281</v>
+        <v>0.6852991480171572</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4900927268331453</v>
+        <v>0.01304577565213478</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5960236344705818</v>
+        <v>0.5617563957120552</v>
       </c>
       <c r="F45" t="n">
-        <v>-114.8940234079083</v>
+        <v>-84.43952304993756</v>
       </c>
       <c r="G45" t="n">
-        <v>46.84893311758456</v>
+        <v>-51.44681310544733</v>
       </c>
       <c r="H45" t="n">
-        <v>106.2053491081285</v>
+        <v>-53.7510499382817</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -1849,25 +1849,25 @@
         <v>1320</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01168655181539506</v>
+        <v>-0.4625598188689473</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6146892349285562</v>
+        <v>0.7040707280746693</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4907687440771891</v>
+        <v>0.02884964838162269</v>
       </c>
       <c r="E46" t="n">
-        <v>0.617386919853758</v>
+        <v>0.5380432339734313</v>
       </c>
       <c r="F46" t="n">
-        <v>-110.9405226358775</v>
+        <v>-89.36230386374859</v>
       </c>
       <c r="G46" t="n">
-        <v>48.37699007448693</v>
+        <v>-51.65878702785583</v>
       </c>
       <c r="H46" t="n">
-        <v>111.5557593615148</v>
+        <v>-47.46786517847462</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -1880,25 +1880,25 @@
         <v>1350</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.005094896195435891</v>
+        <v>-0.4613063415168561</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.5932444568070709</v>
+        <v>0.7220246628108279</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.4908735936882428</v>
+        <v>0.04461982910457724</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6380267796260836</v>
+        <v>0.5136982737170938</v>
       </c>
       <c r="F47" t="n">
-        <v>-106.6730532043366</v>
+        <v>-94.29816112886672</v>
       </c>
       <c r="G47" t="n">
-        <v>49.64203548322325</v>
+        <v>-51.53354308420244</v>
       </c>
       <c r="H47" t="n">
-        <v>117.2070945472599</v>
+        <v>-41.17176968916517</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -1911,25 +1911,25 @@
         <v>1380</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02186626365576936</v>
+        <v>-0.4595167054697488</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.5711083032916708</v>
+        <v>0.7391397011727719</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.4904073301414018</v>
+        <v>0.06033783941193175</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6579193134181633</v>
+        <v>0.4887496748638854</v>
       </c>
       <c r="F48" t="n">
-        <v>-102.1302687776386</v>
+        <v>-99.15205515847151</v>
       </c>
       <c r="G48" t="n">
-        <v>50.61801586653581</v>
+        <v>-51.07426990382929</v>
       </c>
       <c r="H48" t="n">
-        <v>123.1236614637161</v>
+        <v>-34.95502256288128</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1942,25 +1942,25 @@
         <v>1410</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.03860779384913633</v>
+        <v>-0.4571926864636416</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.5483069757079084</v>
+        <v>0.7553955503754719</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.4893706742536715</v>
+        <v>0.07598525381381008</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6770415362624782</v>
+        <v>0.463226349768606</v>
       </c>
       <c r="F49" t="n">
-        <v>-97.37130358011413</v>
+        <v>-103.837079566731</v>
       </c>
       <c r="G49" t="n">
-        <v>51.28257668364346</v>
+        <v>-50.2926899104614</v>
       </c>
       <c r="H49" t="n">
-        <v>129.2492073275621</v>
+        <v>-28.9017293993278</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -1973,25 +1973,25 @@
         <v>1440</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05529979793569433</v>
+        <v>-0.4543366837603638</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.5248674463701246</v>
+        <v>0.7707729034861742</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.4877650111871597</v>
+        <v>0.09154372335345529</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6953714043234492</v>
+        <v>0.4371579299929422</v>
       </c>
       <c r="F50" t="n">
-        <v>-92.47399780227859</v>
+        <v>-108.2819747874176</v>
       </c>
       <c r="G50" t="n">
-        <v>51.61926253973703</v>
+        <v>-49.20765221248928</v>
       </c>
       <c r="H50" t="n">
-        <v>135.5087173639237</v>
+        <v>-23.08030698582598</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2004,25 +2004,25 @@
         <v>1470</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.07192268074847394</v>
+        <v>-0.4509517206076838</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.5008174221178615</v>
+        <v>0.7852534658365588</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.4855923875498647</v>
+        <v>0.1069949991973486</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7128878388994968</v>
+        <v>0.4105747315890266</v>
       </c>
       <c r="F51" t="n">
-        <v>-87.52943176570858</v>
+        <v>-112.4352261623734</v>
       </c>
       <c r="G51" t="n">
-        <v>51.61937995365322</v>
+        <v>-47.84309489818514</v>
       </c>
       <c r="H51" t="n">
-        <v>141.8139027971962</v>
+        <v>-17.53936277915585</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2035,25 +2035,25 @@
         <v>1500</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.08845696619561749</v>
+        <v>-0.4470414438149745</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4761853068298333</v>
+        <v>0.7988199801121133</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.482855507595274</v>
+        <v>0.122320956064861</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7295707487802366</v>
+        <v>0.3835077190786179</v>
       </c>
       <c r="F52" t="n">
-        <v>-82.63343564397057</v>
+        <v>-116.2655576750696</v>
       </c>
       <c r="G52" t="n">
-        <v>51.28306857382454</v>
+        <v>-46.22584200447476</v>
       </c>
       <c r="H52" t="n">
-        <v>148.0717127877861</v>
+        <v>-12.307177779549</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2066,25 +2066,25 @@
         <v>1530</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.104883322045751</v>
+        <v>-0.4426101224200107</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.4510001632454905</v>
+        <v>0.8114562500852109</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.4795577285522939</v>
+        <v>0.1375036154632331</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7454010507739793</v>
+        <v>0.3559884681608806</v>
       </c>
       <c r="F53" t="n">
-        <v>-77.87693622574679</v>
+        <v>-119.7596626856753</v>
       </c>
       <c r="G53" t="n">
-        <v>50.61928815449877</v>
+        <v>-44.3836251381607</v>
       </c>
       <c r="H53" t="n">
-        <v>154.1940091388805</v>
+        <v>-7.393951075801114</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2097,25 +2097,25 @@
         <v>1560</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1211825841594684</v>
+        <v>-0.4376626454319602</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.4252916740302326</v>
+        <v>0.8231471629243384</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.4757030550926906</v>
+        <v>0.1525251686581016</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7603606885370103</v>
+        <v>0.3280491272491493</v>
       </c>
       <c r="F54" t="n">
-        <v>-73.33750313541738</v>
+        <v>-122.9184344868007</v>
       </c>
       <c r="G54" t="n">
-        <v>49.64472449645669</v>
+        <v>-42.34355376042801</v>
       </c>
       <c r="H54" t="n">
-        <v>160.1060416871586</v>
+        <v>-2.795542850785436</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2128,25 +2128,25 @@
         <v>1590</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1373357800038129</v>
+        <v>-0.4322045186429838</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3990901023569448</v>
+        <v>0.8338787100224775</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.4712961329774847</v>
+        <v>0.1673679993124781</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7744326496035252</v>
+        <v>0.2997223779466154</v>
       </c>
       <c r="F55" t="n">
-        <v>-69.07394059804821</v>
+        <v>-125.752836099821</v>
       </c>
       <c r="G55" t="n">
-        <v>48.38191199300161</v>
+        <v>-40.13109241131108</v>
       </c>
       <c r="H55" t="n">
-        <v>165.7518786037009</v>
+        <v>1.502424003311797</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2159,25 +2159,25 @@
         <v>1620</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1533241514476365</v>
+        <v>-0.4262418563406748</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.3724262520515671</v>
+        <v>0.8436380125173719</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.4663422419064578</v>
+        <v>0.1820147154865722</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7876009806871392</v>
+        <v>0.2710413752277244</v>
       </c>
       <c r="F56" t="n">
-        <v>-65.12457047922534</v>
+        <v>-128.2801619173768</v>
       </c>
       <c r="G56" t="n">
-        <v>46.85702848103423</v>
+        <v>-37.76948893937708</v>
       </c>
       <c r="H56" t="n">
-        <v>171.0961462108787</v>
+        <v>5.520857756068691</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2190,25 +2190,25 @@
         <v>1650</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1691291767493975</v>
+        <v>-0.4197813925783113</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.3453314274926182</v>
+        <v>0.8524133135301654</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.4608472876175544</v>
+        <v>0.1964481323102407</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7998508012457852</v>
+        <v>0.2420397832451434</v>
       </c>
       <c r="F57" t="n">
-        <v>-61.50866668772028</v>
+        <v>-130.5210317405088</v>
       </c>
       <c r="G57" t="n">
-        <v>45.09779586005321</v>
+        <v>-35.27955817626282</v>
       </c>
       <c r="H57" t="n">
-        <v>176.1226185734727</v>
+        <v>9.284222251416319</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2221,25 +2221,25 @@
         <v>1680</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1847325917041761</v>
+        <v>-0.4128304512029266</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.3178373933824252</v>
+        <v>0.8601940336088212</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.4548177932794252</v>
+        <v>0.2106513522402753</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8111683153615886</v>
+        <v>0.2127516178615755</v>
       </c>
       <c r="F58" t="n">
-        <v>-58.22984967784192</v>
+        <v>-132.49720471453</v>
       </c>
       <c r="G58" t="n">
-        <v>43.13177378441919</v>
+        <v>-32.67968587350805</v>
       </c>
       <c r="H58" t="n">
-        <v>-179.1691514969721</v>
+        <v>12.81839501612539</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2252,25 +2252,25 @@
         <v>1710</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2001164099408401</v>
+        <v>-0.4053969546120385</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2899763344731715</v>
+        <v>0.8669707584892801</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.4482608902149033</v>
+        <v>0.2246077464484627</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8215408220055992</v>
+        <v>0.1832112806329079</v>
       </c>
       <c r="F59" t="n">
-        <v>-55.28020786186025</v>
+        <v>-134.2300853216678</v>
       </c>
       <c r="G59" t="n">
-        <v>40.98515851813715</v>
+        <v>-29.9859909707146</v>
       </c>
       <c r="H59" t="n">
-        <v>-174.7679264230425</v>
+        <v>16.14921194610849</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2283,25 +2283,25 @@
         <v>1740</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2152629423166763</v>
+        <v>-0.3974894121135969</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.2617808154159914</v>
+        <v>0.8727352589723446</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.4411843080142867</v>
+        <v>0.238300984978685</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8309567237270911</v>
+        <v>0.1534534964158533</v>
       </c>
       <c r="F60" t="n">
-        <v>-52.64424313987305</v>
+        <v>-135.7397949027935</v>
       </c>
       <c r="G60" t="n">
-        <v>38.68206428695634</v>
+        <v>-27.21255373122741</v>
       </c>
       <c r="H60" t="n">
-        <v>-170.6546995837</v>
+        <v>19.30158779074126</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2314,25 +2314,25 @@
         <v>1770</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2301548154088027</v>
+        <v>-0.3891169112437025</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2332837408241944</v>
+        <v>0.8774805023272017</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.4335963640865944</v>
+        <v>0.2517150564077991</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8394055338524374</v>
+        <v>0.1235132697218429</v>
       </c>
       <c r="F61" t="n">
-        <v>-50.3021570118306</v>
+        <v>-137.0446442871469</v>
       </c>
       <c r="G61" t="n">
-        <v>36.24419279721974</v>
+        <v>-24.37167328689614</v>
       </c>
       <c r="H61" t="n">
-        <v>-166.8059487328599</v>
+        <v>22.29904298293498</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2345,25 +2345,25 @@
         <v>1800</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.2447749891037051</v>
+        <v>-0.3802891081831402</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2045183156441741</v>
+        <v>0.8812006621371791</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.4255059526988497</v>
+        <v>0.2648342869621167</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8468778822789005</v>
+        <v>0.0934258406199074</v>
       </c>
       <c r="F62" t="n">
-        <v>-48.23232882406039</v>
+        <v>-138.1608793942063</v>
       </c>
       <c r="G62" t="n">
-        <v>33.69077746648212</v>
+        <v>-21.47412535206508</v>
       </c>
       <c r="H62" t="n">
-        <v>-163.1960780906762</v>
+        <v>25.16351075293521</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2376,25 +2376,25 @@
         <v>1830</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.2591067733148713</v>
+        <v>-0.3710162173427637</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1755180058776675</v>
+        <v>0.8838911265615943</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.4169225335407107</v>
+        <v>0.2776433589848159</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8533655199626231</v>
+        <v>0.06322664047671286</v>
       </c>
       <c r="F63" t="n">
-        <v>-46.41303882109958</v>
+        <v>-139.1026003818388</v>
       </c>
       <c r="G63" t="n">
-        <v>31.03870059760284</v>
+        <v>-18.52940517917668</v>
       </c>
       <c r="H63" t="n">
-        <v>-159.7991011196845</v>
+        <v>27.9153263266889</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2407,25 +2407,25 @@
         <v>1860</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2731338437852259</v>
+        <v>-0.3613090000980631</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1463164998517976</v>
+        <v>0.8855485050597209</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.4078561198976079</v>
+        <v>0.2901273288138009</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8588613221657467</v>
+        <v>0.03295124747259067</v>
       </c>
       <c r="F64" t="n">
-        <v>-44.82357695586035</v>
+        <v>-139.8817830426369</v>
       </c>
       <c r="G64" t="n">
-        <v>28.30270549717459</v>
+        <v>-15.54594909522439</v>
       </c>
       <c r="H64" t="n">
-        <v>-156.589704193206</v>
+        <v>30.57332834112063</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2438,25 +2438,25 @@
         <v>1890</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2868402661768297</v>
+        <v>-0.3511787526844787</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1169476501679604</v>
+        <v>0.8861706335853174</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3983172598721336</v>
+        <v>0.3022716440665735</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8633592932885781</v>
+        <v>0.002635341962899588</v>
       </c>
       <c r="F65" t="n">
-        <v>-43.44489469842429</v>
+        <v>-140.5083536483226</v>
       </c>
       <c r="G65" t="n">
-        <v>25.49564804761192</v>
+        <v>-12.53133302836418</v>
       </c>
       <c r="H65" t="n">
-        <v>-153.543846385917</v>
+        <v>33.15502530386421</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2469,25 +2469,25 @@
         <v>1920</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3002104736934962</v>
+        <v>-0.3406372933136901</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.08744551490850593</v>
+        <v>0.8857565782643436</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.3883170497484347</v>
+        <v>0.3140621602786874</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8668545565905417</v>
+        <v>-0.02768533811331582</v>
       </c>
       <c r="F66" t="n">
-        <v>-42.25994535267096</v>
+        <v>-140.9902850699409</v>
       </c>
       <c r="G66" t="n">
-        <v>22.62876566280567</v>
+        <v>-9.492449329642671</v>
       </c>
       <c r="H66" t="n">
-        <v>-150.6390466794718</v>
+        <v>35.67679676175709</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2500,25 +2500,25 @@
         <v>1950</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.3132293356729136</v>
+        <v>-0.3296969484662944</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.05784420231194404</v>
+        <v>0.8843066375838065</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.3778670827565656</v>
+        <v>0.3254851569784813</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8693433724954961</v>
+        <v>-0.05797504190536922</v>
       </c>
       <c r="F67" t="n">
-        <v>-41.25380982373076</v>
+        <v>-141.3336936545384</v>
       </c>
       <c r="G67" t="n">
-        <v>19.71191639255968</v>
+        <v>-6.435664674613623</v>
       </c>
       <c r="H67" t="n">
-        <v>-147.8544375282319</v>
+        <v>38.15411073639512</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2531,25 +2531,25 @@
         <v>1980</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.3258821333164446</v>
+        <v>-0.3183705384071235</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0281779129369141</v>
+        <v>0.8818223430956638</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3669794612366057</v>
+        <v>0.3365273531596933</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8708231252316013</v>
+        <v>-0.08819805024467758</v>
       </c>
       <c r="F68" t="n">
-        <v>-40.413707069455</v>
+        <v>-141.542924168602</v>
       </c>
       <c r="G68" t="n">
-        <v>16.7538167418296</v>
+        <v>-3.366962560061639</v>
       </c>
       <c r="H68" t="n">
-        <v>-145.1707050394889</v>
+        <v>40.60174699982694</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2562,25 +2562,25 @@
         <v>2010</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.33815458106203</v>
+        <v>-0.3066713619471608</v>
       </c>
       <c r="C69" t="n">
-        <v>0.001519115911169316</v>
+        <v>0.8783064586544407</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3556667770392991</v>
+        <v>0.3471759221540133</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8712923248279472</v>
+        <v>-0.1183187200906057</v>
       </c>
       <c r="F69" t="n">
-        <v>-39.72893116457343</v>
+        <v>-141.6206152389758</v>
       </c>
       <c r="G69" t="n">
-        <v>13.76224701090542</v>
+        <v>-0.2920741611376526</v>
       </c>
       <c r="H69" t="n">
-        <v>-142.5699395024097</v>
+        <v>43.0340210370616</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2593,25 +2593,25 @@
         <v>2040</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3500328380867664</v>
+        <v>-0.2946131804187672</v>
       </c>
       <c r="C70" t="n">
-        <v>0.03121264558234643</v>
+        <v>0.8737629781849467</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3439420979157471</v>
+        <v>0.3574185059568252</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8707506051091719</v>
+        <v>-0.1483015289081746</v>
       </c>
       <c r="F70" t="n">
-        <v>-39.19075821089682</v>
+        <v>-141.5677409955067</v>
       </c>
       <c r="G70" t="n">
-        <v>10.7442358539456</v>
+        <v>2.7833986571446</v>
       </c>
       <c r="H70" t="n">
-        <v>-140.0354444056365</v>
+        <v>45.46500686193927</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2624,25 +2624,25 @@
         <v>2070</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.3615035192545393</v>
+        <v>-0.2822102009141931</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06086847087127738</v>
+        <v>0.8681971219844348</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3318189537078652</v>
+        <v>0.3672432289729958</v>
       </c>
       <c r="E71" t="n">
-        <v>0.869198721110767</v>
+        <v>-0.1781111188314833</v>
       </c>
       <c r="F71" t="n">
-        <v>-38.79234622948719</v>
+        <v>-141.3836267223219</v>
       </c>
       <c r="G71" t="n">
-        <v>7.706224609134868</v>
+        <v>5.853864391083857</v>
       </c>
       <c r="H71" t="n">
-        <v>-137.5515240353239</v>
+        <v>47.90875876321113</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2655,25 +2655,25 @@
         <v>2100</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.3725537056368642</v>
+        <v>-0.2694770587866584</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09045245439522158</v>
+        <v>0.861615331553784</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.3193113222785377</v>
+        <v>0.37663871120294</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8666385459779947</v>
+        <v>-0.2077123406120659</v>
       </c>
       <c r="F72" t="n">
-        <v>-38.52864309824363</v>
+        <v>-141.0659377811278</v>
       </c>
       <c r="G72" t="n">
-        <v>4.654214712723666</v>
+        <v>8.913623279372576</v>
       </c>
       <c r="H72" t="n">
-        <v>-135.1032625424022</v>
+        <v>50.37953298175072</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2686,25 +2686,25 @@
         <v>2130</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.3831709546118136</v>
+        <v>-0.2564287994124563</v>
       </c>
       <c r="C73" t="n">
-        <v>0.119930560474908</v>
+        <v>0.8540252629381259</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.3064336152277141</v>
+        <v>0.3855940808823531</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8630730673961036</v>
+        <v>-0.2370702973462608</v>
       </c>
       <c r="F73" t="n">
-        <v>-38.39631163815859</v>
+        <v>-140.6106422943724</v>
       </c>
       <c r="G73" t="n">
-        <v>1.59390191134691</v>
+        <v>11.95674528347419</v>
       </c>
       <c r="H73" t="n">
-        <v>-132.6763012463535</v>
+        <v>52.89201039498029</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -2717,25 +2717,25 @@
         <v>2160</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.3933433096292454</v>
+        <v>-0.2430808592540637</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1492688886491414</v>
+        <v>0.8454357785727457</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.2932006633540015</v>
+        <v>0.3940989865559484</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8585063835872948</v>
+        <v>-0.2661503878805663</v>
       </c>
       <c r="F74" t="n">
-        <v>-38.39367711661524</v>
+        <v>-140.0119494596062</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.469198944461152</v>
+        <v>14.97694089360767</v>
       </c>
       <c r="H74" t="n">
-        <v>-130.2566169936734</v>
+        <v>55.46152053012684</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -2748,25 +2748,25 @@
         <v>2190</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.4030593096978934</v>
+        <v>-0.2294490462034627</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1784337068944363</v>
+        <v>0.8358569375927672</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.2796277018382351</v>
+        <v>0.4021436086088216</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8529436988889918</v>
+        <v>-0.2949183499367867</v>
       </c>
       <c r="F75" t="n">
-        <v>-38.52070000306695</v>
+        <v>-139.2622273149056</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.529634763655149</v>
+        <v>17.96742096060769</v>
       </c>
       <c r="H75" t="n">
-        <v>-127.8303020155854</v>
+        <v>58.10426552247975</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -2779,25 +2779,25 @@
         <v>2220</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.4123079986362578</v>
+        <v>-0.2155495192673377</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2073914845991841</v>
+        <v>0.825299984607276</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.2657303551319041</v>
+        <v>0.4097186702200374</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8463913189168366</v>
+        <v>-0.3233403028141929</v>
       </c>
       <c r="F76" t="n">
-        <v>-38.77897520917104</v>
+        <v>-138.3519067920908</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.581897019876527</v>
+        <v>20.9207417537652</v>
       </c>
       <c r="H76" t="n">
-        <v>-125.383344463012</v>
+        <v>60.83753960237595</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -2810,25 +2810,25 @@
         <v>2250</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.421078934118516</v>
+        <v>-0.2013987675654554</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2361089253207501</v>
+        <v>0.8137773368774992</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.2515246215423289</v>
+        <v>0.4168154477603949</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8388566453116308</v>
+        <v>-0.3513827897265063</v>
       </c>
       <c r="F77" t="n">
-        <v>-39.17175783110849</v>
+        <v>-137.2693836117177</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.6203028038096</v>
+        <v>23.82863166793857</v>
       </c>
       <c r="H77" t="n">
-        <v>-122.90140839226</v>
+        <v>63.67993485982487</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -2841,25 +2841,25 @@
         <v>2280</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.4293621965869563</v>
+        <v>-0.1870135790017577</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2645529995017044</v>
+        <v>0.8013025612286163</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.2370268574309823</v>
+        <v>0.4234257848568059</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8303481700184977</v>
+        <v>-0.3790128379828457</v>
       </c>
       <c r="F78" t="n">
-        <v>-39.7040142085141</v>
+        <v>-136.0009359325946</v>
       </c>
       <c r="G78" t="n">
-        <v>-13.63887042488592</v>
+        <v>26.6817984670656</v>
       </c>
       <c r="H78" t="n">
-        <v>-120.3696123352057</v>
+        <v>66.65151859136684</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -2872,25 +2872,25 @@
         <v>2310</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.4371483980195787</v>
+        <v>-0.1724110567719264</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2926909770861002</v>
+        <v>0.7878903920926981</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.2222537610494757</v>
+        <v>0.4295420841952127</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8208754690820421</v>
+        <v>-0.4061979264546224</v>
       </c>
       <c r="F79" t="n">
-        <v>-40.38249553645934</v>
+        <v>-134.5306928087464</v>
       </c>
       <c r="G79" t="n">
-        <v>-16.63118579337989</v>
+        <v>29.46970400362945</v>
       </c>
       <c r="H79" t="n">
-        <v>-117.7723068343862</v>
+        <v>69.77394228692285</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -2903,25 +2903,25 @@
         <v>2340</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.4444286905987454</v>
+        <v>-0.1576085386994765</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3204904601717355</v>
+        <v>0.7735566636205503</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.2072223559413394</v>
+        <v>0.4351573426951268</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8104491958844273</v>
+        <v>-0.4329061373967507</v>
       </c>
       <c r="F80" t="n">
-        <v>-41.21582888329872</v>
+        <v>-132.8406857676177</v>
       </c>
       <c r="G80" t="n">
-        <v>-19.59025580732368</v>
+        <v>32.18033592863259</v>
       </c>
       <c r="H80" t="n">
-        <v>-115.092853628252</v>
+        <v>73.07046862934828</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -2934,25 +2934,25 @@
         <v>2370</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.4511947752843899</v>
+        <v>-0.1426236123345808</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3479194157240888</v>
+        <v>0.7583183231178556</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1919499738858821</v>
+        <v>0.4402651413938451</v>
       </c>
       <c r="E81" t="n">
-        <v>0.799081073761284</v>
+        <v>-0.4591061220478507</v>
       </c>
       <c r="F81" t="n">
-        <v>-42.21461671741482</v>
+        <v>-130.9110672798769</v>
       </c>
       <c r="G81" t="n">
-        <v>-22.50834504174727</v>
+        <v>34.79994360940041</v>
       </c>
       <c r="H81" t="n">
-        <v>-112.3134130267165</v>
+        <v>76.56581137780739</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2965,25 +2965,25 @@
         <v>2400</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.4574389102908943</v>
+        <v>-0.1274740816207525</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3749462083763682</v>
+        <v>0.7421934019719838</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1764542373595445</v>
+        <v>0.4448596573001318</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7867838879221699</v>
+        <v>-0.4847671584286712</v>
       </c>
       <c r="F82" t="n">
-        <v>-43.39153020171852</v>
+        <v>-128.7205778298514</v>
       </c>
       <c r="G82" t="n">
-        <v>-25.3767923953732</v>
+        <v>37.31278017504582</v>
       </c>
       <c r="H82" t="n">
-        <v>-109.4147520400037</v>
+        <v>80.28572489285264</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2996,25 +2996,25 @@
         <v>2430</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.4631539194657928</v>
+        <v>-0.1121779426586392</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4015396333577486</v>
+        <v>0.7252009928967222</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1607530414770315</v>
+        <v>0.4489356699762679</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7735714765826637</v>
+        <v>-0.5098591896842135</v>
       </c>
       <c r="F83" t="n">
-        <v>-44.76137263422718</v>
+        <v>-126.2473911891087</v>
       </c>
       <c r="G83" t="n">
-        <v>-28.18580524853818</v>
+        <v>39.70086413330468</v>
       </c>
       <c r="H83" t="n">
-        <v>-106.3760949169553</v>
+        <v>84.25620789091751</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3027,25 +3027,25 @@
         <v>2460</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.4683332005477494</v>
+        <v>-0.09675335914148553</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4276689495268287</v>
+        <v>0.7073612255405377</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1448645354082941</v>
+        <v>0.4524885673884061</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7594587212326023</v>
+        <v>-0.5343528613934946</v>
       </c>
       <c r="F84" t="n">
-        <v>-46.34107635843528</v>
+        <v>-123.4704882596752</v>
       </c>
       <c r="G84" t="n">
-        <v>-30.9242305344868</v>
+        <v>41.94380459889742</v>
       </c>
       <c r="H84" t="n">
-        <v>-103.1750510284016</v>
+        <v>88.50217316799733</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3058,25 +3058,25 @@
         <v>2490</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.4729707332967754</v>
+        <v>-0.08121863745575032</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4533039125838884</v>
+        <v>0.6886952404034702</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1288071032073209</v>
+        <v>0.4555143510213931</v>
       </c>
       <c r="E85" t="n">
-        <v>0.744461535906448</v>
+        <v>-0.5582195578703749</v>
       </c>
       <c r="F85" t="n">
-        <v>-48.149578102614</v>
+        <v>-120.3717159726104</v>
       </c>
       <c r="G85" t="n">
-        <v>-33.57930558111975</v>
+        <v>44.01875467617719</v>
       </c>
       <c r="H85" t="n">
-        <v>-99.78767360148338</v>
+        <v>93.04542764285458</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3089,25 +3089,25 @@
         <v>2520</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4770610874419413</v>
+        <v>-0.06559220158798178</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4784148083295878</v>
+        <v>0.6692251611751929</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1125993441089851</v>
+        <v>0.4580096402144667</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7285968554186208</v>
+        <v>-0.5814314372404482</v>
       </c>
       <c r="F86" t="n">
-        <v>-50.20749334798759</v>
+        <v>-116.9386428378955</v>
       </c>
       <c r="G86" t="n">
-        <v>-36.1363974821878</v>
+        <v>45.90058254490268</v>
       </c>
       <c r="H86" t="n">
-        <v>-96.18872737764832</v>
+        <v>97.90185183790943</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -3120,25 +3120,25 @@
         <v>2550</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.4805994326207961</v>
+        <v>-0.04989256783445638</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5029725023412184</v>
+        <v>0.6489740654497946</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0962600412146157</v>
+        <v>0.4599716757123835</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7118826109117588</v>
+        <v>-0.6039614653194291</v>
       </c>
       <c r="F87" t="n">
-        <v>-52.53648260416681</v>
+        <v>-113.168187025023</v>
       </c>
       <c r="G87" t="n">
-        <v>-38.57875090998236</v>
+        <v>47.56236978028403</v>
       </c>
       <c r="H87" t="n">
-        <v>-92.35227014819398</v>
+        <v>103.0778035558848</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3151,25 +3151,25 @@
         <v>2580</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.483581536752111</v>
+        <v>-0.03413831946718212</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5269484078607107</v>
+        <v>0.6279659539664286</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.07980818454355668</v>
+        <v>0.461398322396038</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6943377610683366</v>
+        <v>-0.625783448081772</v>
       </c>
       <c r="F88" t="n">
-        <v>-55.15816122888192</v>
+        <v>-109.0707294083607</v>
       </c>
       <c r="G88" t="n">
-        <v>-40.88726732083454</v>
+        <v>48.97634642355685</v>
       </c>
       <c r="H88" t="n">
-        <v>-88.25270155312617</v>
+        <v>108.5660338648572</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3182,25 +3182,25 @@
         <v>2610</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.4860037874739108</v>
+        <v>0.01834808137703254</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5503146180146493</v>
+        <v>-0.6062257183748667</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.06326288383173975</v>
+        <v>-0.4622880711864703</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6759822092996948</v>
+        <v>0.6468720627213327</v>
       </c>
       <c r="F89" t="n">
-        <v>-58.09241935803744</v>
+        <v>-104.6740370387222</v>
       </c>
       <c r="G89" t="n">
-        <v>-43.04039237993944</v>
+        <v>50.11533121350155</v>
       </c>
       <c r="H89" t="n">
-        <v>-83.86639659834128</v>
+        <v>114.3417904265541</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -3213,25 +3213,25 @@
         <v>2640</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.4878631891236966</v>
+        <v>0.002540494804695677</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5730438728481918</v>
+        <v>-0.583779107643375</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.04664339028911842</v>
+        <v>-0.4626400401029573</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6568368310558861</v>
+        <v>0.6672028871780951</v>
       </c>
       <c r="F90" t="n">
-        <v>-61.35497844615585</v>
+        <v>-100.0259143398365</v>
       </c>
       <c r="G90" t="n">
-        <v>-45.01415543964708</v>
+        <v>50.95464420210764</v>
       </c>
       <c r="H90" t="n">
-        <v>-79.17411683958288</v>
+        <v>120.36019130584</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3244,25 +3244,25 @@
         <v>2670</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.4891573717300234</v>
+        <v>-0.01326580776197109</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5951096090798577</v>
+        <v>-0.5606526931989188</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02996906318497078</v>
+        <v>-0.4624539744673486</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6369234444694354</v>
+        <v>0.6867524280645643</v>
       </c>
       <c r="F91" t="n">
-        <v>-64.95414899223535</v>
+        <v>-95.19430316647905</v>
       </c>
       <c r="G91" t="n">
-        <v>-46.78248638961652</v>
+        <v>51.47429984622701</v>
       </c>
       <c r="H91" t="n">
-        <v>-74.16421879079439</v>
+        <v>126.5561485232505</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3275,25 +3275,25 @@
         <v>2700</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.4898845969816517</v>
+        <v>-0.02905222742727296</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6164859929797843</v>
+        <v>-0.5368738329268335</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.01325934682689929</v>
+        <v>-0.4617302462515394</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6162647903471186</v>
+        <v>0.7054981469121355</v>
       </c>
       <c r="F92" t="n">
-        <v>-68.88691682871139</v>
+        <v>-90.26386011507489</v>
       </c>
       <c r="G92" t="n">
-        <v>-48.31791290664476</v>
+        <v>51.66111584555998</v>
       </c>
       <c r="H92" t="n">
-        <v>-68.83653770119402</v>
+        <v>132.8478133249326</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3306,25 +3306,25 @@
         <v>2730</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.4900437636660906</v>
+        <v>-0.04480022342709213</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6371479528452094</v>
+        <v>-0.5124706340785659</v>
       </c>
       <c r="D93" t="n">
-        <v>0.003466252876865748</v>
+        <v>-0.4604698525684949</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5948845106137202</v>
+        <v>0.7234184847400181</v>
       </c>
       <c r="F93" t="n">
-        <v>-73.13482395661995</v>
+        <v>-85.32897549821391</v>
       </c>
       <c r="G93" t="n">
-        <v>-49.59273556988222</v>
+        <v>51.51027336934836</v>
       </c>
       <c r="H93" t="n">
-        <v>-63.20647918971777</v>
+        <v>139.1435791054544</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3337,25 +3337,25 @@
         <v>2760</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.4896344125235157</v>
+        <v>-0.0604913372113197</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6570712110451599</v>
+        <v>-0.4874719153266058</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0201881922781604</v>
+        <v>-0.4586744133165511</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5728071251136271</v>
+        <v>0.740492884813159</v>
       </c>
       <c r="F94" t="n">
-        <v>-77.6605249644831</v>
+        <v>-80.48447818375158</v>
       </c>
       <c r="G94" t="n">
-        <v>-50.58070798617195</v>
+        <v>51.02592429442274</v>
       </c>
       <c r="H94" t="n">
-        <v>-57.30843723808639</v>
+        <v>145.3513981035912</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -3368,25 +3368,25 @@
         <v>2790</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.4886567304553611</v>
+        <v>-0.07610721608592017</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6762323154756542</v>
+        <v>-0.4619071679570018</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03688691417619015</v>
+        <v>-0.4563461679857415</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5500580068044369</v>
+        <v>0.7567018136718866</v>
       </c>
       <c r="F95" t="n">
-        <v>-82.40623867327091</v>
+        <v>-75.81623195015288</v>
       </c>
       <c r="G95" t="n">
-        <v>-51.25911752409588</v>
+        <v>50.22067510704391</v>
       </c>
       <c r="H95" t="n">
-        <v>-51.19731849179531</v>
+        <v>151.3882065468153</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -3399,25 +3399,25 @@
         <v>2820</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.4871115540313952</v>
+        <v>-0.09162963626952425</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6946086703677917</v>
+        <v>-0.4358065164452953</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05354287231081891</v>
+        <v>-0.4534879716485651</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5266633552884754</v>
+        <v>0.7720267803327818</v>
       </c>
       <c r="F96" t="n">
-        <v>-87.29529620995909</v>
+        <v>-71.39387626001842</v>
       </c>
       <c r="G96" t="n">
-        <v>-51.61098843735559</v>
+        <v>49.11409184972975</v>
       </c>
       <c r="H96" t="n">
-        <v>-44.94697128636255</v>
+        <v>157.1872056546972</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3430,25 +3430,25 @@
         <v>2850</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.4850003722448427</v>
+        <v>-0.1070405253169383</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7121785662772485</v>
+        <v>-0.4092006785303502</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07013655603983024</v>
+        <v>-0.4501032901623663</v>
       </c>
       <c r="E97" t="n">
-        <v>0.502650168770009</v>
+        <v>0.7864503536874959</v>
       </c>
       <c r="F97" t="n">
-        <v>-92.23736755936335</v>
+        <v>-67.26706636257495</v>
       </c>
       <c r="G97" t="n">
-        <v>-51.62698018826855</v>
+        <v>47.73061671240542</v>
       </c>
       <c r="H97" t="n">
-        <v>-38.64493700324865</v>
+        <v>162.7016439167088</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -3461,25 +3461,25 @@
         <v>2880</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.4823253284631472</v>
+        <v>-0.1223219838963263</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7289212092234687</v>
+        <v>-0.3821209248456734</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08664851519323785</v>
+        <v>-0.4461961946035273</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4780462143788198</v>
+        <v>0.799956178157332</v>
       </c>
       <c r="F98" t="n">
-        <v>-97.13678410704732</v>
+        <v>-63.46528625050319</v>
       </c>
       <c r="G98" t="n">
-        <v>-51.30652406351091</v>
+        <v>46.09736293123795</v>
       </c>
       <c r="H98" t="n">
-        <v>-32.38410590522835</v>
+        <v>167.9050274615462</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -3492,25 +3492,25 @@
         <v>2910</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.4790892215349589</v>
+        <v>-0.1374563068089902</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7448167488132256</v>
+        <v>-0.3545990383446485</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1030593849737024</v>
+        <v>-0.4417713549785136</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4528799969806193</v>
+        <v>0.8125289875714783</v>
       </c>
       <c r="F99" t="n">
-        <v>-101.9021636136043</v>
+        <v>-60.00032221890929</v>
       </c>
       <c r="G99" t="n">
-        <v>-50.65789023588606</v>
+        <v>44.24216592439873</v>
       </c>
       <c r="H99" t="n">
-        <v>-26.25307069410293</v>
+        <v>172.7886711246854</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3523,25 +3523,25 @@
         <v>2940</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.4752955060083624</v>
+        <v>-0.1524260032364573</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7598463053060535</v>
+        <v>-0.3266672736103862</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1193499108782359</v>
+        <v>-0.4368340332484612</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4271807264546841</v>
+        <v>0.82415461734143</v>
       </c>
       <c r="F100" t="n">
-        <v>-106.4549850654137</v>
+        <v>-56.87012129000826</v>
       </c>
       <c r="G100" t="n">
-        <v>-49.69716680752749</v>
+        <v>42.1920980852765</v>
       </c>
       <c r="H100" t="n">
-        <v>-20.32753002340022</v>
+        <v>177.3578663423561</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -3554,25 +3554,25 @@
         <v>2970</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.4709482914415289</v>
+        <v>-0.1672138260564317</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7739919954636263</v>
+        <v>-0.2983582970316273</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1355009734945544</v>
+        <v>-0.431390071882723</v>
       </c>
       <c r="E101" t="n">
-        <v>0.400978283612176</v>
+        <v>0.8348200218304397</v>
       </c>
       <c r="F101" t="n">
-        <v>-110.7352136460242</v>
+        <v>-54.06291928089178</v>
       </c>
       <c r="G101" t="n">
-        <v>-48.44643051028523</v>
+        <v>39.97249014928705</v>
       </c>
       <c r="H101" t="n">
-        <v>-14.66464140597954</v>
+        <v>-178.3722174854086</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -3585,25 +3585,25 @@
         <v>3000</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.4660523407556215</v>
+        <v>-0.1818027509159816</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7872369572033109</v>
+        <v>-0.2697052224327725</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1514936132056989</v>
+        <v>-0.4254459005797311</v>
       </c>
       <c r="E102" t="n">
-        <v>0.374303184660992</v>
+        <v>0.8445132553321895</v>
       </c>
       <c r="F102" t="n">
-        <v>-114.7032477748389</v>
+        <v>-51.56093642864343</v>
       </c>
       <c r="G102" t="n">
-        <v>-46.9315579597777</v>
+        <v>37.60640587544125</v>
       </c>
       <c r="H102" t="n">
-        <v>-9.301051227850271</v>
+        <v>-174.3802015217395</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -3616,25 +3616,25 @@
         <v>3030</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.4606130676447763</v>
+        <v>-0.1961760535567687</v>
       </c>
       <c r="C103" t="n">
-        <v>0.799565372853294</v>
+        <v>-0.2407414567578373</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1673090545866189</v>
+        <v>-0.419008505569461</v>
       </c>
       <c r="E103" t="n">
-        <v>0.347186544529268</v>
+        <v>0.8532235224543759</v>
       </c>
       <c r="F103" t="n">
-        <v>-118.3386620163861</v>
+        <v>-49.34329487089693</v>
       </c>
       <c r="G103" t="n">
-        <v>-45.18011558921106</v>
+        <v>35.11443923811675</v>
       </c>
       <c r="H103" t="n">
-        <v>-4.254127725595509</v>
+        <v>-170.6413749170991</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -3647,25 +3647,25 @@
         <v>3060</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.4546365329937274</v>
+        <v>-0.2103172869615368</v>
       </c>
       <c r="C104" t="n">
-        <v>0.810962491070616</v>
+        <v>-0.211500735768843</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1829287305631684</v>
+        <v>-0.4120854345941957</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3196600389140503</v>
+        <v>0.8609411548820799</v>
       </c>
       <c r="F104" t="n">
-        <v>-121.6369103832407</v>
+        <v>-47.38815336668863</v>
       </c>
       <c r="G104" t="n">
-        <v>-43.21962640499618</v>
+        <v>32.51475317362854</v>
       </c>
       <c r="H104" t="n">
-        <v>0.4747679858038814</v>
+        <v>-167.1297955174037</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -3678,25 +3678,25 @@
         <v>3090</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.4481294403258373</v>
+        <v>-0.2242103074726082</v>
       </c>
       <c r="C105" t="n">
-        <v>0.821414647275866</v>
+        <v>-0.1820170655486238</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1983343061600577</v>
+        <v>-0.4046847836700814</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2917558653290883</v>
+        <v>0.8676576235693465</v>
       </c>
       <c r="F105" t="n">
-        <v>-124.6052309237163</v>
+        <v>-45.67413424387486</v>
       </c>
       <c r="G105" t="n">
-        <v>-41.07633666032441</v>
+        <v>29.82324595937876</v>
       </c>
       <c r="H105" t="n">
-        <v>4.896214130179637</v>
+        <v>-163.8196734767306</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3709,25 +3709,25 @@
         <v>3120</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.4410991302655496</v>
+        <v>-0.2378392901290911</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8309092826080144</v>
+        <v>-0.152324683326317</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2135077018310764</v>
+        <v>-0.3968151869061753</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2635067031663946</v>
+        <v>0.8733655422336312</v>
       </c>
       <c r="F106" t="n">
-        <v>-127.2586786399584</v>
+        <v>-44.18120933209435</v>
       </c>
       <c r="G106" t="n">
-        <v>-38.77446741148277</v>
+        <v>27.05378719010868</v>
       </c>
       <c r="H106" t="n">
-        <v>9.028791241420157</v>
+        <v>-160.6862095836581</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -3740,25 +3740,25 @@
         <v>3150</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.4335535740176047</v>
+        <v>-0.2511887432293419</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8394349613590084</v>
+        <v>-0.1224580188193063</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2284311163131416</v>
+        <v>-0.388485805939621</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2349456728792705</v>
+        <v>0.8780586697283714</v>
       </c>
       <c r="F107" t="n">
-        <v>-129.6167951758581</v>
+        <v>-42.89119570701619</v>
       </c>
       <c r="G107" t="n">
-        <v>-36.33586030043136</v>
+        <v>24.21847799319945</v>
       </c>
       <c r="H107" t="n">
-        <v>12.89578484278379</v>
+        <v>-157.7060372320593</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -3771,25 +3771,25 @@
         <v>3180</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.4255013658917996</v>
+        <v>-0.26424352213053</v>
       </c>
       <c r="C108" t="n">
-        <v>0.846981386840211</v>
+        <v>-0.09245165618570765</v>
       </c>
       <c r="D108" t="n">
-        <v>0.243087048914989</v>
+        <v>-0.3797063190397025</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2061062944702263</v>
+        <v>0.8817319113891088</v>
       </c>
       <c r="F108" t="n">
-        <v>-131.7010816163368</v>
+        <v>-41.78798873343288</v>
       </c>
       <c r="G108" t="n">
-        <v>-33.77990484658459</v>
+        <v>21.32790921199376</v>
       </c>
       <c r="H108" t="n">
-        <v>16.52269475472674</v>
+        <v>-154.8573944636114</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3802,25 +3802,25 @@
         <v>3210</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4169517148549615</v>
+        <v>-0.2769888423925032</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8535394157055878</v>
+        <v>-0.06234029646808926</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2574583212645379</v>
+        <v>-0.3704869098730567</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1770224452664594</v>
+        <v>0.8843813194765283</v>
       </c>
       <c r="F109" t="n">
-        <v>-133.533231573796</v>
+        <v>-40.85762918281146</v>
       </c>
       <c r="G109" t="n">
-        <v>-31.12364461720463</v>
+        <v>18.39140357254091</v>
       </c>
       <c r="H109" t="n">
-        <v>19.93550887848432</v>
+        <v>-152.1201216240274</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -3833,25 +3833,25 @@
         <v>3240</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.407914428943662</v>
+        <v>-0.2894102922470314</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8591010740767174</v>
+        <v>-0.03215872068583107</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2715281077349826</v>
+        <v>-0.3608382559967248</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1477282975250716</v>
+        <v>0.8860040927865857</v>
       </c>
       <c r="F110" t="n">
-        <v>-135.1339883984221</v>
+        <v>-40.08827346097661</v>
       </c>
       <c r="G110" t="n">
-        <v>-28.38198100430852</v>
+        <v>15.4172358287363</v>
       </c>
       <c r="H110" t="n">
-        <v>23.1596071508913</v>
+        <v>-149.4755522683212</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
         <v>3270</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3983999295245437</v>
+        <v>-0.3014938444850927</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8636595544733178</v>
+        <v>-0.001941753483788209</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2852799184023395</v>
+        <v>-0.3507715170763187</v>
       </c>
       <c r="E111" t="n">
-        <v>0.118258353946533</v>
+        <v>0.8865985755340378</v>
       </c>
       <c r="F111" t="n">
-        <v>-136.5224625417407</v>
+        <v>-39.47011397031337</v>
       </c>
       <c r="G111" t="n">
-        <v>-25.56793078062585</v>
+        <v>12.41282966775574</v>
       </c>
       <c r="H111" t="n">
-        <v>26.21912599558921</v>
+        <v>-146.9063427235594</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -3895,25 +3895,25 @@
         <v>3300</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.3884192037384424</v>
+        <v>-0.313225867821549</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8672092477987134</v>
+        <v>0.02827577269356319</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2986976754683751</v>
+        <v>-0.3402983228377702</v>
       </c>
       <c r="E112" t="n">
-        <v>0.08864728630574799</v>
+        <v>0.8861642555868636</v>
       </c>
       <c r="F112" t="n">
-        <v>-137.7157831944167</v>
+        <v>-38.9952804859852</v>
       </c>
       <c r="G112" t="n">
-        <v>-22.69287513018023</v>
+        <v>9.384932879027213</v>
       </c>
       <c r="H112" t="n">
-        <v>29.13667478922903</v>
+        <v>-144.3962693597408</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -3926,25 +3926,25 @@
         <v>3330</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3779838163338677</v>
+        <v>-0.3245931377793445</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8697457358135948</v>
+        <v>0.05845905289738539</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3117656944674271</v>
+        <v>-0.3294307607714925</v>
       </c>
       <c r="E113" t="n">
-        <v>0.05892997010856629</v>
+        <v>0.8847017621201032</v>
       </c>
       <c r="F113" t="n">
-        <v>-138.72895055279</v>
+        <v>-38.65774217109587</v>
       </c>
       <c r="G113" t="n">
-        <v>-19.76681727417117</v>
+        <v>6.33977369994283</v>
       </c>
       <c r="H113" t="n">
-        <v>31.9332501156406</v>
+        <v>-141.930011147916</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3957,25 +3957,25 @@
         <v>3360</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.3671058908507779</v>
+        <v>-0.3355828471604611</v>
       </c>
       <c r="C114" t="n">
-        <v>0.871265801722278</v>
+        <v>0.08857334450289386</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3244687122466931</v>
+        <v>-0.3181813635837044</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02914142111952673</v>
+        <v>0.8822128627509717</v>
       </c>
       <c r="F114" t="n">
-        <v>-139.5748226641822</v>
+        <v>-38.45322230850149</v>
       </c>
       <c r="G114" t="n">
-        <v>-16.79861157883959</v>
+        <v>3.283201882123391</v>
       </c>
       <c r="H114" t="n">
-        <v>34.62829933527455</v>
+        <v>-139.492927330484</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3988,25 +3988,25 @@
         <v>3390</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.3557980958311852</v>
+        <v>-0.3461826161670861</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8717674351892239</v>
+        <v>0.118584001640697</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3367919047686277</v>
+        <v>-0.3065630963827818</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.000683248728025693</v>
+        <v>0.8787004601994881</v>
       </c>
       <c r="F115" t="n">
-        <v>-140.264172650101</v>
+        <v>-38.37913292076027</v>
       </c>
       <c r="G115" t="n">
-        <v>-13.79617167183165</v>
+        <v>0.2208182416356212</v>
       </c>
       <c r="H115" t="n">
-        <v>37.23986434933853</v>
+        <v>-137.0708349702695</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -4019,25 +4019,25 @@
         <v>3420</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.3440736302437041</v>
+        <v>-0.3563805022207459</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8712498358530966</v>
+        <v>0.1484565092725655</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3487209041927467</v>
+        <v>-0.2945893435955241</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.0305088753621656</v>
+        <v>0.874168588506503</v>
       </c>
       <c r="F116" t="n">
-        <v>-140.8057789922711</v>
+        <v>-38.43453332314747</v>
       </c>
       <c r="G116" t="n">
-        <v>-10.76665606612895</v>
+        <v>-2.841903518295666</v>
       </c>
       <c r="H116" t="n">
-        <v>39.78477105829933</v>
+        <v>-134.6497879787757</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4050,25 +4050,25 @@
         <v>3450</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.3319462080660266</v>
+        <v>-0.3661650095511677</v>
       </c>
       <c r="C117" t="n">
-        <v>0.869713415365003</v>
+        <v>0.1781565170367389</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3602418153276417</v>
+        <v>-0.2822738955720822</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.06030028668400586</v>
+        <v>0.8686224088154142</v>
       </c>
       <c r="F117" t="n">
-        <v>-141.2065240208963</v>
+        <v>-38.62011465225385</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.71663356723858</v>
+        <v>-5.899498977534539</v>
       </c>
       <c r="H117" t="n">
-        <v>42.27884164072238</v>
+        <v>-132.2158573775066</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -4081,25 +4081,25 @@
         <v>3480</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3194300421220148</v>
+        <v>-0.3755250985600574</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8671597979630474</v>
+        <v>0.2076498728102047</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3713412313734726</v>
+        <v>-0.2696309349057781</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.09002234649601028</v>
+        <v>0.8620682047351015</v>
       </c>
       <c r="F118" t="n">
-        <v>-141.4714850232591</v>
+        <v>-38.93821103290539</v>
       </c>
       <c r="G118" t="n">
-        <v>-4.65223176696156</v>
+        <v>-8.946395450682662</v>
       </c>
       <c r="H118" t="n">
-        <v>44.73711624453738</v>
+        <v>-129.7549116987985</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -4112,25 +4112,25 @@
         <v>3510</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.3065398271197858</v>
+        <v>-0.3844501950465852</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8635918195962861</v>
+        <v>0.2369026561874674</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3820062490373584</v>
+        <v>-0.2566750223906469</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.1196399983791183</v>
+        <v>0.8545133772508925</v>
       </c>
       <c r="F119" t="n">
-        <v>-141.6040085353341</v>
+        <v>-39.3928368818121</v>
       </c>
       <c r="G119" t="n">
-        <v>-1.579272296756502</v>
+        <v>-11.97679103874507</v>
       </c>
       <c r="H119" t="n">
-        <v>47.17407703000116</v>
+        <v>-127.2523963559139</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -4143,25 +4143,25 @@
         <v>3540</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2932907219351662</v>
+        <v>-0.39293019932242</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8590135256025502</v>
+        <v>0.2658812119342076</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3922244829965776</v>
+        <v>-0.2434210825865064</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.1491183093945652</v>
+        <v>0.8459664391412071</v>
       </c>
       <c r="F120" t="n">
-        <v>-141.6057623248341</v>
+        <v>-39.98974852517645</v>
       </c>
       <c r="G120" t="n">
-        <v>1.496603347812087</v>
+        <v>-14.98452655054768</v>
       </c>
       <c r="H120" t="n">
-        <v>49.60387152469352</v>
+        <v>-124.6931115601381</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -4174,25 +4174,25 @@
         <v>3570</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.2796983311583403</v>
+        <v>-0.400955495194025</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8534301669468117</v>
+        <v>0.294552183311757</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4019840797167141</v>
+        <v>-0.2298843890359377</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.1784225135645242</v>
+        <v>0.8364370088999917</v>
       </c>
       <c r="F121" t="n">
-        <v>-141.4767620998774</v>
+        <v>-40.73652642325739</v>
       </c>
       <c r="G121" t="n">
-        <v>4.56981362132812</v>
+        <v>-17.96294650087666</v>
       </c>
       <c r="H121" t="n">
-        <v>52.04053470805039</v>
+        <v>-122.0609900547964</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -4205,25 +4205,25 @@
         <v>3600</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.2657786858892641</v>
+        <v>-0.4085169589090501</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8468481950067913</v>
+        <v>0.3228825455815161</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4112737306527389</v>
+        <v>-0.2160805489886531</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.207518055155916</v>
+        <v>0.8259358040376165</v>
       </c>
       <c r="F122" t="n">
-        <v>-141.2153716482858</v>
+        <v>-41.64267138246729</v>
       </c>
       <c r="G122" t="n">
-        <v>7.634718639846383</v>
+        <v>-20.90474544339929</v>
       </c>
       <c r="H122" t="n">
-        <v>54.49821055437259</v>
+        <v>-119.3388788403524</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -4236,25 +4236,25 @@
         <v>3630</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.251548223837341</v>
+        <v>-0.4156059726036203</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8392752549126116</v>
+        <v>0.3508396581242186</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4200826848062133</v>
+        <v>-0.2020254781980186</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.2363706316394941</v>
+        <v>0.814474625744929</v>
       </c>
       <c r="F123" t="n">
-        <v>-140.8182763865434</v>
+        <v>-42.71970432304271</v>
       </c>
       <c r="G123" t="n">
-        <v>10.68550005027096</v>
+        <v>-23.80179795358013</v>
       </c>
       <c r="H123" t="n">
-        <v>56.9913741652633</v>
+        <v>-116.5083318960519</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -4267,25 +4267,25 @@
         <v>3660</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.2370237686908059</v>
+        <v>-0.4222144144112451</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8307201774057724</v>
+        <v>0.3783912233862968</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4284007606756193</v>
+        <v>-0.1877354225728758</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.2649462363934995</v>
+        <v>0.8020663821897628</v>
       </c>
       <c r="F124" t="n">
-        <v>-140.2804315663888</v>
+        <v>-43.98124675157146</v>
       </c>
       <c r="G124" t="n">
-        <v>13.71603531968522</v>
+        <v>-26.64495765419396</v>
       </c>
       <c r="H124" t="n">
-        <v>59.5350552449647</v>
+        <v>-113.5494416266714</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -4298,25 +4298,25 @@
         <v>3690</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.2222225088060772</v>
+        <v>-0.4283346957163063</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8211929692109745</v>
+        <v>0.405505433167292</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4362183575730491</v>
+        <v>-0.1732268849067844</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.2932112010388891</v>
+        <v>0.7887250334957792</v>
       </c>
       <c r="F125" t="n">
-        <v>-139.5949880459214</v>
+        <v>-45.44306414410504</v>
       </c>
       <c r="G125" t="n">
-        <v>16.7197626442502</v>
+        <v>-29.42385257943294</v>
       </c>
       <c r="H125" t="n">
-        <v>62.14506237514062</v>
+        <v>-110.4407074436486</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -4329,25 +4329,25 @@
         <v>3720</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.2071619752375452</v>
+        <v>-0.43395975047225</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8107048019026569</v>
+        <v>0.4321509273403984</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4435264663044633</v>
+        <v>-0.1585166451464398</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.3211322373651208</v>
+        <v>0.7744656120063782</v>
       </c>
       <c r="F126" t="n">
-        <v>-138.7532010325735</v>
+        <v>-47.12301363512823</v>
       </c>
       <c r="G126" t="n">
-        <v>19.6895326675681</v>
+        <v>-32.12663871833212</v>
       </c>
       <c r="H126" t="n">
-        <v>64.83820513132895</v>
+        <v>-107.1590219300817</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -4360,25 +4360,25 @@
         <v>3750</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.191860019094365</v>
+        <v>-0.4390830486556492</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7992679992166798</v>
+        <v>0.4582968468122283</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4503166792229952</v>
+        <v>-0.143621733241342</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.3486764788666555</v>
+        <v>0.7593042040750089</v>
       </c>
       <c r="F127" t="n">
-        <v>-137.7443311187067</v>
+        <v>-49.04084128274898</v>
       </c>
       <c r="G127" t="n">
-        <v>22.61744331095606</v>
+        <v>-34.73974610288265</v>
       </c>
       <c r="H127" t="n">
-        <v>67.63250708622022</v>
+        <v>-103.6798101602056</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -4391,25 +4391,25 @@
         <v>3780</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1763347882966183</v>
+        <v>-0.4436986046765993</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7868960228092133</v>
+        <v>0.4839128677347911</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4565811996178369</v>
+        <v>-0.1285594107668057</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.3758115217485563</v>
+        <v>0.7432579381022589</v>
       </c>
       <c r="F128" t="n">
-        <v>-136.5555530193352</v>
+        <v>-51.21773269532731</v>
       </c>
       <c r="G128" t="n">
-        <v>25.49465439913697</v>
+        <v>-37.24761825188844</v>
       </c>
       <c r="H128" t="n">
-        <v>70.54739647104151</v>
+        <v>-99.9774242632983</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -4422,25 +4422,25 @@
         <v>3810</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1606047037380198</v>
+        <v>-0.4478009856264159</v>
       </c>
       <c r="C129" t="n">
-        <v>0.773603456423154</v>
+        <v>0.508969235837734</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4623128504368805</v>
+        <v>-0.113347151954651</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.4025054653893517</v>
+        <v>0.7263449713369899</v>
       </c>
       <c r="F129" t="n">
-        <v>-135.1718966406241</v>
+        <v>-53.67549507604173</v>
       </c>
       <c r="G129" t="n">
-        <v>28.31117974701685</v>
+        <v>-39.63247101207003</v>
       </c>
       <c r="H129" t="n">
-        <v>73.60385184443292</v>
+        <v>-96.02591288971666</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -4453,25 +4453,25 @@
         <v>3840</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1446884348952801</v>
+        <v>-0.4513853192993775</v>
       </c>
       <c r="C130" t="n">
-        <v>0.759405988440376</v>
+        <v>0.5334368007055323</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4675050823217801</v>
+        <v>-0.09800262420829008</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.4287269521872347</v>
+        <v>0.7085844754313589</v>
       </c>
       <c r="F130" t="n">
-        <v>-133.5762586184499</v>
+        <v>-56.4352212427003</v>
       </c>
       <c r="G130" t="n">
-        <v>31.05565634202163</v>
+        <v>-41.87411162774406</v>
       </c>
       <c r="H130" t="n">
-        <v>76.8244663829248</v>
+        <v>-91.80031408566471</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -4484,25 +4484,25 @@
         <v>3870</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.128604874925205</v>
+        <v>-0.454447301975255</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7443203927993637</v>
+        <v>0.5572870501259818</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4721519809338587</v>
+        <v>-0.08254366799928149</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.4544452067177144</v>
+        <v>0.6899966205442727</v>
       </c>
       <c r="F131" t="n">
-        <v>-131.7495414019628</v>
+        <v>-59.51527906860227</v>
       </c>
       <c r="G131" t="n">
-        <v>33.71509389313726</v>
+        <v>-43.94988097911114</v>
       </c>
       <c r="H131" t="n">
-        <v>80.23337525928211</v>
+        <v>-87.27862730064064</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -4515,25 +4515,25 @@
         <v>3900</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.1123731043779268</v>
+        <v>-0.4569832058811999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7283644972877247</v>
+        <v>0.5804921442590834</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4762482761053013</v>
+        <v>-0.06698827626747483</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.4796300908095696</v>
+        <v>0.6706025580317636</v>
       </c>
       <c r="F132" t="n">
-        <v>-129.6710004210396</v>
+        <v>-62.92851065048324</v>
       </c>
       <c r="G132" t="n">
-        <v>36.27461590730985</v>
+        <v>-45.8348068645459</v>
       </c>
       <c r="H132" t="n">
-        <v>83.85596793714474</v>
+        <v>-82.44457951932944</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -4546,25 +4546,25 @@
         <v>3930</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.09601240906484161</v>
+        <v>-0.4589898862966398</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7115572045497685</v>
+        <v>0.6030249496435029</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4797893370549192</v>
+        <v>-0.05135457328834864</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.5042520738750469</v>
+        <v>0.6504244015926985</v>
       </c>
       <c r="F133" t="n">
-        <v>-127.3189198667089</v>
+        <v>-66.67865433625259</v>
       </c>
       <c r="G133" t="n">
-        <v>38.71720155845384</v>
+        <v>-47.50207680705608</v>
       </c>
       <c r="H133" t="n">
-        <v>87.71825986020895</v>
+        <v>-77.29117175616359</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -4577,25 +4577,25 @@
         <v>3960</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.07954218863949719</v>
+        <v>-0.4604647882388204</v>
       </c>
       <c r="C134" t="n">
-        <v>0.693918403876523</v>
+        <v>0.6248590729094305</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4827711939190085</v>
+        <v>-0.0356607930626818</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.5282823708112097</v>
+        <v>0.6294852068421352</v>
       </c>
       <c r="F134" t="n">
-        <v>-124.6717371812635</v>
+        <v>-70.75625721219937</v>
       </c>
       <c r="G134" t="n">
-        <v>41.02348819976496</v>
+        <v>-48.92394066725411</v>
       </c>
       <c r="H134" t="n">
-        <v>91.84581991265181</v>
+        <v>-71.82473776722036</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -4608,25 +4608,25 @@
         <v>3990</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.06298197365054567</v>
+        <v>-0.4614059526731513</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6754689877865218</v>
+        <v>0.645968894109788</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4851905306347704</v>
+        <v>-0.01992525726008481</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.5516929096119357</v>
+        <v>0.607808949262413</v>
       </c>
       <c r="F135" t="n">
-        <v>-121.7098023869726</v>
+        <v>-75.13472534242472</v>
       </c>
       <c r="G135" t="n">
-        <v>43.17165472654523</v>
+        <v>-50.07311554717866</v>
       </c>
       <c r="H135" t="n">
-        <v>96.26204771077184</v>
+        <v>-66.06886720008889</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -4639,25 +4639,25 @@
         <v>4020</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.0463513881163123</v>
+        <v>-0.461812022190219</v>
       </c>
       <c r="C136" t="n">
-        <v>0.656230814390762</v>
+        <v>0.666329599567297</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4870446912793541</v>
+        <v>-0.004166352759598435</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.5744563828179882</v>
+        <v>0.5854205005000672</v>
       </c>
       <c r="F136" t="n">
-        <v>-118.417890712594</v>
+        <v>-79.76756939229797</v>
       </c>
       <c r="G136" t="n">
-        <v>45.13749082069205</v>
+        <v>-50.92466862236645</v>
       </c>
       <c r="H136" t="n">
-        <v>100.9856986091045</v>
+        <v>-60.06713511431246</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -4670,25 +4670,25 @@
         <v>4050</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.02967012280014976</v>
+        <v>-0.4616822460920724</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6362266786068658</v>
+        <v>0.6859172140836562</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4883316826242702</v>
+        <v>0.01159749112428134</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.5965462806750613</v>
+        <v>0.5623456030473759</v>
       </c>
       <c r="F137" t="n">
-        <v>-114.7885230263085</v>
+        <v>-84.58811932804876</v>
       </c>
       <c r="G137" t="n">
-        <v>46.89474415345198</v>
+        <v>-51.45819776940253</v>
       </c>
       <c r="H137" t="n">
-        <v>106.0275963219971</v>
+        <v>-53.88336378832125</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -4701,25 +4701,25 @@
         <v>4080</v>
       </c>
       <c r="B138" t="n">
-        <v>0.01295790844127563</v>
+        <v>-0.4610164848362285</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.6154802818794187</v>
+        <v>0.7047086324893598</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.4890501758164108</v>
+        <v>0.02734782573877204</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6179369229625274</v>
+        <v>0.5386108432176108</v>
       </c>
       <c r="F138" t="n">
-        <v>-110.8259324101129</v>
+        <v>-89.51271242990047</v>
       </c>
       <c r="G138" t="n">
-        <v>48.41586047574629</v>
+        <v>-51.65995627332521</v>
       </c>
       <c r="H138" t="n">
-        <v>111.3866964563017</v>
+        <v>-47.59841220557806</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -4732,25 +4732,25 @@
         <v>4110</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.003765510982773375</v>
+        <v>-0.4598152137825232</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.5940162004658256</v>
+        <v>0.7226816503387853</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.4891995071715022</v>
+        <v>0.04306620638428179</v>
       </c>
       <c r="E139" t="n">
-        <v>0.6386034894160398</v>
+        <v>0.5142436225228355</v>
       </c>
       <c r="F139" t="n">
-        <v>-106.5501759370601</v>
+        <v>-94.44746127636922</v>
       </c>
       <c r="G139" t="n">
-        <v>49.67320863348606</v>
+        <v>-51.52446107509562</v>
       </c>
       <c r="H139" t="n">
-        <v>117.0460024100588</v>
+        <v>-41.30338622667448</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -4763,25 +4763,25 @@
         <v>4140</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.02048040488566203</v>
+        <v>-0.4580795261968611</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.5718598523546504</v>
+        <v>0.7398149936911946</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.4887796780678355</v>
+        <v>0.05873421576826693</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6585220486730419</v>
+        <v>0.4892721274373225</v>
       </c>
       <c r="F140" t="n">
-        <v>-102.0004706860855</v>
+        <v>-99.29743849462595</v>
       </c>
       <c r="G140" t="n">
-        <v>50.64080803384074</v>
+        <v>-51.05517206730705</v>
       </c>
       <c r="H140" t="n">
-        <v>122.9692550625825</v>
+        <v>-35.09043232286566</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -4794,25 +4794,25 @@
         <v>4170</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.03716708248415424</v>
+        <v>-0.4558111354673143</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.5490374629370262</v>
+        <v>0.7560883478674258</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.4877913539331253</v>
+        <v>0.07433348754647207</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6776695856384424</v>
+        <v>0.4637252975979232</v>
       </c>
       <c r="F141" t="n">
-        <v>-97.23651257110456</v>
+        <v>-103.9761176598326</v>
       </c>
       <c r="G141" t="n">
-        <v>51.29643869990159</v>
+        <v>-50.26405354745081</v>
       </c>
       <c r="H141" t="n">
-        <v>129.0996380914932</v>
+        <v>-29.04327516946861</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -4825,25 +4825,25 @@
         <v>4200</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.0538059189132105</v>
+        <v>-0.4530123764941632</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.5255760295269858</v>
+        <v>0.7714823850813854</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.4862358623254548</v>
+        <v>0.08984572987657179</v>
       </c>
       <c r="E142" t="n">
-        <v>0.696024027218296</v>
+        <v>0.4376327925043937</v>
       </c>
       <c r="F142" t="n">
-        <v>-92.33660153995389</v>
+        <v>-108.4127984039666</v>
       </c>
       <c r="G142" t="n">
-        <v>51.62383847193219</v>
+        <v>-49.17014149633513</v>
       </c>
       <c r="H142" t="n">
-        <v>135.3616757402802</v>
+        <v>-23.22977072000725</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4856,25 +4856,25 @@
         <v>4230</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.07037738098423534</v>
+        <v>-0.4496862062258464</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.5015032848076887</v>
+        <v>0.7859787908389453</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.4841151901106061</v>
+        <v>0.1052527488925374</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7135642663958656</v>
+        <v>0.4110249568239372</v>
       </c>
       <c r="F143" t="n">
-        <v>-87.39207629526371</v>
+        <v>-112.5565912200587</v>
       </c>
       <c r="G143" t="n">
-        <v>51.61454960389675</v>
+        <v>-47.79749399411062</v>
       </c>
       <c r="H143" t="n">
-        <v>141.6668202380609</v>
+        <v>-17.69789895108941</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4887,25 +4887,25 @@
         <v>4260</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.08686205247191076</v>
+        <v>-0.4458362033035758</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.4768476593667531</v>
+        <v>0.799560289080117</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.4814319797473683</v>
+        <v>0.1205364720865344</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7302701845709887</v>
+        <v>0.3839327842824893</v>
       </c>
       <c r="F144" t="n">
-        <v>-82.49876187710737</v>
+        <v>-116.376810974025</v>
       </c>
       <c r="G144" t="n">
-        <v>51.26896262946903</v>
+        <v>-46.17298998364195</v>
       </c>
       <c r="H144" t="n">
-        <v>147.9220258620608</v>
+        <v>-12.47534692045271</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4918,25 +4918,25 @@
         <v>4290</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1032406588617454</v>
+        <v>-0.4414665668070715</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.4516382434344115</v>
+        <v>0.8122106659183851</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.4781895246981043</v>
+        <v>0.1356789714546774</v>
       </c>
       <c r="E145" t="n">
-        <v>0.746122672148671</v>
+        <v>0.3563878803564898</v>
       </c>
       <c r="F145" t="n">
-        <v>-77.74731776411225</v>
+        <v>-119.860642883305</v>
       </c>
       <c r="G145" t="n">
-        <v>50.59627170097674</v>
+        <v>-44.3243621537556</v>
       </c>
       <c r="H145" t="n">
-        <v>154.0394223088491</v>
+        <v>-7.571818023215072</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4949,25 +4949,25 @@
         <v>4320</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.1194940914883874</v>
+        <v>-0.4365821106293962</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.4259047479508145</v>
+        <v>0.8239147995001193</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.4743917639868891</v>
+        <v>0.1506624963892315</v>
       </c>
       <c r="E146" t="n">
-        <v>0.7611036473659326</v>
+        <v>0.3284224048764405</v>
       </c>
       <c r="F146" t="n">
-        <v>-73.2148483385609</v>
+        <v>-123.0093489100078</v>
       </c>
       <c r="G146" t="n">
-        <v>49.6133535496873</v>
+        <v>-42.27868108215127</v>
       </c>
       <c r="H146" t="n">
-        <v>159.9447258470559</v>
+        <v>-2.982798127034039</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4980,25 +4980,25 @@
         <v>4350</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1356034310075691</v>
+        <v>-0.4311882738186781</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.3996774650792383</v>
+        <v>0.8346586500872575</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.4700432759302985</v>
+        <v>0.165469456160478</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7751960733643606</v>
+        <v>0.3000691077630974</v>
       </c>
       <c r="F147" t="n">
-        <v>-68.95959474768529</v>
+        <v>-125.8341323260385</v>
       </c>
       <c r="G147" t="n">
-        <v>48.34287442210656</v>
+        <v>-40.06135305244988</v>
       </c>
       <c r="H147" t="n">
-        <v>165.5825695414995</v>
+        <v>1.306333777586028</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -5011,25 +5011,25 @@
         <v>4380</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1515499701070629</v>
+        <v>-0.4252910968855041</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.3729872283549922</v>
+        <v>0.8444293264778338</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.4651492710830243</v>
+        <v>0.1800825023955597</v>
       </c>
       <c r="E148" t="n">
-        <v>0.788383973489784</v>
+        <v>0.271361175972301</v>
       </c>
       <c r="F148" t="n">
-        <v>-65.01931746362825</v>
+        <v>-128.3524295701089</v>
       </c>
       <c r="G148" t="n">
-        <v>46.81108245714786</v>
+        <v>-37.69555389572994</v>
       </c>
       <c r="H148" t="n">
-        <v>170.9181435751348</v>
+        <v>5.316634532572544</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -5042,25 +5042,25 @@
         <v>4410</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1673152354484609</v>
+        <v>-0.4188972295920312</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.3458653725350736</v>
+        <v>0.8532150717394154</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.4597155844273819</v>
+        <v>0.1944845105253125</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8006524448864136</v>
+        <v>0.242332266862164</v>
       </c>
       <c r="F149" t="n">
-        <v>-61.41280284458414</v>
+        <v>-130.5849267950169</v>
       </c>
       <c r="G149" t="n">
-        <v>45.04571615646434</v>
+        <v>-35.20202038141642</v>
       </c>
       <c r="H149" t="n">
-        <v>175.9357127198822</v>
+        <v>9.072644010877871</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -5073,25 +5073,25 @@
         <v>4440</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1828810087645102</v>
+        <v>-0.4120139219586633</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.3183436933305647</v>
+        <v>0.861005287562326</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.4537486668575401</v>
+        <v>0.208658611149429</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8119876703958846</v>
+        <v>0.2130164474756547</v>
       </c>
       <c r="F150" t="n">
-        <v>-58.14329364573553</v>
+        <v>-132.5533893360911</v>
       </c>
       <c r="G150" t="n">
-        <v>43.07431135461054</v>
+        <v>-32.59906796454721</v>
       </c>
       <c r="H150" t="n">
-        <v>-179.3647886190466</v>
+        <v>12.6002538480994</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -5104,25 +5104,25 @@
         <v>4470</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1982293470871265</v>
+        <v>-0.4046490174566394</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.2904544071362967</v>
+        <v>0.8677905488626622</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.4472555760049485</v>
+        <v>0.2225882107890658</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8223769288233927</v>
+        <v>0.1834481517861069</v>
       </c>
       <c r="F151" t="n">
-        <v>-55.20261585581277</v>
+        <v>-134.2791939651955</v>
       </c>
       <c r="G151" t="n">
-        <v>40.92301427468828</v>
+        <v>-29.90274993406598</v>
       </c>
       <c r="H151" t="n">
-        <v>-174.9718557497384</v>
+        <v>15.92528251657402</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -5135,25 +5135,25 @@
         <v>4500</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.2133426021167661</v>
+        <v>-0.396810945300573</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.2622301108146006</v>
+        <v>0.8735626167905939</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.4402439664394782</v>
+        <v>0.2362570120871051</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8318086036570221</v>
+        <v>0.1536621374161811</v>
       </c>
       <c r="F152" t="n">
-        <v>-52.57511062562531</v>
+        <v>-135.7824130569753</v>
       </c>
       <c r="G152" t="n">
-        <v>38.61587514129593</v>
+        <v>-27.1270885053211</v>
       </c>
       <c r="H152" t="n">
-        <v>-170.8663157389815</v>
+        <v>19.07260763795871</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -5166,25 +5166,25 @@
         <v>4530</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.2282034386559611</v>
+        <v>-0.3885087118445763</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.2337037417587243</v>
+        <v>0.8783144501554827</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.4327220793229907</v>
+        <v>0.2496490334512708</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8402721902692922</v>
+        <v>0.1236934418867325</v>
       </c>
       <c r="F153" t="n">
-        <v>-50.24089870554594</v>
+        <v>-137.0812972903744</v>
       </c>
       <c r="G153" t="n">
-        <v>36.17452687749638</v>
+        <v>-24.28433269533061</v>
       </c>
       <c r="H153" t="n">
-        <v>-167.0245590690515</v>
+        <v>22.06570309505976</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -5197,25 +5197,25 @@
         <v>4560</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.2427948521726368</v>
+        <v>-0.3797518911239859</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.2049085382142652</v>
+        <v>0.8820402152588989</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.424698731539244</v>
+        <v>0.2627486280781203</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8477583017312879</v>
+        <v>0.09357733858609894</v>
       </c>
       <c r="F154" t="n">
-        <v>-48.17833635085039</v>
+        <v>-138.1920278369476</v>
       </c>
       <c r="G154" t="n">
-        <v>33.61813542995046</v>
+        <v>-21.38521576597168</v>
       </c>
       <c r="H154" t="n">
-        <v>-163.4209592807175</v>
+        <v>24.92645296777255</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -5228,25 +5228,25 @@
         <v>4590</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.2571001949546112</v>
+        <v>-0.3705506145208814</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1758779804798877</v>
+        <v>0.8847352941760035</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.4161832984937948</v>
+        <v>0.2755405024123815</v>
       </c>
       <c r="E155" t="n">
-        <v>0.8542586773287362</v>
+        <v>0.06334929240196963</v>
       </c>
       <c r="F155" t="n">
-        <v>-46.36571804497621</v>
+        <v>-139.1286395452113</v>
       </c>
       <c r="G155" t="n">
-        <v>30.96351872009447</v>
+        <v>-18.43919758719501</v>
       </c>
       <c r="H155" t="n">
-        <v>-160.0295342252082</v>
+        <v>27.67514505355194</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -5259,25 +5259,25 @@
         <v>4620</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.2711031537226941</v>
+        <v>-0.3609155596056869</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1466458301396475</v>
+        <v>0.8863962914787783</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.4071857255439877</v>
+        <v>0.2880097339757756</v>
       </c>
       <c r="E156" t="n">
-        <v>0.859766169058471</v>
+        <v>0.03304491522739059</v>
       </c>
       <c r="F156" t="n">
-        <v>-44.7823751980062</v>
+        <v>-139.9030445827567</v>
       </c>
       <c r="G156" t="n">
-        <v>28.22536772091862</v>
+        <v>-15.4546854806517</v>
       </c>
       <c r="H156" t="n">
-        <v>-156.8250037300672</v>
+        <v>30.33057485545631</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -5290,25 +5290,25 @@
         <v>4650</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.2847878221781306</v>
+        <v>-0.3508579381414471</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.1172459749088556</v>
+        <v>0.8870210394336981</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.3977164816013731</v>
+        <v>0.3001417886100163</v>
       </c>
       <c r="E157" t="n">
-        <v>0.8642747699483851</v>
+        <v>0.002699921308962067</v>
       </c>
       <c r="F157" t="n">
-        <v>-43.40931097810235</v>
+        <v>-140.5251083315189</v>
       </c>
       <c r="G157" t="n">
-        <v>25.41648983508202</v>
+        <v>-12.4392320587975</v>
       </c>
       <c r="H157" t="n">
-        <v>-153.7833670265096</v>
+        <v>32.9102134726685</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -5321,25 +5321,25 @@
         <v>4680</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.298138676570162</v>
+        <v>-0.3403894832917683</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.08771246867766987</v>
+        <v>0.8866086016840963</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.3877865692107948</v>
+        <v>0.3119225371004454</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8677795970816453</v>
+        <v>-0.02764991741318451</v>
       </c>
       <c r="F158" t="n">
-        <v>-42.22953501438925</v>
+        <v>-141.0027457862398</v>
       </c>
       <c r="G158" t="n">
-        <v>22.54807723974823</v>
+        <v>-9.399711421892439</v>
       </c>
       <c r="H158" t="n">
-        <v>-150.8821838415804</v>
+        <v>35.43040949040225</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -5352,25 +5352,25 @@
         <v>4710</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.3111405988068139</v>
+        <v>-0.3295224360253498</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.05807947494684743</v>
+        <v>0.8851592754395416</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.377407506246382</v>
+        <v>0.3233382712152772</v>
       </c>
       <c r="E159" t="n">
-        <v>0.870276896506464</v>
+        <v>-0.05796881598567213</v>
       </c>
       <c r="F159" t="n">
-        <v>-41.22818895729753</v>
+        <v>-141.3420182225491</v>
       </c>
       <c r="G159" t="n">
-        <v>19.62995507719405</v>
+        <v>-6.342476540173608</v>
       </c>
       <c r="H159" t="n">
-        <v>-148.1006331738793</v>
+        <v>37.90660671257832</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -5383,25 +5383,25 @@
         <v>4740</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3237788891546305</v>
+        <v>-0.3182695307405429</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.02838123029040078</v>
+        <v>0.8826745921833508</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.3665913128958023</v>
+        <v>0.3343757191538515</v>
       </c>
       <c r="E160" t="n">
-        <v>0.8717640426252556</v>
+        <v>-0.08822102105787941</v>
       </c>
       <c r="F160" t="n">
-        <v>-40.39255053448237</v>
+        <v>-141.5472176380373</v>
       </c>
       <c r="G160" t="n">
-        <v>16.67081116282771</v>
+        <v>-3.273501342127701</v>
       </c>
       <c r="H160" t="n">
-        <v>-145.4194423647062</v>
+        <v>40.35356751336661</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -5414,25 +5414,25 @@
         <v>4770</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.336039278303739</v>
+        <v>-0.3066439801109695</v>
       </c>
       <c r="C161" t="n">
-        <v>0.001347991612883699</v>
+        <v>0.8791573169063093</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3553504983883072</v>
+        <v>0.3450220604239607</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8722395368537794</v>
+        <v>-0.1183708554189229</v>
       </c>
       <c r="F161" t="n">
-        <v>-39.71197030429149</v>
+        <v>-141.6209315194309</v>
       </c>
       <c r="G161" t="n">
-        <v>13.67840253748536</v>
+        <v>-0.1985112721083642</v>
       </c>
       <c r="H161" t="n">
-        <v>-142.8207380936093</v>
+        <v>42.78559678440362</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -5445,25 +5445,25 @@
         <v>4800</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.3479079388597694</v>
+        <v>-0.2946594591898297</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0310739154052277</v>
+        <v>0.8746114458785543</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.3436980474760442</v>
+        <v>0.355264940131938</v>
       </c>
       <c r="E162" t="n">
-        <v>0.871703005628001</v>
+        <v>-0.1483827623453353</v>
       </c>
       <c r="F162" t="n">
-        <v>-39.17777809234771</v>
+        <v>-141.5640837171202</v>
       </c>
       <c r="G162" t="n">
-        <v>10.65973942608461</v>
+        <v>2.876893869829255</v>
       </c>
       <c r="H162" t="n">
-        <v>-140.2878545474567</v>
+        <v>45.21676470559406</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -5476,25 +5476,25 @@
         <v>4830</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.3593714962769843</v>
+        <v>-0.282330088735378</v>
       </c>
       <c r="C163" t="n">
-        <v>0.06076229884496018</v>
+        <v>0.869042202945571</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.331647406722563</v>
+        <v>0.3650924827386867</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8701551978336485</v>
+        <v>-0.178221349848676</v>
       </c>
       <c r="F163" t="n">
-        <v>-38.78318293597478</v>
+        <v>-141.3759492871928</v>
       </c>
       <c r="G163" t="n">
-        <v>7.62124905310469</v>
+        <v>5.94712104807149</v>
       </c>
       <c r="H163" t="n">
-        <v>-137.8051206395849</v>
+        <v>47.66112847685347</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -5507,25 +5507,25 @@
         <v>4860</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.370417039392566</v>
+        <v>-0.2696704178173895</v>
       </c>
       <c r="C164" t="n">
-        <v>0.09037896725559583</v>
+        <v>0.8624560343544739</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.319212470504512</v>
+        <v>0.374493305241223</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8675979817172607</v>
+        <v>-0.2078514346576738</v>
       </c>
       <c r="F164" t="n">
-        <v>-38.52318139581482</v>
+        <v>-141.0541426016713</v>
       </c>
       <c r="G164" t="n">
-        <v>4.568922635102009</v>
+        <v>9.006465322742185</v>
       </c>
       <c r="H164" t="n">
-        <v>-135.3576389522972</v>
+        <v>50.13295401262034</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -5538,25 +5538,25 @@
         <v>4890</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.3810321305116389</v>
+        <v>-0.2566954056904335</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1198898474037213</v>
+        <v>0.854860602092719</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.3064075668276242</v>
+        <v>0.3834565298090266</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8640343413302788</v>
+        <v>-0.2372380859683302</v>
       </c>
       <c r="F165" t="n">
-        <v>-38.39448320849237</v>
+        <v>-140.59457925345</v>
       </c>
       <c r="G165" t="n">
-        <v>1.50844928426983</v>
+        <v>12.04898766488878</v>
       </c>
       <c r="H165" t="n">
-        <v>-132.9310630459377</v>
+        <v>52.64693866809542</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -5569,25 +5569,25 @@
         <v>4920</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.3912048151790289</v>
+        <v>-0.2434204029486981</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1492610010572078</v>
+        <v>0.846264775720309</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2932474428694241</v>
+        <v>0.3919717958729614</v>
       </c>
       <c r="E166" t="n">
-        <v>0.8594683725389118</v>
+        <v>-0.2663466689175478</v>
       </c>
       <c r="F166" t="n">
-        <v>-38.39545946283916</v>
+        <v>-139.9914136751063</v>
       </c>
       <c r="G166" t="n">
-        <v>-1.554659405965267</v>
+        <v>15.06838548633718</v>
       </c>
       <c r="H166" t="n">
-        <v>-130.5113758577282</v>
+        <v>55.21843528688067</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -5600,25 +5600,25 @@
         <v>4950</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.4009236316806063</v>
+        <v>-0.2298611319839788</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1784586582692395</v>
+        <v>0.8366786226767725</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.2797472502330093</v>
+        <v>0.400029271659671</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8539052786087262</v>
+        <v>-0.2951428877241937</v>
       </c>
       <c r="F167" t="n">
-        <v>-38.52611608255111</v>
+        <v>-139.2369563658255</v>
       </c>
       <c r="G167" t="n">
-        <v>-4.614950330211687</v>
+        <v>18.05785207354818</v>
       </c>
       <c r="H167" t="n">
-        <v>-128.0846695883694</v>
+        <v>57.8636761074879</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -5631,25 +5631,25 @@
         <v>4980</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.4101776202780599</v>
+        <v>-0.216033657396207</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2074492503226074</v>
+        <v>0.8261133896205847</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.2659225299486639</v>
+        <v>0.4076196701031086</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8473513653906023</v>
+        <v>-0.3235928474281213</v>
       </c>
       <c r="F168" t="n">
-        <v>-38.78809380935614</v>
+        <v>-138.3215770055336</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.666911669134998</v>
+        <v>21.00992310574711</v>
       </c>
       <c r="H168" t="n">
-        <v>-125.6369262416627</v>
+        <v>60.59999387510896</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -5662,25 +5662,25 @@
         <v>5010</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.4189563322939648</v>
+        <v>-0.2019544023840483</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2361994426181317</v>
+        <v>0.8145815186039115</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.2517891970976275</v>
+        <v>0.4147342392031572</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8398140360595344</v>
+        <v>-0.3516630201474499</v>
       </c>
       <c r="F169" t="n">
-        <v>-39.18469467335107</v>
+        <v>-137.2336090938998</v>
       </c>
       <c r="G169" t="n">
-        <v>-10.70485384831553</v>
+        <v>23.91629485121994</v>
       </c>
       <c r="H169" t="n">
-        <v>-123.1537975692307</v>
+        <v>63.44601957331421</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -5693,25 +5693,25 @@
         <v>5040</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.427249839009175</v>
+        <v>-0.1876400715704716</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2646761673539589</v>
+        <v>0.8020965901150851</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2373635251278516</v>
+        <v>0.4213648024040063</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8313017854187088</v>
+        <v>-0.3793204014574148</v>
       </c>
       <c r="F170" t="n">
-        <v>-39.72093372611091</v>
+        <v>-135.9592657477351</v>
       </c>
       <c r="G170" t="n">
-        <v>-13.72278492447445</v>
+        <v>26.76764072011536</v>
       </c>
       <c r="H170" t="n">
-        <v>-120.6203836035956</v>
+        <v>66.42186743173826</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -5724,25 +5724,25 @@
         <v>5070</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.4350487404583912</v>
+        <v>-0.1731076658056791</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2928466562341749</v>
+        <v>0.7886733347070259</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.2226621297463357</v>
+        <v>0.4275037471421401</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8218241936903878</v>
+        <v>-0.4065324751367813</v>
       </c>
       <c r="F171" t="n">
-        <v>-40.40361322157437</v>
+        <v>-134.4826090003126</v>
       </c>
       <c r="G171" t="n">
-        <v>-16.71427665999217</v>
+        <v>29.55338494267123</v>
       </c>
       <c r="H171" t="n">
-        <v>-118.0210101834829</v>
+        <v>69.54924233801505</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -5755,25 +5755,25 @@
         <v>5100</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.4423441741110926</v>
+        <v>-0.1583744502823262</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3206784731626885</v>
+        <v>0.7743276085075582</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.2077019524012008</v>
+        <v>0.4331440387104156</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8113919197581101</v>
+        <v>-0.4332672730894486</v>
       </c>
       <c r="F172" t="n">
-        <v>-41.24141401298389</v>
+        <v>-132.785609617592</v>
       </c>
       <c r="G172" t="n">
-        <v>-19.67231749146413</v>
+        <v>32.26146416832479</v>
       </c>
       <c r="H172" t="n">
-        <v>-115.3390082558845</v>
+        <v>72.85145271226688</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -5786,25 +5786,25 @@
         <v>5130</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.4491278234572823</v>
+        <v>-0.1434579313282588</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3481395469924243</v>
+        <v>0.7590763738312686</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1925002433105694</v>
+        <v>0.4382792282264329</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8000166937894517</v>
+        <v>-0.4594934153341382</v>
       </c>
       <c r="F173" t="n">
-        <v>-42.24499513770181</v>
+        <v>-130.8483684532213</v>
       </c>
       <c r="G173" t="n">
-        <v>-22.58914869972873</v>
+        <v>34.87807072187803</v>
       </c>
       <c r="H173" t="n">
-        <v>-112.5565016266873</v>
+        <v>76.3532518563304</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -5817,25 +5817,25 @@
         <v>5160</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.4553919265073701</v>
+        <v>-0.1283758327073012</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3751982043951103</v>
+        <v>0.7429376780956721</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1770745439910708</v>
+        <v>0.4429034599430803</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7877113091488183</v>
+        <v>-0.4851801492363088</v>
       </c>
       <c r="F174" t="n">
-        <v>-43.42708664820211</v>
+        <v>-128.6495937926845</v>
       </c>
       <c r="G174" t="n">
-        <v>-25.45608045701037</v>
+        <v>37.38739293070481</v>
       </c>
       <c r="H174" t="n">
-        <v>-109.6542159264469</v>
+        <v>80.08041583785146</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -5848,25 +5848,25 @@
         <v>5190</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.4611292841837455</v>
+        <v>-0.1131460715078025</v>
       </c>
       <c r="C175" t="n">
-        <v>0.401823202811382</v>
+        <v>0.7259306310658363</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.16144266929361</v>
+        <v>0.4470114778655014</v>
       </c>
       <c r="E175" t="n">
-        <v>0.7744896135403905</v>
+        <v>-0.5102973878428225</v>
       </c>
       <c r="F175" t="n">
-        <v>-44.80255176216085</v>
+        <v>-126.1674603903764</v>
       </c>
       <c r="G175" t="n">
-        <v>-28.26328533261489</v>
+        <v>39.77137794554559</v>
       </c>
       <c r="H175" t="n">
-        <v>-106.6113307643903</v>
+        <v>84.05893329892929</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -5879,25 +5879,25 @@
         <v>5220</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.4663332686134667</v>
+        <v>-0.09778673364079084</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4279837635961815</v>
+        <v>0.7080753803966151</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.145622688863671</v>
+        <v>0.4505986316597188</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7603664992425972</v>
+        <v>-0.5348157472872718</v>
       </c>
       <c r="F176" t="n">
-        <v>-46.38838122527397</v>
+        <v>-123.3810019271069</v>
       </c>
       <c r="G176" t="n">
-        <v>-30.99956874504513</v>
+        <v>42.00955979314435</v>
       </c>
       <c r="H176" t="n">
-        <v>-103.4054104335903</v>
+        <v>88.3136564163968</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -5910,25 +5910,25 @@
         <v>5250</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.4709978342150506</v>
+        <v>-0.08231604906849695</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4536496222661526</v>
+        <v>0.6893930855545363</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.129632897305804</v>
+        <v>0.4536608818107029</v>
       </c>
       <c r="E177" t="n">
-        <v>0.7453578820396359</v>
+        <v>-0.5587065830738744</v>
       </c>
       <c r="F177" t="n">
-        <v>-48.20356553648481</v>
+        <v>-120.272192954</v>
       </c>
       <c r="G177" t="n">
-        <v>-33.65212107044588</v>
+        <v>44.07901793050777</v>
       </c>
       <c r="H177" t="n">
-        <v>-100.012464956417</v>
+        <v>92.86625776741089</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -5941,25 +5941,25 @@
         <v>5280</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.4751175135295748</v>
+        <v>-0.0667523667792003</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4787909933374773</v>
+        <v>0.6699058900943159</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1134918375402905</v>
+        <v>0.4561948040209086</v>
       </c>
       <c r="E178" t="n">
-        <v>0.7294807302788159</v>
+        <v>-0.581942025231588</v>
       </c>
       <c r="F178" t="n">
-        <v>-50.26875726563345</v>
+        <v>-116.8288293331691</v>
       </c>
       <c r="G178" t="n">
-        <v>-36.20624984411074</v>
+        <v>45.95455660938381</v>
       </c>
       <c r="H178" t="n">
-        <v>-96.40723419767616</v>
+        <v>97.73238481345894</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -5972,25 +5972,25 @@
         <v>5310</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.4786874437691654</v>
+        <v>-0.05111412959769766</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5033787070479567</v>
+        <v>0.6496368923494958</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.09721821622877902</v>
+        <v>0.4581975928190201</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7127529915067099</v>
+        <v>-0.604495012211693</v>
       </c>
       <c r="F179" t="n">
-        <v>-52.60563243361496</v>
+        <v>-113.0481770700288</v>
       </c>
       <c r="G179" t="n">
-        <v>-38.64513724204376</v>
+        <v>47.60921495999309</v>
       </c>
       <c r="H179" t="n">
-        <v>-92.56376912814054</v>
+        <v>102.9180427337433</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -6003,25 +6003,25 @@
         <v>5340</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.4817033614693131</v>
+        <v>-0.03541984894228604</v>
       </c>
       <c r="C180" t="n">
-        <v>0.5273841736478589</v>
+        <v>0.6286101146399301</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.08083092574850027</v>
+        <v>0.4596670643544883</v>
       </c>
       <c r="E180" t="n">
-        <v>0.6951936179062418</v>
+        <v>-0.6263393233870967</v>
       </c>
       <c r="F180" t="n">
-        <v>-55.23578731104969</v>
+        <v>-108.9410917910275</v>
       </c>
       <c r="G180" t="n">
-        <v>-40.94962033706994</v>
+        <v>49.0152167902525</v>
       </c>
       <c r="H180" t="n">
-        <v>-88.45649402565962</v>
+        <v>108.4155039029552</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -6034,25 +6034,25 @@
         <v>5370</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.4841616130205463</v>
+        <v>0.01968807953870893</v>
       </c>
       <c r="C181" t="n">
-        <v>0.5507794341680358</v>
+        <v>-0.6068504709782543</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.06434901219588215</v>
+        <v>-0.4606016583701115</v>
       </c>
       <c r="E181" t="n">
-        <v>0.6768225409989647</v>
+        <v>0.6474496101661129</v>
       </c>
       <c r="F181" t="n">
-        <v>-58.17903097278453</v>
+        <v>-104.5359213444281</v>
       </c>
       <c r="G181" t="n">
-        <v>-43.0980740302475</v>
+        <v>50.14542638466218</v>
       </c>
       <c r="H181" t="n">
-        <v>-84.06187248594736</v>
+        <v>114.1994320311348</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -6065,25 +6065,25 @@
         <v>5400</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.4860591615536515</v>
+        <v>0.003937394271869672</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5735371938093128</v>
+        <v>-0.5843837334894566</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.04779165344582359</v>
+        <v>-0.461000439328184</v>
       </c>
       <c r="E182" t="n">
-        <v>0.657660654629737</v>
+        <v>0.6678014254989973</v>
       </c>
       <c r="F182" t="n">
-        <v>-61.45092553772159</v>
+        <v>-99.88109823411659</v>
       </c>
       <c r="G182" t="n">
-        <v>-45.06646322888894</v>
+        <v>50.97527342966696</v>
       </c>
       <c r="H182" t="n">
-        <v>-79.36083094784669</v>
+        <v>120.224314684695</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -6096,25 +6096,25 @@
         <v>5430</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.4873935934094835</v>
+        <v>-0.01181364087364177</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5956308550948085</v>
+        <v>-0.561236497459734</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.03117813672990186</v>
+        <v>-0.4608630966914757</v>
       </c>
       <c r="E183" t="n">
-        <v>0.6377297965066944</v>
+        <v>0.6873712518838579</v>
       </c>
       <c r="F183" t="n">
-        <v>-65.05952063532152</v>
+        <v>-95.04514354317071</v>
       </c>
       <c r="G183" t="n">
-        <v>-46.82866715017555</v>
+        <v>51.4849497513647</v>
       </c>
       <c r="H183" t="n">
-        <v>-74.34199147112906</v>
+        <v>126.4244829406178</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -6127,25 +6127,25 @@
         <v>5460</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.4881631241468055</v>
+        <v>-0.02754649154501835</v>
       </c>
       <c r="C184" t="n">
-        <v>0.6170345507811226</v>
+        <v>-0.5374361453377998</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.01452783570956438</v>
+        <v>-0.4601899443460922</v>
       </c>
       <c r="E184" t="n">
-        <v>0.6170527281806349</v>
+        <v>0.7061365275998318</v>
       </c>
       <c r="F184" t="n">
-        <v>-69.00142581521395</v>
+        <v>-90.11313021852877</v>
       </c>
       <c r="G184" t="n">
-        <v>-48.35718880225087</v>
+        <v>51.66150849700472</v>
       </c>
       <c r="H184" t="n">
-        <v>-69.00556946750652</v>
+        <v>132.7176706542844</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
@@ -6158,25 +6158,25 @@
         <v>5490</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.4883666040251175</v>
+        <v>-0.04324267949044861</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6377231763967498</v>
+        <v>-0.5130108095964279</v>
       </c>
       <c r="D185" t="n">
-        <v>0.002139812889977397</v>
+        <v>-0.4589819191731217</v>
       </c>
       <c r="E185" t="n">
-        <v>0.5956531134479277</v>
+        <v>0.7240756713078145</v>
       </c>
       <c r="F185" t="n">
-        <v>-73.25769631737006</v>
+        <v>-85.17960666832278</v>
       </c>
       <c r="G185" t="n">
-        <v>-49.62434430943041</v>
+        <v>51.50040054611633</v>
       </c>
       <c r="H185" t="n">
-        <v>-63.3674604592581</v>
+        <v>139.0121127446838</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -6189,25 +6189,25 @@
         <v>5520</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.4880035229045995</v>
+        <v>-0.05888380657415904</v>
       </c>
       <c r="C186" t="n">
-        <v>0.657672422330965</v>
+        <v>-0.4879893347402058</v>
       </c>
       <c r="D186" t="n">
-        <v>0.01880533305604415</v>
+        <v>-0.4572405787744061</v>
       </c>
       <c r="E186" t="n">
-        <v>0.5735554951237694</v>
+        <v>0.7411681048353299</v>
       </c>
       <c r="F186" t="n">
-        <v>-77.79042485360785</v>
+        <v>-80.33926267815407</v>
       </c>
       <c r="G186" t="n">
-        <v>-50.60395640022869</v>
+        <v>51.00604852745363</v>
       </c>
       <c r="H186" t="n">
-        <v>-57.46262275791469</v>
+        <v>145.2159008080479</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -6220,25 +6220,25 @@
         <v>5550</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.4870740145034902</v>
+        <v>-0.07445157832211587</v>
       </c>
       <c r="C187" t="n">
-        <v>0.6768588053480948</v>
+        <v>-0.4624012385026476</v>
       </c>
       <c r="D187" t="n">
-        <v>0.03544923360542235</v>
+        <v>-0.4549680983664254</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5507852701870229</v>
+        <v>0.7573942741963409</v>
       </c>
       <c r="F187" t="n">
-        <v>-82.54126481555251</v>
+        <v>-75.67756020919315</v>
       </c>
       <c r="G187" t="n">
-        <v>-51.27344317394389</v>
+        <v>50.19129720053125</v>
       </c>
       <c r="H187" t="n">
-        <v>-51.34653023838573</v>
+        <v>151.2463738215379</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -6251,25 +6251,25 @@
         <v>5580</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.485578859958824</v>
+        <v>-0.08992782693226112</v>
       </c>
       <c r="C188" t="n">
-        <v>0.6952596994110865</v>
+        <v>-0.436276672354393</v>
       </c>
       <c r="D188" t="n">
-        <v>0.05205203257160122</v>
+        <v>-0.4521672668565159</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5273686633096999</v>
+        <v>0.7727356688325753</v>
       </c>
       <c r="F188" t="n">
-        <v>-87.43307764201953</v>
+        <v>-71.2635669345522</v>
       </c>
       <c r="G188" t="n">
-        <v>-51.61601900696711</v>
+        <v>49.07589383099044</v>
       </c>
       <c r="H188" t="n">
-        <v>-45.09350210035605</v>
+        <v>157.0373063996013</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -6282,25 +6282,25 @@
         <v>5610</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.4835194906362676</v>
+        <v>-0.1052945336312751</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7128533657443247</v>
+        <v>-0.4096463815460763</v>
       </c>
       <c r="D189" t="n">
-        <v>0.06859428182771461</v>
+        <v>-0.4488414821332777</v>
       </c>
       <c r="E189" t="n">
-        <v>0.5033326987414711</v>
+        <v>0.7871748390224255</v>
       </c>
       <c r="F189" t="n">
-        <v>-92.37525997360088</v>
+        <v>-67.14631034456055</v>
       </c>
       <c r="G189" t="n">
-        <v>-51.62257753441377</v>
+        <v>47.68439425005064</v>
       </c>
       <c r="H189" t="n">
-        <v>-38.79135363672604</v>
+        <v>162.542577092863</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -6313,25 +6313,25 @@
         <v>5640</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.4808979901398111</v>
+        <v>-0.1205338503671733</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7296189820011867</v>
+        <v>-0.3825416647483885</v>
       </c>
       <c r="D190" t="n">
-        <v>0.08505659185115717</v>
+        <v>-0.4449947455965084</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4787051706068231</v>
+        <v>0.8006954115259399</v>
       </c>
       <c r="F190" t="n">
-        <v>-97.27213164417562</v>
+        <v>-63.35468871224777</v>
       </c>
       <c r="G190" t="n">
-        <v>-51.29280144630732</v>
+        <v>46.04396070931295</v>
       </c>
       <c r="H190" t="n">
-        <v>-32.53298662949987</v>
+        <v>167.7362807813665</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -6344,25 +6344,25 @@
         <v>5670</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.4777170954820687</v>
+        <v>-0.1356281308541804</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7455366704193146</v>
+        <v>-0.3549943148120317</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1014196565385851</v>
+        <v>-0.4406316528610986</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4535146116850631</v>
+        <v>0.8132821116125903</v>
       </c>
       <c r="F191" t="n">
-        <v>-102.0325635164862</v>
+        <v>-59.90000374737552</v>
       </c>
       <c r="G191" t="n">
-        <v>-50.63519788419865</v>
+        <v>44.18242365179945</v>
       </c>
       <c r="H191" t="n">
-        <v>-26.40674004613743</v>
+        <v>172.6102216525049</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -6375,25 +6375,25 @@
         <v>5700</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.4739801973695367</v>
+        <v>-0.1505599103769343</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7605875249200896</v>
+        <v>-0.3270366522340682</v>
       </c>
       <c r="D192" t="n">
-        <v>0.117664278046592</v>
+        <v>-0.435757398924039</v>
       </c>
       <c r="E192" t="n">
-        <v>0.4277902606526256</v>
+        <v>0.8249207421114944</v>
       </c>
       <c r="F192" t="n">
-        <v>-106.5784913500895</v>
+        <v>-56.77985108969419</v>
       </c>
       <c r="G192" t="n">
-        <v>-49.66604991620885</v>
+        <v>42.12681715597701</v>
       </c>
       <c r="H192" t="n">
-        <v>-20.48785452581758</v>
+        <v>177.1700452673196</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -6406,25 +6406,25 @@
         <v>5730</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.4696913395785899</v>
+        <v>-0.1653119859386989</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7747536370062017</v>
+        <v>-0.2987013735684627</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1337713915272412</v>
+        <v>-0.4303777530761108</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4015620279351594</v>
+        <v>0.835598244607105</v>
       </c>
       <c r="F193" t="n">
-        <v>-110.8504417094954</v>
+        <v>-53.98223120247012</v>
       </c>
       <c r="G193" t="n">
-        <v>-48.4075707398412</v>
+        <v>39.90240918775287</v>
       </c>
       <c r="H193" t="n">
-        <v>-14.83292433031763</v>
+        <v>-178.5688381137864</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -6437,25 +6437,25 @@
         <v>5760</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.4648552173868086</v>
+        <v>-0.1798673942429458</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7880181204226729</v>
+        <v>-0.2700215844451962</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1497220897314381</v>
+        <v>-0.4244990621335145</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3748604601718245</v>
+        <v>0.8453026739989205</v>
       </c>
       <c r="F194" t="n">
-        <v>-114.8093783431314</v>
+        <v>-51.48922704102672</v>
       </c>
       <c r="G194" t="n">
-        <v>-46.88571162259139</v>
+        <v>37.53218705250287</v>
       </c>
       <c r="H194" t="n">
-        <v>-9.478027991580726</v>
+        <v>-174.5849038669263</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -6468,25 +6468,25 @@
         <v>5790</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.4594771750543601</v>
+        <v>-0.1942094396236586</v>
       </c>
       <c r="C195" t="n">
-        <v>0.8003651344567305</v>
+        <v>-0.2410307408546786</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1654976473494385</v>
+        <v>-0.4181282389968404</v>
       </c>
       <c r="E195" t="n">
-        <v>0.3477167034698297</v>
+        <v>0.8540232147181425</v>
       </c>
       <c r="F195" t="n">
-        <v>-118.4353706414455</v>
+        <v>-49.27990556987168</v>
       </c>
       <c r="G195" t="n">
-        <v>-45.12805913425358</v>
+        <v>35.03667084669195</v>
       </c>
       <c r="H195" t="n">
-        <v>-4.440035700501688</v>
+        <v>-170.8533792970855</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -6499,25 +6499,25 @@
         <v>5820</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.453563202323214</v>
+        <v>-0.2083217109557622</v>
       </c>
       <c r="C196" t="n">
-        <v>0.811779905873374</v>
+        <v>-0.211762609115431</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1810795450879429</v>
+        <v>-0.4112727534606616</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3201624654285246</v>
+        <v>0.8617501867629476</v>
       </c>
       <c r="F196" t="n">
-        <v>-121.7242586192633</v>
+        <v>-47.3324215173479</v>
       </c>
       <c r="G196" t="n">
-        <v>-43.16211497172058</v>
+        <v>32.43395169058235</v>
       </c>
       <c r="H196" t="n">
-        <v>0.280081393176376</v>
+        <v>-167.3483093498804</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -6530,25 +6530,25 @@
         <v>5850</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.4471199299471537</v>
+        <v>-0.2221880977655306</v>
       </c>
       <c r="C197" t="n">
-        <v>0.8222487493748332</v>
+        <v>-0.182251226203907</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1964494933488897</v>
+        <v>-0.4039406225498021</v>
       </c>
       <c r="E197" t="n">
-        <v>0.2922299761464242</v>
+        <v>0.8684750504260821</v>
       </c>
       <c r="F197" t="n">
-        <v>-124.683550437852</v>
+        <v>-45.62542740318577</v>
       </c>
       <c r="G197" t="n">
-        <v>-41.01407688288102</v>
+        <v>29.73986248032495</v>
       </c>
       <c r="H197" t="n">
-        <v>4.693176393974343</v>
+        <v>-164.0439241281758</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -6561,25 +6561,25 @@
         <v>5880</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.4401546242389534</v>
+        <v>-0.2357928055310331</v>
       </c>
       <c r="C198" t="n">
-        <v>0.8317590865776011</v>
+        <v>-0.1525308605711099</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2115894554929802</v>
+        <v>-0.3961404004366854</v>
       </c>
       <c r="E198" t="n">
-        <v>0.2639519482421842</v>
+        <v>0.8741904097936006</v>
       </c>
       <c r="F198" t="n">
-        <v>-127.3284680776231</v>
+        <v>-44.13894542572636</v>
       </c>
       <c r="G198" t="n">
-        <v>-38.70810267664169</v>
+        <v>26.96821515253156</v>
       </c>
       <c r="H198" t="n">
-        <v>8.818002461657752</v>
+        <v>-160.9154629988873</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -6592,25 +6592,25 @@
         <v>5910</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.432675180641781</v>
+        <v>-0.2491203702038647</v>
       </c>
       <c r="C199" t="n">
-        <v>0.8402994634616929</v>
+        <v>-0.1226359734955709</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2264816706202717</v>
+        <v>-0.3878811679806749</v>
       </c>
       <c r="E199" t="n">
-        <v>0.2353615360156453</v>
+        <v>0.8788900151214772</v>
       </c>
       <c r="F199" t="n">
-        <v>-129.6786384866222</v>
+        <v>-42.85485347486576</v>
       </c>
       <c r="G199" t="n">
-        <v>-36.26596540990877</v>
+        <v>24.13106115700491</v>
       </c>
       <c r="H199" t="n">
-        <v>12.67793704061031</v>
+        <v>-157.9396066295228</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -6623,25 +6623,25 @@
         <v>5940</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.4246901108129423</v>
+        <v>-0.2621556720066617</v>
       </c>
       <c r="C200" t="n">
-        <v>0.8478595710051033</v>
+        <v>-0.092601180970613</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2411086855321352</v>
+        <v>-0.3791725219151916</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2064922744164989</v>
+        <v>0.8825687642003068</v>
       </c>
       <c r="F200" t="n">
-        <v>-131.7555901785068</v>
+        <v>-41.75711183883574</v>
       </c>
       <c r="G200" t="n">
-        <v>-33.70698522510769</v>
+        <v>21.23894930754557</v>
       </c>
       <c r="H200" t="n">
-        <v>16.29851612346459</v>
+        <v>-155.094642452249</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -6654,25 +6654,25 @@
         <v>5970</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.4162085560458361</v>
+        <v>-0.2748839485450388</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8544302398833082</v>
+        <v>-0.06246121615499488</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2554533373279555</v>
+        <v>-0.3700245637139068</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1773781144763981</v>
+        <v>0.8852227028025549</v>
       </c>
       <c r="F201" t="n">
-        <v>-133.5810004262556</v>
+        <v>-40.83182647552997</v>
       </c>
       <c r="G201" t="n">
-        <v>-31.0481462095793</v>
+        <v>18.30116734046239</v>
       </c>
       <c r="H201" t="n">
-        <v>19.7057181035119</v>
+        <v>-152.3604581954856</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>

--- a/notebooks/dados_orientacao_IA.xlsx
+++ b/notebooks/dados_orientacao_IA.xlsx
@@ -485,25 +485,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06209789895474001</v>
+        <v>-0.3789010948448718</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4869458470090401</v>
+        <v>0.8243324626435869</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4601081289374392</v>
+        <v>0.005064561288258879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7398162628056674</v>
+        <v>0.4205761543124792</v>
       </c>
       <c r="F2" t="n">
-        <v>-80.62911868556652</v>
+        <v>-120.0622386613162</v>
       </c>
       <c r="G2" t="n">
-        <v>51.04540288401247</v>
+        <v>-44.20495421841737</v>
       </c>
       <c r="H2" t="n">
-        <v>145.4876865678012</v>
+        <v>-25.65522389955188</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -516,25 +516,25 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07776188072925788</v>
+        <v>-0.3785168403814234</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4614045021830704</v>
+        <v>0.8382194331780544</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4577241519997902</v>
+        <v>0.017986620550568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7560076560106483</v>
+        <v>0.3921602540690418</v>
       </c>
       <c r="F3" t="n">
-        <v>-75.9544265161985</v>
+        <v>-123.1907893816278</v>
       </c>
       <c r="G3" t="n">
-        <v>50.24962564758159</v>
+        <v>-42.14809192150113</v>
       </c>
       <c r="H3" t="n">
-        <v>151.5307362655343</v>
+        <v>-21.08499076648712</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -547,25 +547,25 @@
         <v>60</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.09333046940977949</v>
+        <v>-0.3776916761565974</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4353278290302448</v>
+        <v>0.8511292534832843</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4548086242258804</v>
+        <v>0.03088674517352739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7713159016131629</v>
+        <v>0.3632822602324438</v>
       </c>
       <c r="F4" t="n">
-        <v>-71.52379681488388</v>
+        <v>-125.9963327662418</v>
       </c>
       <c r="G4" t="n">
-        <v>49.15184030082492</v>
+        <v>-39.92106587976701</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3377176555485</v>
+        <v>-16.81351718937398</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -578,25 +578,25 @@
         <v>90</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1087855389022295</v>
+        <v>-0.3764263010094617</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.408746517665833</v>
+        <v>0.863046499320018</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4513650794011715</v>
+        <v>0.04374986692314104</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7857235874777978</v>
+        <v>0.3339759408460493</v>
       </c>
       <c r="F5" t="n">
-        <v>-67.38750928349175</v>
+        <v>-128.4965810914799</v>
       </c>
       <c r="G5" t="n">
-        <v>47.77637390954617</v>
+        <v>-37.54690740870539</v>
       </c>
       <c r="H5" t="n">
-        <v>162.8612525068748</v>
+        <v>-12.81945763623926</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -609,25 +609,25 @@
         <v>120</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1241091385998768</v>
+        <v>-0.3747219392981358</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3816918105897555</v>
+        <v>0.8739569112061197</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4473976582407194</v>
+        <v>0.05656096735528067</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7992143760252509</v>
+        <v>0.3042756029252717</v>
       </c>
       <c r="F6" t="n">
-        <v>-63.57563302652449</v>
+        <v>-130.7123428442992</v>
       </c>
       <c r="G6" t="n">
-        <v>46.15028913214009</v>
+        <v>-35.04620254205955</v>
       </c>
       <c r="H6" t="n">
-        <v>168.0742588426151</v>
+        <v>-9.078133838518514</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -640,25 +640,25 @@
         <v>150</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1392835144514084</v>
+        <v>-0.372580341748682</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3541954621595657</v>
+        <v>0.883847413564626</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.442911102011376</v>
+        <v>0.06930509611384275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8117730180923141</v>
+        <v>0.2742160500959179</v>
       </c>
       <c r="F7" t="n">
-        <v>-60.10043790500345</v>
+        <v>-132.6653967705098</v>
       </c>
       <c r="G7" t="n">
-        <v>44.30142365596255</v>
+        <v>-32.43712217450659</v>
       </c>
       <c r="H7" t="n">
-        <v>172.9675641661988</v>
+        <v>-5.563622171214749</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -671,25 +671,25 @@
         <v>180</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1542911292964403</v>
+        <v>-0.370003785512595</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3262896978673044</v>
+        <v>0.8927061322447138</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4379107454534459</v>
+        <v>0.08196738897239211</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8233853651252856</v>
+        <v>0.2438325394693694</v>
       </c>
       <c r="F8" t="n">
-        <v>-56.96022899333023</v>
+        <v>-134.3770624771365</v>
       </c>
       <c r="G8" t="n">
-        <v>42.25688959463516</v>
+        <v>-29.73558739848495</v>
       </c>
       <c r="H8" t="n">
-        <v>177.5460972685086</v>
+        <v>-2.250139915733233</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -702,25 +702,25 @@
         <v>210</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1691146823617053</v>
+        <v>-0.3669950734293999</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2980071736759076</v>
+        <v>0.9005224104047056</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4324025090623422</v>
+        <v>0.09453308558699307</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8340383796948362</v>
+        <v>0.2131607378642952</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.14348080885529</v>
+        <v>-135.8673132279279</v>
       </c>
       <c r="G9" t="n">
-        <v>40.04208154933427</v>
+        <v>-26.95550339464403</v>
       </c>
       <c r="H9" t="n">
-        <v>-178.1752176336378</v>
+        <v>0.8871160526316575</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -733,25 +733,25 @@
         <v>240</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1837371279196125</v>
+        <v>-0.3635575324957186</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2693809354971998</v>
+        <v>0.9072868227548907</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4263928907740195</v>
+        <v>0.1069875469298119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.843720144426978</v>
+        <v>0.1822366774908422</v>
       </c>
       <c r="F10" t="n">
-        <v>-51.632545383014</v>
+        <v>-137.1542785609481</v>
       </c>
       <c r="G10" t="n">
-        <v>37.68013320765731</v>
+        <v>-24.10901797512215</v>
       </c>
       <c r="H10" t="n">
-        <v>-174.1751380191451</v>
+        <v>3.871526724559228</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -764,25 +764,25 @@
         <v>270</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1981417027407419</v>
+        <v>-0.3596950115359929</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2404443592994233</v>
+        <v>0.912991188183209</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4198889525497805</v>
+        <v>0.119316272410862</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8524198749693354</v>
+        <v>0.1510967111287039</v>
       </c>
       <c r="F11" t="n">
-        <v>-49.40660426642165</v>
+        <v>-138.2540094944744</v>
       </c>
       <c r="G11" t="n">
-        <v>35.19171323765151</v>
+        <v>-21.20677846888876</v>
       </c>
       <c r="H11" t="n">
-        <v>-170.4290199647158</v>
+        <v>6.724878422192492</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -795,25 +795,25 @@
         <v>300</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2123119045816029</v>
+        <v>-0.3554118780797666</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2112311889598681</v>
+        <v>0.9176285807622102</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4128983287730026</v>
+        <v>0.1315049166585019</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8601279033260077</v>
+        <v>0.119777466924232</v>
       </c>
       <c r="F12" t="n">
-        <v>-47.44382450882244</v>
+        <v>-139.1804096516711</v>
       </c>
       <c r="G12" t="n">
-        <v>32.59505953327092</v>
+        <v>-18.25817293508121</v>
       </c>
       <c r="H12" t="n">
-        <v>-166.9109404294778</v>
+        <v>9.467364853408549</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -826,25 +826,25 @@
         <v>330</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2262315663357885</v>
+        <v>-0.3507130144546033</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.181775380181367</v>
+        <v>0.9211933391518367</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4054291902174889</v>
+        <v>0.1435393059394469</v>
       </c>
       <c r="E13" t="n">
-        <v>0.866835717580192</v>
+        <v>0.08831580291701112</v>
       </c>
       <c r="F13" t="n">
-        <v>-45.72279762024657</v>
+        <v>-139.9452633081574</v>
       </c>
       <c r="G13" t="n">
-        <v>29.90613401049744</v>
+        <v>-15.27154964212381</v>
       </c>
       <c r="H13" t="n">
-        <v>-163.5950878877686</v>
+        <v>12.11769619871252</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -857,25 +857,25 @@
         <v>360</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2398848326063863</v>
+        <v>-0.3456038130856193</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1521111387704341</v>
+        <v>0.9236810744317184</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3974902508890488</v>
+        <v>0.1554054542540315</v>
       </c>
       <c r="E14" t="n">
-        <v>0.872535941377505</v>
+        <v>0.05674876126793103</v>
       </c>
       <c r="F14" t="n">
-        <v>-44.22344576642417</v>
+        <v>-140.5583133248849</v>
       </c>
       <c r="G14" t="n">
-        <v>27.13886386759858</v>
+        <v>-12.25441355553211</v>
       </c>
       <c r="H14" t="n">
-        <v>-160.4566251440671</v>
+        <v>14.69326984655558</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -888,25 +888,25 @@
         <v>390</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2532561840164685</v>
+        <v>-0.3400901710185321</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1222728627244084</v>
+        <v>0.9250886763647618</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3890907531764812</v>
+        <v>0.1670895790690561</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8772223424486822</v>
+        <v>0.02511352234961295</v>
       </c>
       <c r="F15" t="n">
-        <v>-42.92752572930596</v>
+        <v>-141.0273580501873</v>
       </c>
       <c r="G15" t="n">
-        <v>24.30539989769458</v>
+        <v>-9.213601321922846</v>
       </c>
       <c r="H15" t="n">
-        <v>-157.4721387157872</v>
+        <v>17.21037372237558</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -919,25 +919,25 @@
         <v>420</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2663304510544981</v>
+        <v>-0.3341784836603183</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.09229510415470336</v>
+        <v>0.9254143181186331</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3802404568476865</v>
+        <v>0.1785781167200722</v>
       </c>
       <c r="E16" t="n">
-        <v>0.880889833955667</v>
+        <v>-0.006552641316900526</v>
       </c>
       <c r="F16" t="n">
-        <v>-41.81886833824887</v>
+        <v>-141.3583475272587</v>
       </c>
       <c r="G16" t="n">
-        <v>21.41637498152382</v>
+        <v>-6.155437638172976</v>
       </c>
       <c r="H16" t="n">
-        <v>-154.6198174984339</v>
+        <v>19.6844046395844</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -950,25 +950,25 @@
         <v>450</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2790928272264152</v>
+        <v>-0.3278756377455936</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06221253177430375</v>
+        <v>0.9246574594537806</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3709496277266049</v>
+        <v>0.189857737476816</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8835344749190553</v>
+        <v>-0.03821241119825752</v>
       </c>
       <c r="F17" t="n">
-        <v>-40.88344948021412</v>
+        <v>-141.5554668864355</v>
       </c>
       <c r="G17" t="n">
-        <v>18.48114685859204</v>
+        <v>-3.085876552529677</v>
       </c>
       <c r="H17" t="n">
-        <v>-151.8794545928952</v>
+        <v>22.13009183808307</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -981,25 +981,25 @@
         <v>480</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2915288815374116</v>
+        <v>-0.3211890035371096</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03205989401923549</v>
+        <v>0.9228188483905511</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3612290260962703</v>
+        <v>0.200915360273243</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8851534698178397</v>
+        <v>-0.06982846889520455</v>
       </c>
       <c r="F18" t="n">
-        <v>-40.10936248069514</v>
+        <v>-141.6211997168508</v>
       </c>
       <c r="G18" t="n">
-        <v>15.50801897465582</v>
+        <v>-0.01063147381968675</v>
       </c>
       <c r="H18" t="n">
-        <v>-149.2323406873865</v>
+        <v>24.56172093340115</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1012,25 +1012,25 @@
         <v>510</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3036245704041919</v>
+        <v>-0.3141264262458414</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.001871982688894362</v>
+        <v>0.9199005213564622</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3510898948157772</v>
+        <v>0.2117381671420062</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8857451674640561</v>
+        <v>-0.1013635423486613</v>
       </c>
       <c r="F19" t="n">
-        <v>-39.48673945731066</v>
+        <v>-141.5563673528943</v>
       </c>
       <c r="G19" t="n">
-        <v>12.50443807453536</v>
+        <v>3.06470231373315</v>
       </c>
       <c r="H19" t="n">
-        <v>-146.6610949848003</v>
+        <v>26.99335666949457</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1043,25 +1043,25 @@
         <v>540</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3153662490218815</v>
+        <v>-0.3066962167002661</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02831640284181365</v>
+        <v>0.9159058018161106</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.34054394718575</v>
+        <v>0.2223136173156259</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8853090592234543</v>
+        <v>-0.1327804519399316</v>
       </c>
       <c r="F20" t="n">
-        <v>-39.00765293949234</v>
+        <v>-141.3601420351484</v>
       </c>
       <c r="G20" t="n">
-        <v>9.477169991847145</v>
+        <v>6.134528848047061</v>
       </c>
       <c r="H20" t="n">
-        <v>-144.149463151799</v>
+        <v>29.43906467514675</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1074,25 +1074,25 @@
         <v>570</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3267406822495569</v>
+        <v>-0.2989071412464815</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05847049088101768</v>
+        <v>0.9108392973727104</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3296033545679135</v>
+        <v>0.2326294610412996</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8838457766583518</v>
+        <v>-0.1640421565606761</v>
       </c>
       <c r="F21" t="n">
-        <v>-38.66601765794295</v>
+        <v>-141.0300333235039</v>
       </c>
       <c r="G21" t="n">
-        <v>6.432456515100905</v>
+        <v>9.193132673690824</v>
       </c>
       <c r="H21" t="n">
-        <v>-141.682100151442</v>
+        <v>31.91313327331465</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1105,25 +1105,25 @@
         <v>600</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.3377350550885064</v>
+        <v>-0.2907684108889973</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08855557223217356</v>
+        <v>0.9047068953243147</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3182807337457008</v>
+        <v>0.2426737531026139</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8813570886520935</v>
+        <v>-0.1951117995837731</v>
       </c>
       <c r="F22" t="n">
-        <v>-38.45750476669649</v>
+        <v>-140.5618483627417</v>
       </c>
       <c r="G22" t="n">
-        <v>3.37615686008104</v>
+        <v>12.23455627264594</v>
       </c>
       <c r="H22" t="n">
-        <v>-139.2443479736367</v>
+        <v>34.43029638366583</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1136,25 +1136,25 @@
         <v>630</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3483369828138424</v>
+        <v>-0.2822896696871929</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1185370346260913</v>
+        <v>0.8975157566616992</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3065891340130047</v>
+        <v>0.2524348660402687</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8778458980546401</v>
+        <v>-0.2259527546614656</v>
       </c>
       <c r="F23" t="n">
-        <v>-38.37947578879259</v>
+        <v>-139.9496280188221</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3138775092111229</v>
+        <v>15.25246996406706</v>
       </c>
       <c r="H23" t="n">
-        <v>-136.8220131526491</v>
+        <v>37.00595773099339</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1167,25 +1167,25 @@
         <v>660</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3585345207766344</v>
+        <v>-0.2734809763887368</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1483803967275035</v>
+        <v>0.8892743026002369</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2945420240196556</v>
+        <v>0.2619015093348412</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8733162378914424</v>
+        <v>-0.2565286917607025</v>
       </c>
       <c r="F24" t="n">
-        <v>-38.430940406162</v>
+        <v>-139.1855623639457</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.748905783946467</v>
+        <v>18.24003245564657</v>
       </c>
       <c r="H24" t="n">
-        <v>-134.4011457532482</v>
+        <v>39.65641656360269</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
         <v>690</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3683161739845378</v>
+        <v>-0.2643528152027405</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1780513419347358</v>
+        <v>0.8799922281926468</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2821532782989174</v>
+        <v>0.2710627168448624</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8677732671394097</v>
+        <v>-0.2868035406887585</v>
       </c>
       <c r="F25" t="n">
-        <v>-38.61254018434188</v>
+        <v>-138.2598959780647</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.806730098431174</v>
+        <v>21.18972627969687</v>
       </c>
       <c r="H25" t="n">
-        <v>-131.967819611987</v>
+        <v>42.3990793411585</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1229,25 +1229,25 @@
         <v>720</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3776709064786207</v>
+        <v>-0.2549160465285877</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2075157519665306</v>
+        <v>0.8696804582937333</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2694371634805336</v>
+        <v>0.2799078972630853</v>
       </c>
       <c r="E26" t="n">
-        <v>0.861223266070388</v>
+        <v>-0.3167416592966499</v>
       </c>
       <c r="F26" t="n">
-        <v>-38.92655893297842</v>
+        <v>-137.1608272426837</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.854027850504778</v>
+        <v>24.093194573835</v>
       </c>
       <c r="H26" t="n">
-        <v>-129.5079127501116</v>
+        <v>45.25267434035415</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
         <v>750</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.386588150534758</v>
+        <v>-0.2451819158721228</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2367397402606316</v>
+        <v>0.8583511564503036</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2564083241836503</v>
+        <v>0.2884268205380349</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8536736311593418</v>
+        <v>-0.3463077959619476</v>
       </c>
       <c r="F27" t="n">
-        <v>-39.37695923562264</v>
+        <v>-135.874431516788</v>
       </c>
       <c r="G27" t="n">
-        <v>-11.88500600032866</v>
+        <v>26.94103618818411</v>
       </c>
       <c r="H27" t="n">
-        <v>-127.0068867923231</v>
+        <v>48.23741608275225</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1291,25 +1291,25 @@
         <v>780</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3950578157639413</v>
+        <v>-0.2351620328374489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2656896853742673</v>
+        <v>0.8460177054703157</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2430817685078758</v>
+        <v>0.2966096360464995</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8451328694996012</v>
+        <v>-0.3754671545513188</v>
       </c>
       <c r="F28" t="n">
-        <v>-39.96944337200993</v>
+        <v>-134.3846317224601</v>
       </c>
       <c r="G28" t="n">
-        <v>-14.89351824540567</v>
+        <v>29.72258775989938</v>
       </c>
       <c r="H28" t="n">
-        <v>-124.4495649235647</v>
+        <v>51.37511701241764</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1322,25 +1322,25 @@
         <v>810</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4030702980941342</v>
+        <v>-0.2248683552709564</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2943322643084199</v>
+        <v>0.8326946914490803</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2294728531518028</v>
+        <v>0.304446883962513</v>
       </c>
       <c r="E29" t="n">
-        <v>0.835610592709161</v>
+        <v>-0.404185438228262</v>
       </c>
       <c r="F29" t="n">
-        <v>-40.71153499726607</v>
+        <v>-132.6732663210737</v>
       </c>
       <c r="G29" t="n">
-        <v>-17.87292641159813</v>
+        <v>32.42568190266469</v>
       </c>
       <c r="H29" t="n">
-        <v>-121.8199095835718</v>
+        <v>54.68919039270887</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1353,25 +1353,25 @@
         <v>840</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4106164886866707</v>
+        <v>-0.2143131727615084</v>
       </c>
       <c r="C30" t="n">
-        <v>0.322634485917016</v>
+        <v>0.8183978860260086</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2155972680815222</v>
+        <v>0.3119295062764397</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8251175102441325</v>
+        <v>-0.4324288927016701</v>
       </c>
       <c r="F30" t="n">
-        <v>-41.61267506544622</v>
+        <v>-130.720323365024</v>
       </c>
       <c r="G30" t="n">
-        <v>-20.81594728244741</v>
+        <v>35.03638958860299</v>
       </c>
       <c r="H30" t="n">
-        <v>-119.100803973816</v>
+        <v>58.20447847086728</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1384,25 +1384,25 @@
         <v>870</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4176877827877125</v>
+        <v>-0.2035090895335338</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3505637244173512</v>
+        <v>0.8031442268582396</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2014710207290571</v>
+        <v>0.3190488574352347</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8136654220494516</v>
+        <v>-0.4601643488046245</v>
       </c>
       <c r="F31" t="n">
-        <v>-42.68432095885575</v>
+        <v>-128.5044375677632</v>
       </c>
       <c r="G31" t="n">
-        <v>-23.71448126688304</v>
+        <v>37.53876074716879</v>
       </c>
       <c r="H31" t="n">
-        <v>-116.2738461266279</v>
+        <v>61.94681021886856</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1415,25 +1415,25 @@
         <v>900</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4242760884984627</v>
+        <v>-0.1924690067878846</v>
       </c>
       <c r="C32" t="n">
-        <v>0.378087752959897</v>
+        <v>0.7869517963282109</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1871104197306183</v>
+        <v>0.3257967145667059</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8012672104974797</v>
+        <v>-0.4873592642593629</v>
       </c>
       <c r="F32" t="n">
-        <v>-43.94003079354738</v>
+        <v>-126.0037780823243</v>
       </c>
       <c r="G32" t="n">
-        <v>-26.55941984281539</v>
+        <v>39.91458943069009</v>
       </c>
       <c r="H32" t="n">
-        <v>-113.3191714785094</v>
+        <v>65.94216204491403</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1446,25 +1446,25 @@
         <v>930</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4303738394190538</v>
+        <v>-0.1812061044987252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4051747954326974</v>
+        <v>0.7698397984400238</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1725320482622049</v>
+        <v>0.3321652872827779</v>
       </c>
       <c r="E33" t="n">
-        <v>0.787936822221314</v>
+        <v>-0.5139817646128803</v>
       </c>
       <c r="F33" t="n">
-        <v>-45.39550544439213</v>
+        <v>-123.1974800126217</v>
       </c>
       <c r="G33" t="n">
-        <v>-29.34043181253583</v>
+        <v>42.1432475757053</v>
       </c>
       <c r="H33" t="n">
-        <v>-110.2153284333486</v>
+        <v>70.2152693988598</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1477,25 +1477,25 @@
         <v>960</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4359739872415963</v>
+        <v>-0.1697338227542835</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4317934879783338</v>
+        <v>0.751828533975377</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1577527859637621</v>
+        <v>0.3381472270052528</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7736892946841387</v>
+        <v>-0.5400006831313372</v>
       </c>
       <c r="F34" t="n">
-        <v>-47.06853849750514</v>
+        <v>-120.067774870779</v>
       </c>
       <c r="G34" t="n">
-        <v>-32.04571786284313</v>
+        <v>44.20165421936146</v>
       </c>
       <c r="H34" t="n">
-        <v>-106.9392616302564</v>
+        <v>74.78753487091389</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1508,25 +1508,25 @@
         <v>990</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.4410700348140109</v>
+        <v>-0.1580658426653367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4579130220689733</v>
+        <v>0.7329393738958482</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1427897323657447</v>
+        <v>0.3437356358024709</v>
       </c>
       <c r="E35" t="n">
-        <v>0.758540691683542</v>
+        <v>-0.5653855996177566</v>
       </c>
       <c r="F35" t="n">
-        <v>-48.97882458062828</v>
+        <v>-116.6029236680413</v>
       </c>
       <c r="G35" t="n">
-        <v>-34.66176628426538</v>
+        <v>46.06447206244867</v>
       </c>
       <c r="H35" t="n">
-        <v>-103.4664345221662</v>
+        <v>79.67412981234155</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1539,25 +1539,25 @@
         <v>1020</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.44565602782769</v>
+        <v>-0.1462160669062772</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4835031056691435</v>
+        <v>0.7131947310412459</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1276602274172581</v>
+        <v>0.3489240746996004</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7425081265581625</v>
+        <v>-0.590106878021678</v>
       </c>
       <c r="F36" t="n">
-        <v>-51.14751536528211</v>
+        <v>-112.8009099691009</v>
       </c>
       <c r="G36" t="n">
-        <v>-37.1730847600802</v>
+        <v>47.70464215383874</v>
       </c>
       <c r="H36" t="n">
-        <v>-99.77122280896289</v>
+        <v>84.88033276974095</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1570,25 +1570,25 @@
         <v>1050</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4497265672900392</v>
+        <v>-0.1341985999539984</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5085340158223436</v>
+        <v>0.692618030183876</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1123818227383915</v>
+        <v>0.3537065714299398</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7256097403860527</v>
+        <v>-0.614135702725278</v>
       </c>
       <c r="F37" t="n">
-        <v>-53.59641582375392</v>
+        <v>-108.6735737868259</v>
       </c>
       <c r="G37" t="n">
-        <v>-39.56196000142864</v>
+        <v>49.09436463286929</v>
       </c>
       <c r="H37" t="n">
-        <v>-95.82766839283045</v>
+        <v>90.3974244030809</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1601,25 +1601,25 @@
         <v>1080</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.4532768175231372</v>
+        <v>-0.12202772809014</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5329766329265243</v>
+        <v>0.6712336765073308</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.09697226202565408</v>
+        <v>0.3580776275980582</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7078646875272347</v>
+        <v>-0.6374441134039575</v>
       </c>
       <c r="F38" t="n">
-        <v>-56.34666636777795</v>
+        <v>-104.2504715378811</v>
       </c>
       <c r="G38" t="n">
-        <v>-41.80827418540876</v>
+        <v>50.20658737964396</v>
       </c>
       <c r="H38" t="n">
-        <v>-91.61075398084903</v>
+        <v>96.19885415268301</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1632,25 +1632,25 @@
         <v>1110</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.4563025139013798</v>
+        <v>0.109717899231337</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5568024749639631</v>
+        <v>-0.6490670225843805</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.08144946090966519</v>
+        <v>-0.3620322252287705</v>
       </c>
       <c r="E39" t="n">
-        <v>0.689293119796514</v>
+        <v>0.6600050383729008</v>
       </c>
       <c r="F39" t="n">
-        <v>-59.41675489080057</v>
+        <v>-99.58134649782284</v>
       </c>
       <c r="G39" t="n">
-        <v>-43.88944227110765</v>
+        <v>51.01695714973098</v>
       </c>
       <c r="H39" t="n">
-        <v>-87.09835236791127</v>
+        <v>102.2377946521945</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1663,25 +1663,25 @@
         <v>1140</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.4587999702851879</v>
+        <v>0.09728370264878992</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5799837316723626</v>
+        <v>-0.6261443339291748</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.06583148624268569</v>
+        <v>-0.3655658326789017</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6699161691441629</v>
+        <v>0.6817923263466034</v>
       </c>
       <c r="F40" t="n">
-        <v>-62.81974072352288</v>
+        <v>-94.73593269170836</v>
       </c>
       <c r="G40" t="n">
-        <v>-45.78055734379732</v>
+        <v>51.50602452666806</v>
       </c>
       <c r="H40" t="n">
-        <v>-82.27396767093344</v>
+        <v>108.4473613474811</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1694,25 +1694,25 @@
         <v>1170</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.4607660860824906</v>
+        <v>0.08473984868113295</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6024932984712195</v>
+        <v>-0.6024927532856944</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.05013653490513204</v>
+        <v>-0.368674409879903</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6497559288542115</v>
+        <v>0.7027807764754437</v>
       </c>
       <c r="F41" t="n">
-        <v>-66.55969798920032</v>
+        <v>-89.80018083163858</v>
       </c>
       <c r="G41" t="n">
-        <v>-47.45485200693638</v>
+        <v>51.66132364944164</v>
       </c>
       <c r="H41" t="n">
-        <v>-77.13026040850551</v>
+        <v>114.7444090704888</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1725,25 +1725,25 @@
         <v>1200</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.462198352894345</v>
+        <v>0.07210114847697491</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6243048101403791</v>
+        <v>-0.5781402637026839</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.03438291210593872</v>
+        <v>-0.371354412905816</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6288354331400665</v>
+        <v>0.7229461666607473</v>
       </c>
       <c r="F42" t="n">
-        <v>-70.62763620951245</v>
+        <v>-84.86898355097433</v>
       </c>
       <c r="G42" t="n">
-        <v>-48.88458652980522</v>
+        <v>51.47885968540719</v>
       </c>
       <c r="H42" t="n">
-        <v>-71.67309801975766</v>
+        <v>121.0368286638137</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1756,25 +1756,25 @@
         <v>1230</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4630948606803658</v>
+        <v>0.05938249385094067</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6453926741036027</v>
+        <v>-0.5531156505370429</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0185890092462094</v>
+        <v>-0.3736027978472952</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6071786351314393</v>
+        <v>0.7422652800688577</v>
       </c>
       <c r="F43" t="n">
-        <v>-74.99753264807046</v>
+        <v>-80.03676022258161</v>
       </c>
       <c r="G43" t="n">
-        <v>-50.04243817738116</v>
+        <v>50.9636143114434</v>
       </c>
       <c r="H43" t="n">
-        <v>-65.92549585064741</v>
+        <v>127.2329836938908</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1787,25 +1787,25 @@
         <v>1260</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.4634543033881974</v>
+        <v>0.04659883735026439</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6657321032349784</v>
+        <v>-0.5274484625682346</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002773281376222265</v>
+        <v>-0.3754170239787272</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5848103832044201</v>
+        <v>0.7607159297654841</v>
       </c>
       <c r="F44" t="n">
-        <v>-79.62352296266288</v>
+        <v>-75.3881584406903</v>
       </c>
       <c r="G44" t="n">
-        <v>-50.90337126044322</v>
+        <v>50.12892681562212</v>
       </c>
       <c r="H44" t="n">
-        <v>-59.93040159836488</v>
+        <v>133.2510304896645</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1818,25 +1818,25 @@
         <v>1290</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.4632759839892346</v>
+        <v>0.0337651725544716</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6852991480171572</v>
+        <v>-0.5011689722714253</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01304577565213478</v>
+        <v>-0.3767950562244596</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5617563957120552</v>
+        <v>0.7782769815172336</v>
       </c>
       <c r="F45" t="n">
-        <v>-84.43952304993756</v>
+        <v>-70.99107843120227</v>
       </c>
       <c r="G45" t="n">
-        <v>-51.44681310544733</v>
+        <v>48.99492353509225</v>
       </c>
       <c r="H45" t="n">
-        <v>-53.7510499382817</v>
+        <v>139.0259155658846</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -1849,25 +1849,25 @@
         <v>1320</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.4625598188689473</v>
+        <v>0.02089651471484047</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7040707280746693</v>
+        <v>-0.4743081354702639</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02884964838162269</v>
+        <v>-0.3777353669176821</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5380432339734313</v>
+        <v>0.7949283746848254</v>
       </c>
       <c r="F46" t="n">
-        <v>-89.36230386374859</v>
+        <v>-66.89326153875331</v>
       </c>
       <c r="G46" t="n">
-        <v>-51.65878702785583</v>
+        <v>47.5864017808986</v>
       </c>
       <c r="H46" t="n">
-        <v>-47.46786517847462</v>
+        <v>144.5128096042583</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -1880,25 +1880,25 @@
         <v>1350</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.4613063415168561</v>
+        <v>0.008007873118204563</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7220246628108279</v>
+        <v>-0.4468975318938512</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04461982910457724</v>
+        <v>-0.3782369370530943</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5136982737170938</v>
+        <v>0.8106511514850273</v>
       </c>
       <c r="F47" t="n">
-        <v>-94.29816112886672</v>
+        <v>-63.12240024711099</v>
       </c>
       <c r="G47" t="n">
-        <v>-51.53354308420244</v>
+        <v>45.93063203245975</v>
       </c>
       <c r="H47" t="n">
-        <v>-41.17176968916517</v>
+        <v>149.6870218260196</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -1911,25 +1911,25 @@
         <v>1380</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4595167054697488</v>
+        <v>-0.004885732872087647</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7391397011727719</v>
+        <v>-0.4189693978297079</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06033783941193175</v>
+        <v>-0.3782992556138724</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4887496748638854</v>
+        <v>0.8254274326059831</v>
       </c>
       <c r="F48" t="n">
-        <v>-99.15205515847151</v>
+        <v>-59.68880924536291</v>
       </c>
       <c r="G48" t="n">
-        <v>-51.07426990382929</v>
+        <v>44.05544965248738</v>
       </c>
       <c r="H48" t="n">
-        <v>-34.95502256288128</v>
+        <v>154.5413499375323</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1942,25 +1942,25 @@
         <v>1410</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.4571926864636416</v>
+        <v>-0.01776934375494689</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7553955503754719</v>
+        <v>-0.3905564743125103</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07598525381381008</v>
+        <v>-0.3779223213009478</v>
       </c>
       <c r="E49" t="n">
-        <v>0.463226349768606</v>
+        <v>0.8392404958399012</v>
       </c>
       <c r="F49" t="n">
-        <v>-103.837079566731</v>
+        <v>-56.58933975739115</v>
       </c>
       <c r="G49" t="n">
-        <v>-50.2926899104614</v>
+        <v>41.98780989398143</v>
       </c>
       <c r="H49" t="n">
-        <v>-28.9017293993278</v>
+        <v>159.0821979625957</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -1973,25 +1973,25 @@
         <v>1440</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.4543366837603638</v>
+        <v>-0.03062804285905093</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7707729034861742</v>
+        <v>-0.3616920387137796</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09154372335345529</v>
+        <v>-0.3771066399572192</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4371579299929422</v>
+        <v>0.8520747468513956</v>
       </c>
       <c r="F50" t="n">
-        <v>-108.2819747874176</v>
+        <v>-53.8115052537894</v>
       </c>
       <c r="G50" t="n">
-        <v>-49.20765221248928</v>
+        <v>39.75286017136106</v>
       </c>
       <c r="H50" t="n">
-        <v>-23.08030698582598</v>
+        <v>163.325475461968</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2004,25 +2004,25 @@
         <v>1470</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.4509517206076838</v>
+        <v>-0.04344698196842679</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7852534658365588</v>
+        <v>-0.3324098449505399</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1069949991973486</v>
+        <v>-0.3758532234941115</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4105747315890266</v>
+        <v>0.8639157419140355</v>
       </c>
       <c r="F51" t="n">
-        <v>-112.4352261623734</v>
+        <v>-51.33710658372873</v>
       </c>
       <c r="G51" t="n">
-        <v>-47.84309489818514</v>
+        <v>37.3734440384858</v>
       </c>
       <c r="H51" t="n">
-        <v>-17.53936277915585</v>
+        <v>167.2930046704524</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2035,25 +2035,25 @@
         <v>1500</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.4470414438149745</v>
+        <v>-0.05621139772839143</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7988199801121133</v>
+        <v>-0.3027440820255555</v>
       </c>
       <c r="D52" t="n">
-        <v>0.122320956064861</v>
+        <v>-0.3741635877409529</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3835077190786179</v>
+        <v>0.8747501981553034</v>
       </c>
       <c r="F52" t="n">
-        <v>-116.2655576750696</v>
+        <v>-49.14508575883649</v>
       </c>
       <c r="G52" t="n">
-        <v>-46.22584200447476</v>
+        <v>34.86993320041312</v>
       </c>
       <c r="H52" t="n">
-        <v>-12.307177779549</v>
+        <v>171.0097012385749</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2066,25 +2066,25 @@
         <v>1530</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.4426101224200107</v>
+        <v>-0.06890662744776883</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8114562500852109</v>
+        <v>-0.2727293328184618</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1375036154632331</v>
+        <v>-0.3720397497326663</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3559884681608806</v>
+        <v>0.8845660022480097</v>
       </c>
       <c r="F53" t="n">
-        <v>-119.7596626856753</v>
+        <v>-47.21358253637837</v>
       </c>
       <c r="G53" t="n">
-        <v>-44.3836251381607</v>
+        <v>32.26027677708752</v>
       </c>
       <c r="H53" t="n">
-        <v>-7.393951075801114</v>
+        <v>174.5015559849882</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2097,25 +2097,25 @@
         <v>1560</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.4376626454319602</v>
+        <v>-0.08151812431899108</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8231471629243384</v>
+        <v>-0.242400533152941</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1525251686581016</v>
+        <v>-0.3694842244634863</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3280491272491493</v>
+        <v>0.8933522176651825</v>
       </c>
       <c r="F54" t="n">
-        <v>-122.9184344868007</v>
+        <v>-45.52130591421585</v>
       </c>
       <c r="G54" t="n">
-        <v>-42.34355376042801</v>
+        <v>29.56017819716481</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.795542850785436</v>
+        <v>177.7943062576362</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2128,25 +2128,25 @@
         <v>1590</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.4322045186429838</v>
+        <v>-0.09403147202257613</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8338787100224775</v>
+        <v>-0.2117929312994478</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1673679993124781</v>
+        <v>-0.3665000211433594</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2997223779466154</v>
+        <v>0.9010990905681638</v>
       </c>
       <c r="F55" t="n">
-        <v>-125.752836099821</v>
+        <v>-44.048377285905</v>
       </c>
       <c r="G55" t="n">
-        <v>-40.13109241131108</v>
+        <v>26.78333523352879</v>
       </c>
       <c r="H55" t="n">
-        <v>1.502424003311797</v>
+        <v>-179.0873590366621</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2159,25 +2159,25 @@
         <v>1620</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.4262418563406748</v>
+        <v>-0.1064323987721807</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8436380125173719</v>
+        <v>-0.1809420478662852</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1820147154865722</v>
+        <v>-0.3630906389798554</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2710413752277244</v>
+        <v>0.9077980544651739</v>
       </c>
       <c r="F56" t="n">
-        <v>-128.2801619173768</v>
+        <v>-42.77679645727937</v>
       </c>
       <c r="G56" t="n">
-        <v>-37.76948893937708</v>
+        <v>23.94170111931269</v>
       </c>
       <c r="H56" t="n">
-        <v>5.520857756068691</v>
+        <v>-176.1202109941322</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2190,25 +2190,25 @@
         <v>1650</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.4197813925783113</v>
+        <v>-0.1187067907570229</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8524133135301654</v>
+        <v>-0.149883636274342</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1964481323102407</v>
+        <v>-0.3592600625293006</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2420397832451434</v>
+        <v>0.9134417337065304</v>
       </c>
       <c r="F57" t="n">
-        <v>-130.5210317405088</v>
+        <v>-41.69065527735748</v>
       </c>
       <c r="G57" t="n">
-        <v>-35.27955817626282</v>
+        <v>21.04574184559402</v>
       </c>
       <c r="H57" t="n">
-        <v>9.284222251416319</v>
+        <v>-173.2826325494382</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2221,25 +2221,25 @@
         <v>1680</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.4128304512029266</v>
+        <v>-0.1308407050848199</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8601940336088212</v>
+        <v>-0.1186536436559238</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2106513522402753</v>
+        <v>-0.3550127566261517</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2127516178615755</v>
+        <v>0.9180239459691566</v>
       </c>
       <c r="F58" t="n">
-        <v>-132.49720471453</v>
+        <v>-40.77619291050182</v>
       </c>
       <c r="G58" t="n">
-        <v>-32.67968587350805</v>
+        <v>18.10467656577007</v>
       </c>
       <c r="H58" t="n">
-        <v>12.81839501612539</v>
+        <v>-170.5546033581423</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2252,25 +2252,25 @@
         <v>1710</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.4053969546120385</v>
+        <v>-0.1428203821884851</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8669707584892801</v>
+        <v>-0.08728817236121059</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2246077464484627</v>
+        <v>-0.3503536609331508</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1832112806329079</v>
+        <v>0.9215397037936637</v>
       </c>
       <c r="F59" t="n">
-        <v>-134.2300853216678</v>
+        <v>-40.02175949242297</v>
       </c>
       <c r="G59" t="n">
-        <v>-29.9859909707146</v>
+        <v>15.1266956743684</v>
       </c>
       <c r="H59" t="n">
-        <v>16.14921194610849</v>
+        <v>-167.9175830497779</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2283,25 +2283,25 @@
         <v>1740</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.3974894121135969</v>
+        <v>-0.1546322577997382</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8727352589723446</v>
+        <v>-0.05582344190468252</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238300984978685</v>
+        <v>-0.3452881841126714</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1534534964158533</v>
+        <v>0.9239852153004634</v>
       </c>
       <c r="F60" t="n">
-        <v>-135.7397949027935</v>
+        <v>-39.41773345280887</v>
       </c>
       <c r="G60" t="n">
-        <v>-27.21255373122741</v>
+        <v>12.11915567006969</v>
       </c>
       <c r="H60" t="n">
-        <v>19.30158779074126</v>
+        <v>-165.3543364922376</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2314,25 +2314,25 @@
         <v>1770</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.3891169112437025</v>
+        <v>-0.1662629744660201</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8774805023272017</v>
+        <v>-0.02429575150388941</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2517150564077991</v>
+        <v>-0.3398221976593606</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1235132697218429</v>
+        <v>0.925357884149984</v>
       </c>
       <c r="F61" t="n">
-        <v>-137.0446442871469</v>
+        <v>-38.95642214667351</v>
       </c>
       <c r="G61" t="n">
-        <v>-24.37167328689614</v>
+        <v>9.088752506439935</v>
       </c>
       <c r="H61" t="n">
-        <v>22.29904298293498</v>
+        <v>-162.8487288690919</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2345,25 +2345,25 @@
         <v>1800</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.3802891081831402</v>
+        <v>-0.1776993927132945</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8812006621371791</v>
+        <v>0.007258556966901097</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2648342869621167</v>
+        <v>-0.3339620293862213</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0934258406199074</v>
+        <v>0.925656308847037</v>
       </c>
       <c r="F62" t="n">
-        <v>-138.1608793942063</v>
+        <v>-38.63196456581451</v>
       </c>
       <c r="G62" t="n">
-        <v>-21.47412535206508</v>
+        <v>6.041676416864404</v>
       </c>
       <c r="H62" t="n">
-        <v>25.16351075293521</v>
+        <v>-160.3855072626523</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2376,25 +2376,25 @@
         <v>1830</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3710162173427637</v>
+        <v>-0.1889286018910291</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8838911265615943</v>
+        <v>0.03880313562480348</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2776433589848159</v>
+        <v>-0.3277144565726259</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06322664047671286</v>
+        <v>0.9248802814453838</v>
       </c>
       <c r="F63" t="n">
-        <v>-139.1026003818388</v>
+        <v>-38.44024765017846</v>
       </c>
       <c r="G63" t="n">
-        <v>-18.52940517917668</v>
+        <v>2.983751800379922</v>
       </c>
       <c r="H63" t="n">
-        <v>27.9153263266889</v>
+        <v>-157.9500779931843</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2407,25 +2407,25 @@
         <v>1860</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.3613090000980631</v>
+        <v>-0.1999379307086696</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8855485050597209</v>
+        <v>0.07030166676970252</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2901273288138009</v>
+        <v>-0.3210866987993523</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03295124747259067</v>
+        <v>0.9230307857094858</v>
       </c>
       <c r="F64" t="n">
-        <v>-139.8817830426369</v>
+        <v>-38.37884301013329</v>
       </c>
       <c r="G64" t="n">
-        <v>-15.54594909522439</v>
+        <v>-0.07943404379118341</v>
       </c>
       <c r="H64" t="n">
-        <v>30.57332834112063</v>
+        <v>-155.5282841186037</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2438,25 +2438,25 @@
         <v>1890</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3511787526844787</v>
+        <v>-0.2107149575875542</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8861706335853174</v>
+        <v>0.1017178988879492</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3022716440665735</v>
+        <v>-0.3140864104292161</v>
       </c>
       <c r="E65" t="n">
-        <v>0.002635341962899588</v>
+        <v>0.9201099947714871</v>
       </c>
       <c r="F65" t="n">
-        <v>-140.5083536483226</v>
+        <v>-38.44696787164919</v>
       </c>
       <c r="G65" t="n">
-        <v>-12.53133302836418</v>
+        <v>-3.142409565767758</v>
       </c>
       <c r="H65" t="n">
-        <v>33.15502530386421</v>
+        <v>-153.1061844509153</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2469,25 +2469,25 @@
         <v>1920</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3406372933136901</v>
+        <v>-0.2212475207950379</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8857565782643436</v>
+        <v>0.1330156823076488</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3140621602786874</v>
+        <v>-0.3067216727721406</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.02768533811331582</v>
+        <v>0.9161212683123013</v>
       </c>
       <c r="F66" t="n">
-        <v>-140.9902850699409</v>
+        <v>-38.64547213467412</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.492449329642671</v>
+        <v>-6.199701237380912</v>
       </c>
       <c r="H66" t="n">
-        <v>35.67679676175709</v>
+        <v>-150.6698337445418</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2500,25 +2500,25 @@
         <v>1950</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.3296969484662944</v>
+        <v>-0.2315237284884204</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8843066375838065</v>
+        <v>0.1641590048093078</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3254851569784813</v>
+        <v>-0.2990009858750508</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.05797504190536922</v>
+        <v>0.9110691492595858</v>
       </c>
       <c r="F67" t="n">
-        <v>-141.3336936545384</v>
+        <v>-38.9768520892537</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.435664674613623</v>
+        <v>-9.245715769945891</v>
       </c>
       <c r="H67" t="n">
-        <v>38.15411073639512</v>
+        <v>-148.2050628962775</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2531,25 +2531,25 @@
         <v>1980</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.3183705384071235</v>
+        <v>-0.2415319686373626</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8818223430956638</v>
+        <v>0.1951120270487005</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3365273531596933</v>
+        <v>-0.2909332599694218</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.08819805024467758</v>
+        <v>0.9049593600105323</v>
       </c>
       <c r="F68" t="n">
-        <v>-141.542924168602</v>
+        <v>-39.44529016879674</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.366962560061639</v>
+        <v>-12.27461855694905</v>
       </c>
       <c r="H68" t="n">
-        <v>40.60174699982694</v>
+        <v>-145.6972580504637</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2562,25 +2562,25 @@
         <v>2010</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.3066713619471608</v>
+        <v>-0.2512609253434927</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8783064586544407</v>
+        <v>0.2258391385333171</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3471759221540133</v>
+        <v>-0.2825278007781332</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1183187200906057</v>
+        <v>0.8977987929873444</v>
       </c>
       <c r="F69" t="n">
-        <v>-141.6206152389758</v>
+        <v>-40.05671921910999</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2920741611376526</v>
+        <v>-15.28020662560322</v>
       </c>
       <c r="H69" t="n">
-        <v>43.0340210370616</v>
+        <v>-143.1311365522639</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2593,25 +2593,25 @@
         <v>2040</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.2946131804187672</v>
+        <v>-0.2606995627966801</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8737629781849467</v>
+        <v>0.256304910816964</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3574185059568252</v>
+        <v>-0.2737943229513422</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1483015289081746</v>
+        <v>0.8895955257128624</v>
       </c>
       <c r="F70" t="n">
-        <v>-141.5677409955067</v>
+        <v>-40.81890468696804</v>
       </c>
       <c r="G70" t="n">
-        <v>2.7833986571446</v>
+        <v>-18.25576024809437</v>
       </c>
       <c r="H70" t="n">
-        <v>45.46500686193927</v>
+        <v>-140.4905316487517</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2624,25 +2624,25 @@
         <v>2070</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.2822102009141931</v>
+        <v>-0.2698371743262529</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8681971219844348</v>
+        <v>0.2864742567846865</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3672432289729958</v>
+        <v>-0.2647429064631219</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1781111188314833</v>
+        <v>0.8803587865346398</v>
       </c>
       <c r="F71" t="n">
-        <v>-141.3836267223219</v>
+        <v>-41.74154411178978</v>
       </c>
       <c r="G71" t="n">
-        <v>5.853864391083857</v>
+        <v>-21.19389965870972</v>
       </c>
       <c r="H71" t="n">
-        <v>47.90875876321113</v>
+        <v>-137.7581646161238</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2655,25 +2655,25 @@
         <v>2100</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.2694770587866584</v>
+        <v>-0.2786633660157457</v>
       </c>
       <c r="C72" t="n">
-        <v>0.861615331553784</v>
+        <v>0.3163123837435008</v>
       </c>
       <c r="D72" t="n">
-        <v>0.37663871120294</v>
+        <v>-0.2553840087423222</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2077123406120659</v>
+        <v>0.8700989670204077</v>
       </c>
       <c r="F72" t="n">
-        <v>-141.0659377811278</v>
+        <v>-42.83636394463645</v>
       </c>
       <c r="G72" t="n">
-        <v>8.913623279372576</v>
+        <v>-24.0864029810018</v>
       </c>
       <c r="H72" t="n">
-        <v>50.37953298175072</v>
+        <v>-134.9154482175234</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2686,25 +2686,25 @@
         <v>2130</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.2564287994124563</v>
+        <v>-0.2871680732946275</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8540252629381259</v>
+        <v>0.3457848500279215</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3855940808823531</v>
+        <v>-0.245728448473967</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.2370702973462608</v>
+        <v>0.8588276106309091</v>
       </c>
       <c r="F73" t="n">
-        <v>-140.6106422943724</v>
+        <v>-44.1172004111001</v>
       </c>
       <c r="G73" t="n">
-        <v>11.95674528347419</v>
+        <v>-26.92401272341189</v>
       </c>
       <c r="H73" t="n">
-        <v>52.89201039498029</v>
+        <v>-131.9423129197278</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -2717,25 +2717,25 @@
         <v>2160</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.2430808592540637</v>
+        <v>-0.2953415709705107</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8454357785727457</v>
+        <v>0.3748576011297142</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3940989865559484</v>
+        <v>-0.2357873944369616</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2661503878805663</v>
+        <v>0.8465574049977801</v>
       </c>
       <c r="F74" t="n">
-        <v>-140.0119494596062</v>
+        <v>-45.60003195299539</v>
       </c>
       <c r="G74" t="n">
-        <v>14.97694089360767</v>
+        <v>-29.69621712393816</v>
       </c>
       <c r="H74" t="n">
-        <v>55.46152053012684</v>
+        <v>-128.8170944603052</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -2748,25 +2748,25 @@
         <v>2190</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.2294490462034627</v>
+        <v>-0.3031744833061867</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8358569375927672</v>
+        <v>0.4034970059880451</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4021436086088216</v>
+        <v>-0.225572353854844</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2949183499367867</v>
+        <v>0.8333021732883549</v>
       </c>
       <c r="F75" t="n">
-        <v>-139.2622273149056</v>
+        <v>-47.30291755606756</v>
       </c>
       <c r="G75" t="n">
-        <v>17.96742096060769</v>
+        <v>-32.3910094115671</v>
       </c>
       <c r="H75" t="n">
-        <v>58.10426552247975</v>
+        <v>-125.5165254956934</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -2779,25 +2779,25 @@
         <v>2220</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.2155495192673377</v>
+        <v>-0.3106577941654637</v>
       </c>
       <c r="C76" t="n">
-        <v>0.825299984607276</v>
+        <v>0.4316698935367442</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4097186702200374</v>
+        <v>-0.2150951602092418</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3233403028141929</v>
+        <v>0.8190768645205314</v>
       </c>
       <c r="F76" t="n">
-        <v>-138.3519067920908</v>
+        <v>-49.24577327468334</v>
       </c>
       <c r="G76" t="n">
-        <v>20.9207417537652</v>
+        <v>-34.99463072191448</v>
       </c>
       <c r="H76" t="n">
-        <v>60.83753960237595</v>
+        <v>-122.015897590392</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -2810,25 +2810,25 @@
         <v>2250</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.2013987675654554</v>
+        <v>-0.3177828571926431</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8137773368774992</v>
+        <v>0.4593435894110675</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4168154477603949</v>
+        <v>-0.2043679605274302</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3513827897265063</v>
+        <v>0.803897542757344</v>
       </c>
       <c r="F77" t="n">
-        <v>-137.2693836117177</v>
+        <v>-51.44989184408134</v>
       </c>
       <c r="G77" t="n">
-        <v>23.82863166793857</v>
+        <v>-37.49131014276034</v>
       </c>
       <c r="H77" t="n">
-        <v>63.67993485982487</v>
+        <v>-118.2894874231921</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -2841,25 +2841,25 @@
         <v>2280</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1870135790017577</v>
+        <v>-0.3245414060076354</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8013025612286163</v>
+        <v>0.4864859527797483</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4234257848568059</v>
+        <v>-0.1934032021363485</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3790128379828457</v>
+        <v>0.7877813750895449</v>
       </c>
       <c r="F78" t="n">
-        <v>-136.0009359325946</v>
+        <v>-53.93707970885525</v>
       </c>
       <c r="G78" t="n">
-        <v>26.6817984670656</v>
+        <v>-39.86302740762785</v>
       </c>
       <c r="H78" t="n">
-        <v>66.65151859136684</v>
+        <v>-114.3113718074705</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -2872,25 +2872,25 @@
         <v>2310</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1724110567719264</v>
+        <v>-0.3309255644084246</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7878903920926981</v>
+        <v>0.5130654133215954</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4295420841952127</v>
+        <v>-0.1822136188507878</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4061979264546224</v>
+        <v>0.770746618273091</v>
       </c>
       <c r="F79" t="n">
-        <v>-134.5306928087464</v>
+        <v>-56.72826004882107</v>
       </c>
       <c r="G79" t="n">
-        <v>29.46970400362945</v>
+        <v>-42.08934108282294</v>
       </c>
       <c r="H79" t="n">
-        <v>69.77394228692285</v>
+        <v>-110.056782009192</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -2903,25 +2903,25 @@
         <v>2340</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1576085386994765</v>
+        <v>-0.3369278565227707</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7735566636205503</v>
+        <v>0.5390510081819557</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4351573426951268</v>
+        <v>-0.1708122166352114</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4329061373967507</v>
+        <v>0.7528126039893023</v>
       </c>
       <c r="F80" t="n">
-        <v>-132.8406857676177</v>
+        <v>-59.84138654742569</v>
       </c>
       <c r="G80" t="n">
-        <v>32.18033592863259</v>
+        <v>-44.14734761943462</v>
       </c>
       <c r="H80" t="n">
-        <v>73.07046862934828</v>
+        <v>-105.5041518144808</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -2934,25 +2934,25 @@
         <v>2370</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1426236123345808</v>
+        <v>-0.3425412168908437</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7583183231178556</v>
+        <v>0.5644124189063847</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4402651413938451</v>
+        <v>-0.1592122587167989</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4591061220478507</v>
+        <v>0.7339997226085845</v>
       </c>
       <c r="F81" t="n">
-        <v>-130.9110672798769</v>
+        <v>-63.28856045467988</v>
       </c>
       <c r="G81" t="n">
-        <v>34.79994360940041</v>
+        <v>-46.01186162304179</v>
       </c>
       <c r="H81" t="n">
-        <v>76.56581137780739</v>
+        <v>-100.6379660868578</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2965,25 +2965,25 @@
         <v>2400</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1274740816207525</v>
+        <v>-0.3477590004304684</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7421934019719838</v>
+        <v>0.5891200082420684</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4448596573001318</v>
+        <v>-0.1474272501691044</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.4847671584286712</v>
+        <v>0.7143294053978478</v>
       </c>
       <c r="F82" t="n">
-        <v>-128.7205778298514</v>
+        <v>-67.07238349349346</v>
       </c>
       <c r="G82" t="n">
-        <v>37.31278017504582</v>
+        <v>-47.65592715795371</v>
       </c>
       <c r="H82" t="n">
-        <v>80.28572489285264</v>
+        <v>-95.45237665092367</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2996,25 +2996,25 @@
         <v>2430</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1121779426586392</v>
+        <v>-0.3525749922373262</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7252009928967222</v>
+        <v>0.6131448567044537</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4489356699762679</v>
+        <v>-0.1354709219865857</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.5098591896842135</v>
+        <v>0.6938241051173046</v>
       </c>
       <c r="F83" t="n">
-        <v>-126.2473911891087</v>
+        <v>-71.18184737044554</v>
       </c>
       <c r="G83" t="n">
-        <v>39.70086413330468</v>
+        <v>-49.05176875186303</v>
       </c>
       <c r="H83" t="n">
-        <v>84.25620789091751</v>
+        <v>-89.95528420003082</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3027,25 +3027,25 @@
         <v>2460</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.09675335914148553</v>
+        <v>-0.3569834171683474</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7073612255405377</v>
+        <v>0.6364587987902841</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4524885673884061</v>
+        <v>-0.1233572146816913</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5343528613934946</v>
+        <v>0.6725072749756787</v>
       </c>
       <c r="F84" t="n">
-        <v>-123.4704882596752</v>
+        <v>-75.5884498159668</v>
       </c>
       <c r="G84" t="n">
-        <v>41.94380459889742</v>
+        <v>-50.17224775181194</v>
       </c>
       <c r="H84" t="n">
-        <v>88.50217316799733</v>
+        <v>-84.17219582301489</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3058,25 +3058,25 @@
         <v>2490</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.08121863745575032</v>
+        <v>-0.360978949166068</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6886952404034702</v>
+        <v>0.6590344587734545</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4555143510213931</v>
+        <v>-0.1111002614112322</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5582195578703749</v>
+        <v>0.6504033458727723</v>
       </c>
       <c r="F85" t="n">
-        <v>-120.3717159726104</v>
+        <v>-80.24363023670935</v>
       </c>
       <c r="G85" t="n">
-        <v>44.01875467617719</v>
+        <v>-50.99278636760396</v>
       </c>
       <c r="H85" t="n">
-        <v>93.04542764285458</v>
+        <v>-78.14876463327188</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3089,25 +3089,25 @@
         <v>2520</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.06559220158798178</v>
+        <v>-0.3645567202633229</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6692251611751929</v>
+        <v>0.6808452859365952</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4580096402144667</v>
+        <v>-0.09871437068198766</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.5814314372404482</v>
+        <v>0.6275377019348115</v>
       </c>
       <c r="F86" t="n">
-        <v>-116.9386428378955</v>
+        <v>-85.07879821504359</v>
       </c>
       <c r="G86" t="n">
-        <v>45.90058254490268</v>
+        <v>-51.49356147451584</v>
       </c>
       <c r="H86" t="n">
-        <v>97.90185183790943</v>
+        <v>-71.95073787514153</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -3120,25 +3120,25 @@
         <v>2550</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.04989256783445638</v>
+        <v>-0.3677123292099649</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6489740654497946</v>
+        <v>0.7018655890859742</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4599716757123835</v>
+        <v>-0.08621400869895243</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.6039614653194291</v>
+        <v>0.603936654383585</v>
       </c>
       <c r="F87" t="n">
-        <v>-113.168187025023</v>
+        <v>-90.00889688294281</v>
       </c>
       <c r="G87" t="n">
-        <v>47.56236978028403</v>
+        <v>-51.66159899154367</v>
       </c>
       <c r="H87" t="n">
-        <v>103.0778035558848</v>
+        <v>-65.66037112106564</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3151,25 +3151,25 @@
         <v>2580</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.03413831946718212</v>
+        <v>-0.3704418496880532</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6279659539664286</v>
+        <v>0.7220705703510327</v>
       </c>
       <c r="D88" t="n">
-        <v>0.461398322396038</v>
+        <v>-0.07361378133528805</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.625783448081772</v>
+        <v>0.5796274136289178</v>
       </c>
       <c r="F88" t="n">
-        <v>-109.0707294083607</v>
+        <v>-94.93948860358181</v>
       </c>
       <c r="G88" t="n">
-        <v>48.97634642355685</v>
+        <v>-51.49230495414055</v>
       </c>
       <c r="H88" t="n">
-        <v>108.5660338648572</v>
+        <v>-59.3693207791093</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3182,25 +3182,25 @@
         <v>2610</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01834808137703254</v>
+        <v>-0.3727418380400745</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.6062257183748667</v>
+        <v>0.7414363580090169</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4622880711864703</v>
+        <v>-0.06092841585619739</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6468720627213327</v>
+        <v>0.5546380597633793</v>
       </c>
       <c r="F89" t="n">
-        <v>-104.6740370387222</v>
+        <v>-99.77607448549864</v>
       </c>
       <c r="G89" t="n">
-        <v>50.11533121350155</v>
+        <v>-50.99003587867985</v>
       </c>
       <c r="H89" t="n">
-        <v>114.3417904265541</v>
+        <v>-53.16930306943912</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -3213,25 +3213,25 @@
         <v>2640</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002540494804695677</v>
+        <v>-0.3746093404790133</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.583779107643375</v>
+        <v>0.7599400383296978</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4626400401029573</v>
+        <v>-0.04817274239102068</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6672028871780951</v>
+        <v>0.5289975113928842</v>
       </c>
       <c r="F90" t="n">
-        <v>-100.0259143398365</v>
+        <v>-104.4334288047482</v>
       </c>
       <c r="G90" t="n">
-        <v>50.95464420210764</v>
+        <v>-50.16754922806074</v>
       </c>
       <c r="H90" t="n">
-        <v>120.36019130584</v>
+        <v>-47.14273806893513</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3244,25 +3244,25 @@
         <v>2670</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.01326580776197109</v>
+        <v>-0.3760418997302282</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.5606526931989188</v>
+        <v>0.7775596863288247</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4624539744673486</v>
+        <v>-0.03536167520723058</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6867524280645643</v>
+        <v>0.5027354928489128</v>
       </c>
       <c r="F91" t="n">
-        <v>-95.19430316647905</v>
+        <v>-108.8427229026211</v>
       </c>
       <c r="G91" t="n">
-        <v>51.47429984622701</v>
+        <v>-49.04448831321226</v>
       </c>
       <c r="H91" t="n">
-        <v>126.5561485232505</v>
+        <v>-41.35560393687354</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3275,25 +3275,25 @@
         <v>2700</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.02905222742727296</v>
+        <v>-0.3770375615758289</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.5368738329268335</v>
+        <v>0.7942744061487532</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.4617302462515394</v>
+        <v>-0.02251018527470047</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7054981469121355</v>
+        <v>0.4758824817713897</v>
       </c>
       <c r="F92" t="n">
-        <v>-90.26386011507489</v>
+        <v>-112.9551375265477</v>
       </c>
       <c r="G92" t="n">
-        <v>51.66111584555998</v>
+        <v>-47.64529525597174</v>
       </c>
       <c r="H92" t="n">
-        <v>132.8478133249326</v>
+        <v>-35.85380109713887</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3306,25 +3306,25 @@
         <v>2730</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.04480022342709213</v>
+        <v>-0.3775948778569097</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.5124706340785659</v>
+        <v>0.8100643150779007</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4604698525684949</v>
+        <v>-0.009633315842661246</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7234184847400181</v>
+        <v>0.4484697457794369</v>
       </c>
       <c r="F93" t="n">
-        <v>-85.32897549821391</v>
+        <v>-116.741919923354</v>
       </c>
       <c r="G93" t="n">
-        <v>51.51027336934836</v>
+        <v>-45.99702196606619</v>
       </c>
       <c r="H93" t="n">
-        <v>139.1435791054544</v>
+        <v>-30.66307532235647</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3337,25 +3337,25 @@
         <v>2760</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.0604913372113197</v>
+        <v>-0.3777129151728448</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.4874719153266058</v>
+        <v>0.8249106376404575</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.4586744133165511</v>
+        <v>0.003253888181948805</v>
       </c>
       <c r="E94" t="n">
-        <v>0.740492884813159</v>
+        <v>0.4205291973584527</v>
       </c>
       <c r="F94" t="n">
-        <v>-80.48447818375158</v>
+        <v>-120.1918603974013</v>
       </c>
       <c r="G94" t="n">
-        <v>51.02592429442274</v>
+        <v>-44.12739587674557</v>
       </c>
       <c r="H94" t="n">
-        <v>145.3513981035912</v>
+        <v>-25.79151065965991</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -3368,25 +3368,25 @@
         <v>2790</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.07610721608592017</v>
+        <v>-0.377391255898012</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.4619071679570018</v>
+        <v>0.8387956855334019</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.4563461679857415</v>
+        <v>0.0161363646511849</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7567018136718866</v>
+        <v>0.3920934271804561</v>
       </c>
       <c r="F95" t="n">
-        <v>-75.81623195015288</v>
+        <v>-123.3074059093256</v>
       </c>
       <c r="G95" t="n">
-        <v>50.22067510704391</v>
+        <v>-42.06335993404912</v>
       </c>
       <c r="H95" t="n">
-        <v>151.3882065468153</v>
+        <v>-21.23339284522432</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -3399,25 +3399,25 @@
         <v>2820</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.09162963626952425</v>
+        <v>-0.3766300022401676</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.4358065164452953</v>
+        <v>0.851702893042478</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.4534879716485651</v>
+        <v>0.02899906157629125</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7720267803327818</v>
+        <v>0.3631956467571426</v>
       </c>
       <c r="F96" t="n">
-        <v>-71.39387626001842</v>
+        <v>-126.1005499584433</v>
       </c>
       <c r="G96" t="n">
-        <v>49.11409184972975</v>
+        <v>-39.83011306137592</v>
       </c>
       <c r="H96" t="n">
-        <v>157.1872056546972</v>
+        <v>-16.97328957916905</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3430,25 +3430,25 @@
         <v>2850</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1070405253169383</v>
+        <v>-0.3754297787297016</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.4092006785303502</v>
+        <v>0.8636168393528951</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4501032901623663</v>
+        <v>0.04182695574508931</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7864503536874959</v>
+        <v>0.3338696479199348</v>
       </c>
       <c r="F97" t="n">
-        <v>-67.26706636257495</v>
+        <v>-128.5891769595317</v>
       </c>
       <c r="G97" t="n">
-        <v>47.73061671240542</v>
+        <v>-37.45059207989333</v>
       </c>
       <c r="H97" t="n">
-        <v>162.7016439167088</v>
+        <v>-12.98967453913824</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -3461,25 +3461,25 @@
         <v>2880</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1223219838963263</v>
+        <v>-0.3737917339371286</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3821209248456734</v>
+        <v>0.8745232693129789</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.4461961946035273</v>
+        <v>0.05460507119405412</v>
       </c>
       <c r="E98" t="n">
-        <v>0.799956178157332</v>
+        <v>0.3041497612530807</v>
       </c>
       <c r="F98" t="n">
-        <v>-63.46528625050319</v>
+        <v>-130.7941689381504</v>
       </c>
       <c r="G98" t="n">
-        <v>46.09736293123795</v>
+        <v>-34.94528608984869</v>
       </c>
       <c r="H98" t="n">
-        <v>167.9050274615462</v>
+        <v>-9.257785821582022</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -3492,25 +3492,25 @@
         <v>2910</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1374563068089902</v>
+        <v>-0.3717175414100474</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.3545990383446485</v>
+        <v>0.8844091125582118</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.4417713549785136</v>
+        <v>0.06731849743321194</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8125289875714783</v>
+        <v>0.2740708137241192</v>
       </c>
       <c r="F99" t="n">
-        <v>-60.00032221890929</v>
+        <v>-132.7373095685462</v>
       </c>
       <c r="G99" t="n">
-        <v>44.24216592439873</v>
+        <v>-32.33227352078078</v>
       </c>
       <c r="H99" t="n">
-        <v>172.7886711246854</v>
+        <v>-5.751683167228171</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3523,25 +3523,25 @@
         <v>2940</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1524260032364573</v>
+        <v>-0.3692093998201684</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3266672736103862</v>
+        <v>0.8932625010183467</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.4368340332484612</v>
+        <v>0.07995240742882301</v>
       </c>
       <c r="E100" t="n">
-        <v>0.82415461734143</v>
+        <v>0.2436680855286847</v>
       </c>
       <c r="F100" t="n">
-        <v>-56.87012129000826</v>
+        <v>-134.4398791856213</v>
       </c>
       <c r="G100" t="n">
-        <v>42.1920980852765</v>
+        <v>-29.62739127159919</v>
       </c>
       <c r="H100" t="n">
-        <v>177.3578663423561</v>
+        <v>-2.445609617847572</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -3554,25 +3554,25 @@
         <v>2970</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1672138260564317</v>
+        <v>-0.366270032319135</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2983582970316273</v>
+        <v>0.9010727847793114</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.431390071882723</v>
+        <v>0.09249207529137553</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8348200218304397</v>
+        <v>0.2129772663062681</v>
       </c>
       <c r="F101" t="n">
-        <v>-54.06291928089178</v>
+        <v>-135.9217857128985</v>
       </c>
       <c r="G101" t="n">
-        <v>39.97249014928705</v>
+        <v>-26.84447027380169</v>
       </c>
       <c r="H101" t="n">
-        <v>-178.3722174854086</v>
+        <v>0.6851881587465232</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -3585,25 +3585,25 @@
         <v>3000</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1818027509159816</v>
+        <v>-0.3629026850981976</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2697052224327725</v>
+        <v>0.9078305463179273</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.4254459005797311</v>
+        <v>0.104922893668399</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8445132553321895</v>
+        <v>0.1820344107713205</v>
       </c>
       <c r="F102" t="n">
-        <v>-51.56093642864343</v>
+        <v>-137.2010798455809</v>
       </c>
       <c r="G102" t="n">
-        <v>37.60640587544125</v>
+        <v>-23.99559436922749</v>
       </c>
       <c r="H102" t="n">
-        <v>-174.3802015217395</v>
+        <v>3.664030166760726</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -3616,25 +3616,25 @@
         <v>3030</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1961760535567687</v>
+        <v>-0.3591111251561157</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.2407414567578373</v>
+        <v>0.9135276131027767</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.419008505569461</v>
+        <v>0.1172303908051655</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8532235224543759</v>
+        <v>0.150875893897999</v>
       </c>
       <c r="F103" t="n">
-        <v>-49.34329487089693</v>
+        <v>-138.2937284305629</v>
       </c>
       <c r="G103" t="n">
-        <v>35.11443923811675</v>
+        <v>-21.09135678181938</v>
       </c>
       <c r="H103" t="n">
-        <v>-170.6413749170991</v>
+        <v>6.512639037908756</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -3647,25 +3647,25 @@
         <v>3060</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.2103172869615368</v>
+        <v>-0.3548996372747982</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.211500735768843</v>
+        <v>0.9181570685840209</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.4120854345941957</v>
+        <v>0.1294002472754288</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8609411548820799</v>
+        <v>0.1195383657093913</v>
       </c>
       <c r="F104" t="n">
-        <v>-47.38815336668863</v>
+        <v>-139.213550555871</v>
       </c>
       <c r="G104" t="n">
-        <v>32.51475317362854</v>
+        <v>-18.14110055055654</v>
       </c>
       <c r="H104" t="n">
-        <v>-167.1297955174037</v>
+        <v>9.25114742027238</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -3678,25 +3678,25 @@
         <v>3090</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.2242103074726082</v>
+        <v>-0.3502730202057862</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1820170655486238</v>
+        <v>0.9217132615854611</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.4046847836700814</v>
+        <v>0.1414183123730428</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8676576235693465</v>
+        <v>0.08805870575342745</v>
       </c>
       <c r="F105" t="n">
-        <v>-45.67413424387486</v>
+        <v>-139.9722483337527</v>
       </c>
       <c r="G105" t="n">
-        <v>29.82324595937876</v>
+        <v>-15.15313710022851</v>
       </c>
       <c r="H105" t="n">
-        <v>-163.8196734767306</v>
+        <v>11.89821023408613</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3709,25 +3709,25 @@
         <v>3120</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2378392901290911</v>
+        <v>-0.3452365820696212</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.152324683326317</v>
+        <v>0.9241918141165784</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.3968151869061753</v>
+        <v>0.153270620164715</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8733655422336312</v>
+        <v>0.05647397732688356</v>
       </c>
       <c r="F106" t="n">
-        <v>-44.18120933209435</v>
+        <v>-140.5794860786467</v>
       </c>
       <c r="G106" t="n">
-        <v>27.05378719010868</v>
+        <v>-12.13494184247588</v>
       </c>
       <c r="H106" t="n">
-        <v>-160.6862095836581</v>
+        <v>14.47117715248194</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -3740,25 +3740,25 @@
         <v>3150</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2511887432293419</v>
+        <v>-0.3397961349799212</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1224580188193063</v>
+        <v>0.9255896276188873</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.388485805939621</v>
+        <v>0.1649434051865879</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8780586697283714</v>
+        <v>0.02482138155884381</v>
       </c>
       <c r="F107" t="n">
-        <v>-42.89119570701619</v>
+        <v>-141.0429874943626</v>
       </c>
       <c r="G107" t="n">
-        <v>24.21847799319945</v>
+        <v>-9.093328366564524</v>
       </c>
       <c r="H107" t="n">
-        <v>-157.7060372320593</v>
+        <v>16.98629679435411</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -3771,25 +3771,25 @@
         <v>3180</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.26424352213053</v>
+        <v>-0.333957988884633</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.09245165618570765</v>
+        <v>0.9259048876722793</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.3797063190397025</v>
+        <v>0.1764231178189671</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8817319113891088</v>
+        <v>-0.006861788669885164</v>
       </c>
       <c r="F108" t="n">
-        <v>-41.78798873343288</v>
+        <v>-141.3686315665711</v>
       </c>
       <c r="G108" t="n">
-        <v>21.32790921199376</v>
+        <v>-6.034604145424609</v>
       </c>
       <c r="H108" t="n">
-        <v>-154.8573944636114</v>
+        <v>19.45893542639278</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3802,25 +3802,25 @@
         <v>3210</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2769888423925032</v>
+        <v>-0.3277289446293548</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.06234029646808926</v>
+        <v>0.9251370671670417</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3704869098730567</v>
+        <v>0.1876964393361255</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8843813194765283</v>
+        <v>-0.03853819490108559</v>
       </c>
       <c r="F109" t="n">
-        <v>-40.85762918281146</v>
+        <v>-141.5605352769444</v>
       </c>
       <c r="G109" t="n">
-        <v>18.39140357254091</v>
+        <v>-2.964711317935608</v>
       </c>
       <c r="H109" t="n">
-        <v>-152.1201216240274</v>
+        <v>21.90380058479686</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -3833,25 +3833,25 @@
         <v>3240</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2894102922470314</v>
+        <v>-0.3211162862630033</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.03215872068583107</v>
+        <v>0.9232869279539431</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.3608382559967248</v>
+        <v>0.1987502966094591</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8860040927865857</v>
+        <v>-0.07017049924063001</v>
       </c>
       <c r="F110" t="n">
-        <v>-40.08827346097661</v>
+        <v>-141.6211160854396</v>
       </c>
       <c r="G110" t="n">
-        <v>15.4172358287363</v>
+        <v>0.1106436662288338</v>
       </c>
       <c r="H110" t="n">
-        <v>-149.4755522683212</v>
+        <v>24.33516499098828</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
         <v>3270</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3014938444850927</v>
+        <v>-0.3141277725582884</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.001941753483788209</v>
+        <v>0.9203565209755185</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.3507715170763187</v>
+        <v>0.209571876531134</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8865985755340378</v>
+        <v>-0.1017214105910221</v>
       </c>
       <c r="F111" t="n">
-        <v>-39.47011397031337</v>
+        <v>-141.5511302143337</v>
       </c>
       <c r="G111" t="n">
-        <v>12.41282966775574</v>
+        <v>3.185867749585009</v>
       </c>
       <c r="H111" t="n">
-        <v>-146.9063427235594</v>
+        <v>26.7670892545749</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -3895,25 +3895,25 @@
         <v>3300</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.313225867821549</v>
+        <v>-0.3067716277784416</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02827577269356319</v>
+        <v>0.9163491848765128</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.3402983228377702</v>
+        <v>0.2201486401122535</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8861642555868636</v>
+        <v>-0.1331537307890445</v>
       </c>
       <c r="F112" t="n">
-        <v>-38.9952804859852</v>
+        <v>-141.3496847574098</v>
       </c>
       <c r="G112" t="n">
-        <v>9.384932879027213</v>
+        <v>6.255362535354818</v>
       </c>
       <c r="H112" t="n">
-        <v>-144.3962693597408</v>
+        <v>29.21364361182737</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -3926,25 +3926,25 @@
         <v>3330</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3245931377793445</v>
+        <v>-0.2990565316812819</v>
       </c>
       <c r="C113" t="n">
-        <v>0.05845905289738539</v>
+        <v>0.9112695430869437</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.3294307607714925</v>
+        <v>0.2304683362888611</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8847017621201032</v>
+        <v>-0.1644304006840576</v>
       </c>
       <c r="F113" t="n">
-        <v>-38.65774217109587</v>
+        <v>-141.0142230415278</v>
       </c>
       <c r="G113" t="n">
-        <v>6.33977369994283</v>
+        <v>9.313405392863764</v>
       </c>
       <c r="H113" t="n">
-        <v>-141.930011147916</v>
+        <v>31.6891297612843</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3957,25 +3957,25 @@
         <v>3360</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.3355828471604611</v>
+        <v>-0.2909916032410759</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08857334450289386</v>
+        <v>0.9051234948836057</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.3181813635837044</v>
+        <v>0.2405190220876507</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8822128627509717</v>
+        <v>-0.1955145668917685</v>
       </c>
       <c r="F114" t="n">
-        <v>-38.45322230850149</v>
+        <v>-140.5404835255503</v>
       </c>
       <c r="G114" t="n">
-        <v>3.283201882123391</v>
+        <v>12.35402869306043</v>
       </c>
       <c r="H114" t="n">
-        <v>-139.492927330484</v>
+        <v>34.2083055301427</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3988,25 +3988,25 @@
         <v>3390</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.3461826161670861</v>
+        <v>-0.2825864110128326</v>
       </c>
       <c r="C115" t="n">
-        <v>0.118584001640697</v>
+        <v>0.8979182265686034</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.3065630963827818</v>
+        <v>0.2502890490755284</v>
       </c>
       <c r="E115" t="n">
-        <v>0.8787004601994881</v>
+        <v>-0.2263695443730193</v>
       </c>
       <c r="F115" t="n">
-        <v>-38.37913292076027</v>
+        <v>-139.9224364123238</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2208182416356212</v>
+        <v>15.37088118827644</v>
       </c>
       <c r="H115" t="n">
-        <v>-137.0708349702695</v>
+        <v>36.78660233517524</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -4019,25 +4019,25 @@
         <v>3420</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.3563805022207459</v>
+        <v>-0.2738509284197846</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1484565092725655</v>
+        <v>0.8896621791160908</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.2945893435955241</v>
+        <v>0.2597671167598798</v>
       </c>
       <c r="E116" t="n">
-        <v>0.874168588506503</v>
+        <v>-0.2569589872028017</v>
       </c>
       <c r="F116" t="n">
-        <v>-38.43453332314747</v>
+        <v>-139.152197126648</v>
       </c>
       <c r="G116" t="n">
-        <v>-2.841903518295666</v>
+        <v>18.35709828689521</v>
       </c>
       <c r="H116" t="n">
-        <v>-134.6497879787757</v>
+        <v>39.44035913516613</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4050,25 +4050,25 @@
         <v>3450</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.3661650095511677</v>
+        <v>-0.2647955421837579</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1781565170367389</v>
+        <v>0.8803650547241803</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.2822738955720822</v>
+        <v>0.2689422580861635</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8686224088154142</v>
+        <v>-0.2872468504189667</v>
       </c>
       <c r="F117" t="n">
-        <v>-38.62011465225385</v>
+        <v>-138.2199303390369</v>
       </c>
       <c r="G117" t="n">
-        <v>-5.899498977534539</v>
+        <v>21.30513663754823</v>
       </c>
       <c r="H117" t="n">
-        <v>-132.2158573775066</v>
+        <v>42.18703420135488</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -4081,25 +4081,25 @@
         <v>3480</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3755250985600574</v>
+        <v>-0.2554310333205211</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2076498728102047</v>
+        <v>0.8700378021636689</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.2696309349057781</v>
+        <v>0.2778038586391894</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8620682047351015</v>
+        <v>-0.3171974560872145</v>
       </c>
       <c r="F118" t="n">
-        <v>-38.93821103290539</v>
+        <v>-137.1137523626778</v>
       </c>
       <c r="G118" t="n">
-        <v>-8.946395450682662</v>
+        <v>24.20660012126497</v>
       </c>
       <c r="H118" t="n">
-        <v>-129.7549116987985</v>
+        <v>45.04540986464669</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -4112,25 +4112,25 @@
         <v>3510</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.3844501950465852</v>
+        <v>-0.2457685627315067</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2369026561874674</v>
+        <v>0.8586926042200653</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.2566750223906469</v>
+        <v>0.2863416686969862</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8545133772508925</v>
+        <v>-0.3467755380624147</v>
       </c>
       <c r="F119" t="n">
-        <v>-39.3928368818121</v>
+        <v>-135.8196536742072</v>
       </c>
       <c r="G119" t="n">
-        <v>-11.97679103874507</v>
+        <v>27.05204210423055</v>
       </c>
       <c r="H119" t="n">
-        <v>-127.2523963559139</v>
+        <v>48.03576220920495</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -4143,25 +4143,25 @@
         <v>3540</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.39293019932242</v>
+        <v>-0.2358196561065699</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2658812119342076</v>
+        <v>0.8463428634230952</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.2434210825865064</v>
+        <v>0.2945458149705811</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8459664391412071</v>
+        <v>-0.3759462863360821</v>
       </c>
       <c r="F120" t="n">
-        <v>-39.98974852517645</v>
+        <v>-134.3214727637915</v>
       </c>
       <c r="G120" t="n">
-        <v>-14.98452655054768</v>
+        <v>29.83074458212374</v>
       </c>
       <c r="H120" t="n">
-        <v>-124.6931115601381</v>
+        <v>51.17996776546044</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -4174,25 +4174,25 @@
         <v>3570</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.400955495194025</v>
+        <v>-0.225596188147352</v>
       </c>
       <c r="C121" t="n">
-        <v>0.294552183311757</v>
+        <v>0.8330031860165734</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.2298843890359377</v>
+        <v>0.3024068120224163</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8364370088999917</v>
+        <v>-0.4046753909271745</v>
       </c>
       <c r="F121" t="n">
-        <v>-40.73652642325739</v>
+        <v>-132.6009691803438</v>
       </c>
       <c r="G121" t="n">
-        <v>-17.96294650087666</v>
+        <v>32.53047559356586</v>
       </c>
       <c r="H121" t="n">
-        <v>-122.0609900547964</v>
+        <v>54.50150097403762</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -4205,25 +4205,25 @@
         <v>3600</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.4085169589090501</v>
+        <v>-0.2151103661894183</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3228825455815161</v>
+        <v>0.8186893642096887</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.2160805489886531</v>
+        <v>0.3099155733027554</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8259358040376165</v>
+        <v>-0.4329290850846295</v>
       </c>
       <c r="F122" t="n">
-        <v>-41.64267138246729</v>
+        <v>-130.6380659227152</v>
       </c>
       <c r="G122" t="n">
-        <v>-20.90474544339929</v>
+        <v>35.13723119076172</v>
       </c>
       <c r="H122" t="n">
-        <v>-119.3388788403524</v>
+        <v>58.02525369252504</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -4236,25 +4236,25 @@
         <v>3630</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.4156059726036203</v>
+        <v>-0.2043747131728499</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3508396581242186</v>
+        <v>0.8034183565883722</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2020254781980186</v>
+        <v>0.3170634218469957</v>
       </c>
       <c r="E123" t="n">
-        <v>0.814474625744929</v>
+        <v>-0.4606741879452639</v>
       </c>
       <c r="F123" t="n">
-        <v>-42.71970432304271</v>
+        <v>-128.4113592966966</v>
       </c>
       <c r="G123" t="n">
-        <v>-23.80179795358013</v>
+        <v>37.63497641185187</v>
       </c>
       <c r="H123" t="n">
-        <v>-116.5083318960519</v>
+        <v>61.77707988400651</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -4267,25 +4267,25 @@
         <v>3660</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.4222144144112451</v>
+        <v>-0.1934020500957306</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3783912233862968</v>
+        <v>0.7872082668062632</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1877354225728758</v>
+        <v>0.3238421005333924</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8020663821897628</v>
+        <v>-0.4878781462750384</v>
       </c>
       <c r="F124" t="n">
-        <v>-43.98124675157146</v>
+        <v>-125.8990251254856</v>
       </c>
       <c r="G124" t="n">
-        <v>-26.64495765419396</v>
+        <v>40.00541217473332</v>
       </c>
       <c r="H124" t="n">
-        <v>-113.5494416266714</v>
+        <v>65.78293766537574</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -4298,25 +4298,25 @@
         <v>3690</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.4283346957163063</v>
+        <v>-0.1822054778925001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.405505433167292</v>
+        <v>0.7700783204211602</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1732268849067844</v>
+        <v>0.3302437819450628</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7887250334957792</v>
+        <v>-0.5145090754592307</v>
       </c>
       <c r="F125" t="n">
-        <v>-45.44306414410504</v>
+        <v>-123.0802750095652</v>
       </c>
       <c r="G125" t="n">
-        <v>-29.42385257943294</v>
+        <v>42.2278129494518</v>
       </c>
       <c r="H125" t="n">
-        <v>-110.4407074436486</v>
+        <v>70.06747597191494</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -4329,25 +4329,25 @@
         <v>3720</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.43395975047225</v>
+        <v>-0.1707983588851263</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4321509273403984</v>
+        <v>0.7520488400339185</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.1585166451464398</v>
+        <v>0.3362610777389773</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7744656120063782</v>
+        <v>-0.5405357993728138</v>
       </c>
       <c r="F126" t="n">
-        <v>-47.12301363512823</v>
+        <v>-119.9375170956733</v>
       </c>
       <c r="G126" t="n">
-        <v>-32.12663871833212</v>
+        <v>44.27900303485083</v>
       </c>
       <c r="H126" t="n">
-        <v>-107.1590219300817</v>
+        <v>74.65191217786892</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -4360,25 +4360,25 @@
         <v>3750</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.4390830486556492</v>
+        <v>-0.159194297777747</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4582968468122283</v>
+        <v>0.7331412186395547</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.143621733241342</v>
+        <v>0.3418870475444207</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7593042040750089</v>
+        <v>-0.5659278892298186</v>
       </c>
       <c r="F127" t="n">
-        <v>-49.04084128274898</v>
+        <v>-116.4593213440891</v>
       </c>
       <c r="G127" t="n">
-        <v>-34.73974610288265</v>
+        <v>46.13356428289922</v>
       </c>
       <c r="H127" t="n">
-        <v>-103.6798101602056</v>
+        <v>79.55110140364658</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -4391,25 +4391,25 @@
         <v>3780</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.4436986046765993</v>
+        <v>-0.147407122286773</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4839128677347911</v>
+        <v>0.7133778912790905</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1285594107668057</v>
+        <v>0.3471152073348532</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7432579381022589</v>
+        <v>-0.590655701208591</v>
       </c>
       <c r="F128" t="n">
-        <v>-51.21773269532731</v>
+        <v>-112.6441383386368</v>
       </c>
       <c r="G128" t="n">
-        <v>-37.24761825188844</v>
+        <v>47.76438646863363</v>
       </c>
       <c r="H128" t="n">
-        <v>-99.9774242632983</v>
+        <v>84.76984907952084</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -4422,25 +4422,25 @@
         <v>3810</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.4478009856264159</v>
+        <v>-0.1354508634850699</v>
       </c>
       <c r="C129" t="n">
-        <v>0.508969235837734</v>
+        <v>0.6927823050775636</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.113347151954651</v>
+        <v>0.3519395372365333</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7263449713369899</v>
+        <v>-0.6146904127138322</v>
       </c>
       <c r="F129" t="n">
-        <v>-53.67549507604173</v>
+        <v>-108.5044388305297</v>
       </c>
       <c r="G129" t="n">
-        <v>-39.63247101207003</v>
+        <v>49.14366739400408</v>
       </c>
       <c r="H129" t="n">
-        <v>-96.02591288971666</v>
+        <v>90.29880011781518</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -4453,25 +4453,25 @@
         <v>3840</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.4513853192993775</v>
+        <v>-0.1233397358765706</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5334368007055323</v>
+        <v>0.6713788876551378</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.09800262420829008</v>
+        <v>0.3563544887664328</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7085844754313589</v>
+        <v>-0.6380040572761759</v>
       </c>
       <c r="F130" t="n">
-        <v>-56.4352212427003</v>
+        <v>-104.070542299874</v>
       </c>
       <c r="G130" t="n">
-        <v>-41.87411162774406</v>
+        <v>50.24442158371965</v>
       </c>
       <c r="H130" t="n">
-        <v>-91.80031408566471</v>
+        <v>96.11063689907184</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -4484,25 +4484,25 @@
         <v>3870</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.454447301975255</v>
+        <v>0.111088117329974</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5572870501259818</v>
+        <v>-0.6491930140939428</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.08254366799928149</v>
+        <v>-0.3603549914449134</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6899966205442727</v>
+        <v>0.6605695578668762</v>
       </c>
       <c r="F131" t="n">
-        <v>-59.51527906860227</v>
+        <v>-99.39300610009336</v>
       </c>
       <c r="G131" t="n">
-        <v>-43.94988097911114</v>
+        <v>51.04244660192192</v>
       </c>
       <c r="H131" t="n">
-        <v>-87.27862730064064</v>
+        <v>102.157714933159</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -4515,25 +4515,25 @@
         <v>3900</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.4569832058811999</v>
+        <v>0.09871052887313776</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5804921442590834</v>
+        <v>-0.6262509724347264</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.06698827626747483</v>
+        <v>-0.3639364587850166</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6706025580317636</v>
+        <v>0.6823607586762057</v>
       </c>
       <c r="F132" t="n">
-        <v>-62.92851065048324</v>
+        <v>-94.54230088222673</v>
       </c>
       <c r="G132" t="n">
-        <v>-45.8348068645459</v>
+        <v>51.51853125444953</v>
       </c>
       <c r="H132" t="n">
-        <v>-82.44457951932944</v>
+        <v>108.3724108999498</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -4546,25 +4546,25 @@
         <v>3930</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.4589898862966398</v>
+        <v>0.08622161450062958</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6030249496435029</v>
+        <v>-0.6025799279509941</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.05135457328834864</v>
+        <v>-0.3670947936075619</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6504244015926985</v>
+        <v>0.7033524551245278</v>
       </c>
       <c r="F133" t="n">
-        <v>-66.67865433625259</v>
+        <v>-89.60488870792412</v>
       </c>
       <c r="G133" t="n">
-        <v>-47.50207680705608</v>
+        <v>51.66052093277217</v>
       </c>
       <c r="H133" t="n">
-        <v>-77.29117175616359</v>
+        <v>114.6710670145546</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -4577,25 +4577,25 @@
         <v>3960</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.4604647882388204</v>
+        <v>0.07363612098641235</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6248590729094305</v>
+        <v>-0.5782078861709123</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0356607930626818</v>
+        <v>-0.3698263926910941</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6294852068421352</v>
+        <v>0.7235204221892649</v>
       </c>
       <c r="F134" t="n">
-        <v>-70.75625721219937</v>
+        <v>-84.6758298557821</v>
       </c>
       <c r="G134" t="n">
-        <v>-48.92394066725411</v>
+        <v>51.4647726110592</v>
       </c>
       <c r="H134" t="n">
-        <v>-71.82473776722036</v>
+        <v>120.9614060622082</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -4608,25 +4608,25 @@
         <v>3990</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.4614059526731513</v>
+        <v>0.06096887783558412</v>
       </c>
       <c r="C135" t="n">
-        <v>0.645968894109788</v>
+        <v>-0.5531636548830398</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.01992525726008481</v>
+        <v>-0.3721281507231636</v>
       </c>
       <c r="E135" t="n">
-        <v>0.607808949262413</v>
+        <v>0.7428414408817438</v>
       </c>
       <c r="F135" t="n">
-        <v>-75.13472534242472</v>
+        <v>-79.84932621235646</v>
       </c>
       <c r="G135" t="n">
-        <v>-50.07311554717866</v>
+        <v>50.93661663184751</v>
       </c>
       <c r="H135" t="n">
-        <v>-66.06886720008889</v>
+        <v>127.1520095307614</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -4639,25 +4639,25 @@
         <v>4020</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.461812022190219</v>
+        <v>0.04823477740912294</v>
       </c>
       <c r="C136" t="n">
-        <v>0.666329599567297</v>
+        <v>-0.5274768051890151</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.004166352759598435</v>
+        <v>-0.373997463554864</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5854205005000672</v>
+        <v>0.7612933228988747</v>
       </c>
       <c r="F136" t="n">
-        <v>-79.76756939229797</v>
+        <v>-75.20947637574007</v>
       </c>
       <c r="G136" t="n">
-        <v>-50.92466862236645</v>
+        <v>50.08969500079385</v>
       </c>
       <c r="H136" t="n">
-        <v>-60.06713511431246</v>
+        <v>133.1615840360493</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -4670,25 +4670,25 @@
         <v>4050</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.4616822460920724</v>
+        <v>0.03544874672647805</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6859172140836562</v>
+        <v>-0.501177613953051</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01159749112428134</v>
+        <v>-0.375432231565354</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5623456030473759</v>
+        <v>0.7788549448579671</v>
       </c>
       <c r="F137" t="n">
-        <v>-84.58811932804876</v>
+        <v>-70.82342263061268</v>
       </c>
       <c r="G137" t="n">
-        <v>-51.45819776940253</v>
+        <v>48.94435972292483</v>
       </c>
       <c r="H137" t="n">
-        <v>-53.88336378832125</v>
+        <v>138.9258371253965</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -4701,25 +4701,25 @@
         <v>4080</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.4610164848362285</v>
+        <v>0.02262576249435054</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7047086324893598</v>
+        <v>-0.4742970943631308</v>
       </c>
       <c r="D138" t="n">
-        <v>0.02734782573877204</v>
+        <v>-0.3764308579531412</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5386108432176108</v>
+        <v>0.7955062226852173</v>
       </c>
       <c r="F138" t="n">
-        <v>-89.51271242990047</v>
+        <v>-66.7380987284544</v>
       </c>
       <c r="G138" t="n">
-        <v>-51.65995627332521</v>
+        <v>47.52554822042315</v>
       </c>
       <c r="H138" t="n">
-        <v>-47.59841220557806</v>
+        <v>144.4007482973182</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -4732,25 +4732,25 @@
         <v>4110</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.4598152137825232</v>
+        <v>0.009780780739367953</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7226816503387853</v>
+        <v>-0.4468668492131304</v>
       </c>
       <c r="D139" t="n">
-        <v>0.04306620638428179</v>
+        <v>-0.3769922556614557</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5142436225228355</v>
+        <v>0.8112282012934124</v>
       </c>
       <c r="F139" t="n">
-        <v>-94.44746127636922</v>
+        <v>-62.98044777690041</v>
       </c>
       <c r="G139" t="n">
-        <v>-51.52446107509562</v>
+        <v>45.86058738068527</v>
       </c>
       <c r="H139" t="n">
-        <v>-41.30338622667448</v>
+        <v>149.5623801454145</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -4763,25 +4763,25 @@
         <v>4140</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.4580795261968611</v>
+        <v>-0.003071247410574651</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7398149936911946</v>
+        <v>-0.4189190997795848</v>
       </c>
       <c r="D140" t="n">
-        <v>0.05873421576826693</v>
+        <v>-0.3771158437063754</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4892721274373225</v>
+        <v>0.8260030240288676</v>
       </c>
       <c r="F140" t="n">
-        <v>-99.29743849462595</v>
+        <v>-59.5601697150687</v>
       </c>
       <c r="G140" t="n">
-        <v>-51.05517206730705</v>
+        <v>43.97729981694205</v>
       </c>
       <c r="H140" t="n">
-        <v>-35.09043232286566</v>
+        <v>154.4041520415707</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -4794,25 +4794,25 @@
         <v>4170</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.4558111354673143</v>
+        <v>-0.01591540228183216</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7560883478674258</v>
+        <v>-0.3904866269018308</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07433348754647207</v>
+        <v>-0.3768015480869234</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4637252975979232</v>
+        <v>0.8398139600770732</v>
       </c>
       <c r="F141" t="n">
-        <v>-103.9761176598326</v>
+        <v>-56.47367330765852</v>
       </c>
       <c r="G141" t="n">
-        <v>-50.26405354745081</v>
+        <v>41.90258513163553</v>
       </c>
       <c r="H141" t="n">
-        <v>-29.04327516946861</v>
+        <v>158.9329156578564</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -4825,25 +4825,25 @@
         <v>4200</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.4530123764941632</v>
+        <v>-0.02873681314323537</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7714823850813854</v>
+        <v>-0.3616027293653667</v>
       </c>
       <c r="D142" t="n">
-        <v>0.08984572987657179</v>
+        <v>-0.3760498009422734</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4376327925043937</v>
+        <v>0.8526454180356361</v>
       </c>
       <c r="F142" t="n">
-        <v>-108.4127984039666</v>
+        <v>-53.70818225187202</v>
       </c>
       <c r="G142" t="n">
-        <v>-49.17014149633513</v>
+        <v>39.66150688072638</v>
       </c>
       <c r="H142" t="n">
-        <v>-23.22977072000725</v>
+        <v>163.1648776396592</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4856,25 +4856,25 @@
         <v>4230</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.4496862062258464</v>
+        <v>-0.04152067513364505</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7859787908389453</v>
+        <v>-0.3323011823195331</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1052527488925374</v>
+        <v>-0.3748615390882827</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4110249568239372</v>
+        <v>0.8644829577717832</v>
       </c>
       <c r="F143" t="n">
-        <v>-112.5565912200587</v>
+        <v>-51.24533570033972</v>
       </c>
       <c r="G143" t="n">
-        <v>-47.79749399411062</v>
+        <v>37.27681266896402</v>
       </c>
       <c r="H143" t="n">
-        <v>-17.69789895108941</v>
+        <v>167.1220305307578</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4887,25 +4887,25 @@
         <v>4260</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.4458362033035758</v>
+        <v>-0.0542522656110663</v>
       </c>
       <c r="C144" t="n">
-        <v>0.799560289080117</v>
+        <v>-0.3026161958314225</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1205364720865344</v>
+        <v>-0.3732382019623152</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3839327842824893</v>
+        <v>0.8753133006487007</v>
       </c>
       <c r="F144" t="n">
-        <v>-116.376810974025</v>
+        <v>-49.06400979145491</v>
       </c>
       <c r="G144" t="n">
-        <v>-46.17298998364195</v>
+        <v>34.76877672364839</v>
       </c>
       <c r="H144" t="n">
-        <v>-12.47534692045271</v>
+        <v>170.829365906341</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4918,25 +4918,25 @@
         <v>4290</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4414665668070715</v>
+        <v>-0.06691695992789828</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8122106659183851</v>
+        <v>-0.2725823736324758</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1356789714546774</v>
+        <v>-0.3711817290035157</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3563878803564898</v>
+        <v>0.8851243382219551</v>
       </c>
       <c r="F145" t="n">
-        <v>-119.860642883305</v>
+        <v>-47.14234455859279</v>
       </c>
       <c r="G145" t="n">
-        <v>-44.3243621537556</v>
+        <v>32.15525572911081</v>
       </c>
       <c r="H145" t="n">
-        <v>-7.571818023215072</v>
+        <v>174.3128859664491</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4949,25 +4949,25 @@
         <v>4320</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.4365821106293962</v>
+        <v>-0.07950024659396192</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8239147995001193</v>
+        <v>-0.2422346722208193</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1506624963892315</v>
+        <v>-0.3686945565026696</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3284224048764405</v>
+        <v>0.8939051394699949</v>
       </c>
       <c r="F146" t="n">
-        <v>-123.0093489100078</v>
+        <v>-45.4590915376034</v>
       </c>
       <c r="G146" t="n">
-        <v>-42.27868108215127</v>
+        <v>29.45186927868388</v>
       </c>
       <c r="H146" t="n">
-        <v>-2.982798127034039</v>
+        <v>177.5982989777247</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4980,25 +4980,25 @@
         <v>4350</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.4311882738186781</v>
+        <v>-0.09198774185112793</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8346586500872575</v>
+        <v>-0.2116083603467981</v>
       </c>
       <c r="D147" t="n">
-        <v>0.165469456160478</v>
+        <v>-0.3657796139519826</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3000691077630974</v>
+        <v>0.9016459566801197</v>
       </c>
       <c r="F147" t="n">
-        <v>-125.8341323260385</v>
+        <v>-43.99443931009273</v>
       </c>
       <c r="G147" t="n">
-        <v>-40.06135305244988</v>
+        <v>26.67224141048353</v>
       </c>
       <c r="H147" t="n">
-        <v>1.306333777586028</v>
+        <v>-179.2897578547406</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -5011,25 +5011,25 @@
         <v>4380</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.4252910968855041</v>
+        <v>-0.1043652036698124</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8444293264778338</v>
+        <v>-0.1807389789423944</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1800825023955597</v>
+        <v>-0.3624403199250228</v>
       </c>
       <c r="E148" t="n">
-        <v>0.271361175972301</v>
+        <v>0.9083382300918895</v>
       </c>
       <c r="F148" t="n">
-        <v>-128.3524295701089</v>
+        <v>-42.73046739929008</v>
       </c>
       <c r="G148" t="n">
-        <v>-37.69555389572994</v>
+        <v>23.82826195728877</v>
       </c>
       <c r="H148" t="n">
-        <v>5.316634532572544</v>
+        <v>-176.3281175612619</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -5042,25 +5042,25 @@
         <v>4410</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.4188972295920312</v>
+        <v>-0.1166185451816724</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8532150717394154</v>
+        <v>-0.1496623015495713</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1944845105253125</v>
+        <v>-0.3586805775172292</v>
       </c>
       <c r="E149" t="n">
-        <v>0.242332266862164</v>
+        <v>0.913974591400933</v>
       </c>
       <c r="F149" t="n">
-        <v>-130.5849267950169</v>
+        <v>-41.65135206079091</v>
       </c>
       <c r="G149" t="n">
-        <v>-35.20202038141642</v>
+        <v>20.9303433618053</v>
       </c>
       <c r="H149" t="n">
-        <v>9.072644010877871</v>
+        <v>-173.4952270849356</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -5073,25 +5073,25 @@
         <v>4440</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.4120139219586633</v>
+        <v>-0.1287338475834408</v>
       </c>
       <c r="C150" t="n">
-        <v>0.861005287562326</v>
+        <v>-0.1184142952536314</v>
       </c>
       <c r="D150" t="n">
-        <v>0.208658611149429</v>
+        <v>-0.3545047693718866</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2130164474756547</v>
+        <v>0.9185488662333293</v>
       </c>
       <c r="F150" t="n">
-        <v>-132.5533893360911</v>
+        <v>-40.74341683380209</v>
       </c>
       <c r="G150" t="n">
-        <v>-32.59906796454721</v>
+        <v>17.98766027001798</v>
       </c>
       <c r="H150" t="n">
-        <v>12.6002538480994</v>
+        <v>-170.7711270768161</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -5104,25 +5104,25 @@
         <v>4470</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.4046490174566394</v>
+        <v>-0.1406973725296929</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8677905488626622</v>
+        <v>-0.08703108217077384</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2225882107890658</v>
+        <v>-0.3499177523204341</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1834481517861069</v>
+        <v>0.9220560756865279</v>
       </c>
       <c r="F151" t="n">
-        <v>-134.2791939651955</v>
+        <v>-39.99509362752551</v>
       </c>
       <c r="G151" t="n">
-        <v>-29.90274993406598</v>
+        <v>15.00836668874302</v>
       </c>
       <c r="H151" t="n">
-        <v>15.92528251657402</v>
+        <v>-168.1373321494785</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -5135,25 +5135,25 @@
         <v>4500</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.396810945300573</v>
+        <v>-0.152495574082022</v>
       </c>
       <c r="C152" t="n">
-        <v>0.8735626167905939</v>
+        <v>-0.05554890141049407</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2362570120871051</v>
+        <v>-0.3449248516477655</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1536621374161811</v>
+        <v>0.9244924370449165</v>
       </c>
       <c r="F152" t="n">
-        <v>-135.7824130569753</v>
+        <v>-39.39683890677425</v>
       </c>
       <c r="G152" t="n">
-        <v>-27.1270885053211</v>
+        <v>11.99978995879285</v>
       </c>
       <c r="H152" t="n">
-        <v>19.07260763795871</v>
+        <v>-165.5766545075109</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -5166,25 +5166,25 @@
         <v>4530</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.3885087118445763</v>
+        <v>-0.164115110210771</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8783144501554827</v>
+        <v>-0.02400407161521009</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2496490334512708</v>
+        <v>-0.3395318550165229</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1236934418867325</v>
+        <v>0.9258553637450275</v>
       </c>
       <c r="F153" t="n">
-        <v>-137.0812972903744</v>
+        <v>-38.94103410554703</v>
       </c>
       <c r="G153" t="n">
-        <v>-24.28433269533061</v>
+        <v>8.968603314099163</v>
       </c>
       <c r="H153" t="n">
-        <v>22.06570309505976</v>
+        <v>-163.0729982317178</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -5197,25 +5197,25 @@
         <v>4560</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.3797518911239859</v>
+        <v>-0.1755428539585403</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8820402152588989</v>
+        <v>0.00756704612143067</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2627486280781203</v>
+        <v>-0.3337450060377438</v>
       </c>
       <c r="E154" t="n">
-        <v>0.09357733858609894</v>
+        <v>0.9261434646867369</v>
       </c>
       <c r="F154" t="n">
-        <v>-138.1920278369476</v>
+        <v>-38.62188869316912</v>
       </c>
       <c r="G154" t="n">
-        <v>-21.38521576597168</v>
+        <v>5.920980045436535</v>
       </c>
       <c r="H154" t="n">
-        <v>24.92645296777255</v>
+        <v>-160.6111405529647</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -5228,25 +5228,25 @@
         <v>4590</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.3705506145208814</v>
+        <v>-0.186765904264501</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8847352941760035</v>
+        <v>0.03912808487363596</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2755405024123815</v>
+        <v>-0.3275709975136812</v>
       </c>
       <c r="E155" t="n">
-        <v>0.06334929240196963</v>
+        <v>0.9253565429423821</v>
       </c>
       <c r="F155" t="n">
-        <v>-139.1286395452113</v>
+        <v>-38.43535718624598</v>
       </c>
       <c r="G155" t="n">
-        <v>-18.43919758719501</v>
+        <v>2.862732878530131</v>
       </c>
       <c r="H155" t="n">
-        <v>27.67514505355194</v>
+        <v>-158.1765091390045</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -5259,25 +5259,25 @@
         <v>4620</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.3609155596056869</v>
+        <v>-0.1977715965094395</v>
       </c>
       <c r="C156" t="n">
-        <v>0.8863962914787783</v>
+        <v>0.07064270811945898</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2880097339757756</v>
+        <v>-0.3210169643539335</v>
       </c>
       <c r="E156" t="n">
-        <v>0.03304491522739059</v>
+        <v>0.9234955939259493</v>
       </c>
       <c r="F156" t="n">
-        <v>-139.9030445827567</v>
+        <v>-38.37907676952749</v>
       </c>
       <c r="G156" t="n">
-        <v>-15.4546854806517</v>
+        <v>-0.2005576559883361</v>
       </c>
       <c r="H156" t="n">
-        <v>30.33057485545631</v>
+        <v>-155.7549596379175</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -5290,25 +5290,25 @@
         <v>4650</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.3508579381414471</v>
+        <v>-0.2085475128530095</v>
       </c>
       <c r="C157" t="n">
-        <v>0.8870210394336981</v>
+        <v>0.1020746457185797</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3001417886100163</v>
+        <v>-0.3140904761505667</v>
       </c>
       <c r="E157" t="n">
-        <v>0.002699921308962067</v>
+        <v>0.9205628030589552</v>
       </c>
       <c r="F157" t="n">
-        <v>-140.5251083315189</v>
+        <v>-38.45232924644591</v>
       </c>
       <c r="G157" t="n">
-        <v>-12.4392320587975</v>
+        <v>-3.263422080927529</v>
       </c>
       <c r="H157" t="n">
-        <v>32.9102134726685</v>
+        <v>-153.3325547556487</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -5321,25 +5321,25 @@
         <v>4680</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.3403894832917683</v>
+        <v>-0.2190814923881305</v>
       </c>
       <c r="C158" t="n">
-        <v>0.8866086016840963</v>
+        <v>0.1333877296358065</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3119225371004454</v>
+        <v>-0.3067995294176508</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.02764991741318451</v>
+        <v>0.9165615429553557</v>
       </c>
       <c r="F158" t="n">
-        <v>-141.0027457862398</v>
+        <v>-38.65602914757247</v>
       </c>
       <c r="G158" t="n">
-        <v>-9.399711421892439</v>
+        <v>-6.320384315876502</v>
       </c>
       <c r="H158" t="n">
-        <v>35.43040949040225</v>
+        <v>-150.895344462678</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -5352,25 +5352,25 @@
         <v>4710</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.3295224360253498</v>
+        <v>-0.2293616479797006</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8851592754395416</v>
+        <v>0.1645459503587731</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3233382712152772</v>
+        <v>-0.2991525342306467</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.05796881598567213</v>
+        <v>0.9114963663778072</v>
       </c>
       <c r="F159" t="n">
-        <v>-141.3420182225491</v>
+        <v>-38.99273876605257</v>
       </c>
       <c r="G159" t="n">
-        <v>-6.342476540173608</v>
+        <v>-9.365845847529197</v>
       </c>
       <c r="H159" t="n">
-        <v>37.90660671257832</v>
+        <v>-148.4291445035539</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -5383,25 +5383,25 @@
         <v>4740</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3182695307405429</v>
+        <v>-0.239376348800055</v>
       </c>
       <c r="C160" t="n">
-        <v>0.8826745921833508</v>
+        <v>0.195513408898895</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3343757191538515</v>
+        <v>-0.2911583265022695</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.08822102105787941</v>
+        <v>0.9053730167639666</v>
       </c>
       <c r="F160" t="n">
-        <v>-141.5472176380373</v>
+        <v>-39.46670791826512</v>
       </c>
       <c r="G160" t="n">
-        <v>-3.273501342127701</v>
+        <v>-12.39395578665971</v>
       </c>
       <c r="H160" t="n">
-        <v>40.35356751336661</v>
+        <v>-145.9193220721008</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -5414,25 +5414,25 @@
         <v>4770</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.3066439801109695</v>
+        <v>-0.2491142716028323</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8791573169063093</v>
+        <v>0.2262544776677931</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3450220604239607</v>
+        <v>-0.2828261283446243</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.1183708554189229</v>
+        <v>0.8981984035527198</v>
       </c>
       <c r="F161" t="n">
-        <v>-141.6209315194309</v>
+        <v>-40.08393998926625</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.1985112721083642</v>
+        <v>-15.39849369652565</v>
       </c>
       <c r="H161" t="n">
-        <v>42.78559678440362</v>
+        <v>-143.3505635584864</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -5445,25 +5445,25 @@
         <v>4800</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.2946594591898297</v>
+        <v>-0.2585643828518543</v>
       </c>
       <c r="C162" t="n">
-        <v>0.8746114458785543</v>
+        <v>0.2567337522769297</v>
       </c>
       <c r="D162" t="n">
-        <v>0.355264940131938</v>
+        <v>-0.2741655590897519</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.1483827623453353</v>
+        <v>0.8899806102220719</v>
       </c>
       <c r="F162" t="n">
-        <v>-141.5640837171202</v>
+        <v>-40.85227572048348</v>
       </c>
       <c r="G162" t="n">
-        <v>2.876893869829255</v>
+        <v>-18.37272054604869</v>
       </c>
       <c r="H162" t="n">
-        <v>45.21676470559406</v>
+        <v>-140.7066589837789</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -5476,25 +5476,25 @@
         <v>4830</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.282330088735378</v>
+        <v>-0.2677159556005986</v>
       </c>
       <c r="C163" t="n">
-        <v>0.869042202945571</v>
+        <v>0.2869161080999384</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3650924827386867</v>
+        <v>-0.2651866205989212</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.178221349848676</v>
+        <v>0.8807288858013951</v>
       </c>
       <c r="F163" t="n">
-        <v>-141.3759492871928</v>
+        <v>-41.78149074346608</v>
       </c>
       <c r="G163" t="n">
-        <v>5.94712104807149</v>
+        <v>-21.30922469838211</v>
       </c>
       <c r="H163" t="n">
-        <v>47.66112847685347</v>
+        <v>-137.970283135314</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -5507,25 +5507,25 @@
         <v>4860</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.2696704178173895</v>
+        <v>-0.2765585794400896</v>
       </c>
       <c r="C164" t="n">
-        <v>0.8624560343544739</v>
+        <v>0.3167667360712123</v>
       </c>
       <c r="D164" t="n">
-        <v>0.374493305241223</v>
+        <v>-0.2558996871263461</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.2078514346576738</v>
+        <v>0.8704536387341423</v>
       </c>
       <c r="F164" t="n">
-        <v>-141.0541426016713</v>
+        <v>-42.8833936562818</v>
       </c>
       <c r="G164" t="n">
-        <v>9.006465322742185</v>
+        <v>-24.19974712439556</v>
       </c>
       <c r="H164" t="n">
-        <v>50.13295401262034</v>
+        <v>-135.1227930373517</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -5538,25 +5538,25 @@
         <v>4890</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.2566954056904335</v>
+        <v>-0.2850821704733088</v>
       </c>
       <c r="C165" t="n">
-        <v>0.854860602092719</v>
+        <v>0.3462511785821091</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3834565298090266</v>
+        <v>-0.2463154947437191</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.2372380859683302</v>
+        <v>0.8591664300110221</v>
       </c>
       <c r="F165" t="n">
-        <v>-140.59457925345</v>
+        <v>-44.17190528227139</v>
       </c>
       <c r="G165" t="n">
-        <v>12.04898766488878</v>
+        <v>-27.03498496991028</v>
       </c>
       <c r="H165" t="n">
-        <v>52.64693866809542</v>
+        <v>-132.1440576045149</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -5569,25 +5569,25 @@
         <v>4920</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.2434204029486981</v>
+        <v>-0.2932769813773122</v>
       </c>
       <c r="C166" t="n">
-        <v>0.846264775720309</v>
+        <v>0.3753353656707577</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3919717958729614</v>
+        <v>-0.2364451302530179</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.2663466689175478</v>
+        <v>0.8468799654323177</v>
       </c>
       <c r="F166" t="n">
-        <v>-139.9914136751063</v>
+        <v>-45.66308838534394</v>
       </c>
       <c r="G166" t="n">
-        <v>15.06838548633718</v>
+        <v>-29.80437198496196</v>
       </c>
       <c r="H166" t="n">
-        <v>55.21843528688067</v>
+        <v>-129.0123483564464</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -5600,25 +5600,25 @@
         <v>4950</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.2298611319839788</v>
+        <v>-0.3011336115104848</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8366786226767725</v>
+        <v>0.4039856513688906</v>
       </c>
       <c r="D167" t="n">
-        <v>0.400029271659671</v>
+        <v>-0.2263000196121421</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.2951428877241937</v>
+        <v>0.8336080869510861</v>
       </c>
       <c r="F167" t="n">
-        <v>-139.2369563658255</v>
+        <v>-47.37508104418631</v>
       </c>
       <c r="G167" t="n">
-        <v>18.05785207354818</v>
+        <v>-32.4958369904991</v>
       </c>
       <c r="H167" t="n">
-        <v>57.8636761074879</v>
+        <v>-125.7043363810229</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -5631,25 +5631,25 @@
         <v>4980</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.216033657396207</v>
+        <v>-0.3086430170789703</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8261133896205847</v>
+        <v>0.4321688502630712</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4076196701031086</v>
+        <v>-0.2158919158383407</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.3235928474281213</v>
+        <v>0.8193657629815493</v>
       </c>
       <c r="F168" t="n">
-        <v>-138.3215770055336</v>
+        <v>-49.32786501201526</v>
       </c>
       <c r="G168" t="n">
-        <v>21.00992310574711</v>
+        <v>-35.09554635718093</v>
       </c>
       <c r="H168" t="n">
-        <v>60.59999387510896</v>
+        <v>-122.1952628003696</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -5662,25 +5662,25 @@
         <v>5010</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.2019544023840483</v>
+        <v>-0.3157965213559789</v>
       </c>
       <c r="C169" t="n">
-        <v>0.8145815186039115</v>
+        <v>0.4598522742765627</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4147342392031572</v>
+        <v>-0.2052328863643657</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3516630201474499</v>
+        <v>0.8041690775556388</v>
       </c>
       <c r="F169" t="n">
-        <v>-137.2336090938998</v>
+        <v>-51.54277277760624</v>
       </c>
       <c r="G169" t="n">
-        <v>23.91629485121994</v>
+        <v>-37.58764436880427</v>
       </c>
       <c r="H169" t="n">
-        <v>63.44601957331421</v>
+        <v>-118.4593777914486</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -5693,25 +5693,25 @@
         <v>5040</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.1876400715704716</v>
+        <v>-0.3225858249032347</v>
       </c>
       <c r="C170" t="n">
-        <v>0.8020965901150851</v>
+        <v>0.4870037695178154</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4213648024040063</v>
+        <v>-0.1943352998818519</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.3793204014574148</v>
+        <v>0.7880352182908889</v>
       </c>
       <c r="F170" t="n">
-        <v>-135.9592657477351</v>
+        <v>-54.04160646040859</v>
       </c>
       <c r="G170" t="n">
-        <v>26.76764072011536</v>
+        <v>-39.95401755776329</v>
       </c>
       <c r="H170" t="n">
-        <v>66.42186743173826</v>
+        <v>-114.470773966785</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -5724,25 +5724,25 @@
         <v>5070</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1731076658056791</v>
+        <v>-0.3290030158060951</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7886733347070259</v>
+        <v>0.5135917532834023</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4275037471421401</v>
+        <v>-0.1832118126169612</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.4065324751367813</v>
+        <v>0.7709824630089731</v>
       </c>
       <c r="F171" t="n">
-        <v>-134.4826090003126</v>
+        <v>-56.8452164033025</v>
       </c>
       <c r="G171" t="n">
-        <v>29.55338494267123</v>
+        <v>-42.17412666457739</v>
       </c>
       <c r="H171" t="n">
-        <v>69.54924233801505</v>
+        <v>-110.2047653179224</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -5755,25 +5755,25 @@
         <v>5100</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1583744502823262</v>
+        <v>-0.3350405798771592</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7743276085075582</v>
+        <v>0.5395852511096461</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4331440387104156</v>
+        <v>-0.1718753540500156</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.4332672730894486</v>
+        <v>0.7530301649274741</v>
       </c>
       <c r="F172" t="n">
-        <v>-132.785609617592</v>
+        <v>-59.97138488562202</v>
       </c>
       <c r="G172" t="n">
-        <v>32.26146416832479</v>
+        <v>-44.22497257190957</v>
       </c>
       <c r="H172" t="n">
-        <v>72.85145271226688</v>
+        <v>-105.6399654972236</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -5786,25 +5786,25 @@
         <v>5130</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1434579313282588</v>
+        <v>-0.3406914107634142</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7590763738312686</v>
+        <v>0.5649539336766773</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4382792282264329</v>
+        <v>-0.1603391121374761</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.4594934153341382</v>
+        <v>0.7341987364292102</v>
       </c>
       <c r="F173" t="n">
-        <v>-130.8483684532213</v>
+        <v>-63.43191099044581</v>
       </c>
       <c r="G173" t="n">
-        <v>34.87807072187803</v>
+        <v>-46.08128749952728</v>
       </c>
       <c r="H173" t="n">
-        <v>76.3532518563304</v>
+        <v>-100.7611687104751</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -5817,25 +5817,25 @@
         <v>5160</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.1283758327073012</v>
+        <v>-0.3459488199636187</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7429376780956721</v>
+        <v>0.5896681536805065</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4429034599430803</v>
+        <v>-0.1486165179625075</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.4851801492363088</v>
+        <v>0.7145096312083568</v>
       </c>
       <c r="F174" t="n">
-        <v>-128.6495937926845</v>
+        <v>-67.22893721611202</v>
       </c>
       <c r="G174" t="n">
-        <v>37.38739293070481</v>
+        <v>-47.71606176832719</v>
       </c>
       <c r="H174" t="n">
-        <v>80.08041583785146</v>
+        <v>-95.56299200679162</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -5848,25 +5848,25 @@
         <v>5190</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1131460715078025</v>
+        <v>-0.3508065466710731</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7259306310658363</v>
+        <v>0.613698982416604</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4470114778655014</v>
+        <v>-0.1367212298981071</v>
       </c>
       <c r="E175" t="n">
-        <v>-0.5102973878428225</v>
+        <v>0.6939853248366927</v>
       </c>
       <c r="F175" t="n">
-        <v>-126.1674603903764</v>
+        <v>-71.35083198765732</v>
       </c>
       <c r="G175" t="n">
-        <v>39.77137794554559</v>
+        <v>-49.10151402912231</v>
       </c>
       <c r="H175" t="n">
-        <v>84.05893329892929</v>
+        <v>-90.05396427977125</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -5879,25 +5879,25 @@
         <v>5220</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.09778673364079084</v>
+        <v>-0.3552587674093072</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7080753803966151</v>
+        <v>0.6370182460406923</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4505986316597188</v>
+        <v>-0.1246671172767772</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.5348157472872718</v>
+        <v>0.6726492936590049</v>
       </c>
       <c r="F176" t="n">
-        <v>-123.3810019271069</v>
+        <v>-75.76833484467311</v>
       </c>
       <c r="G176" t="n">
-        <v>42.00955979314435</v>
+        <v>-50.21056774958989</v>
       </c>
       <c r="H176" t="n">
-        <v>88.3136564163968</v>
+        <v>-84.26035472087051</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -5910,25 +5910,25 @@
         <v>5250</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.08231604906849695</v>
+        <v>-0.3593001054007175</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6893930855545363</v>
+        <v>0.6595985613555146</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4536608818107029</v>
+        <v>-0.1124682436164722</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.5587065830738744</v>
+        <v>0.6505259920207603</v>
       </c>
       <c r="F177" t="n">
-        <v>-120.272192954</v>
+        <v>-80.4320706889786</v>
       </c>
       <c r="G177" t="n">
-        <v>44.07901793050777</v>
+        <v>-51.0187908856615</v>
       </c>
       <c r="H177" t="n">
-        <v>92.86625776741089</v>
+        <v>-78.22863391444486</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -5941,25 +5941,25 @@
         <v>5280</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.0667523667792003</v>
+        <v>-0.3629256396304539</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6699058900943159</v>
+        <v>0.6814133710906972</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4561948040209086</v>
+        <v>-0.1001388493953078</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.581942025231588</v>
+        <v>0.6276408277346378</v>
       </c>
       <c r="F178" t="n">
-        <v>-116.8288293331691</v>
+        <v>-85.27270465002888</v>
       </c>
       <c r="G178" t="n">
-        <v>45.95455660938381</v>
+        <v>-51.50659377595767</v>
       </c>
       <c r="H178" t="n">
-        <v>97.73238481345894</v>
+        <v>-72.02529562113912</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -5972,25 +5972,25 @@
         <v>5310</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.05111412959769766</v>
+        <v>-0.3661309135275023</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6496368923494958</v>
+        <v>0.7024369784261583</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4581975928190201</v>
+        <v>-0.0876933344865239</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.604495012211693</v>
+        <v>0.6040201359107826</v>
       </c>
       <c r="F179" t="n">
-        <v>-113.0481770700288</v>
+        <v>-90.20465320412107</v>
       </c>
       <c r="G179" t="n">
-        <v>47.60921495999309</v>
+        <v>-51.66131020877516</v>
       </c>
       <c r="H179" t="n">
-        <v>102.9180427337433</v>
+        <v>-65.73312326093694</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -6003,25 +6003,25 @@
         <v>5340</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.03541984894228604</v>
+        <v>-0.3689119432368533</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6286101146399301</v>
+        <v>0.7226445807894084</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4596670643544883</v>
+        <v>-0.07514624022079461</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.6263393233870967</v>
+        <v>0.5796911510223248</v>
       </c>
       <c r="F180" t="n">
-        <v>-108.9410917910275</v>
+        <v>-95.13329101131652</v>
       </c>
       <c r="G180" t="n">
-        <v>49.0152167902525</v>
+        <v>-51.47869695063915</v>
       </c>
       <c r="H180" t="n">
-        <v>108.4155039029552</v>
+        <v>-59.44396128404767</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -6034,25 +6034,25 @@
         <v>5370</v>
       </c>
       <c r="B181" t="n">
-        <v>0.01968807953870893</v>
+        <v>-0.3712652254133428</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.6068504709782543</v>
+        <v>0.7420123027143266</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4606016583701115</v>
+        <v>-0.06251223117796596</v>
       </c>
       <c r="E181" t="n">
-        <v>0.6474496101661129</v>
+        <v>0.5546819773280135</v>
       </c>
       <c r="F181" t="n">
-        <v>-104.5359213444281</v>
+        <v>-99.96431672421053</v>
       </c>
       <c r="G181" t="n">
-        <v>50.14542638466218</v>
+        <v>-50.96346079756408</v>
       </c>
       <c r="H181" t="n">
-        <v>114.1994320311348</v>
+        <v>-53.24932785617166</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -6065,25 +6065,25 @@
         <v>5400</v>
       </c>
       <c r="B182" t="n">
-        <v>0.003937394271869672</v>
+        <v>-0.3731877456388806</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.5843837334894566</v>
+        <v>0.7605172397993937</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.461000439328184</v>
+        <v>-0.04980606820283444</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6678014254989973</v>
+        <v>0.5290215402448717</v>
       </c>
       <c r="F182" t="n">
-        <v>-99.88109823411659</v>
+        <v>-104.6130417320147</v>
       </c>
       <c r="G182" t="n">
-        <v>50.97527342966696</v>
+        <v>-50.1286652123368</v>
       </c>
       <c r="H182" t="n">
-        <v>120.224314684695</v>
+        <v>-47.2311036529854</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -6096,25 +6096,25 @@
         <v>5430</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.01181364087364177</v>
+        <v>-0.3746769802614489</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.561236497459734</v>
+        <v>0.7781374403802462</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.4608630966914757</v>
+        <v>-0.03704262390903097</v>
       </c>
       <c r="E183" t="n">
-        <v>0.6873712518838579</v>
+        <v>0.5027396228213713</v>
       </c>
       <c r="F183" t="n">
-        <v>-95.04514354317071</v>
+        <v>-109.0113791563241</v>
       </c>
       <c r="G183" t="n">
-        <v>51.4849497513647</v>
+        <v>-48.99418651140657</v>
       </c>
       <c r="H183" t="n">
-        <v>126.4244829406178</v>
+        <v>-41.45452464627538</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -6127,25 +6127,25 @@
         <v>5460</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.02754649154501835</v>
+        <v>-0.3757309102307035</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.5374361453377998</v>
+        <v>0.7948520095288591</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.4601899443460922</v>
+        <v>-0.02423681278266073</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7061365275998318</v>
+        <v>0.475866728140642</v>
       </c>
       <c r="F184" t="n">
-        <v>-90.11313021852877</v>
+        <v>-113.1113246000027</v>
       </c>
       <c r="G184" t="n">
-        <v>51.66150849700472</v>
+        <v>-47.58461157995612</v>
       </c>
       <c r="H184" t="n">
-        <v>132.7176706542844</v>
+        <v>-35.9646732702468</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
@@ -6158,25 +6158,25 @@
         <v>5490</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.04324267949044861</v>
+        <v>-0.3763480210987608</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.5130108095964279</v>
+        <v>0.8106410870185924</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.4589819191731217</v>
+        <v>-0.01140360641673512</v>
       </c>
       <c r="E185" t="n">
-        <v>0.7240756713078145</v>
+        <v>0.4484341120087253</v>
       </c>
       <c r="F185" t="n">
-        <v>-85.17960666832278</v>
+        <v>-116.8848860951076</v>
       </c>
       <c r="G185" t="n">
-        <v>51.50040054611633</v>
+        <v>-45.92705135219918</v>
       </c>
       <c r="H185" t="n">
-        <v>139.0121127446838</v>
+        <v>-30.78652854030491</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -6189,25 +6189,25 @@
         <v>5520</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.05888380657415904</v>
+        <v>-0.3765273092241549</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.4879893347402058</v>
+        <v>0.8254858868717679</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.4572405787744061</v>
+        <v>0.001441993834601304</v>
       </c>
       <c r="E186" t="n">
-        <v>0.7411681048353299</v>
+        <v>0.4204737288318136</v>
       </c>
       <c r="F186" t="n">
-        <v>-80.33926267815407</v>
+        <v>-120.3214700715534</v>
       </c>
       <c r="G186" t="n">
-        <v>51.00604852745363</v>
+        <v>-44.04922752027814</v>
       </c>
       <c r="H186" t="n">
-        <v>145.2159008080479</v>
+        <v>-25.92755417402056</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -6220,25 +6220,25 @@
         <v>5550</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.07445157832211587</v>
+        <v>-0.3762682858305077</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.4624012385026476</v>
+        <v>0.8393687227268214</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.4549680983664254</v>
+        <v>0.01428497564048505</v>
       </c>
       <c r="E187" t="n">
-        <v>0.7573942741963409</v>
+        <v>0.3920181932730505</v>
       </c>
       <c r="F187" t="n">
-        <v>-75.67756020919315</v>
+        <v>-123.4239782366907</v>
       </c>
       <c r="G187" t="n">
-        <v>50.19129720053125</v>
+        <v>-41.97802905866828</v>
       </c>
       <c r="H187" t="n">
-        <v>151.2463738215379</v>
+        <v>-21.38157493053773</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -6251,25 +6251,25 @@
         <v>5580</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.08992782693226112</v>
+        <v>-0.3755709803321026</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.436276672354393</v>
+        <v>0.8522730317277301</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.4521672668565159</v>
+        <v>0.02711033441208986</v>
       </c>
       <c r="E188" t="n">
-        <v>0.7727356688325753</v>
+        <v>0.3631007406906129</v>
       </c>
       <c r="F188" t="n">
-        <v>-71.2635669345522</v>
+        <v>-126.2047023113106</v>
       </c>
       <c r="G188" t="n">
-        <v>49.07589383099044</v>
+        <v>-39.73857266724738</v>
       </c>
       <c r="H188" t="n">
-        <v>157.0373063996013</v>
+        <v>-17.13285286234106</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -6282,25 +6282,25 @@
         <v>5610</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.1052945336312751</v>
+        <v>-0.3744359429051726</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.4096463815460763</v>
+        <v>0.8641833968406097</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.4488414821332777</v>
+        <v>0.03990309186852198</v>
       </c>
       <c r="E189" t="n">
-        <v>0.7871748390224255</v>
+        <v>0.3337551865440772</v>
       </c>
       <c r="F189" t="n">
-        <v>-67.14631034456055</v>
+        <v>-128.6816950054561</v>
       </c>
       <c r="G189" t="n">
-        <v>47.68439425005064</v>
+        <v>-37.35370002129889</v>
       </c>
       <c r="H189" t="n">
-        <v>162.542577092863</v>
+        <v>-13.15968460977137</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -6313,25 +6313,25 @@
         <v>5640</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.1205338503671733</v>
+        <v>-0.372864246292699</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.3825416647483885</v>
+        <v>0.87508556757407</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.4449947455965084</v>
+        <v>0.05264831441218557</v>
       </c>
       <c r="E190" t="n">
-        <v>0.8006954115259399</v>
+        <v>0.3040158848640987</v>
       </c>
       <c r="F190" t="n">
-        <v>-63.35468871224777</v>
+        <v>-130.8759089101161</v>
       </c>
       <c r="G190" t="n">
-        <v>46.04396070931295</v>
+        <v>-34.84380297567204</v>
       </c>
       <c r="H190" t="n">
-        <v>167.7362807813665</v>
+        <v>-9.43722750810683</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -6344,25 +6344,25 @@
         <v>5670</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.1356281308541804</v>
+        <v>-0.3708574868274312</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.3549943148120317</v>
+        <v>0.8849664791113384</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.4406316528610986</v>
+        <v>0.0653311313134211</v>
       </c>
       <c r="E191" t="n">
-        <v>0.8132821116125903</v>
+        <v>0.273917685801102</v>
       </c>
       <c r="F191" t="n">
-        <v>-59.90000374737552</v>
+        <v>-132.8091304719723</v>
       </c>
       <c r="G191" t="n">
-        <v>44.18242365179945</v>
+        <v>-32.22686740180718</v>
       </c>
       <c r="H191" t="n">
-        <v>172.6102216525049</v>
+        <v>-5.939526705646877</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -6375,25 +6375,25 @@
         <v>5700</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.1505599103769343</v>
+        <v>-0.3684177846697366</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.3270366522340682</v>
+        <v>0.8938142697889667</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.435757398924039</v>
+        <v>0.07793675261934108</v>
       </c>
       <c r="E192" t="n">
-        <v>0.8249207421114944</v>
+        <v>0.2434958924742091</v>
       </c>
       <c r="F192" t="n">
-        <v>-56.77985108969419</v>
+        <v>-134.5025992594874</v>
       </c>
       <c r="G192" t="n">
-        <v>42.12681715597701</v>
+        <v>-29.51864604654381</v>
       </c>
       <c r="H192" t="n">
-        <v>177.1700452673196</v>
+        <v>-2.640852369589104</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -6406,25 +6406,25 @@
         <v>5730</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.1653119859386989</v>
+        <v>-0.3655477832543281</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.2987013735684627</v>
+        <v>0.9016182969458093</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.4303777530761108</v>
+        <v>0.09045048678929446</v>
       </c>
       <c r="E193" t="n">
-        <v>0.835598244607105</v>
+        <v>0.2127862171522506</v>
       </c>
       <c r="F193" t="n">
-        <v>-53.98223120247012</v>
+        <v>-135.9761568568781</v>
       </c>
       <c r="G193" t="n">
-        <v>39.90240918775287</v>
+        <v>-26.73289570546364</v>
       </c>
       <c r="H193" t="n">
-        <v>-178.5688381137864</v>
+        <v>0.4834981889481129</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -6437,25 +6437,25 @@
         <v>5760</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1798673942429458</v>
+        <v>-0.3622506479460271</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.2700215844451962</v>
+        <v>0.9083691511339321</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.4244990621335145</v>
+        <v>0.102857758022914</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8453026739989205</v>
+        <v>0.1818247368907837</v>
       </c>
       <c r="F194" t="n">
-        <v>-51.48922704102672</v>
+        <v>-137.2477744617841</v>
       </c>
       <c r="G194" t="n">
-        <v>37.53218705250287</v>
+        <v>-23.88163640222831</v>
       </c>
       <c r="H194" t="n">
-        <v>-174.5849038669263</v>
+        <v>3.456783499956584</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -6468,25 +6468,25 @@
         <v>5790</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.1942094396236586</v>
+        <v>-0.358530063898633</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.2410307408546786</v>
+        <v>0.9140586687125704</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.4181282389968404</v>
+        <v>0.1151441232881113</v>
       </c>
       <c r="E195" t="n">
-        <v>0.8540232147181425</v>
+        <v>0.1506478486552585</v>
       </c>
       <c r="F195" t="n">
-        <v>-49.27990556987168</v>
+        <v>-138.3333343263395</v>
       </c>
       <c r="G195" t="n">
-        <v>35.03667084669195</v>
+        <v>-20.97540741817719</v>
       </c>
       <c r="H195" t="n">
-        <v>-170.8533792970855</v>
+        <v>6.300662273849039</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -6499,25 +6499,25 @@
         <v>5820</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.2083217109557622</v>
+        <v>-0.3543902331309819</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.211762609115431</v>
+        <v>0.9186799428114252</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.4112727534606616</v>
+        <v>0.1272952889900723</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8617501867629476</v>
+        <v>0.1192922241317469</v>
       </c>
       <c r="F196" t="n">
-        <v>-47.3324215173479</v>
+        <v>-139.2465707237315</v>
       </c>
       <c r="G196" t="n">
-        <v>32.43395169058235</v>
+        <v>-18.02350693563612</v>
       </c>
       <c r="H196" t="n">
-        <v>-167.3483093498804</v>
+        <v>9.035206039480133</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -6530,25 +6530,25 @@
         <v>5850</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.2221880977655306</v>
+        <v>-0.3498358708071039</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.182251226203907</v>
+        <v>0.9222273327116184</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.4039406225498021</v>
+        <v>0.1392971273345737</v>
       </c>
       <c r="E197" t="n">
-        <v>0.8684750504260821</v>
+        <v>0.08779476415245294</v>
       </c>
       <c r="F197" t="n">
-        <v>-45.62542740318577</v>
+        <v>-139.9991034059962</v>
       </c>
       <c r="G197" t="n">
-        <v>29.73986248032495</v>
+        <v>-15.03420969530683</v>
       </c>
       <c r="H197" t="n">
-        <v>-164.0439241281758</v>
+        <v>11.67901451232018</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -6561,25 +6561,25 @@
         <v>5880</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.2357928055310331</v>
+        <v>-0.3448722007397206</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.1525308605711099</v>
+        <v>0.9246964716354917</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.3961404004366854</v>
+        <v>0.151135692328343</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8741904097936006</v>
+        <v>0.05619255294295174</v>
       </c>
       <c r="F198" t="n">
-        <v>-44.13894542572636</v>
+        <v>-140.6005179846921</v>
       </c>
       <c r="G198" t="n">
-        <v>26.96821515253156</v>
+        <v>-12.01496171222377</v>
       </c>
       <c r="H198" t="n">
-        <v>-160.9154629988873</v>
+        <v>14.24938978145041</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -6592,25 +6592,25 @@
         <v>5910</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.2491203702038647</v>
+        <v>-0.3395049501075004</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1226359734955709</v>
+        <v>0.9260842729814257</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.3878811679806749</v>
+        <v>0.1627972354601144</v>
       </c>
       <c r="E199" t="n">
-        <v>0.8788900151214772</v>
+        <v>0.02452281214525894</v>
       </c>
       <c r="F199" t="n">
-        <v>-42.85485347486576</v>
+        <v>-141.0584633758891</v>
       </c>
       <c r="G199" t="n">
-        <v>24.13106115700491</v>
+        <v>-8.972553669736989</v>
       </c>
       <c r="H199" t="n">
-        <v>-157.9396066295228</v>
+        <v>16.76254134772593</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -6623,25 +6623,25 @@
         <v>5940</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.2621556720066617</v>
+        <v>-0.3337403433989112</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.092601180970613</v>
+        <v>0.9263889350102817</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.3791725219151916</v>
+        <v>0.1742682210399009</v>
       </c>
       <c r="E200" t="n">
-        <v>0.8825687642003068</v>
+        <v>-0.007177145259843709</v>
       </c>
       <c r="F200" t="n">
-        <v>-41.75711183883574</v>
+        <v>-141.3787473573975</v>
       </c>
       <c r="G200" t="n">
-        <v>21.23894930754557</v>
+        <v>-5.913275967277465</v>
       </c>
       <c r="H200" t="n">
-        <v>-155.094642452249</v>
+        <v>19.23380516177022</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -6654,25 +6654,25 @@
         <v>5970</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.2748839485450388</v>
+        <v>-0.3275850955815817</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.06246121615499488</v>
+        <v>0.9256099440019131</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.3700245637139068</v>
+        <v>0.185535341216401</v>
       </c>
       <c r="E201" t="n">
-        <v>0.8852227028025549</v>
+        <v>-0.03886996111774505</v>
       </c>
       <c r="F201" t="n">
-        <v>-40.83182647552997</v>
+        <v>-141.5654185909586</v>
       </c>
       <c r="G201" t="n">
-        <v>18.30116734046239</v>
+        <v>-2.843058992291631</v>
       </c>
       <c r="H201" t="n">
-        <v>-152.3604581954856</v>
+        <v>21.67786731859805</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>

--- a/notebooks/dados_orientacao_IA.xlsx
+++ b/notebooks/dados_orientacao_IA.xlsx
@@ -485,25 +485,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3789010948448718</v>
+        <v>-0.1577761027484036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8243324626435869</v>
+        <v>-0.04735575702468497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005064561288258879</v>
+        <v>-0.3438584204434514</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4205761543124792</v>
+        <v>0.9244595828743832</v>
       </c>
       <c r="F2" t="n">
-        <v>-120.0622386613162</v>
+        <v>-39.2800194433524</v>
       </c>
       <c r="G2" t="n">
-        <v>-44.20495421841737</v>
+        <v>11.30678394163464</v>
       </c>
       <c r="H2" t="n">
-        <v>-25.65522389955188</v>
+        <v>-164.6759949606796</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -516,25 +516,25 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3785168403814234</v>
+        <v>-0.1693558877864675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8382194331780544</v>
+        <v>-0.01581734187656191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.017986620550568</v>
+        <v>-0.3382858658922924</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3921602540690418</v>
+        <v>0.9255436607235336</v>
       </c>
       <c r="F3" t="n">
-        <v>-123.1907893816278</v>
+        <v>-38.85598640536266</v>
       </c>
       <c r="G3" t="n">
-        <v>-42.14809192150113</v>
+        <v>8.271309683240808</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.08499076648712</v>
+        <v>-162.1832449230224</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -547,25 +547,25 @@
         <v>60</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3776916761565974</v>
+        <v>-0.1807378820309012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8511292534832843</v>
+        <v>0.01573792274076496</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03088674517352739</v>
+        <v>-0.3323209068923993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3632822602324438</v>
+        <v>0.9255533213321656</v>
       </c>
       <c r="F4" t="n">
-        <v>-125.9963327662418</v>
+        <v>-38.56753308890328</v>
       </c>
       <c r="G4" t="n">
-        <v>-39.92106587976701</v>
+        <v>5.22075810248162</v>
       </c>
       <c r="H4" t="n">
-        <v>-16.81351718937398</v>
+        <v>-159.7289036710626</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -578,25 +578,25 @@
         <v>90</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3764263010094617</v>
+        <v>-0.1919092381248921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.863046499320018</v>
+        <v>0.04727369350212399</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04374986692314104</v>
+        <v>-0.3259704403016202</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3339759408460493</v>
+        <v>0.9244886772019214</v>
       </c>
       <c r="F5" t="n">
-        <v>-128.4965810914799</v>
+        <v>-38.41100441219855</v>
       </c>
       <c r="G5" t="n">
-        <v>-37.54690740870539</v>
+        <v>2.160877609329229</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.81945763623926</v>
+        <v>-157.2985166945643</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -609,25 +609,25 @@
         <v>120</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3747219392981358</v>
+        <v>-0.2028573508789041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8739569112061197</v>
+        <v>0.07875366698206397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05656096735528067</v>
+        <v>-0.3192418032885463</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3042756029252717</v>
+        <v>0.9223510319636167</v>
       </c>
       <c r="F6" t="n">
-        <v>-130.7123428442992</v>
+        <v>-38.38441698177103</v>
       </c>
       <c r="G6" t="n">
-        <v>-35.04620254205955</v>
+        <v>-0.9027873091619857</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.078133838518514</v>
+        <v>-154.878006678077</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -640,25 +640,25 @@
         <v>150</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.372580341748682</v>
+        <v>-0.2135698675487276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.883847413564626</v>
+        <v>0.1101416155283754</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06930509611384275</v>
+        <v>-0.3121427657348523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2742160500959179</v>
+        <v>0.9191428779049617</v>
       </c>
       <c r="F7" t="n">
-        <v>-132.6653967705098</v>
+        <v>-38.48742693239015</v>
       </c>
       <c r="G7" t="n">
-        <v>-32.43712217450659</v>
+        <v>-3.964776074307388</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.563622171214749</v>
+        <v>-152.4534529179066</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -671,25 +671,25 @@
         <v>180</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.370003785512595</v>
+        <v>-0.2240346979513382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8927061322447138</v>
+        <v>0.1414014229277171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08196738897239211</v>
+        <v>-0.3046815222947505</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2438325394693694</v>
+        <v>0.9148678930206389</v>
       </c>
       <c r="F8" t="n">
-        <v>-134.3770624771365</v>
+        <v>-38.72132414403374</v>
       </c>
       <c r="G8" t="n">
-        <v>-29.73558739848495</v>
+        <v>-7.019594639083921</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.250139915733233</v>
+        <v>-150.0108716365372</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -702,25 +702,25 @@
         <v>210</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3669950734293999</v>
+        <v>-0.2342400244601277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9005224104047056</v>
+        <v>0.1724971199239685</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09453308558699307</v>
+        <v>-0.2968666841022334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2131607378642952</v>
+        <v>0.9095309375876114</v>
       </c>
       <c r="F9" t="n">
-        <v>-135.8673132279279</v>
+        <v>-39.08905306572291</v>
       </c>
       <c r="G9" t="n">
-        <v>-26.95550339464403</v>
+        <v>-10.06159705254929</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8871160526316575</v>
+        <v>-147.5359959824479</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -733,25 +733,25 @@
         <v>240</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3635575324957186</v>
+        <v>-0.244174311924917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9072868227548907</v>
+        <v>0.2033929196704719</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1069875469298119</v>
+        <v>-0.2887072701088052</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1822366774908422</v>
+        <v>0.9031380502504783</v>
       </c>
       <c r="F10" t="n">
-        <v>-137.1542785609481</v>
+        <v>-39.59525919513218</v>
       </c>
       <c r="G10" t="n">
-        <v>-24.10901797512215</v>
+        <v>-13.08486225975004</v>
       </c>
       <c r="H10" t="n">
-        <v>3.871526724559228</v>
+        <v>-145.0140547296575</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -764,25 +764,25 @@
         <v>270</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3596950115359929</v>
+        <v>-0.2538263175546789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.912991188183209</v>
+        <v>0.2340532531862938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119316272410862</v>
+        <v>-0.2802126980328188</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1510967111287039</v>
+        <v>0.8956964435849415</v>
       </c>
       <c r="F11" t="n">
-        <v>-138.2540094944744</v>
+        <v>-40.24635878336322</v>
       </c>
       <c r="G11" t="n">
-        <v>-21.20677846888876</v>
+        <v>-16.08306238706697</v>
       </c>
       <c r="H11" t="n">
-        <v>6.724878422192492</v>
+        <v>-142.4295497497405</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -795,25 +795,25 @@
         <v>300</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3554118780797666</v>
+        <v>-0.2631851007857449</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9176285807622102</v>
+        <v>0.264442804848501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1315049166585019</v>
+        <v>-0.271392774908812</v>
       </c>
       <c r="E12" t="n">
-        <v>0.119777466924232</v>
+        <v>0.8872144991012882</v>
       </c>
       <c r="F12" t="n">
-        <v>-139.1804096516711</v>
+        <v>-41.05062713201676</v>
       </c>
       <c r="G12" t="n">
-        <v>-18.25817293508121</v>
+        <v>-19.0493187236348</v>
       </c>
       <c r="H12" t="n">
-        <v>9.467364853408549</v>
+        <v>-139.7660344280304</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -826,25 +826,25 @@
         <v>330</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3507130144546033</v>
+        <v>-0.2722400331717531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9211933391518367</v>
+        <v>0.2945265480032808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1435393059394469</v>
+        <v>-0.2622576872088103</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08831580291701112</v>
+        <v>0.8777017616250976</v>
       </c>
       <c r="F13" t="n">
-        <v>-139.9452633081574</v>
+        <v>-42.01829739752616</v>
       </c>
       <c r="G13" t="n">
-        <v>-15.27154964212381</v>
+        <v>-21.97604166949343</v>
       </c>
       <c r="H13" t="n">
-        <v>12.11769619871252</v>
+        <v>-137.0058987186881</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -857,25 +857,25 @@
         <v>360</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3456038130856193</v>
+        <v>-0.2809808083207911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9236810744317184</v>
+        <v>0.3242697807591447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1554054542540315</v>
+        <v>-0.2528179905070815</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05674876126793103</v>
+        <v>0.8671689329754452</v>
       </c>
       <c r="F14" t="n">
-        <v>-140.5583133248849</v>
+        <v>-43.16165641917667</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.25441355553211</v>
+        <v>-24.85475121141084</v>
       </c>
       <c r="H14" t="n">
-        <v>14.69326984655558</v>
+        <v>-134.1301721019087</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -888,25 +888,25 @@
         <v>390</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3400901710185321</v>
+        <v>-0.2893974518752434</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9250886763647618</v>
+        <v>0.3536381619353444</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1670895790690561</v>
+        <v>-0.2430845986843523</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02511352234961295</v>
+        <v>0.8556278648767668</v>
       </c>
       <c r="F15" t="n">
-        <v>-141.0273580501873</v>
+        <v>-44.495115834948</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.213601321922846</v>
+        <v>-27.67587525150295</v>
       </c>
       <c r="H15" t="n">
-        <v>17.21037372237558</v>
+        <v>-131.1183641744503</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -919,25 +919,25 @@
         <v>420</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3341784836603183</v>
+        <v>-0.2974803315540827</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9254143181186331</v>
+        <v>0.3825977472264525</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1785781167200722</v>
+        <v>-0.2330687726395018</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.006552641316900526</v>
+        <v>0.8430915510050097</v>
       </c>
       <c r="F16" t="n">
-        <v>-141.3583475272587</v>
+        <v>-46.03522454612458</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.155437638172976</v>
+        <v>-30.42852476354782</v>
       </c>
       <c r="H16" t="n">
-        <v>19.6844046395844</v>
+        <v>-127.9483750237717</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -950,25 +950,25 @@
         <v>450</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3278756377455936</v>
+        <v>-0.3052201672586251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9246574594537806</v>
+        <v>0.41111502559547</v>
       </c>
       <c r="D17" t="n">
-        <v>0.189857737476816</v>
+        <v>-0.2227821084865382</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03821241119825752</v>
+        <v>0.8295741180669424</v>
       </c>
       <c r="F17" t="n">
-        <v>-141.5554668864355</v>
+        <v>-47.80057126032631</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.085876552529677</v>
+        <v>-33.10024784481222</v>
       </c>
       <c r="H17" t="n">
-        <v>22.13009183808307</v>
+        <v>-124.5965250850916</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -981,25 +981,25 @@
         <v>480</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3211890035371096</v>
+        <v>-0.3126080412230872</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9228188483905511</v>
+        <v>0.43915695584707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.200915360273243</v>
+        <v>-0.2122365252338978</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06982846889520455</v>
+        <v>0.8150908158300156</v>
       </c>
       <c r="F18" t="n">
-        <v>-141.6211997168508</v>
+        <v>-49.81150257362525</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01063147381968675</v>
+        <v>-35.67677012051586</v>
       </c>
       <c r="H18" t="n">
-        <v>24.56172093340115</v>
+        <v>-121.0377776516788</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1012,25 +1012,25 @@
         <v>510</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3141264262458414</v>
+        <v>-0.3196354127845548</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9199005213564622</v>
+        <v>0.4666910216364358</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2117381671420062</v>
+        <v>-0.2014442446211168</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1013635423486613</v>
+        <v>0.7996579953498965</v>
       </c>
       <c r="F19" t="n">
-        <v>-141.5563673528943</v>
+        <v>-52.08955499544794</v>
       </c>
       <c r="G19" t="n">
-        <v>3.06470231373315</v>
+        <v>-38.14173935868121</v>
       </c>
       <c r="H19" t="n">
-        <v>26.99335666949457</v>
+        <v>-117.246253438807</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1043,25 +1043,25 @@
         <v>540</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3066962167002661</v>
+        <v>-0.3262941099884554</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9159058018161106</v>
+        <v>0.4936851948819288</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2223136173156259</v>
+        <v>-0.1904178068157693</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1327804519399316</v>
+        <v>0.7832931386069369</v>
       </c>
       <c r="F20" t="n">
-        <v>-141.3601420351484</v>
+        <v>-54.65645781615226</v>
       </c>
       <c r="G20" t="n">
-        <v>6.134528848047061</v>
+        <v>-40.47649416730763</v>
       </c>
       <c r="H20" t="n">
-        <v>29.43906467514675</v>
+        <v>-113.1961853072153</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1074,25 +1074,25 @@
         <v>570</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2989071412464815</v>
+        <v>-0.3325763680475363</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9108392973727104</v>
+        <v>0.5201080834961057</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2326294610412996</v>
+        <v>-0.1791700130489313</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1640421565606761</v>
+        <v>0.7660147827048531</v>
       </c>
       <c r="F21" t="n">
-        <v>-141.0300333235039</v>
+        <v>-57.53257454716672</v>
       </c>
       <c r="G21" t="n">
-        <v>9.193132673690824</v>
+        <v>-42.65992982041949</v>
       </c>
       <c r="H21" t="n">
-        <v>31.91313327331465</v>
+        <v>-108.8634293668097</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1105,25 +1105,25 @@
         <v>600</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2907684108889973</v>
+        <v>-0.3384748203944357</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9047068953243147</v>
+        <v>0.5459288941769898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2426737531026139</v>
+        <v>-0.1677139398996126</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1951117995837731</v>
+        <v>0.7478425454766483</v>
       </c>
       <c r="F22" t="n">
-        <v>-140.5618483627417</v>
+        <v>-60.73460343864132</v>
       </c>
       <c r="G22" t="n">
-        <v>12.23455627264594</v>
+        <v>-44.66850018242893</v>
       </c>
       <c r="H22" t="n">
-        <v>34.43029638366583</v>
+        <v>-104.2277314535063</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1136,25 +1136,25 @@
         <v>630</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2822896696871929</v>
+        <v>-0.3439825135613436</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8975157566616992</v>
+        <v>0.5711174879112939</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2524348660402687</v>
+        <v>-0.1560629171258984</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2259527546614656</v>
+        <v>0.7287970988307158</v>
       </c>
       <c r="F23" t="n">
-        <v>-139.9496280188221</v>
+        <v>-64.27247877880478</v>
       </c>
       <c r="G23" t="n">
-        <v>15.25246996406706</v>
+        <v>-46.47647735344748</v>
       </c>
       <c r="H23" t="n">
-        <v>37.00595773099339</v>
+        <v>-99.2757913353812</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1167,25 +1167,25 @@
         <v>660</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2734809763887368</v>
+        <v>-0.349092917114426</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8892743026002369</v>
+        <v>0.595644416761649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2619015093348412</v>
+        <v>-0.1442305120923163</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2565286917607025</v>
+        <v>0.7089001505027372</v>
       </c>
       <c r="F24" t="n">
-        <v>-139.1855623639457</v>
+        <v>-68.1455553288942</v>
       </c>
       <c r="G24" t="n">
-        <v>18.24003245564657</v>
+        <v>-48.05657130741011</v>
       </c>
       <c r="H24" t="n">
-        <v>39.65641656360269</v>
+        <v>-94.00504782239067</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
         <v>690</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2643528152027405</v>
+        <v>-0.3537999333907684</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8799922281926468</v>
+        <v>0.6194809603030218</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2710627168448624</v>
+        <v>-0.1322305137348015</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.2868035406887585</v>
+        <v>0.688174424250251</v>
       </c>
       <c r="F25" t="n">
-        <v>-138.2598959780647</v>
+        <v>-72.33847294731676</v>
       </c>
       <c r="G25" t="n">
-        <v>21.18972627969687</v>
+        <v>-49.38101335872842</v>
       </c>
       <c r="H25" t="n">
-        <v>42.3990793411585</v>
+        <v>-88.42778618557533</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1229,25 +1229,25 @@
         <v>720</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2549160465285877</v>
+        <v>-0.3580979070273378</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8696804582937333</v>
+        <v>0.6425991617820378</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2799078972630853</v>
+        <v>-0.1200769160054528</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3167416592966499</v>
+        <v>0.666643638312316</v>
       </c>
       <c r="F26" t="n">
-        <v>-137.1608272426837</v>
+        <v>-76.81750590821861</v>
       </c>
       <c r="G26" t="n">
-        <v>24.093194573835</v>
+        <v>-50.42314772742439</v>
       </c>
       <c r="H26" t="n">
-        <v>45.25267434035415</v>
+        <v>-82.57476290401242</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
         <v>750</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2451819158721228</v>
+        <v>-0.3619816341977422</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8583511564503036</v>
+        <v>0.6649718637393189</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2884268205380349</v>
+        <v>-0.1077839008982368</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3463077959619476</v>
+        <v>0.644332482221522</v>
       </c>
       <c r="F27" t="n">
-        <v>-135.874431516788</v>
+        <v>-81.52857270347501</v>
       </c>
       <c r="G27" t="n">
-        <v>26.94103618818411</v>
+        <v>-51.15945503621595</v>
       </c>
       <c r="H27" t="n">
-        <v>48.23741608275225</v>
+        <v>-76.49717153918033</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1291,25 +1291,25 @@
         <v>780</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2351620328374489</v>
+        <v>-0.3654463715223315</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8460177054703157</v>
+        <v>0.6865727430675099</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2966096360464995</v>
+        <v>-0.09536582105086429</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3754671545513188</v>
+        <v>0.6212665918856507</v>
       </c>
       <c r="F28" t="n">
-        <v>-134.3846317224601</v>
+        <v>-86.39815101736798</v>
       </c>
       <c r="G28" t="n">
-        <v>29.72258775989938</v>
+        <v>-51.57176180447211</v>
       </c>
       <c r="H28" t="n">
-        <v>51.37511701241764</v>
+        <v>-70.26570465958018</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1322,25 +1322,25 @@
         <v>810</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.2248683552709564</v>
+        <v>-0.3684878445913226</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8326946914490803</v>
+        <v>0.7073763453558457</v>
       </c>
       <c r="D29" t="n">
-        <v>0.304446883962513</v>
+        <v>-0.08283718198102902</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.404185438228262</v>
+        <v>0.5974725229672829</v>
       </c>
       <c r="F29" t="n">
-        <v>-132.6732663210737</v>
+        <v>-91.33784071440736</v>
       </c>
       <c r="G29" t="n">
-        <v>32.42568190266469</v>
+        <v>-51.64922964663946</v>
       </c>
       <c r="H29" t="n">
-        <v>54.68919039270887</v>
+        <v>-63.96596862208307</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1353,25 +1353,25 @@
         <v>840</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2143131727615084</v>
+        <v>-0.3711022560513928</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8183978860260086</v>
+        <v>0.7273581184228693</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3119295062764397</v>
+        <v>-0.07021262399400892</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.4324288927016701</v>
+        <v>0.5729777225597743</v>
       </c>
       <c r="F30" t="n">
-        <v>-130.720323365024</v>
+        <v>-96.25222738593344</v>
       </c>
       <c r="G30" t="n">
-        <v>35.03638958860299</v>
+        <v>-51.38966000346095</v>
       </c>
       <c r="H30" t="n">
-        <v>58.20447847086728</v>
+        <v>-57.69059832803909</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1384,25 +1384,25 @@
         <v>870</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2035090895335338</v>
+        <v>-0.373286293201209</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8031442268582396</v>
+        <v>0.7464944448989879</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3190488574352347</v>
+        <v>-0.05750690382771492</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4601643488046245</v>
+        <v>0.5478104992195777</v>
       </c>
       <c r="F31" t="n">
-        <v>-128.5044375677632</v>
+        <v>-101.0484434920014</v>
       </c>
       <c r="G31" t="n">
-        <v>37.53876074716879</v>
+        <v>-50.79976633336286</v>
       </c>
       <c r="H31" t="n">
-        <v>61.94681021886856</v>
+        <v>-51.5296745961972</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1415,25 +1415,25 @@
         <v>900</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1924690067878846</v>
+        <v>-0.3750371350536419</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7869517963282109</v>
+        <v>0.7647626737943078</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3257967145667059</v>
+        <v>-0.04473487606128393</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.4873592642593629</v>
+        <v>0.5219999913462824</v>
       </c>
       <c r="F32" t="n">
-        <v>-126.0037780823243</v>
+        <v>-105.6451026805764</v>
       </c>
       <c r="G32" t="n">
-        <v>39.91458943069009</v>
+        <v>-49.89433748039921</v>
       </c>
       <c r="H32" t="n">
-        <v>65.94216204491403</v>
+        <v>-45.56176824907464</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1446,25 +1446,25 @@
         <v>930</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1812061044987252</v>
+        <v>-0.3763524588130083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7698397984400238</v>
+        <v>0.7821411508990764</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3321652872827779</v>
+        <v>-0.03191147437454101</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5139817646128803</v>
+        <v>0.4955761340287826</v>
       </c>
       <c r="F33" t="n">
-        <v>-123.1974800126217</v>
+        <v>-109.9785546050677</v>
       </c>
       <c r="G33" t="n">
-        <v>42.1432475757053</v>
+        <v>-48.69452409053873</v>
       </c>
       <c r="H33" t="n">
-        <v>70.2152693988598</v>
+        <v>-39.84766327439947</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1477,25 +1477,25 @@
         <v>960</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1697338227542835</v>
+        <v>-0.3772304457310315</v>
       </c>
       <c r="C34" t="n">
-        <v>0.751828533975377</v>
+        <v>0.7986092479525839</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3381472270052528</v>
+        <v>-0.01905169269706415</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5400006831313372</v>
+        <v>0.4685696243927389</v>
       </c>
       <c r="F34" t="n">
-        <v>-120.067774870779</v>
+        <v>-114.0054956348501</v>
       </c>
       <c r="G34" t="n">
-        <v>44.20165421936146</v>
+        <v>-47.22567973679396</v>
       </c>
       <c r="H34" t="n">
-        <v>74.78753487091389</v>
+        <v>-34.42772333461556</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1508,25 +1508,25 @@
         <v>990</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1580658426653367</v>
+        <v>-0.377669786304782</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7329393738958482</v>
+        <v>0.8141473905200685</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3437356358024709</v>
+        <v>-0.006170566280793007</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5653855996177566</v>
+        <v>0.4410118854788813</v>
       </c>
       <c r="F35" t="n">
-        <v>-116.6029236680413</v>
+        <v>-117.7022185471718</v>
       </c>
       <c r="G35" t="n">
-        <v>46.06447206244867</v>
+        <v>-45.51520901892762</v>
       </c>
       <c r="H35" t="n">
-        <v>79.67412981234155</v>
+        <v>-29.32261818596943</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1539,25 +1539,25 @@
         <v>1020</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1462160669062772</v>
+        <v>-0.3776696847797238</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7131947310412459</v>
+        <v>0.8287370844234482</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3489240746996004</v>
+        <v>0.006716847188267571</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.590106878021678</v>
+        <v>0.4129350288647791</v>
       </c>
       <c r="F36" t="n">
-        <v>-112.8009099691009</v>
+        <v>-121.0615888880158</v>
       </c>
       <c r="G36" t="n">
-        <v>47.70464215383874</v>
+        <v>-43.59075162744531</v>
       </c>
       <c r="H36" t="n">
-        <v>84.88033276974095</v>
+        <v>-24.53632195329736</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1570,25 +1570,25 @@
         <v>1050</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1341985999539984</v>
+        <v>-0.3772298629356121</v>
       </c>
       <c r="C37" t="n">
-        <v>0.692618030183876</v>
+        <v>0.8423609407519178</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3537065714299398</v>
+        <v>0.01959548645729765</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.614135702725278</v>
+        <v>0.3843718159746174</v>
       </c>
       <c r="F37" t="n">
-        <v>-108.6735737868259</v>
+        <v>-124.0890131340021</v>
       </c>
       <c r="G37" t="n">
-        <v>49.09436463286929</v>
+        <v>-41.47885601407225</v>
       </c>
       <c r="H37" t="n">
-        <v>90.3974244030809</v>
+        <v>-20.06011771405649</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1601,25 +1601,25 @@
         <v>1080</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.12202772809014</v>
+        <v>-0.3763505631298404</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6712336765073308</v>
+        <v>0.8550026993173357</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3580776275980582</v>
+        <v>0.03245030543661696</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.6374441134039575</v>
+        <v>0.3553556183163448</v>
       </c>
       <c r="F38" t="n">
-        <v>-104.2504715378811</v>
+        <v>-126.7983981033304</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20658737964396</v>
+        <v>-39.20414823043822</v>
       </c>
       <c r="H38" t="n">
-        <v>96.19885415268301</v>
+        <v>-15.87660850084883</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1632,25 +1632,25 @@
         <v>1110</v>
       </c>
       <c r="B39" t="n">
-        <v>0.109717899231337</v>
+        <v>-0.3750325505800273</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.6490670225843805</v>
+        <v>0.8666472505828247</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3620322252287705</v>
+        <v>0.04526629181027083</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6600050383729008</v>
+        <v>0.3259203766081795</v>
       </c>
       <c r="F39" t="n">
-        <v>-99.58134649782284</v>
+        <v>-129.2086839491607</v>
       </c>
       <c r="G39" t="n">
-        <v>51.01695714973098</v>
+        <v>-36.78891445119798</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2377946521945</v>
+        <v>-11.96315187790979</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1663,25 +1663,25 @@
         <v>1140</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09728370264878992</v>
+        <v>-0.3732771148729602</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6261443339291748</v>
+        <v>0.87728065596816</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3655658326789017</v>
+        <v>0.05802848542717619</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6817923263466034</v>
+        <v>0.2961005590255141</v>
       </c>
       <c r="F40" t="n">
-        <v>-94.73593269170836</v>
+        <v>-131.3411696447368</v>
       </c>
       <c r="G40" t="n">
-        <v>51.50602452666806</v>
+        <v>-34.25298540770689</v>
       </c>
       <c r="H40" t="n">
-        <v>108.4473613474811</v>
+        <v>-8.294498618810874</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1694,25 +1694,25 @@
         <v>1170</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08473984868113295</v>
+        <v>-0.3710860690743903</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.6024927532856944</v>
+        <v>0.8868901726461625</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.368674409879903</v>
+        <v>0.07072200495768598</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7027807764754437</v>
+        <v>0.2659310982516743</v>
       </c>
       <c r="F41" t="n">
-        <v>-89.80018083163858</v>
+        <v>-133.2176176693938</v>
       </c>
       <c r="G41" t="n">
-        <v>51.66132364944164</v>
+        <v>-31.61381500899147</v>
       </c>
       <c r="H41" t="n">
-        <v>114.7444090704888</v>
+        <v>-4.844647054197588</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1725,25 +1725,25 @@
         <v>1200</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07210114847697491</v>
+        <v>-0.3684617558343041</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5781402637026839</v>
+        <v>0.8954642455121641</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.371354412905816</v>
+        <v>0.0833320317890246</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7229461666607473</v>
+        <v>0.2354474293228645</v>
       </c>
       <c r="F42" t="n">
-        <v>-84.86898355097433</v>
+        <v>-134.8590039111871</v>
       </c>
       <c r="G42" t="n">
-        <v>51.47885968540719</v>
+        <v>-28.88667991706793</v>
       </c>
       <c r="H42" t="n">
-        <v>121.0368286638137</v>
+        <v>-1.58805271385841</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1756,25 +1756,25 @@
         <v>1230</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05938249385094067</v>
+        <v>-0.3654070377111153</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.5531156505370429</v>
+        <v>0.9029925612860378</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3736027978472952</v>
+        <v>0.09584387872463601</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7422652800688577</v>
+        <v>0.2046853242523417</v>
       </c>
       <c r="F43" t="n">
-        <v>-80.03676022258161</v>
+        <v>-136.28477343766</v>
       </c>
       <c r="G43" t="n">
-        <v>50.9636143114434</v>
+        <v>-26.08491415365478</v>
       </c>
       <c r="H43" t="n">
-        <v>127.2329836938908</v>
+        <v>1.499684129490285</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1787,25 +1787,25 @@
         <v>1260</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04659883735026439</v>
+        <v>-0.361925301103451</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.5274484625682346</v>
+        <v>0.9094660358384522</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3754170239787272</v>
+        <v>0.1082429731896234</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7607159297654841</v>
+        <v>0.1736809282349045</v>
       </c>
       <c r="F44" t="n">
-        <v>-75.3881584406903</v>
+        <v>-137.512430988331</v>
       </c>
       <c r="G44" t="n">
-        <v>50.12892681562212</v>
+        <v>-23.22017628887816</v>
       </c>
       <c r="H44" t="n">
-        <v>133.2510304896645</v>
+        <v>4.441461767236025</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1818,25 +1818,25 @@
         <v>1290</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0337651725544716</v>
+        <v>-0.358020452482594</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.5011689722714253</v>
+        <v>0.9148768331420147</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.3767950562244596</v>
+        <v>0.1205148827346456</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7782769815172336</v>
+        <v>0.1424706946134935</v>
       </c>
       <c r="F45" t="n">
-        <v>-70.99107843120227</v>
+        <v>-138.5573675694964</v>
       </c>
       <c r="G45" t="n">
-        <v>48.99492353509225</v>
+        <v>-20.30270081491606</v>
       </c>
       <c r="H45" t="n">
-        <v>139.0259155658846</v>
+        <v>7.258569479491172</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -1849,25 +1849,25 @@
         <v>1320</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02089651471484047</v>
+        <v>-0.3536969151551436</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.4743081354702639</v>
+        <v>0.9192183758312947</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.3777353669176821</v>
+        <v>0.1326453316782673</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7949283746848254</v>
+        <v>0.1110913395714271</v>
       </c>
       <c r="F46" t="n">
-        <v>-66.89326153875331</v>
+        <v>-139.4328276612238</v>
       </c>
       <c r="G46" t="n">
-        <v>47.5864017808986</v>
+        <v>-17.34153303348126</v>
       </c>
       <c r="H46" t="n">
-        <v>144.5128096042583</v>
+        <v>9.970728624949588</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -1880,25 +1880,25 @@
         <v>1350</v>
       </c>
       <c r="B47" t="n">
-        <v>0.008007873118204563</v>
+        <v>-0.3489596252400102</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.4468975318938512</v>
+        <v>0.9224853541667389</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3782369370530943</v>
+        <v>0.1446202174013867</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8106511514850273</v>
+        <v>0.07957979655034016</v>
       </c>
       <c r="F47" t="n">
-        <v>-63.12240024711099</v>
+        <v>-140.149956794653</v>
       </c>
       <c r="G47" t="n">
-        <v>45.93063203245975</v>
+        <v>-14.34474142400994</v>
       </c>
       <c r="H47" t="n">
-        <v>149.6870218260196</v>
+        <v>12.5962246972681</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -1911,25 +1911,25 @@
         <v>1380</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.004885732872087647</v>
+        <v>-0.3438140268534692</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.4189693978297079</v>
+        <v>0.9246737334282591</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3782992556138724</v>
+        <v>0.1564256263183313</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8254274326059831</v>
+        <v>0.04797317039309174</v>
       </c>
       <c r="F48" t="n">
-        <v>-59.68880924536291</v>
+        <v>-140.7178880182657</v>
       </c>
       <c r="G48" t="n">
-        <v>44.05544965248738</v>
+        <v>-11.31960725963442</v>
       </c>
       <c r="H48" t="n">
-        <v>154.5413499375323</v>
+        <v>15.15209058513194</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1942,25 +1942,25 @@
         <v>1410</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.01776934375494689</v>
+        <v>-0.3382660665308488</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3905564743125103</v>
+        <v>0.9257807597413856</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3779223213009478</v>
+        <v>0.1680478494661347</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8392404958399012</v>
+        <v>0.01630869143179914</v>
       </c>
       <c r="F49" t="n">
-        <v>-56.58933975739115</v>
+        <v>-141.1438402681173</v>
       </c>
       <c r="G49" t="n">
-        <v>41.98780989398143</v>
+        <v>-8.272793511403304</v>
       </c>
       <c r="H49" t="n">
-        <v>159.0821979625957</v>
+        <v>17.65431597693169</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -1973,25 +1973,25 @@
         <v>1440</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.03062804285905093</v>
+        <v>-0.3323221868485736</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3616920387137796</v>
+        <v>0.9258049643743014</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.3771066399572192</v>
+        <v>0.179473397813761</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8520747468513956</v>
+        <v>-0.01537633068270894</v>
       </c>
       <c r="F50" t="n">
-        <v>-53.8115052537894</v>
+        <v>-141.4332116479767</v>
       </c>
       <c r="G50" t="n">
-        <v>39.75286017136106</v>
+        <v>-5.210496174160886</v>
       </c>
       <c r="H50" t="n">
-        <v>163.325475461968</v>
+        <v>20.11806808491908</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2004,25 +2004,25 @@
         <v>1470</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.04344698196842679</v>
+        <v>-0.3259893192935556</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.3324098449505399</v>
+        <v>0.9247461664974019</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.3758532234941115</v>
+        <v>0.1906890171962597</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8639157419140355</v>
+        <v>-0.04704455309180965</v>
       </c>
       <c r="F51" t="n">
-        <v>-51.33710658372873</v>
+        <v>-141.5896572451499</v>
       </c>
       <c r="G51" t="n">
-        <v>37.3734440384858</v>
+        <v>-2.138581687008329</v>
       </c>
       <c r="H51" t="n">
-        <v>167.2930046704524</v>
+        <v>22.55791563803158</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2035,25 +2035,25 @@
         <v>1500</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.05621139772839143</v>
+        <v>-0.319274876347885</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.3027440820255555</v>
+        <v>0.9226054744259296</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.3741635877409529</v>
+        <v>0.2016817029613258</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8747501981553034</v>
+        <v>-0.07865864595178236</v>
       </c>
       <c r="F52" t="n">
-        <v>-49.14508575883649</v>
+        <v>-141.6151454025707</v>
       </c>
       <c r="G52" t="n">
-        <v>34.86993320041312</v>
+        <v>0.9372857742889207</v>
       </c>
       <c r="H52" t="n">
-        <v>171.0097012385749</v>
+        <v>24.98805253095849</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2066,25 +2066,25 @@
         <v>1530</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.06890662744776883</v>
+        <v>-0.3121867428150042</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2727293328184618</v>
+        <v>0.919385285343601</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.3720397497326663</v>
+        <v>0.2124387142886331</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8845660022480097</v>
+        <v>-0.1101813385996747</v>
       </c>
       <c r="F53" t="n">
-        <v>-47.21358253637837</v>
+        <v>-141.5099890974001</v>
       </c>
       <c r="G53" t="n">
-        <v>32.26027677708752</v>
+        <v>4.011523322528495</v>
       </c>
       <c r="H53" t="n">
-        <v>174.5015559849882</v>
+        <v>27.42252019005177</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2097,25 +2097,25 @@
         <v>1560</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.08151812431899108</v>
+        <v>-0.3047332663757508</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.242400533152941</v>
+        <v>0.9150892835028894</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.3694842244634863</v>
+        <v>0.2229475882184559</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8933522176651825</v>
+        <v>-0.1415754657054255</v>
       </c>
       <c r="F54" t="n">
-        <v>-45.52130591421585</v>
+        <v>-141.2728508679869</v>
       </c>
       <c r="G54" t="n">
-        <v>29.56017819716481</v>
+        <v>7.078510952785258</v>
       </c>
       <c r="H54" t="n">
-        <v>177.7943062576362</v>
+        <v>29.87542922314724</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2128,25 +2128,25 @@
         <v>1590</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.09403147202257613</v>
+        <v>-0.2969232473905349</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.2117929312994478</v>
+        <v>0.90972243689573</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3665000211433594</v>
+        <v>0.2331961533759369</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9010990905681638</v>
+        <v>-0.1728040133163009</v>
       </c>
       <c r="F55" t="n">
-        <v>-44.048377285905</v>
+        <v>-140.9007210458545</v>
       </c>
       <c r="G55" t="n">
-        <v>26.78333523352879</v>
+        <v>10.13247196660561</v>
       </c>
       <c r="H55" t="n">
-        <v>-179.0873590366621</v>
+        <v>32.36118147539023</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2159,25 +2159,25 @@
         <v>1620</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1064323987721807</v>
+        <v>-0.2887659279395425</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.1809420478662852</v>
+        <v>0.9032909923727058</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.3630906389798554</v>
+        <v>0.2431725434157959</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9077980544651739</v>
+        <v>-0.2038301648143374</v>
       </c>
       <c r="F56" t="n">
-        <v>-42.77679645727937</v>
+        <v>-140.3888702912392</v>
       </c>
       <c r="G56" t="n">
-        <v>23.94170111931269</v>
+        <v>13.16734848641315</v>
       </c>
       <c r="H56" t="n">
-        <v>-176.1202109941322</v>
+        <v>34.89469337608483</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2190,25 +2190,25 @@
         <v>1650</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1187067907570229</v>
+        <v>-0.2802709801202109</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.149883636274342</v>
+        <v>0.8958024691965637</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3592600625293006</v>
+        <v>0.25286521017156</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9134417337065304</v>
+        <v>-0.2346173466917751</v>
       </c>
       <c r="F57" t="n">
-        <v>-41.69065527735748</v>
+        <v>-139.7307789884342</v>
       </c>
       <c r="G57" t="n">
-        <v>21.04574184559402</v>
+        <v>16.1766682665962</v>
       </c>
       <c r="H57" t="n">
-        <v>-173.2826325494382</v>
+        <v>37.4916203447132</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2221,25 +2221,25 @@
         <v>1680</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1308407050848199</v>
+        <v>-0.2714484935965084</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1186536436559238</v>
+        <v>0.8872656509946349</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3550127566261517</v>
+        <v>0.2622629365268727</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9180239459691566</v>
+        <v>-0.2651292741542404</v>
       </c>
       <c r="F58" t="n">
-        <v>-40.77619291050182</v>
+        <v>-138.9180483663453</v>
       </c>
       <c r="G58" t="n">
-        <v>18.10467656577007</v>
+        <v>19.15339898988644</v>
       </c>
       <c r="H58" t="n">
-        <v>-170.5546033581423</v>
+        <v>40.16857984486098</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2252,25 +2252,25 @@
         <v>1710</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.1428203821884851</v>
+        <v>-0.2623089624238003</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.08728817236121059</v>
+        <v>0.8776905760910083</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3503536609331508</v>
+        <v>0.271354848989017</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9215397037936637</v>
+        <v>-0.2953299964502946</v>
       </c>
       <c r="F59" t="n">
-        <v>-40.02175949242297</v>
+        <v>-137.9403018228681</v>
       </c>
       <c r="G59" t="n">
-        <v>15.1266956743684</v>
+        <v>22.08978629975383</v>
       </c>
       <c r="H59" t="n">
-        <v>-167.9175830497779</v>
+        <v>42.94336699001698</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2283,25 +2283,25 @@
         <v>1740</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.1546322577997382</v>
+        <v>-0.2528632711481363</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.05582344190468252</v>
+        <v>0.867088526174102</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.3452881841126714</v>
+        <v>0.2801304299740949</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9239852153004634</v>
+        <v>-0.3251839419221318</v>
       </c>
       <c r="F60" t="n">
-        <v>-39.41773345280887</v>
+        <v>-136.7850905609988</v>
       </c>
       <c r="G60" t="n">
-        <v>12.11915567006969</v>
+        <v>24.97717215686237</v>
       </c>
       <c r="H60" t="n">
-        <v>-165.3543364922376</v>
+        <v>45.83515081930276</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2314,25 +2314,25 @@
         <v>1770</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1662629744660201</v>
+        <v>-0.243122680211302</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.02429575150388941</v>
+        <v>0.8554720132820967</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3398221976593606</v>
+        <v>0.2885795297774892</v>
       </c>
       <c r="E61" t="n">
-        <v>0.925357884149984</v>
+        <v>-0.354655962661496</v>
       </c>
       <c r="F61" t="n">
-        <v>-38.95642214667351</v>
+        <v>-135.4378262278229</v>
       </c>
       <c r="G61" t="n">
-        <v>9.088752506439935</v>
+        <v>27.80579093476687</v>
       </c>
       <c r="H61" t="n">
-        <v>-162.8487288690919</v>
+        <v>48.8646305634962</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2345,25 +2345,25 @@
         <v>1800</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1776993927132945</v>
+        <v>-0.2330988106662638</v>
       </c>
       <c r="C62" t="n">
-        <v>0.007258556966901097</v>
+        <v>0.8428547650595615</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3339620293862213</v>
+        <v>0.2966923782311858</v>
       </c>
       <c r="E62" t="n">
-        <v>0.925656308847037</v>
+        <v>-0.3837113787495596</v>
       </c>
       <c r="F62" t="n">
-        <v>-38.63196456581451</v>
+        <v>-133.881775902411</v>
       </c>
       <c r="G62" t="n">
-        <v>6.041676416864404</v>
+        <v>30.56454243156351</v>
       </c>
       <c r="H62" t="n">
-        <v>-160.3855072626523</v>
+        <v>52.05411835235783</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2376,25 +2376,25 @@
         <v>1830</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1889286018910291</v>
+        <v>-0.2228036282424258</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03880313562480348</v>
+        <v>0.8292517082750802</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.3277144565726259</v>
+        <v>0.3044595960160714</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9248802814453838</v>
+        <v>-0.4123160219523404</v>
       </c>
       <c r="F63" t="n">
-        <v>-38.44024765017846</v>
+        <v>-132.0981726875766</v>
       </c>
       <c r="G63" t="n">
-        <v>2.983751800379922</v>
+        <v>33.24074424208165</v>
       </c>
       <c r="H63" t="n">
-        <v>-157.9500779931843</v>
+        <v>55.42749668433604</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2407,25 +2407,25 @@
         <v>1860</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.1999379307086696</v>
+        <v>-0.2122494196175783</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07030166676970252</v>
+        <v>0.8146789404733581</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3210866987993523</v>
+        <v>0.3118722104682058</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9230307857094858</v>
+        <v>-0.4404362975038308</v>
       </c>
       <c r="F64" t="n">
-        <v>-38.37884301013329</v>
+        <v>-130.0665176112024</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.07943404379118341</v>
+        <v>35.81987330813968</v>
       </c>
       <c r="H64" t="n">
-        <v>-155.5282841186037</v>
+        <v>59.00997736187176</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2438,25 +2438,25 @@
         <v>1890</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2107149575875542</v>
+        <v>-0.2014488037414614</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1017178988879492</v>
+        <v>0.7991537496797074</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3140864104292161</v>
+        <v>0.3189216465058897</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9201099947714871</v>
+        <v>-0.4680391513901057</v>
       </c>
       <c r="F65" t="n">
-        <v>-38.44696787164919</v>
+        <v>-127.7651877024152</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.142409565767758</v>
+        <v>38.28530370838921</v>
       </c>
       <c r="H65" t="n">
-        <v>-153.1061844509153</v>
+        <v>62.8275420363527</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2469,25 +2469,25 @@
         <v>1920</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.2212475207950379</v>
+        <v>-0.1904146716440376</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1330156823076488</v>
+        <v>0.7826945339297198</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.3067216727721406</v>
+        <v>0.3255997666240032</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9161212683123013</v>
+        <v>-0.4950922250991492</v>
       </c>
       <c r="F66" t="n">
-        <v>-38.64547213467412</v>
+        <v>-125.1724660919502</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.199701237380912</v>
+        <v>40.61809768799286</v>
       </c>
       <c r="H66" t="n">
-        <v>-150.6698337445418</v>
+        <v>66.90596508319456</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2500,25 +2500,25 @@
         <v>1950</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2315237284884204</v>
+        <v>-0.1791601963449778</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1641590048093078</v>
+        <v>0.7653208161054414</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2990009858750508</v>
+        <v>0.3318988604947696</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9110691492595858</v>
+        <v>-0.5215638205278464</v>
       </c>
       <c r="F67" t="n">
-        <v>-38.9768520892537</v>
+        <v>-122.2681786426682</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.245715769945891</v>
+        <v>42.79686586679332</v>
       </c>
       <c r="H67" t="n">
-        <v>-148.2050628962775</v>
+        <v>71.26921441868431</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2531,25 +2531,25 @@
         <v>1980</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2415319686373626</v>
+        <v>-0.167698807186301</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1951120270487005</v>
+        <v>0.7470532091447599</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.2909332599694218</v>
+        <v>0.3378116593038605</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9049593600105323</v>
+        <v>-0.5474229586098669</v>
       </c>
       <c r="F68" t="n">
-        <v>-39.44529016879674</v>
+        <v>-119.0360639876019</v>
       </c>
       <c r="G68" t="n">
-        <v>-12.27461855694905</v>
+        <v>44.79779737230653</v>
       </c>
       <c r="H68" t="n">
-        <v>-145.6972580504637</v>
+        <v>75.93711981303979</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2562,25 +2562,25 @@
         <v>2010</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.2512609253434927</v>
+        <v>-0.1560441707136767</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2258391385333171</v>
+        <v>0.7279133889159713</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.2825278007781332</v>
+        <v>0.3433313445152989</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8977987929873444</v>
+        <v>-0.5726394178682288</v>
       </c>
       <c r="F69" t="n">
-        <v>-40.05671921910999</v>
+        <v>-115.4669554961645</v>
       </c>
       <c r="G69" t="n">
-        <v>-15.28020662560322</v>
+        <v>46.59494831982251</v>
       </c>
       <c r="H69" t="n">
-        <v>-143.1311365522639</v>
+        <v>80.92222458222271</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2593,25 +2593,25 @@
         <v>2040</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.2606995627966801</v>
+        <v>-0.1442101712415728</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256304910816964</v>
+        <v>0.7079240654591603</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.2737943229513422</v>
+        <v>0.3484515560859155</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8895955257128624</v>
+        <v>-0.5971837716445035</v>
       </c>
       <c r="F70" t="n">
-        <v>-40.81890468696804</v>
+        <v>-111.562660807029</v>
       </c>
       <c r="G70" t="n">
-        <v>-18.25576024809437</v>
+        <v>48.16090353878791</v>
       </c>
       <c r="H70" t="n">
-        <v>-140.4905316487517</v>
+        <v>86.22593666156226</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2624,25 +2624,25 @@
         <v>2070</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.2698371743262529</v>
+        <v>-0.1322108910925514</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2864742567846865</v>
+        <v>0.6871089525371519</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.2647429064631219</v>
+        <v>0.3531664001356543</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8803587865346398</v>
+        <v>-0.6210274240603504</v>
       </c>
       <c r="F71" t="n">
-        <v>-41.74154411178978</v>
+        <v>-107.3401077947162</v>
       </c>
       <c r="G71" t="n">
-        <v>-21.19389965870972</v>
+        <v>49.4679109491992</v>
       </c>
       <c r="H71" t="n">
-        <v>-137.7581646161238</v>
+        <v>91.83441073041612</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2655,25 +2655,25 @@
         <v>2100</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.2786633660157457</v>
+        <v>-0.1200605906551662</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3163123837435008</v>
+        <v>0.6654927356967273</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2553840087423222</v>
+        <v>0.3574704560075745</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8700989670204077</v>
+        <v>-0.6441426444415516</v>
       </c>
       <c r="F72" t="n">
-        <v>-42.83636394463645</v>
+        <v>-102.834910287706</v>
       </c>
       <c r="G72" t="n">
-        <v>-24.0864029810018</v>
+        <v>50.48952432136158</v>
       </c>
       <c r="H72" t="n">
-        <v>-134.9154482175234</v>
+        <v>97.71500852947129</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2686,25 +2686,25 @@
         <v>2130</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.2871680732946275</v>
+        <v>0.1077736882527598</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3457848500279215</v>
+        <v>-0.6431010387963002</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.245728448473967</v>
+        <v>-0.3613587827243424</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8588276106309091</v>
+        <v>0.66650260027062</v>
       </c>
       <c r="F73" t="n">
-        <v>-44.1172004111001</v>
+        <v>-98.10314851806871</v>
       </c>
       <c r="G73" t="n">
-        <v>-26.92401272341189</v>
+        <v>51.20266337857002</v>
       </c>
       <c r="H73" t="n">
-        <v>-131.9423129197278</v>
+        <v>103.8145428215851</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -2717,25 +2717,25 @@
         <v>2160</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.2953415709705107</v>
+        <v>0.09536473994723045</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3748576011297142</v>
+        <v>-0.6199603891857232</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.2357873944369616</v>
+        <v>-0.3648269247932542</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8465574049977801</v>
+        <v>0.6880813884718734</v>
       </c>
       <c r="F74" t="n">
-        <v>-45.60003195299539</v>
+        <v>-93.22013283078957</v>
       </c>
       <c r="G74" t="n">
-        <v>-29.69621712393816</v>
+        <v>51.58982722418781</v>
       </c>
       <c r="H74" t="n">
-        <v>-128.8170944603052</v>
+        <v>110.0605368461769</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -2748,25 +2748,25 @@
         <v>2190</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.3031744833061867</v>
+        <v>0.08284841932478171</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4034970059880451</v>
+        <v>-0.5960981816028705</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.225572353854844</v>
+        <v>-0.3678709173491761</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8333021732883549</v>
+        <v>0.7088540650047878</v>
       </c>
       <c r="F75" t="n">
-        <v>-47.30291755606756</v>
+        <v>-88.27548327010021</v>
       </c>
       <c r="G75" t="n">
-        <v>-32.3910094115671</v>
+        <v>51.6410415129299</v>
       </c>
       <c r="H75" t="n">
-        <v>-125.5165254956934</v>
+        <v>116.3661670089968</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -2779,25 +2779,25 @@
         <v>2220</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.3106577941654637</v>
+        <v>0.07023949736162297</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4316698935367442</v>
+        <v>-0.5715426409522472</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.2150951602092418</v>
+        <v>-0.3704872906115343</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8190768645205314</v>
+        <v>0.7287966726591457</v>
       </c>
       <c r="F76" t="n">
-        <v>-49.24577327468334</v>
+        <v>-83.36499403559314</v>
       </c>
       <c r="G76" t="n">
-        <v>-34.99463072191448</v>
+        <v>51.35507618139496</v>
       </c>
       <c r="H76" t="n">
-        <v>-122.015897590392</v>
+        <v>122.6384201477312</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -2810,25 +2810,25 @@
         <v>2250</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.3177828571926431</v>
+        <v>0.05755282239500029</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4593435894110675</v>
+        <v>-0.5463227840033259</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.2043679605274302</v>
+        <v>-0.3726730736544911</v>
       </c>
       <c r="E77" t="n">
-        <v>0.803897542757344</v>
+        <v>0.7478862670795201</v>
       </c>
       <c r="F77" t="n">
-        <v>-51.44989184408134</v>
+        <v>-78.58099458725269</v>
       </c>
       <c r="G77" t="n">
-        <v>-37.49131014276034</v>
+        <v>50.73960492168074</v>
       </c>
       <c r="H77" t="n">
-        <v>-118.2894874231921</v>
+        <v>128.7877539229389</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -2841,25 +2841,25 @@
         <v>2280</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.3245414060076354</v>
+        <v>0.0448033003217442</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4864859527797483</v>
+        <v>-0.5204683802395337</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.1934032021363485</v>
+        <v>-0.374425797469347</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7877813750895449</v>
+        <v>0.7661009408952318</v>
       </c>
       <c r="F78" t="n">
-        <v>-53.93707970885525</v>
+        <v>-74.00356244032288</v>
       </c>
       <c r="G78" t="n">
-        <v>-39.86302740762785</v>
+        <v>49.81026086217312</v>
       </c>
       <c r="H78" t="n">
-        <v>-114.3113718074705</v>
+        <v>134.7369056061303</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -2872,25 +2872,25 @@
         <v>2310</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.3309255644084246</v>
+        <v>0.03200587506670488</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5130654133215954</v>
+        <v>-0.4940099119495809</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1822136188507878</v>
+        <v>-0.3757434973246109</v>
       </c>
       <c r="E79" t="n">
-        <v>0.770746618273091</v>
+        <v>0.7834198459798244</v>
       </c>
       <c r="F79" t="n">
-        <v>-56.72826004882107</v>
+        <v>-69.69457383058707</v>
       </c>
       <c r="G79" t="n">
-        <v>-42.08934108282294</v>
+        <v>48.58884809830423</v>
       </c>
       <c r="H79" t="n">
-        <v>-110.056782009192</v>
+        <v>140.426863407589</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -2903,25 +2903,25 @@
         <v>2340</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.3369278565227707</v>
+        <v>0.01917550937198156</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5390510081819557</v>
+        <v>-0.4669785336739217</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1708122166352114</v>
+        <v>-0.3766247144268273</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7528126039893023</v>
+        <v>0.7998232138485291</v>
       </c>
       <c r="F80" t="n">
-        <v>-59.84138654742569</v>
+        <v>-65.69543732151625</v>
       </c>
       <c r="G80" t="n">
-        <v>-44.14734761943462</v>
+        <v>47.10115337836967</v>
       </c>
       <c r="H80" t="n">
-        <v>-105.5041518144808</v>
+        <v>145.8191556035085</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -2934,25 +2934,25 @@
         <v>2370</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3425412168908437</v>
+        <v>0.006327166002139556</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5644124189063847</v>
+        <v>-0.4394060312223653</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1592122587167989</v>
+        <v>-0.3770684968862502</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7339997226085845</v>
+        <v>0.815292374152816</v>
       </c>
       <c r="F81" t="n">
-        <v>-63.28856045467988</v>
+        <v>-62.02812244283835</v>
       </c>
       <c r="G81" t="n">
-        <v>-46.01186162304179</v>
+        <v>45.37480561050032</v>
       </c>
       <c r="H81" t="n">
-        <v>-100.6379660868578</v>
+        <v>150.8948457153788</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2965,25 +2965,25 @@
         <v>2400</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.3477590004304684</v>
+        <v>-0.006524210613446648</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5891200082420684</v>
+        <v>-0.4113247803384398</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1474272501691044</v>
+        <v>-0.3770744000054134</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7143294053978478</v>
+        <v>0.8298097713427837</v>
       </c>
       <c r="F82" t="n">
-        <v>-67.07238349349346</v>
+        <v>-58.69834645745759</v>
       </c>
       <c r="G82" t="n">
-        <v>-47.65592715795371</v>
+        <v>43.43749714582756</v>
       </c>
       <c r="H82" t="n">
-        <v>-95.45237665092367</v>
+        <v>155.6513710191758</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2996,25 +2996,25 @@
         <v>2430</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.3525749922373262</v>
+        <v>-0.01936371226544507</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6131448567044537</v>
+        <v>-0.3827677051206396</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1354709219865857</v>
+        <v>-0.3766424859059477</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6938241051173046</v>
+        <v>0.8433589795422636</v>
       </c>
       <c r="F83" t="n">
-        <v>-71.18184737044554</v>
+        <v>-55.69965910478663</v>
       </c>
       <c r="G83" t="n">
-        <v>-49.05176875186303</v>
+        <v>41.31570409945921</v>
       </c>
       <c r="H83" t="n">
-        <v>-89.95528420003082</v>
+        <v>160.0984849418811</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3027,25 +3027,25 @@
         <v>2460</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.3569834171683474</v>
+        <v>-0.03217648427695572</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6364587987902841</v>
+        <v>-0.3537682364643071</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1233572146816913</v>
+        <v>-0.3757733225163712</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6725072749756787</v>
+        <v>0.8559247156225342</v>
       </c>
       <c r="F84" t="n">
-        <v>-75.5884498159668</v>
+        <v>-53.01745967033283</v>
       </c>
       <c r="G84" t="n">
-        <v>-50.17224775181194</v>
+        <v>39.0338993361262</v>
       </c>
       <c r="H84" t="n">
-        <v>-84.17219582301489</v>
+        <v>164.2542694357789</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3058,25 +3058,25 @@
         <v>2490</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.360978949166068</v>
+        <v>-0.04494774230158135</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6590344587734545</v>
+        <v>-0.3243602704523681</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1111002614112322</v>
+        <v>-0.3744679819463798</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6504033458727723</v>
+        <v>0.8674928506397405</v>
       </c>
       <c r="F85" t="n">
-        <v>-80.24363023670935</v>
+        <v>-50.63240180133859</v>
       </c>
       <c r="G85" t="n">
-        <v>-50.99278636760396</v>
+        <v>36.61417056754382</v>
       </c>
       <c r="H85" t="n">
-        <v>-78.14876463327188</v>
+        <v>168.1417624209668</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3089,25 +3089,25 @@
         <v>2520</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.3645567202633229</v>
+        <v>-0.05766279701455858</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6808452859365952</v>
+        <v>-0.2945781068824277</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.09871437068198766</v>
+        <v>-0.3727280369647546</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6275377019348115</v>
+        <v>0.8780504263687953</v>
       </c>
       <c r="F86" t="n">
-        <v>-85.07879821504359</v>
+        <v>-48.52299423799982</v>
       </c>
       <c r="G86" t="n">
-        <v>-51.49356147451584</v>
+        <v>34.07612857095172</v>
       </c>
       <c r="H86" t="n">
-        <v>-71.95073787514153</v>
+        <v>171.786393725103</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -3120,25 +3120,25 @@
         <v>2550</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.3677123292099649</v>
+        <v>-0.07030703564581149</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7018655890859742</v>
+        <v>-0.2644564882603345</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.08621400869895243</v>
+        <v>-0.3705555631943006</v>
       </c>
       <c r="E87" t="n">
-        <v>0.603936654383585</v>
+        <v>0.8875856359481405</v>
       </c>
       <c r="F87" t="n">
-        <v>-90.00889688294281</v>
+        <v>-46.66743633384467</v>
       </c>
       <c r="G87" t="n">
-        <v>-51.66159899154367</v>
+        <v>31.43701106585498</v>
       </c>
       <c r="H87" t="n">
-        <v>-65.66037112106564</v>
+        <v>175.2141850731891</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3151,25 +3151,25 @@
         <v>2580</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.3704418496880532</v>
+        <v>-0.08286598816791496</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7220705703510327</v>
+        <v>-0.2340304391125553</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.07361378133528805</v>
+        <v>-0.3679531288205924</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5796274136289178</v>
+        <v>0.8960878732383761</v>
       </c>
       <c r="F88" t="n">
-        <v>-94.93948860358181</v>
+        <v>-45.04480114576045</v>
       </c>
       <c r="G88" t="n">
-        <v>-51.49230495414055</v>
+        <v>28.71187458181276</v>
       </c>
       <c r="H88" t="n">
-        <v>-59.3693207791093</v>
+        <v>178.4506175775703</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3182,25 +3182,25 @@
         <v>2610</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3727418380400745</v>
+        <v>-0.09532530756309765</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7414363580090169</v>
+        <v>-0.203335305236245</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.06092841585619739</v>
+        <v>-0.3649237951880089</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5546380597633793</v>
+        <v>0.9035477093590931</v>
       </c>
       <c r="F89" t="n">
-        <v>-99.77607448549864</v>
+        <v>-43.63575308167076</v>
       </c>
       <c r="G89" t="n">
-        <v>-50.99003587867985</v>
+        <v>25.91385131127837</v>
       </c>
       <c r="H89" t="n">
-        <v>-53.16930306943912</v>
+        <v>-178.4800399900543</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -3213,25 +3213,25 @@
         <v>2640</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.3746093404790133</v>
+        <v>-0.1076707921969842</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7599400383296978</v>
+        <v>-0.1724066939482711</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.04817274239102068</v>
+        <v>-0.3614711115409746</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5289975113928842</v>
+        <v>0.9099569044250575</v>
       </c>
       <c r="F90" t="n">
-        <v>-104.4334288047482</v>
+        <v>-42.4229227745987</v>
       </c>
       <c r="G90" t="n">
-        <v>-50.16754922806074</v>
+        <v>23.05440940034581</v>
       </c>
       <c r="H90" t="n">
-        <v>-47.14273806893513</v>
+        <v>-175.5550484615468</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3244,25 +3244,25 @@
         <v>2670</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3760418997302282</v>
+        <v>-0.1198883991195551</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7775596863288247</v>
+        <v>-0.1412804346152557</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.03536167520723058</v>
+        <v>-0.3575991103477836</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5027354928489128</v>
+        <v>0.9153084107719914</v>
       </c>
       <c r="F91" t="n">
-        <v>-108.8427229026211</v>
+        <v>-41.39106325209243</v>
       </c>
       <c r="G91" t="n">
-        <v>-49.04448831321226</v>
+        <v>20.14360600392843</v>
       </c>
       <c r="H91" t="n">
-        <v>-41.35560393687354</v>
+        <v>-172.7532901343492</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3275,25 +3275,25 @@
         <v>2700</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.3770375615758289</v>
+        <v>-0.131964256824203</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7942744061487532</v>
+        <v>-0.1099925397447114</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02251018527470047</v>
+        <v>-0.3533123022212824</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4758824817713897</v>
+        <v>0.9195963751670845</v>
       </c>
       <c r="F92" t="n">
-        <v>-112.9551375265477</v>
+        <v>-40.52707097540067</v>
       </c>
       <c r="G92" t="n">
-        <v>-47.64529525597174</v>
+        <v>17.19032113291355</v>
       </c>
       <c r="H92" t="n">
-        <v>-35.85380109713887</v>
+        <v>-170.055216496488</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3306,25 +3306,25 @@
         <v>2730</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.3775948778569097</v>
+        <v>-0.143884677516302</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8100643150779007</v>
+        <v>-0.07857916660406646</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.009633315842661246</v>
+        <v>-0.3486156704570194</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4484697457794369</v>
+        <v>0.9228161401187361</v>
       </c>
       <c r="F93" t="n">
-        <v>-116.741919923354</v>
+        <v>-39.81993121943755</v>
       </c>
       <c r="G93" t="n">
-        <v>-45.99702196606619</v>
+        <v>14.20246852224672</v>
       </c>
       <c r="H93" t="n">
-        <v>-30.66307532235647</v>
+        <v>-167.4427097939325</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3337,25 +3337,25 @@
         <v>2760</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.3777129151728448</v>
+        <v>-0.1556361689329148</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8249106376404575</v>
+        <v>-0.04707657935365935</v>
       </c>
       <c r="D94" t="n">
-        <v>0.003253888181948805</v>
+        <v>-0.3435146652075494</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4205291973584527</v>
+        <v>0.9249642443811487</v>
       </c>
       <c r="F94" t="n">
-        <v>-120.1918603974013</v>
+        <v>-39.26062767844557</v>
       </c>
       <c r="G94" t="n">
-        <v>-44.12739587674557</v>
+        <v>11.18718360792005</v>
       </c>
       <c r="H94" t="n">
-        <v>-25.79151065965991</v>
+        <v>-164.8988966260802</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -3368,25 +3368,25 @@
         <v>2790</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.377391255898012</v>
+        <v>-0.167205445766584</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8387956855334019</v>
+        <v>-0.01552111164507996</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0161363646511849</v>
+        <v>-0.3380151973033481</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3920934271804561</v>
+        <v>0.9260384227402649</v>
       </c>
       <c r="F95" t="n">
-        <v>-123.3074059093256</v>
+        <v>-38.84204213209269</v>
       </c>
       <c r="G95" t="n">
-        <v>-42.06335993404912</v>
+        <v>8.150990807185567</v>
       </c>
       <c r="H95" t="n">
-        <v>-21.23339284522432</v>
+        <v>-162.4079374836186</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -3399,25 +3399,25 @@
         <v>2820</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3766300022401676</v>
+        <v>-0.1785794407095155</v>
       </c>
       <c r="C96" t="n">
-        <v>0.851702893042478</v>
+        <v>0.01605087026912559</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02899906157629125</v>
+        <v>-0.3321236317446983</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3631956467571426</v>
+        <v>0.9260376051522921</v>
       </c>
       <c r="F96" t="n">
-        <v>-126.1005499584433</v>
+        <v>-38.55886038090897</v>
       </c>
       <c r="G96" t="n">
-        <v>-39.83011306137592</v>
+        <v>5.099953349070157</v>
       </c>
       <c r="H96" t="n">
-        <v>-16.97328957916905</v>
+        <v>-159.9548063075834</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3430,25 +3430,25 @@
         <v>2850</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.3754297787297016</v>
+        <v>-0.1897453152101519</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8636168393528951</v>
+        <v>0.04760300407791632</v>
       </c>
       <c r="D97" t="n">
-        <v>0.04182695574508931</v>
+        <v>-0.3258467808518379</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3338696479199348</v>
+        <v>0.9249619153062749</v>
       </c>
       <c r="F97" t="n">
-        <v>-128.5891769595317</v>
+        <v>-38.40749428764002</v>
       </c>
       <c r="G97" t="n">
-        <v>-37.45059207989333</v>
+        <v>2.039809317669103</v>
       </c>
       <c r="H97" t="n">
-        <v>-12.98967453913824</v>
+        <v>-157.525067575719</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -3461,25 +3461,25 @@
         <v>2880</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.3737917339371286</v>
+        <v>-0.2006904699618343</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8745232693129789</v>
+        <v>0.07909896758449103</v>
       </c>
       <c r="D98" t="n">
-        <v>0.05460507119405412</v>
+        <v>-0.3191918970870206</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3041497612530807</v>
+        <v>0.9228126686535867</v>
       </c>
       <c r="F98" t="n">
-        <v>-130.7941689381504</v>
+        <v>-38.386025663757</v>
       </c>
       <c r="G98" t="n">
-        <v>-34.94528608984869</v>
+        <v>-1.023902291818891</v>
       </c>
       <c r="H98" t="n">
-        <v>-9.257785821582022</v>
+        <v>-155.1046542210881</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -3492,25 +3492,25 @@
         <v>2910</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.3717175414100474</v>
+        <v>-0.2114025551754082</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8844091125582118</v>
+        <v>0.1105025145783327</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06731849743321194</v>
+        <v>-0.3121666655462607</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2740708137241192</v>
+        <v>0.9195923699438261</v>
       </c>
       <c r="F99" t="n">
-        <v>-132.7373095685462</v>
+        <v>-38.4941751318586</v>
       </c>
       <c r="G99" t="n">
-        <v>-32.33227352078078</v>
+        <v>-4.085721730070643</v>
       </c>
       <c r="H99" t="n">
-        <v>-5.751683167228171</v>
+        <v>-152.6796471018652</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3523,25 +3523,25 @@
         <v>2940</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.3692093998201684</v>
+        <v>-0.2218694807055759</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8932625010183467</v>
+        <v>0.1417775105398421</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07995240742882301</v>
+        <v>-0.3047791960994283</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2436680855286847</v>
+        <v>0.915304710280434</v>
       </c>
       <c r="F100" t="n">
-        <v>-134.4398791856213</v>
+        <v>-38.73329739660532</v>
       </c>
       <c r="G100" t="n">
-        <v>-29.62739127159919</v>
+        <v>-7.140151145759834</v>
       </c>
       <c r="H100" t="n">
-        <v>-2.445609617847572</v>
+        <v>-150.2360553231887</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -3554,25 +3554,25 @@
         <v>2970</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.366270032319135</v>
+        <v>-0.2320794260467228</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9010727847793114</v>
+        <v>0.1728879681642256</v>
       </c>
       <c r="D101" t="n">
-        <v>0.09249207529137553</v>
+        <v>-0.2970380151850648</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2129772663062681</v>
+        <v>0.9099545637034778</v>
       </c>
       <c r="F101" t="n">
-        <v>-135.9217857128985</v>
+        <v>-39.10640310835867</v>
       </c>
       <c r="G101" t="n">
-        <v>-26.84447027380169</v>
+        <v>-10.18153602924028</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6851881587465232</v>
+        <v>-147.7595961990632</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -3585,25 +3585,25 @@
         <v>3000</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.3629026850981976</v>
+        <v>-0.2420208502687063</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9078305463179273</v>
+        <v>0.2037980828595328</v>
       </c>
       <c r="D102" t="n">
-        <v>0.104922893668399</v>
+        <v>-0.2889520572262166</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1820344107713205</v>
+        <v>0.903547983276333</v>
       </c>
       <c r="F102" t="n">
-        <v>-137.2010798455809</v>
+        <v>-39.61820631837173</v>
       </c>
       <c r="G102" t="n">
-        <v>-23.99559436922749</v>
+        <v>-13.20394174802766</v>
       </c>
       <c r="H102" t="n">
-        <v>3.664030166760726</v>
+        <v>-145.2354738881471</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -3616,25 +3616,25 @@
         <v>3030</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.3591111251561157</v>
+        <v>-0.251682501902654</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9135276131027767</v>
+        <v>0.2344722682054692</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1172303908051655</v>
+        <v>-0.2805306556686661</v>
       </c>
       <c r="E103" t="n">
-        <v>0.150875893897999</v>
+        <v>0.8960921966565223</v>
       </c>
       <c r="F103" t="n">
-        <v>-138.2937284305629</v>
+        <v>-40.27519502377424</v>
       </c>
       <c r="G103" t="n">
-        <v>-21.09135678181938</v>
+        <v>-16.20102141388746</v>
       </c>
       <c r="H103" t="n">
-        <v>6.512639037908756</v>
+        <v>-142.648156844031</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -3647,25 +3647,25 @@
         <v>3060</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.3548996372747982</v>
+        <v>-0.2610534288242527</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9181570685840209</v>
+        <v>0.2648751914783952</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1294002472754288</v>
+        <v>-0.2717835336125367</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1195383657093913</v>
+        <v>0.8875956011019137</v>
       </c>
       <c r="F104" t="n">
-        <v>-139.213550555871</v>
+        <v>-41.08572006110789</v>
       </c>
       <c r="G104" t="n">
-        <v>-18.14110055055654</v>
+        <v>-19.16587129903445</v>
       </c>
       <c r="H104" t="n">
-        <v>9.25114742027238</v>
+        <v>-139.9811563551385</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -3678,25 +3678,25 @@
         <v>3090</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.3502730202057862</v>
+        <v>-0.2701229881765088</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9217132615854611</v>
+        <v>0.2949718093491323</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1414183123730428</v>
+        <v>-0.26272079399959</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08805870575342745</v>
+        <v>0.8780677578342789</v>
       </c>
       <c r="F105" t="n">
-        <v>-139.9722483337527</v>
+        <v>-42.06009409364027</v>
       </c>
       <c r="G105" t="n">
-        <v>-15.15313710022851</v>
+        <v>-22.09087008018826</v>
       </c>
       <c r="H105" t="n">
-        <v>11.89821023408613</v>
+        <v>-137.216812042976</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3709,25 +3709,25 @@
         <v>3120</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.3452365820696212</v>
+        <v>-0.2788808563041381</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9241918141165784</v>
+        <v>0.3247274036420522</v>
       </c>
       <c r="D106" t="n">
-        <v>0.153270620164715</v>
+        <v>-0.2533529093790607</v>
       </c>
       <c r="E106" t="n">
-        <v>0.05647397732688356</v>
+        <v>0.8675193857315971</v>
       </c>
       <c r="F106" t="n">
-        <v>-140.5794860786467</v>
+        <v>-43.21068693822701</v>
       </c>
       <c r="G106" t="n">
-        <v>-12.13494184247588</v>
+        <v>-24.96749847378029</v>
       </c>
       <c r="H106" t="n">
-        <v>14.47117715248194</v>
+        <v>-134.3360958708863</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -3740,25 +3740,25 @@
         <v>3150</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3397961349799212</v>
+        <v>-0.2873170387648528</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9255896276188873</v>
+        <v>0.3541076173524736</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1649434051865879</v>
+        <v>-0.2436907111844961</v>
       </c>
       <c r="E107" t="n">
-        <v>0.02482138155884381</v>
+        <v>0.855962354225199</v>
       </c>
       <c r="F107" t="n">
-        <v>-141.0429874943626</v>
+        <v>-44.55199510122239</v>
       </c>
       <c r="G107" t="n">
-        <v>-9.093328366564524</v>
+        <v>-27.78613665458721</v>
       </c>
       <c r="H107" t="n">
-        <v>16.98629679435411</v>
+        <v>-131.3184547839897</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -3771,25 +3771,25 @@
         <v>3180</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.333957988884633</v>
+        <v>-0.2954218804087641</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9259048876722793</v>
+        <v>0.3830784908981263</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1764231178189671</v>
+        <v>-0.2337453785097507</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.006861788669885164</v>
+        <v>0.8434096753134253</v>
       </c>
       <c r="F108" t="n">
-        <v>-141.3686315665711</v>
+        <v>-46.10065100293819</v>
       </c>
       <c r="G108" t="n">
-        <v>-6.034604145424609</v>
+        <v>-30.53583851442994</v>
       </c>
       <c r="H108" t="n">
-        <v>19.45893542639278</v>
+        <v>-128.1417247263678</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3802,25 +3802,25 @@
         <v>3210</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.3277289446293548</v>
+        <v>-0.3031860805721955</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9251370671670417</v>
+        <v>0.4116065174270164</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1876964393361255</v>
+        <v>-0.223528419480352</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.03853819490108559</v>
+        <v>0.8298754852648013</v>
       </c>
       <c r="F109" t="n">
-        <v>-141.5605352769444</v>
+        <v>-47.87532107569785</v>
       </c>
       <c r="G109" t="n">
-        <v>-2.964711317935608</v>
+        <v>-33.20408673541469</v>
       </c>
       <c r="H109" t="n">
-        <v>21.90380058479686</v>
+        <v>-124.7821642472113</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -3833,25 +3833,25 @@
         <v>3240</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.3211162862630033</v>
+        <v>-0.3106006826836053</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9232869279539431</v>
+        <v>0.4396586032914629</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1987502966094591</v>
+        <v>-0.2130516865731761</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.07017049924063001</v>
+        <v>0.8153750715570125</v>
       </c>
       <c r="F110" t="n">
-        <v>-141.6211160854396</v>
+        <v>-49.89640971955275</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1106436662288338</v>
+        <v>-35.77652581953674</v>
       </c>
       <c r="H110" t="n">
-        <v>24.33516499098828</v>
+        <v>-121.2146956519348</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -3864,25 +3864,25 @@
         <v>3270</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3141277725582884</v>
+        <v>-0.317657115716244</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9203565209755185</v>
+        <v>0.4672022196039402</v>
       </c>
       <c r="D111" t="n">
-        <v>0.209571876531134</v>
+        <v>-0.2023273227381187</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.1017214105910221</v>
+        <v>0.799924807282293</v>
       </c>
       <c r="F111" t="n">
-        <v>-141.5511302143337</v>
+        <v>-52.18548288033954</v>
       </c>
       <c r="G111" t="n">
-        <v>3.185867749585009</v>
+        <v>-38.23671644565214</v>
       </c>
       <c r="H111" t="n">
-        <v>26.7670892545749</v>
+        <v>-117.4134229004249</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -3895,25 +3895,25 @@
         <v>3300</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.3067716277784416</v>
+        <v>-0.3243471833692098</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9163491848765128</v>
+        <v>0.4942053623435753</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2201486401122535</v>
+        <v>-0.1913677753008312</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1331537307890445</v>
+        <v>0.783542174389947</v>
       </c>
       <c r="F112" t="n">
-        <v>-141.3496847574098</v>
+        <v>-54.76425281848204</v>
       </c>
       <c r="G112" t="n">
-        <v>6.255362535354818</v>
+        <v>-40.56590561182043</v>
       </c>
       <c r="H112" t="n">
-        <v>29.21364361182737</v>
+        <v>-113.3526048865163</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -3926,25 +3926,25 @@
         <v>3330</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.2990565316812819</v>
+        <v>-0.3306630796072966</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9112695430869437</v>
+        <v>0.5206366086156291</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2304683362888611</v>
+        <v>-0.1801857753448422</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.1644304006840576</v>
+        <v>0.7662457412065746</v>
       </c>
       <c r="F113" t="n">
-        <v>-141.0142230415278</v>
+        <v>-57.65298542180663</v>
       </c>
       <c r="G113" t="n">
-        <v>9.313405392863764</v>
+        <v>-42.74288885255173</v>
       </c>
       <c r="H113" t="n">
-        <v>31.6891297612843</v>
+        <v>-109.0082058597222</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3957,25 +3957,25 @@
         <v>3360</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.2909916032410759</v>
+        <v>-0.3365973988475286</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9051234948836057</v>
+        <v>0.5464651536905079</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2405190220876507</v>
+        <v>-0.1687943232893883</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.1955145668917685</v>
+        <v>0.7480551472427449</v>
       </c>
       <c r="F114" t="n">
-        <v>-140.5404835255503</v>
+        <v>-60.86817550104644</v>
       </c>
       <c r="G114" t="n">
-        <v>12.35402869306043</v>
+        <v>-44.74402674477723</v>
       </c>
       <c r="H114" t="n">
-        <v>34.2083055301427</v>
+        <v>-104.3601832001517</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3988,25 +3988,25 @@
         <v>3390</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.2825864110128326</v>
+        <v>-0.3421431460497436</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8979182265686034</v>
+        <v>0.5716608479222327</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2502890490755284</v>
+        <v>-0.157206673950282</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.2263695443730193</v>
+        <v>0.7289910865226733</v>
       </c>
       <c r="F115" t="n">
-        <v>-139.9224364123238</v>
+        <v>-64.41941503956006</v>
       </c>
       <c r="G115" t="n">
-        <v>15.37088118827644</v>
+        <v>-46.54351499814411</v>
       </c>
       <c r="H115" t="n">
-        <v>36.78660233517524</v>
+        <v>-99.39558582900602</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -4019,25 +4019,25 @@
         <v>3420</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.2738509284197846</v>
+        <v>-0.3472937466869035</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8896621791160908</v>
+        <v>0.5961942335331645</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2597671167598798</v>
+        <v>-0.1454363210656325</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.2569589872028017</v>
+        <v>0.7090752893232632</v>
       </c>
       <c r="F116" t="n">
-        <v>-139.152197126648</v>
+        <v>-68.30555498192604</v>
       </c>
       <c r="G116" t="n">
-        <v>18.35709828689521</v>
+        <v>-48.11402070671165</v>
       </c>
       <c r="H116" t="n">
-        <v>39.44035913516613</v>
+        <v>-94.11236207441651</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4050,25 +4050,25 @@
         <v>3450</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.2647955421837579</v>
+        <v>-0.3520430565353705</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8803650547241803</v>
+        <v>0.6200365811105852</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2689422580861635</v>
+        <v>-0.1334969813299446</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.2872468504189667</v>
+        <v>0.6883305023066485</v>
       </c>
       <c r="F117" t="n">
-        <v>-138.2199303390369</v>
+        <v>-72.51057089638617</v>
       </c>
       <c r="G117" t="n">
-        <v>21.30513663754823</v>
+        <v>-49.42778567281037</v>
       </c>
       <c r="H117" t="n">
-        <v>42.18703420135488</v>
+        <v>-88.52346613907126</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -4081,25 +4081,25 @@
         <v>3480</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.2554310333205211</v>
+        <v>-0.3563853712535859</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8700378021636689</v>
+        <v>0.6431599257987767</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2778038586391894</v>
+        <v>-0.121402577917658</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.3171974560872145</v>
+        <v>0.6667804669288857</v>
       </c>
       <c r="F118" t="n">
-        <v>-137.1137523626778</v>
+        <v>-76.999953818029</v>
       </c>
       <c r="G118" t="n">
-        <v>24.20660012126497</v>
+        <v>-50.45823752296847</v>
       </c>
       <c r="H118" t="n">
-        <v>45.04540986464669</v>
+        <v>-82.66044139314596</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -4112,25 +4112,25 @@
         <v>3510</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2457685627315067</v>
+        <v>-0.3603154356627412</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8586926042200653</v>
+        <v>0.6655371029045015</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2863416686969862</v>
+        <v>-0.1091672236123816</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.3467755380624147</v>
+        <v>0.6444498962443986</v>
       </c>
       <c r="F119" t="n">
-        <v>-135.8196536742072</v>
+        <v>-81.71881255863627</v>
       </c>
       <c r="G119" t="n">
-        <v>27.05204210423055</v>
+        <v>-51.18202644033902</v>
       </c>
       <c r="H119" t="n">
-        <v>48.03576220920495</v>
+        <v>-76.57529379840975</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -4143,25 +4143,25 @@
         <v>3540</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2358196561065699</v>
+        <v>-0.3638284527190554</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8463428634230952</v>
+        <v>0.6871417830146592</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2945458149705811</v>
+        <v>-0.09680520347141636</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.3759462863360821</v>
+        <v>0.6213644499070982</v>
       </c>
       <c r="F120" t="n">
-        <v>-134.3214727637915</v>
+        <v>-86.5929244920306</v>
       </c>
       <c r="G120" t="n">
-        <v>29.83074458212374</v>
+        <v>-51.58123451013026</v>
       </c>
       <c r="H120" t="n">
-        <v>51.17996776546044</v>
+        <v>-70.33941806057935</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -4174,25 +4174,25 @@
         <v>3570</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.225596188147352</v>
+        <v>-0.3669200920913787</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8330031860165734</v>
+        <v>0.7079485063454022</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3024068120224163</v>
+        <v>-0.08433095714995253</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.4046753909271745</v>
+        <v>0.5975507075128782</v>
       </c>
       <c r="F121" t="n">
-        <v>-132.6009691803438</v>
+        <v>-91.53344438421384</v>
       </c>
       <c r="G121" t="n">
-        <v>32.53047559356586</v>
+        <v>-51.64534649875371</v>
       </c>
       <c r="H121" t="n">
-        <v>54.50150097403762</v>
+        <v>-64.03886659613507</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -4205,25 +4205,25 @@
         <v>3600</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.2151103661894183</v>
+        <v>-0.3695864983047524</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8186893642096887</v>
+        <v>0.7279327162671789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3099155733027554</v>
+        <v>-0.07175906090352129</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.4329290850846295</v>
+        <v>0.5730361402537915</v>
       </c>
       <c r="F122" t="n">
-        <v>-130.6380659227152</v>
+        <v>-96.4448730214739</v>
       </c>
       <c r="G122" t="n">
-        <v>35.13723119076172</v>
+        <v>-51.37251894437613</v>
       </c>
       <c r="H122" t="n">
-        <v>58.02525369252504</v>
+        <v>-57.76635922246886</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -4236,25 +4236,25 @@
         <v>3630</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2043747131728499</v>
+        <v>-0.3718242984037264</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8034183565883722</v>
+        <v>0.7470707919325913</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3170634218469957</v>
+        <v>-0.05910420929273222</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.4606741879452639</v>
+        <v>0.5478490808623014</v>
       </c>
       <c r="F123" t="n">
-        <v>-128.4113592966966</v>
+        <v>-101.2346394000386</v>
       </c>
       <c r="G123" t="n">
-        <v>37.63497641185187</v>
+        <v>-50.76980779022281</v>
       </c>
       <c r="H123" t="n">
-        <v>61.77707988400651</v>
+        <v>-51.61167948217811</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -4267,25 +4267,25 @@
         <v>3660</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1934020500957306</v>
+        <v>-0.3736306090736988</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7872082668062632</v>
+        <v>0.7653400798006946</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3238421005333924</v>
+        <v>-0.04638119670457082</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.4878781462750384</v>
+        <v>0.5220186920083755</v>
       </c>
       <c r="F124" t="n">
-        <v>-125.8990251254856</v>
+        <v>-105.8219628008541</v>
       </c>
       <c r="G124" t="n">
-        <v>40.00541217473332</v>
+        <v>-49.85229080055434</v>
       </c>
       <c r="H124" t="n">
-        <v>65.78293766537574</v>
+        <v>-45.65279096622039</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -4298,25 +4298,25 @@
         <v>3690</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1822054778925001</v>
+        <v>-0.3750030431918306</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7700783204211602</v>
+        <v>0.7827189240826933</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3302437819450628</v>
+        <v>-0.03360489866448324</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.5145090754592307</v>
+        <v>0.4955749330479165</v>
       </c>
       <c r="F125" t="n">
-        <v>-123.0802750095652</v>
+        <v>-110.1439730385933</v>
       </c>
       <c r="G125" t="n">
-        <v>42.2278129494518</v>
+        <v>-48.64132740748273</v>
       </c>
       <c r="H125" t="n">
-        <v>70.06747597191494</v>
+        <v>-39.9496950170142</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -4329,25 +4329,25 @@
         <v>3720</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1707983588851263</v>
+        <v>-0.3759397157517284</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7520488400339185</v>
+        <v>0.7991866959000455</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3362610777389773</v>
+        <v>-0.02079025306909484</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.5405357993728138</v>
+        <v>0.4685485253356376</v>
       </c>
       <c r="F126" t="n">
-        <v>-119.9375170956733</v>
+        <v>-114.1581754721405</v>
       </c>
       <c r="G126" t="n">
-        <v>44.27900303485083</v>
+        <v>-47.16239196128532</v>
       </c>
       <c r="H126" t="n">
-        <v>74.65191217786892</v>
+        <v>-34.54194290120182</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -4360,25 +4360,25 @@
         <v>3750</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.159194297777747</v>
+        <v>-0.3764392491333556</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7331412186395547</v>
+        <v>0.8147238211282932</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3418870475444207</v>
+        <v>-0.007952241359212932</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.5659278892298186</v>
+        <v>0.4409709161105675</v>
       </c>
       <c r="F127" t="n">
-        <v>-116.4593213440891</v>
+        <v>-117.8415869021791</v>
       </c>
       <c r="G127" t="n">
-        <v>46.13356428289922</v>
+        <v>-45.44292998712395</v>
       </c>
       <c r="H127" t="n">
-        <v>79.55110140364658</v>
+        <v>-29.44947597401733</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -4391,25 +4391,25 @@
         <v>3780</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.147407122286773</v>
+        <v>-0.3765007776845343</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7133778912790905</v>
+        <v>0.8293118068527563</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3471152073348532</v>
+        <v>0.004894130316341413</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.590655701208591</v>
+        <v>0.4128742410298855</v>
       </c>
       <c r="F128" t="n">
-        <v>-112.6441383386368</v>
+        <v>-121.1876486848248</v>
       </c>
       <c r="G128" t="n">
-        <v>47.76438646863363</v>
+        <v>-43.51055984160202</v>
       </c>
       <c r="H128" t="n">
-        <v>84.76984907952084</v>
+        <v>-24.67568713183492</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -4422,25 +4422,25 @@
         <v>3810</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1354508634850699</v>
+        <v>-0.3761239515849526</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6927823050775636</v>
+        <v>0.84293326634748</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3519395372365333</v>
+        <v>0.0177338498753408</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.6146904127138322</v>
+        <v>0.3842912854821033</v>
       </c>
       <c r="F129" t="n">
-        <v>-108.5044388305297</v>
+        <v>-124.2021781485623</v>
       </c>
       <c r="G129" t="n">
-        <v>49.14366739400408</v>
+        <v>-41.39176666133132</v>
       </c>
       <c r="H129" t="n">
-        <v>90.29880011781518</v>
+        <v>-20.21144205939795</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -4453,25 +4453,25 @@
         <v>3840</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1233397358765706</v>
+        <v>-0.3753089399708482</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6713788876551378</v>
+        <v>0.8555719425385723</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3563544887664328</v>
+        <v>0.0305519179774349</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.6380040572761759</v>
+        <v>0.3552554447529722</v>
       </c>
       <c r="F130" t="n">
-        <v>-104.070542299874</v>
+        <v>-126.8993423790367</v>
       </c>
       <c r="G130" t="n">
-        <v>50.24442158371965</v>
+        <v>-39.11108948222327</v>
       </c>
       <c r="H130" t="n">
-        <v>96.11063689907184</v>
+        <v>-16.03907575392822</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -4484,25 +4484,25 @@
         <v>3870</v>
       </c>
       <c r="B131" t="n">
-        <v>0.111088117329974</v>
+        <v>-0.3740564323146917</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.6491930140939428</v>
+        <v>0.86721273737494</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.3603549914449134</v>
+        <v>0.04333337510979561</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6605695578668762</v>
+        <v>0.3258006632593947</v>
       </c>
       <c r="F131" t="n">
-        <v>-99.39300610009336</v>
+        <v>-129.2982219061132</v>
       </c>
       <c r="G131" t="n">
-        <v>51.04244660192192</v>
+        <v>-36.69071622275791</v>
       </c>
       <c r="H131" t="n">
-        <v>102.157714933159</v>
+        <v>-12.13579526575729</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -4515,25 +4515,25 @@
         <v>3900</v>
       </c>
       <c r="B132" t="n">
-        <v>0.09871052887313776</v>
+        <v>-0.3723676436748059</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.6262509724347264</v>
+        <v>0.8778417015570532</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.3639364587850166</v>
+        <v>0.05606328564303736</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6823607586762057</v>
+        <v>0.2959614720776972</v>
       </c>
       <c r="F132" t="n">
-        <v>-94.54230088222673</v>
+        <v>-131.4201621081945</v>
       </c>
       <c r="G132" t="n">
-        <v>51.51853125444953</v>
+        <v>-34.15038436368541</v>
       </c>
       <c r="H132" t="n">
-        <v>108.3724108999498</v>
+        <v>-8.476296364072336</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -4546,25 +4546,25 @@
         <v>3930</v>
       </c>
       <c r="B133" t="n">
-        <v>0.08622161450062958</v>
+        <v>-0.3702443104668761</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.6025799279509941</v>
+        <v>0.8874461000813063</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.3670947936075619</v>
+        <v>0.0687268073909888</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7033524551245278</v>
+        <v>0.2657728277368279</v>
       </c>
       <c r="F133" t="n">
-        <v>-89.60488870792412</v>
+        <v>-133.2869149480255</v>
       </c>
       <c r="G133" t="n">
-        <v>51.66052093277217</v>
+        <v>-31.50745747470829</v>
       </c>
       <c r="H133" t="n">
-        <v>114.6710670145546</v>
+        <v>-5.034575677605487</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -4577,25 +4577,25 @@
         <v>3960</v>
       </c>
       <c r="B134" t="n">
-        <v>0.07363612098641235</v>
+        <v>-0.3676886935573089</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.5782078861709123</v>
+        <v>0.8960143973726716</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.3698263926910941</v>
+        <v>0.08130917512355529</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7235204221892649</v>
+        <v>0.2352701476425227</v>
       </c>
       <c r="F134" t="n">
-        <v>-84.6758298557821</v>
+        <v>-134.919409664348</v>
       </c>
       <c r="G134" t="n">
-        <v>51.4647726110592</v>
+        <v>-28.77712711771044</v>
       </c>
       <c r="H134" t="n">
-        <v>120.9614060622082</v>
+        <v>-1.78511910922576</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -4608,25 +4608,25 @@
         <v>3990</v>
       </c>
       <c r="B135" t="n">
-        <v>0.06096887783558412</v>
+        <v>-0.3647035768024532</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.5531636548830398</v>
+        <v>0.9035362808415836</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.3721281507231636</v>
+        <v>0.09379572671535699</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7428414408817438</v>
+        <v>0.2044892464663951</v>
       </c>
       <c r="F135" t="n">
-        <v>-79.84932621235646</v>
+        <v>-136.33701909188</v>
       </c>
       <c r="G135" t="n">
-        <v>50.93661663184751</v>
+        <v>-25.9726576968022</v>
       </c>
       <c r="H135" t="n">
-        <v>127.1520095307614</v>
+        <v>1.296416086815794</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -4639,25 +4639,25 @@
         <v>4020</v>
       </c>
       <c r="B136" t="n">
-        <v>0.04823477740912294</v>
+        <v>-0.3612922654922968</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.5274768051890151</v>
+        <v>0.9100026746524233</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.373997463554864</v>
+        <v>0.1061719203841446</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7612933228988747</v>
+        <v>0.173466291661585</v>
       </c>
       <c r="F136" t="n">
-        <v>-75.20947637574007</v>
+        <v>-137.5571664625202</v>
       </c>
       <c r="G136" t="n">
-        <v>50.08969500079385</v>
+        <v>-23.10564668195645</v>
       </c>
       <c r="H136" t="n">
-        <v>133.1615840360493</v>
+        <v>4.23286539569825</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -4670,25 +4670,25 @@
         <v>4050</v>
       </c>
       <c r="B137" t="n">
-        <v>0.03544874672647805</v>
+        <v>-0.3574585839963978</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.501177613953051</v>
+        <v>0.9154057518830058</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.375432231565354</v>
+        <v>0.1184233516323495</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7788549448579671</v>
+        <v>0.1422377584713702</v>
       </c>
       <c r="F137" t="n">
-        <v>-70.82342263061268</v>
+        <v>-138.5951577566459</v>
       </c>
       <c r="G137" t="n">
-        <v>48.94435972292483</v>
+        <v>-20.18627715009749</v>
       </c>
       <c r="H137" t="n">
-        <v>138.9258371253965</v>
+        <v>7.045454518279739</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -4701,25 +4701,25 @@
         <v>4080</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02262576249435054</v>
+        <v>-0.353206872627718</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.4742970943631308</v>
+        <v>0.9197389450575081</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.3764308579531412</v>
+        <v>0.1305357698275671</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7955062226852173</v>
+        <v>0.1108403846464516</v>
       </c>
       <c r="F138" t="n">
-        <v>-66.7380987284544</v>
+        <v>-139.4641531087035</v>
       </c>
       <c r="G138" t="n">
-        <v>47.52554822042315</v>
+        <v>-17.22355183331331</v>
       </c>
       <c r="H138" t="n">
-        <v>144.4007482973182</v>
+        <v>9.753845047158814</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -4732,25 +4732,25 @@
         <v>4110</v>
       </c>
       <c r="B139" t="n">
-        <v>0.009780780739367953</v>
+        <v>-0.3485419837128906</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.4468668492131304</v>
+        <v>0.9229969550993435</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.3769922556614557</v>
+        <v>0.1424950944710922</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8112282012934124</v>
+        <v>0.07931112480918383</v>
       </c>
       <c r="F139" t="n">
-        <v>-62.98044777690041</v>
+        <v>-140.1752166015939</v>
       </c>
       <c r="G139" t="n">
-        <v>45.86058738068527</v>
+        <v>-14.22550456867184</v>
       </c>
       <c r="H139" t="n">
-        <v>149.5623801454145</v>
+        <v>12.37626919602833</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -4763,25 +4763,25 @@
         <v>4140</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.003071247410574651</v>
+        <v>-0.3434692768850128</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.4189190997795848</v>
+        <v>0.9251757587012922</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.3771158437063754</v>
+        <v>0.1542874311103359</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8260030240288676</v>
+        <v>0.04768710464001659</v>
       </c>
       <c r="F140" t="n">
-        <v>-59.5601697150687</v>
+        <v>-140.7374036372476</v>
       </c>
       <c r="G140" t="n">
-        <v>43.97729981694205</v>
+        <v>-11.19938905153482</v>
       </c>
       <c r="H140" t="n">
-        <v>154.4041520415707</v>
+        <v>14.92971448666865</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -4794,25 +4794,25 @@
         <v>4170</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.01591540228183216</v>
+        <v>-0.3379946135892359</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.3904866269018308</v>
+        <v>0.9262726141436649</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.3768015480869234</v>
+        <v>0.1658990869351505</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8398139600770732</v>
+        <v>0.01600557484777757</v>
       </c>
       <c r="F141" t="n">
-        <v>-56.47367330765852</v>
+        <v>-141.1578593775807</v>
       </c>
       <c r="G141" t="n">
-        <v>41.90258513163553</v>
+        <v>-8.151846970678074</v>
       </c>
       <c r="H141" t="n">
-        <v>158.9329156578564</v>
+        <v>17.4301338381821</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -4825,25 +4825,25 @@
         <v>4200</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.02873681314323537</v>
+        <v>-0.3321243508252664</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.3616027293653667</v>
+        <v>0.9262860655664464</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.3760498009422734</v>
+        <v>0.1773165860141994</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8526454180356361</v>
+        <v>-0.01569613489357181</v>
       </c>
       <c r="F142" t="n">
-        <v>-53.70818225187202</v>
+        <v>-141.4419115728828</v>
       </c>
       <c r="G142" t="n">
-        <v>39.66150688072638</v>
+        <v>-5.089058724646311</v>
       </c>
       <c r="H142" t="n">
-        <v>163.1648776396592</v>
+        <v>19.89266652865602</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4856,25 +4856,25 @@
         <v>4230</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.04152067513364505</v>
+        <v>-0.3258653340986147</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.3323011823195331</v>
+        <v>0.9252159457174779</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.3748615390882827</v>
+        <v>0.1885266842487484</v>
       </c>
       <c r="E143" t="n">
-        <v>0.8644829577717832</v>
+        <v>-0.04738066218494571</v>
       </c>
       <c r="F143" t="n">
-        <v>-51.24533570033972</v>
+        <v>-141.5931476198355</v>
       </c>
       <c r="G143" t="n">
-        <v>37.27681266896402</v>
+        <v>-2.016880359015318</v>
       </c>
       <c r="H143" t="n">
-        <v>167.1220305307578</v>
+        <v>22.33186223038824</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4887,25 +4887,25 @@
         <v>4260</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.0542522656110663</v>
+        <v>-0.3192248896172655</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.3026161958314225</v>
+        <v>0.923063377175549</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.3732382019623152</v>
+        <v>0.199516383978779</v>
       </c>
       <c r="E144" t="n">
-        <v>0.8753133006487007</v>
+        <v>-0.07901065807944609</v>
       </c>
       <c r="F144" t="n">
-        <v>-49.06400979145491</v>
+        <v>-141.6134698964817</v>
       </c>
       <c r="G144" t="n">
-        <v>34.76877672364839</v>
+        <v>1.059029456694919</v>
       </c>
       <c r="H144" t="n">
-        <v>170.829365906341</v>
+        <v>24.76190460860008</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4918,25 +4918,25 @@
         <v>4290</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.06691695992789828</v>
+        <v>-0.3122108157169637</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2725823736324758</v>
+        <v>0.9198307720578889</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.3711817290035157</v>
+        <v>0.21027294829544</v>
       </c>
       <c r="E145" t="n">
-        <v>0.8851243382219551</v>
+        <v>-0.1105488332814029</v>
       </c>
       <c r="F145" t="n">
-        <v>-47.14234455859279</v>
+        <v>-141.5031261134844</v>
       </c>
       <c r="G145" t="n">
-        <v>32.15525572911081</v>
+        <v>4.133088627652996</v>
       </c>
       <c r="H145" t="n">
-        <v>174.3128859664491</v>
+        <v>27.19683364390466</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4949,25 +4949,25 @@
         <v>4320</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.07950024659396192</v>
+        <v>-0.3048313735179771</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2422346722208193</v>
+        <v>0.9155218302023463</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.3686945565026696</v>
+        <v>0.2207839150636404</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8939051394699949</v>
+        <v>-0.1419580043226201</v>
       </c>
       <c r="F146" t="n">
-        <v>-45.4590915376034</v>
+        <v>-141.2607131803619</v>
       </c>
       <c r="G146" t="n">
-        <v>29.45186927868388</v>
+        <v>7.199673251840406</v>
       </c>
       <c r="H146" t="n">
-        <v>177.5982989777247</v>
+        <v>29.65076727731515</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4980,25 +4980,25 @@
         <v>4350</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.09198774185112793</v>
+        <v>-0.2970952768259819</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.2116083603467981</v>
+        <v>0.9101415358170409</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.3657796139519826</v>
+        <v>0.2310371106471043</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9016459566801197</v>
+        <v>-0.1732011396386551</v>
       </c>
       <c r="F147" t="n">
-        <v>-43.99443931009273</v>
+        <v>-140.8831543914573</v>
       </c>
       <c r="G147" t="n">
-        <v>26.67224141048353</v>
+        <v>10.2529979214687</v>
       </c>
       <c r="H147" t="n">
-        <v>-179.2897578547406</v>
+        <v>32.13812350682131</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -5011,25 +5011,25 @@
         <v>4380</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1043652036698124</v>
+        <v>-0.2890116812782706</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1807389789423944</v>
+        <v>0.9036961525819112</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.3624403199250228</v>
+        <v>0.2410206633484757</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9083382300918895</v>
+        <v>-0.2042414055288967</v>
       </c>
       <c r="F148" t="n">
-        <v>-42.73046739929008</v>
+        <v>-140.365650983599</v>
       </c>
       <c r="G148" t="n">
-        <v>23.82826195728877</v>
+        <v>13.28699096248733</v>
       </c>
       <c r="H148" t="n">
-        <v>-176.3281175612619</v>
+        <v>34.67384379107526</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -5042,25 +5042,25 @@
         <v>4410</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1166185451816724</v>
+        <v>-0.280590172740077</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.1496623015495713</v>
+        <v>0.8961932171794581</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.3586805775172292</v>
+        <v>0.2507230165689305</v>
       </c>
       <c r="E149" t="n">
-        <v>0.913974591400933</v>
+        <v>-0.2350422119658554</v>
       </c>
       <c r="F149" t="n">
-        <v>-41.65135206079091</v>
+        <v>-139.701610695187</v>
       </c>
       <c r="G149" t="n">
-        <v>20.9303433618053</v>
+        <v>16.29516082272641</v>
       </c>
       <c r="H149" t="n">
-        <v>-173.4952270849356</v>
+        <v>37.27361746904374</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -5073,25 +5073,25 @@
         <v>4440</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1287338475834408</v>
+        <v>-0.2718407549509857</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1184142952536314</v>
+        <v>0.8876415312197091</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.3545047693718866</v>
+        <v>0.2601329416948994</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9185488662333293</v>
+        <v>-0.2655672582355857</v>
       </c>
       <c r="F150" t="n">
-        <v>-40.74341683380209</v>
+        <v>-138.8825583060033</v>
       </c>
       <c r="G150" t="n">
-        <v>17.98766027001798</v>
+        <v>19.2704497947187</v>
       </c>
       <c r="H150" t="n">
-        <v>-170.7711270768161</v>
+        <v>39.95410466857312</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -5104,25 +5104,25 @@
         <v>4470</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1406973725296929</v>
+        <v>-0.2627738364595509</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.08703108217077384</v>
+        <v>0.8780511515555095</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.3499177523204341</v>
+        <v>0.2692395506774272</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9220560756865279</v>
+        <v>-0.2957805782592732</v>
       </c>
       <c r="F151" t="n">
-        <v>-39.99509362752551</v>
+        <v>-137.8980368170168</v>
       </c>
       <c r="G151" t="n">
-        <v>15.00836668874302</v>
+        <v>22.20507132596577</v>
       </c>
       <c r="H151" t="n">
-        <v>-168.1373321494785</v>
+        <v>42.73315141936269</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -5135,25 +5135,25 @@
         <v>4500</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.152495574082022</v>
+        <v>-0.2534002168148032</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.05554890141049407</v>
+        <v>0.8674333789153146</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.3449248516477655</v>
+        <v>0.2780323083471707</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9244924370449165</v>
+        <v>-0.3256465856982301</v>
       </c>
       <c r="F152" t="n">
-        <v>-39.39683890677425</v>
+        <v>-136.735513652275</v>
       </c>
       <c r="G152" t="n">
-        <v>11.99978995879285</v>
+        <v>25.09032753647641</v>
       </c>
       <c r="H152" t="n">
-        <v>-165.5766545075109</v>
+        <v>45.62998481322045</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -5166,25 +5166,25 @@
         <v>4530</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.164115110210771</v>
+        <v>-0.2437310720707139</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.02400407161521009</v>
+        <v>0.8558007448575609</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.3395318550165229</v>
+        <v>0.2865010444093681</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9258553637450275</v>
+        <v>-0.3551301186337846</v>
       </c>
       <c r="F153" t="n">
-        <v>-38.94103410554703</v>
+        <v>-135.380314991665</v>
       </c>
       <c r="G153" t="n">
-        <v>8.968603314099163</v>
+        <v>27.91640439833409</v>
       </c>
       <c r="H153" t="n">
-        <v>-163.0729982317178</v>
+        <v>48.66536709988115</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -5197,25 +5197,25 @@
         <v>4560</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.1755428539585403</v>
+        <v>-0.2337779328439476</v>
       </c>
       <c r="C154" t="n">
-        <v>0.00756704612143067</v>
+        <v>0.8431669882031807</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.3337450060377438</v>
+        <v>0.2946359704630412</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9261434646867369</v>
+        <v>-0.3841965031450574</v>
       </c>
       <c r="F154" t="n">
-        <v>-38.62188869316912</v>
+        <v>-133.8156230603792</v>
       </c>
       <c r="G154" t="n">
-        <v>5.920980045436535</v>
+        <v>30.67214567160955</v>
       </c>
       <c r="H154" t="n">
-        <v>-160.6111405529647</v>
+        <v>51.86167676023776</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -5228,25 +5228,25 @@
         <v>4590</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.186765904264501</v>
+        <v>-0.2235526953554034</v>
       </c>
       <c r="C155" t="n">
-        <v>0.03912808487363596</v>
+        <v>0.8295470730668468</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.3275709975136812</v>
+        <v>0.3024276697602688</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9253565429423821</v>
+        <v>-0.41281151937529</v>
       </c>
       <c r="F155" t="n">
-        <v>-38.43535718624598</v>
+        <v>-132.0225970380919</v>
       </c>
       <c r="G155" t="n">
-        <v>2.862732878530131</v>
+        <v>33.34479723271559</v>
       </c>
       <c r="H155" t="n">
-        <v>-158.1765091390045</v>
+        <v>55.24285096561131</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -5259,25 +5259,25 @@
         <v>4620</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1977715965094395</v>
+        <v>-0.2130675649124323</v>
       </c>
       <c r="C156" t="n">
-        <v>0.07064270811945898</v>
+        <v>0.8149571197313104</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.3210169643539335</v>
+        <v>0.3098671409332635</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9234955939259493</v>
+        <v>-0.4409415616058188</v>
       </c>
       <c r="F156" t="n">
-        <v>-38.37907676952749</v>
+        <v>-129.9806797497995</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.2005576559883361</v>
+        <v>35.91975781128654</v>
       </c>
       <c r="H156" t="n">
-        <v>-155.7549596379175</v>
+        <v>58.83414495302259</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -5290,25 +5290,25 @@
         <v>4650</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.2085475128530095</v>
+        <v>-0.2023350653570414</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1020746457185797</v>
+        <v>0.7994144177959193</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.3140904761505667</v>
+        <v>0.3169457865612053</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9205628030589552</v>
+        <v>-0.4685536024064613</v>
       </c>
       <c r="F157" t="n">
-        <v>-38.45232924644591</v>
+        <v>-127.6682186401624</v>
       </c>
       <c r="G157" t="n">
-        <v>-3.263422080927529</v>
+        <v>38.38031690695057</v>
       </c>
       <c r="H157" t="n">
-        <v>-153.3325547556487</v>
+        <v>62.66155914434207</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -5321,25 +5321,25 @@
         <v>4680</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2190814923881305</v>
+        <v>-0.1913680148651724</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1333877296358065</v>
+        <v>0.7829373961765114</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.3067995294176508</v>
+        <v>0.3236554289470301</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9165615429553557</v>
+        <v>-0.4956152538693919</v>
       </c>
       <c r="F158" t="n">
-        <v>-38.65602914757247</v>
+        <v>-125.0635234777168</v>
       </c>
       <c r="G158" t="n">
-        <v>-6.320384315876502</v>
+        <v>40.70743961417543</v>
       </c>
       <c r="H158" t="n">
-        <v>-150.895344462678</v>
+        <v>66.75082907373182</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -5352,25 +5352,25 @@
         <v>4710</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.2293616479797006</v>
+        <v>-0.1801795078214453</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1645459503587731</v>
+        <v>0.7655455994738065</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2991525342306467</v>
+        <v>0.3299883198869852</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9114963663778072</v>
+        <v>-0.5220948082730537</v>
       </c>
       <c r="F159" t="n">
-        <v>-38.99273876605257</v>
+        <v>-122.1465244764531</v>
       </c>
       <c r="G159" t="n">
-        <v>-9.365845847529197</v>
+        <v>42.87963861305059</v>
       </c>
       <c r="H159" t="n">
-        <v>-148.4291445035539</v>
+        <v>71.1258087083613</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -5383,25 +5383,25 @@
         <v>4740</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.239376348800055</v>
+        <v>-0.1687828962158974</v>
       </c>
       <c r="C160" t="n">
-        <v>0.195513408898895</v>
+        <v>0.7472596625579605</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.2911583265022695</v>
+        <v>0.3359371499838814</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9053730167639666</v>
+        <v>-0.5479612777555031</v>
       </c>
       <c r="F160" t="n">
-        <v>-39.46670791826512</v>
+        <v>-118.9011751899111</v>
       </c>
       <c r="G160" t="n">
-        <v>-12.39395578665971</v>
+        <v>44.87301081344047</v>
       </c>
       <c r="H160" t="n">
-        <v>-145.9193220721008</v>
+        <v>75.8061046994049</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -5414,25 +5414,25 @@
         <v>4770</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.2491142716028323</v>
+        <v>-0.157191770636803</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2262544776677931</v>
+        <v>0.7281012834299495</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.2828261283446243</v>
+        <v>0.3414950574590749</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8981984035527198</v>
+        <v>-0.5731844328335778</v>
       </c>
       <c r="F161" t="n">
-        <v>-40.08393998926625</v>
+        <v>-115.3186659405399</v>
       </c>
       <c r="G161" t="n">
-        <v>-15.39849369652565</v>
+        <v>46.66153843156313</v>
       </c>
       <c r="H161" t="n">
-        <v>-143.3505635584864</v>
+        <v>80.80389647694361</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -5445,25 +5445,25 @@
         <v>4800</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.2585643828518543</v>
+        <v>-0.1454199409199066</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2567337522769297</v>
+        <v>0.7080931944105306</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.2741655590897519</v>
+        <v>0.3466556364328676</v>
       </c>
       <c r="E162" t="n">
-        <v>0.8899806102220719</v>
+        <v>-0.5977348396585771</v>
       </c>
       <c r="F162" t="n">
-        <v>-40.85227572048348</v>
+        <v>-111.4013246841259</v>
       </c>
       <c r="G162" t="n">
-        <v>-18.37272054604869</v>
+        <v>48.21776777843598</v>
       </c>
       <c r="H162" t="n">
-        <v>-140.7066589837789</v>
+        <v>86.12006588387722</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -5476,25 +5476,25 @@
         <v>4830</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.2677159556005986</v>
+        <v>-0.133481416485113</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2869161080999384</v>
+        <v>0.687259131662654</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.2651866205989212</v>
+        <v>0.3514129446566817</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8807288858013951</v>
+        <v>-0.6215838959683099</v>
       </c>
       <c r="F163" t="n">
-        <v>-41.78149074346608</v>
+        <v>-107.1667590035863</v>
       </c>
       <c r="G163" t="n">
-        <v>-21.30922469838211</v>
+        <v>49.5139637264239</v>
       </c>
       <c r="H163" t="n">
-        <v>-137.970283135314</v>
+        <v>91.74008318296868</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -5507,25 +5507,25 @@
         <v>4860</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.2765585794400896</v>
+        <v>-0.1213903864774658</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3167667360712123</v>
+        <v>0.6656238032043799</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.2558996871263461</v>
+        <v>0.3557615106438392</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8704536387341423</v>
+        <v>-0.6447038655250967</v>
       </c>
       <c r="F164" t="n">
-        <v>-42.8833936562818</v>
+        <v>-102.6513757595562</v>
       </c>
       <c r="G164" t="n">
-        <v>-24.19974712439556</v>
+        <v>50.52377179017193</v>
       </c>
       <c r="H164" t="n">
-        <v>-135.1227930373517</v>
+        <v>97.63051337029889</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -5538,25 +5538,25 @@
         <v>4890</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.2850821704733088</v>
+        <v>0.1091611997235388</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3462511785821091</v>
+        <v>-0.6432128553991925</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2463154947437191</v>
+        <v>-0.3596963401966998</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8591664300110221</v>
+        <v>0.667067911065459</v>
       </c>
       <c r="F165" t="n">
-        <v>-44.17190528227139</v>
+        <v>-97.91206395537195</v>
       </c>
       <c r="G165" t="n">
-        <v>-27.03498496991028</v>
+        <v>51.22429054630697</v>
       </c>
       <c r="H165" t="n">
-        <v>-132.1440576045149</v>
+        <v>103.7373576644916</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -5569,25 +5569,25 @@
         <v>4920</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.2932769813773122</v>
+        <v>0.09680834462607242</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3753353656707577</v>
+        <v>-0.6200528381104092</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2364451302530179</v>
+        <v>-0.3632129222838352</v>
       </c>
       <c r="E166" t="n">
-        <v>0.8468799654323177</v>
+        <v>0.688650125570324</v>
       </c>
       <c r="F166" t="n">
-        <v>-45.66308838534394</v>
+        <v>-93.02481927901415</v>
       </c>
       <c r="G166" t="n">
-        <v>-29.80437198496196</v>
+        <v>51.59828330380486</v>
       </c>
       <c r="H166" t="n">
-        <v>-129.0123483564464</v>
+        <v>109.9874520862506</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -5600,25 +5600,25 @@
         <v>4950</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3011336115104848</v>
+        <v>0.08434642903482521</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4039856513688906</v>
+        <v>-0.5961711685686661</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.2263000196121421</v>
+        <v>-0.366307234259903</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8336080869510861</v>
+        <v>0.7094255618494478</v>
       </c>
       <c r="F167" t="n">
-        <v>-47.37508104418631</v>
+        <v>-88.07967863233937</v>
       </c>
       <c r="G167" t="n">
-        <v>-32.4958369904991</v>
+        <v>51.63610495263038</v>
       </c>
       <c r="H167" t="n">
-        <v>-125.7043363810229</v>
+        <v>116.293555177085</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -5631,25 +5631,25 @@
         <v>4980</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.3086430170789703</v>
+        <v>0.07179016018292773</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4321688502630712</v>
+        <v>-0.5715960941003669</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.2158919158383407</v>
+        <v>-0.3689757464047339</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8193657629815493</v>
+        <v>0.7293702603446233</v>
       </c>
       <c r="F168" t="n">
-        <v>-49.32786501201526</v>
+        <v>-83.17248530131991</v>
       </c>
       <c r="G168" t="n">
-        <v>-35.09554635718093</v>
+        <v>51.33688255274585</v>
       </c>
       <c r="H168" t="n">
-        <v>-122.1952628003696</v>
+        <v>122.5626045369567</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -5662,25 +5662,25 @@
         <v>5010</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.3157965213559789</v>
+        <v>0.05915432474333775</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4598522742765627</v>
+        <v>-0.5463566538104897</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.2052328863643657</v>
+        <v>-0.3712154257731258</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8041690775556388</v>
+        <v>0.7484612751300107</v>
       </c>
       <c r="F169" t="n">
-        <v>-51.54277277760624</v>
+        <v>-78.39523789987801</v>
       </c>
       <c r="G169" t="n">
-        <v>-37.58764436880427</v>
+        <v>50.70862980945356</v>
       </c>
       <c r="H169" t="n">
-        <v>-118.4593777914486</v>
+        <v>128.7053893733723</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -5693,25 +5693,25 @@
         <v>5040</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.3225858249032347</v>
+        <v>0.04645376911035275</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4870037695178154</v>
+        <v>-0.5204826394212076</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1943352998818519</v>
+        <v>-0.373023739340354</v>
       </c>
       <c r="E170" t="n">
-        <v>0.7880352182908889</v>
+        <v>0.7666766980188683</v>
       </c>
       <c r="F170" t="n">
-        <v>-54.04160646040859</v>
+        <v>-73.82738345580691</v>
       </c>
       <c r="G170" t="n">
-        <v>-39.95401755776329</v>
+        <v>49.76726260844105</v>
       </c>
       <c r="H170" t="n">
-        <v>-114.470773966785</v>
+        <v>134.645279007988</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -5724,25 +5724,25 @@
         <v>5070</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.3290030158060951</v>
+        <v>0.0337033799265456</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5135917532834023</v>
+        <v>-0.4940045553121529</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1832118126169612</v>
+        <v>-0.3743986564507397</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7709824630089731</v>
+        <v>0.7839956808300986</v>
       </c>
       <c r="F171" t="n">
-        <v>-56.8452164033025</v>
+        <v>-69.53000661625607</v>
       </c>
       <c r="G171" t="n">
-        <v>-42.17412666457739</v>
+        <v>48.53478562202891</v>
       </c>
       <c r="H171" t="n">
-        <v>-110.2047653179224</v>
+        <v>140.3240556889915</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -5755,25 +5755,25 @@
         <v>5100</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.3350405798771592</v>
+        <v>0.02091806496131255</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5395852511096461</v>
+        <v>-0.4669535779875655</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1718753540500156</v>
+        <v>-0.3753386505638886</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7530301649274741</v>
+        <v>0.8003984557429905</v>
       </c>
       <c r="F172" t="n">
-        <v>-59.97138488562202</v>
+        <v>-65.54370814155634</v>
       </c>
       <c r="G172" t="n">
-        <v>-44.22497257190957</v>
+        <v>47.03709789790112</v>
       </c>
       <c r="H172" t="n">
-        <v>-105.6399654972236</v>
+        <v>145.7040588660479</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -5786,25 +5786,25 @@
         <v>5130</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.3406914107634142</v>
+        <v>0.008112734361425473</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5649539336766773</v>
+        <v>-0.4393615150337313</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1603391121374761</v>
+        <v>-0.3758427003121116</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7341987364292102</v>
+        <v>0.8158663538046813</v>
       </c>
       <c r="F173" t="n">
-        <v>-63.43191099044581</v>
+        <v>-61.88974339584483</v>
       </c>
       <c r="G173" t="n">
-        <v>-46.08128749952728</v>
+        <v>45.30186184738267</v>
       </c>
       <c r="H173" t="n">
-        <v>-100.7611687104751</v>
+        <v>150.7670705707355</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -5817,25 +5817,25 @@
         <v>5160</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.3459488199636187</v>
+        <v>-0.004697717632011357</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5896681536805065</v>
+        <v>-0.4112607637932859</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1486165179625075</v>
+        <v>-0.3759102898780997</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7145096312083568</v>
+        <v>0.8303818215598028</v>
       </c>
       <c r="F174" t="n">
-        <v>-67.22893721611202</v>
+        <v>-58.57326772033186</v>
       </c>
       <c r="G174" t="n">
-        <v>-47.71606176832719</v>
+        <v>43.35674278902831</v>
       </c>
       <c r="H174" t="n">
-        <v>-95.56299200679162</v>
+        <v>155.5110953843417</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -5848,25 +5848,25 @@
         <v>5190</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.3508065466710731</v>
+        <v>-0.01749843049578116</v>
       </c>
       <c r="C175" t="n">
-        <v>0.613698982416604</v>
+        <v>-0.3826842698051572</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1367212298981071</v>
+        <v>-0.375541408714414</v>
       </c>
       <c r="E175" t="n">
-        <v>0.6939853248366927</v>
+        <v>0.8439284358964753</v>
       </c>
       <c r="F175" t="n">
-        <v>-71.35083198765732</v>
+        <v>-55.58743421415227</v>
       </c>
       <c r="G175" t="n">
-        <v>-49.10151402912231</v>
+        <v>41.22814964062619</v>
       </c>
       <c r="H175" t="n">
-        <v>-90.05396427977125</v>
+        <v>159.9462898784582</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -5879,25 +5879,25 @@
         <v>5220</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.3552587674093072</v>
+        <v>-0.03027460326307126</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6370182460406923</v>
+        <v>-0.3536654655813721</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1246671172767772</v>
+        <v>-0.3747365499384597</v>
       </c>
       <c r="E176" t="n">
-        <v>0.6726492936590049</v>
+        <v>0.8564909252248941</v>
       </c>
       <c r="F176" t="n">
-        <v>-75.76833484467311</v>
+        <v>-52.91739255226014</v>
       </c>
       <c r="G176" t="n">
-        <v>-50.21056774958989</v>
+        <v>38.94046434945713</v>
       </c>
       <c r="H176" t="n">
-        <v>-84.26035472087051</v>
+        <v>164.0909943439061</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -5910,25 +5910,25 @@
         <v>5250</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.3593001054007175</v>
+        <v>-0.04301147699030886</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6595985613555146</v>
+        <v>-0.3242383071840821</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1124682436164722</v>
+        <v>-0.3734967112524264</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6505259920207603</v>
+        <v>0.8680551478363197</v>
       </c>
       <c r="F177" t="n">
-        <v>-80.4320706889786</v>
+        <v>-50.54367070943454</v>
       </c>
       <c r="G177" t="n">
-        <v>-51.0187908856615</v>
+        <v>36.51567997748609</v>
       </c>
       <c r="H177" t="n">
-        <v>-78.22863391444486</v>
+        <v>167.9683794731998</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -5941,25 +5941,25 @@
         <v>5280</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.3629256396304539</v>
+        <v>-0.0556944023251416</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6814133710906972</v>
+        <v>-0.2944371160262577</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1001388493953078</v>
+        <v>-0.371823389588159</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6276408277346378</v>
+        <v>0.8786081522561452</v>
       </c>
       <c r="F178" t="n">
-        <v>-85.27270465002888</v>
+        <v>-48.44473413633479</v>
       </c>
       <c r="G178" t="n">
-        <v>-51.50659377595767</v>
+        <v>33.9733107085797</v>
       </c>
       <c r="H178" t="n">
-        <v>-72.02529562113912</v>
+        <v>171.6039288917062</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -5972,25 +5972,25 @@
         <v>5310</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.3661309135275023</v>
+        <v>-0.06830882077327505</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7024369784261583</v>
+        <v>-0.2642966152761663</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0876933344865239</v>
+        <v>-0.3697185803033251</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6040201359107826</v>
+        <v>0.8881381511547741</v>
       </c>
       <c r="F179" t="n">
-        <v>-90.20465320412107</v>
+        <v>-46.59879498534783</v>
       </c>
       <c r="G179" t="n">
-        <v>-51.66131020877516</v>
+        <v>31.33050044039752</v>
       </c>
       <c r="H179" t="n">
-        <v>-65.73312326093694</v>
+        <v>175.0236658207498</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -6003,25 +6003,25 @@
         <v>5340</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.3689119432368533</v>
+        <v>-0.08084028822813905</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7226445807894084</v>
+        <v>-0.233851869769689</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.07514624022079461</v>
+        <v>-0.3671847735972005</v>
       </c>
       <c r="E180" t="n">
-        <v>0.5796911510223248</v>
+        <v>0.8966345369451171</v>
       </c>
       <c r="F180" t="n">
-        <v>-95.13329101131652</v>
+        <v>-44.98497976235542</v>
       </c>
       <c r="G180" t="n">
-        <v>-51.47869695063915</v>
+        <v>28.6022262394417</v>
       </c>
       <c r="H180" t="n">
-        <v>-59.44396128404767</v>
+        <v>178.2530310163503</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -6034,25 +6034,25 @@
         <v>5370</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.3712652254133428</v>
+        <v>-0.09327448937669043</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7420123027143266</v>
+        <v>-0.2031382455530106</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.06251223117796596</v>
+        <v>-0.364224950821358</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5546819773280135</v>
+        <v>0.9040878873341583</v>
       </c>
       <c r="F181" t="n">
-        <v>-99.96431672421053</v>
+        <v>-43.58402528046595</v>
       </c>
       <c r="G181" t="n">
-        <v>-50.96346079756408</v>
+        <v>25.80154948770073</v>
       </c>
       <c r="H181" t="n">
-        <v>-53.24932785617166</v>
+        <v>-178.6837629274285</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -6065,25 +6065,25 @@
         <v>5400</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.3731877456388806</v>
+        <v>-0.1055972514833773</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7605172397993937</v>
+        <v>-0.1721913700083931</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.04980606820283444</v>
+        <v>-0.3608425803379897</v>
       </c>
       <c r="E182" t="n">
-        <v>0.5290215402448717</v>
+        <v>0.9104899696255914</v>
       </c>
       <c r="F182" t="n">
-        <v>-104.6130417320147</v>
+        <v>-42.37864432880332</v>
       </c>
       <c r="G182" t="n">
-        <v>-50.1286652123368</v>
+        <v>22.93987780153181</v>
       </c>
       <c r="H182" t="n">
-        <v>-47.2311036529854</v>
+        <v>-175.764040371553</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -6096,25 +6096,25 @@
         <v>5430</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.3746769802614489</v>
+        <v>-0.1177945576677661</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7781374403802462</v>
+        <v>-0.1410470923738192</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.03704262390903097</v>
+        <v>-0.3570416129363448</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5027396228213713</v>
+        <v>0.9158337439451333</v>
       </c>
       <c r="F183" t="n">
-        <v>-109.0113791563241</v>
+        <v>-41.35367505398204</v>
       </c>
       <c r="G183" t="n">
-        <v>-48.99418651140657</v>
+        <v>20.02721746946228</v>
       </c>
       <c r="H183" t="n">
-        <v>-41.45452464627538</v>
+        <v>-172.9667473733062</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -6127,25 +6127,25 @@
         <v>5460</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.3757309102307035</v>
+        <v>-0.129852559635024</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7948520095288591</v>
+        <v>-0.1097414448459852</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.02423681278266073</v>
+        <v>-0.3528264768474937</v>
       </c>
       <c r="E184" t="n">
-        <v>0.475866728140642</v>
+        <v>0.9201133654472872</v>
       </c>
       <c r="F184" t="n">
-        <v>-113.1113246000027</v>
+        <v>-40.49609801672219</v>
       </c>
       <c r="G184" t="n">
-        <v>-47.58461157995612</v>
+        <v>17.07240643106532</v>
       </c>
       <c r="H184" t="n">
-        <v>-35.9646732702468</v>
+        <v>-170.2723950417818</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
@@ -6158,25 +6158,25 @@
         <v>5490</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.3763480210987608</v>
+        <v>-0.1417575899239195</v>
       </c>
       <c r="C185" t="n">
-        <v>0.8106410870185924</v>
+        <v>-0.07831060420025436</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.01140360641673512</v>
+        <v>-0.3482020723750072</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4484341120087253</v>
+        <v>0.9233241856263179</v>
       </c>
       <c r="F185" t="n">
-        <v>-116.8848860951076</v>
+        <v>-39.79497950232715</v>
       </c>
       <c r="G185" t="n">
-        <v>-45.92705135219918</v>
+        <v>14.08332421987425</v>
       </c>
       <c r="H185" t="n">
-        <v>-30.78652854030491</v>
+        <v>-167.6629185848811</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -6189,25 +6189,25 @@
         <v>5520</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.3765273092241549</v>
+        <v>-0.1534961737172686</v>
       </c>
       <c r="C186" t="n">
-        <v>0.8254858868717679</v>
+        <v>-0.04679085390264955</v>
       </c>
       <c r="D186" t="n">
-        <v>0.001441993834601304</v>
+        <v>-0.343173766157513</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4204737288318136</v>
+        <v>0.9254627528250327</v>
       </c>
       <c r="F186" t="n">
-        <v>-120.3214700715534</v>
+        <v>-39.24138031479009</v>
       </c>
       <c r="G186" t="n">
-        <v>-44.04922752027814</v>
+        <v>11.06707906876924</v>
       </c>
       <c r="H186" t="n">
-        <v>-25.92755417402056</v>
+        <v>-165.1214895690524</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -6220,25 +6220,25 @@
         <v>5550</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.3762682858305077</v>
+        <v>-0.1650550402350408</v>
       </c>
       <c r="C187" t="n">
-        <v>0.8393687227268214</v>
+        <v>-0.01521854675213003</v>
       </c>
       <c r="D187" t="n">
-        <v>0.01428497564048505</v>
+        <v>-0.3377473850873569</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3920181932730505</v>
+        <v>0.9265268120213332</v>
       </c>
       <c r="F187" t="n">
-        <v>-123.4239782366907</v>
+        <v>-38.82825543334408</v>
       </c>
       <c r="G187" t="n">
-        <v>-41.97802905866828</v>
+        <v>8.030174438510477</v>
       </c>
       <c r="H187" t="n">
-        <v>-21.38157493053773</v>
+        <v>-162.6323048467742</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -6251,25 +6251,25 @@
         <v>5580</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.3755709803321026</v>
+        <v>-0.176421133789255</v>
       </c>
       <c r="C188" t="n">
-        <v>0.8522730317277301</v>
+        <v>0.01636993206897832</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02711033441208986</v>
+        <v>-0.3319292098833386</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3631007406906129</v>
+        <v>0.9265153039765688</v>
       </c>
       <c r="F188" t="n">
-        <v>-126.2047023113106</v>
+        <v>-38.55036043008747</v>
       </c>
       <c r="G188" t="n">
-        <v>-39.73857266724738</v>
+        <v>4.978658226942482</v>
       </c>
       <c r="H188" t="n">
-        <v>-17.13285286234106</v>
+        <v>-160.1803659016329</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -6282,25 +6282,25 @@
         <v>5610</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.3744359429051726</v>
+        <v>-0.1875816245255479</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8641833968406097</v>
+        <v>0.04793820152254117</v>
       </c>
       <c r="D189" t="n">
-        <v>0.03990309186852198</v>
+        <v>-0.3257259683323679</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3337551865440772</v>
+        <v>0.9254283638019108</v>
       </c>
       <c r="F189" t="n">
-        <v>-128.6816950054561</v>
+        <v>-38.4041742889126</v>
       </c>
       <c r="G189" t="n">
-        <v>-37.35370002129889</v>
+        <v>1.91825834760687</v>
       </c>
       <c r="H189" t="n">
-        <v>-13.15968460977137</v>
+        <v>-157.7512559254019</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -6313,25 +6313,25 @@
         <v>5640</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.372864246292699</v>
+        <v>-0.19852391890225</v>
       </c>
       <c r="C190" t="n">
-        <v>0.87508556757407</v>
+        <v>0.07944992087888944</v>
       </c>
       <c r="D190" t="n">
-        <v>0.05264831441218557</v>
+        <v>-0.3191448282029017</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3040158848640987</v>
+        <v>0.9232673189967092</v>
       </c>
       <c r="F190" t="n">
-        <v>-130.8759089101161</v>
+        <v>-38.38784423544545</v>
       </c>
       <c r="G190" t="n">
-        <v>-34.84380297567204</v>
+        <v>-1.145491528800103</v>
       </c>
       <c r="H190" t="n">
-        <v>-9.43722750810683</v>
+        <v>-155.3309177957318</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -6344,25 +6344,25 @@
         <v>5670</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.3708574868274312</v>
+        <v>-0.2092356699789264</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8849664791113384</v>
+        <v>0.1108688256477447</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0653311313134211</v>
+        <v>-0.312193389813868</v>
       </c>
       <c r="E191" t="n">
-        <v>0.273917685801102</v>
+        <v>0.9200346869898364</v>
       </c>
       <c r="F191" t="n">
-        <v>-132.8091304719723</v>
+        <v>-38.50115562793395</v>
       </c>
       <c r="G191" t="n">
-        <v>-32.22686740180718</v>
+        <v>-4.207132303652021</v>
       </c>
       <c r="H191" t="n">
-        <v>-5.939526705646877</v>
+        <v>-152.9054335931236</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -6375,25 +6375,25 @@
         <v>5700</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.3684177846697366</v>
+        <v>-0.2197047875310727</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8938142697889667</v>
+        <v>0.1421587632579872</v>
       </c>
       <c r="D192" t="n">
-        <v>0.07793675261934108</v>
+        <v>-0.3048796782686832</v>
       </c>
       <c r="E192" t="n">
-        <v>0.2434958924742091</v>
+        <v>0.9157341722048327</v>
       </c>
       <c r="F192" t="n">
-        <v>-134.5025992594874</v>
+        <v>-38.74552828669039</v>
       </c>
       <c r="G192" t="n">
-        <v>-29.51864604654381</v>
+        <v>-7.261162119463423</v>
       </c>
       <c r="H192" t="n">
-        <v>-2.640852369589104</v>
+        <v>-150.4608049331704</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -6406,25 +6406,25 @@
         <v>5730</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.3655477832543281</v>
+        <v>-0.2299194480672115</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9016182969458093</v>
+        <v>0.1732837286471104</v>
       </c>
       <c r="D193" t="n">
-        <v>0.09045048678929446</v>
+        <v>-0.2972121353242242</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2127862171522506</v>
+        <v>0.9103706626438698</v>
       </c>
       <c r="F193" t="n">
-        <v>-135.9761568568781</v>
+        <v>-39.12403940033514</v>
       </c>
       <c r="G193" t="n">
-        <v>-26.73289570546364</v>
+        <v>-10.30191768240755</v>
       </c>
       <c r="H193" t="n">
-        <v>0.4834981889481129</v>
+        <v>-147.9827328841155</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -6437,25 +6437,25 @@
         <v>5760</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.3622506479460271</v>
+        <v>-0.2398681047583135</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9083691511339321</v>
+        <v>0.2042078997384965</v>
       </c>
       <c r="D194" t="n">
-        <v>0.102857758022914</v>
+        <v>-0.2891996109006033</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1818247368907837</v>
+        <v>0.9039502259853618</v>
       </c>
       <c r="F194" t="n">
-        <v>-137.2477744617841</v>
+        <v>-39.64147195600442</v>
       </c>
       <c r="G194" t="n">
-        <v>-23.88163640222831</v>
+        <v>-13.32345051994292</v>
       </c>
       <c r="H194" t="n">
-        <v>3.456783499956584</v>
+        <v>-145.4563965439835</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -6468,25 +6468,25 @@
         <v>5790</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.358530063898633</v>
+        <v>-0.2495394973467171</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9140586687125704</v>
+        <v>0.2348956729624849</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1151441232881113</v>
+        <v>-0.2808513541938356</v>
       </c>
       <c r="E195" t="n">
-        <v>0.1506478486552585</v>
+        <v>0.8964801051528907</v>
       </c>
       <c r="F195" t="n">
-        <v>-138.3333343263395</v>
+        <v>-40.30438612114421</v>
       </c>
       <c r="G195" t="n">
-        <v>-20.97540741817719</v>
+        <v>-16.3193944278846</v>
       </c>
       <c r="H195" t="n">
-        <v>6.300662273849039</v>
+        <v>-142.8662304677441</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -6499,25 +6499,25 @@
         <v>5820</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3543902331309819</v>
+        <v>-0.2589226620455194</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9186799428114252</v>
+        <v>0.2653116988196554</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1272952889900723</v>
+        <v>-0.2721770043865693</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1192922241317469</v>
+        <v>0.8879687133181234</v>
       </c>
       <c r="F196" t="n">
-        <v>-139.2465707237315</v>
+        <v>-41.12120872386102</v>
       </c>
       <c r="G196" t="n">
-        <v>-18.02350693563612</v>
+        <v>-19.28282031381223</v>
       </c>
       <c r="H196" t="n">
-        <v>9.035206039480133</v>
+        <v>-140.1957033395952</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -6530,25 +6530,25 @@
         <v>5850</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.3498358708071039</v>
+        <v>-0.2680069414613797</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9222273327116184</v>
+        <v>0.2954209175583673</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1392971273345737</v>
+        <v>-0.2631865809323342</v>
       </c>
       <c r="E197" t="n">
-        <v>0.08779476415245294</v>
+        <v>0.8784256282774524</v>
       </c>
       <c r="F197" t="n">
-        <v>-139.9991034059962</v>
+        <v>-42.10233239975884</v>
       </c>
       <c r="G197" t="n">
-        <v>-15.03420969530683</v>
+        <v>-22.20607471837113</v>
       </c>
       <c r="H197" t="n">
-        <v>11.67901451232018</v>
+        <v>-137.4271039433605</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -6561,25 +6561,25 @@
         <v>5880</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.3448722007397206</v>
+        <v>-0.2767819945688017</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9246964716354917</v>
+        <v>0.3251885950361495</v>
       </c>
       <c r="D198" t="n">
-        <v>0.151135692328343</v>
+        <v>-0.2538904733838047</v>
       </c>
       <c r="E198" t="n">
-        <v>0.05619255294295174</v>
+        <v>0.8678615861218184</v>
       </c>
       <c r="F198" t="n">
-        <v>-140.6005179846921</v>
+        <v>-43.26021038471055</v>
       </c>
       <c r="G198" t="n">
-        <v>-12.01496171222377</v>
+        <v>-25.08059861566836</v>
       </c>
       <c r="H198" t="n">
-        <v>14.24938978145041</v>
+        <v>-134.5413462463265</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -6592,25 +6592,25 @@
         <v>5910</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.3395049501075004</v>
+        <v>-0.2852378123027335</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9260842729814257</v>
+        <v>0.3545803783492121</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1627972354601144</v>
+        <v>-0.2442994242213187</v>
       </c>
       <c r="E199" t="n">
-        <v>0.02452281214525894</v>
+        <v>0.8562884660250961</v>
       </c>
       <c r="F199" t="n">
-        <v>-141.0584633758891</v>
+        <v>-44.60942538370511</v>
       </c>
       <c r="G199" t="n">
-        <v>-8.972553669736989</v>
+        <v>-27.89672577987174</v>
       </c>
       <c r="H199" t="n">
-        <v>16.76254134772593</v>
+        <v>-131.5178120709961</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -6623,25 +6623,25 @@
         <v>5940</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.3337403433989112</v>
+        <v>-0.2933647051681684</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9263889350102817</v>
+        <v>0.3835622534435539</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1742682210399009</v>
+        <v>-0.2344245436647851</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.007177145259843709</v>
+        <v>0.8437193140034509</v>
       </c>
       <c r="F200" t="n">
-        <v>-141.3787473573975</v>
+        <v>-46.16669170986463</v>
       </c>
       <c r="G200" t="n">
-        <v>-5.913275967277465</v>
+        <v>-30.64344861632852</v>
       </c>
       <c r="H200" t="n">
-        <v>19.23380516177022</v>
+        <v>-128.3342770622474</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -6654,25 +6654,25 @@
         <v>5970</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.3275850955815817</v>
+        <v>-0.3011533474421432</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9256099440019131</v>
+        <v>0.4121006999208347</v>
       </c>
       <c r="D201" t="n">
-        <v>0.185535341216401</v>
+        <v>-0.2242772594185702</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.03886996111774505</v>
+        <v>0.8301682873712083</v>
       </c>
       <c r="F201" t="n">
-        <v>-141.5654185909586</v>
+        <v>-47.9507516790616</v>
       </c>
       <c r="G201" t="n">
-        <v>-2.843058992291631</v>
+        <v>-33.3081821119757</v>
       </c>
       <c r="H201" t="n">
-        <v>21.67786731859805</v>
+        <v>-124.966940654243</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
